--- a/finetuning/it_datasets/qa_dataset/qa_it_hammam-lif_dataset.xlsx
+++ b/finetuning/it_datasets/qa_dataset/qa_it_hammam-lif_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA99"/>
+  <dimension ref="A1:AB99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,12 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>choices</t>
         </is>
       </c>
     </row>
@@ -671,14 +676,70 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Let's Waffle located at 8 Av. Habib Bourguiba, Hammam-Lif 2050. 
-This top-rated destination is perfect for Magasin de the aux perles lovers and offers a range of categories to choose from, including Magasin de the aux perles, Boutique de desserts, Restaurant, Boutique de boissons sans alcool . 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 10:00-21:30, but closed on Tuesday. To get there, use these GPS coordinates: 36.749742807238, 10.31095410246. For more details, visit their website  at https://www.facebook.com/profile.php%3Fid%3D100090508456915 or call them at 26 085 503.</t>
+          <t>Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Where in Hammam-Lif can you find a top-rated spot that specializes in Magasin de the aux perles and offers a variety of categories to choose from?</t>
+          <t>Day Plan:
+Morning: Exploring Hammam-Lif Municipality
+Mid-Morning: Trying local cuisine at Cafe-Restaurant L' Opera
+Midday: Visiting Memorial Aux Victimes D'Octobre 1985
+Afternoon: Enjoying scenic views at Plage
+Evening: Relaxing with a spa treatment at Larym
+Night: Experiencing cultural immersion at Bianco Nero</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.
+The Lab Cofee, located at Rue Habib Bougatfa in Hammam-Lif (36.732938113011, 10.334654269469), is a popular cafe among locals. Open from 7 AM to 11 PM daily, The Lab Cofee has received an excellent rating of 4.9 based on 8 reviews. Despite not having a website or social media presence, the cafe's phone number is 58 753 651, and you can visit them during their regular business hours to enjoy a cup of their finest coffee.
+Cafe-Restaurant 59, located in Hammam-Lif, Tunisia (36.7255857, 10.3437438), offers a delightful dining experience specializing in delectable pizzas. Open 24 hours a day, this pizzeria welcomes guests at any time, providing a convenient option for those seeking a satisfying meal. Despite lacking a website, Cafe-Restaurant 59 garners positive reviews, boasting a 4.0 rating from 10 satisfied customers. Its featured image showcases an inviting ambiance, while its main category, Pizzeria, accurately reflects the establishment's culinary focus.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+by'r lby offers a range of services to meet the needs of its customers. It has 13 reviews and a rating of 3.1. Located at (36.7255857, 10.3437438) in the city of hammam-lif, by'r lby is easily accessible.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It offers a wide range of products and services, including food, clothing, and electronics. The market is located on P8FP+834 in Hammam-Lif and is open daily from 8am to 8pm.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It's dedicated to the victims of the October 1985 terrorist attack. The museum offers a unique opportunity to learn about this tragic event and its impact on the community. It's a place of remembrance and reflection, and a reminder of the importance of peace and reconciliation. It's a must-visit for anyone interested in the history of Tunisia and the fight against terrorism.
+Parc National Boukornine is a protected area in Tunisia, set up in 1987 around the Boukornine mountain. The park offers many hiking trails, and is home to wildlife such as orchids, chacals, and wild cats. Reviews emphasize its natural beauty, with a focus on its mountain scenery and wildlife. It is located at M96M+99H Parc National Boukornine, A1, Hammam-Lif, Tunisia and can be reached by phone at 58 905 502.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+**ljbl l'khDr ltqTyr lnbtt**
+This natural food store is located in Hammam-Lif, Tunisia. It offers a variety of healthy and organic products, and is open from 9am to 6pm. It is highly recommended by its customers, who praise its quality products and friendly staff.
+Restaurant TAHRICHA tHrysh@ is a well-rated restaurant in Hammam-Lif, Tunisia, with a 4.0 rating based on 33 reviews. It offers a cozy atmosphere and serves delicious food. Located at 36.7255857 latitude and 10.3437438 longitude, it's open from 9:00 AM to midnight, except for special occasions.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+TotalEnergies HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia, at the coordinates (36.7287, 10.333). The gas station is open 24 hours a day and offers a wide range of services, including fuel, car wash, and oil change. TotalEnergies HAMMAM LIF also has a convenience store that sells snacks, drinks, and other items.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -780,12 +841,70 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>Cafe Rossignol, a top-rated spot at P8MP+8V2, Hammam-Lif, is a must-visit destination for Cafe lovers. With an impressive 4.0 rating, it offers a welcoming ambiance and a range of delectable coffee and tea options. It operates daily from 06:00 AM to 12:00 AM, offering a convenient time for you to enjoy your favorite brews. For more information, you can reach out to Cafe Rossignol directly at the provided address or via their website.</t>
+          <t>Cafe Rossignol is a popular cafe located in Hammam-Lif, Tunisia. It offers a pleasant atmosphere to relax or work. Visit it to appreciate its food and coffee items. It is open for long hours.</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated cafe in Hammam-Lif with an extended operating schedule, making it a perfect spot for a coffee or tea break anytime of the day?</t>
+          <t>Day Plan:
+Morning: Start your day with a visit to Parc National Boukornine, where you can explore its scenic hiking trails and admire its diverse ecosystem.
+Mid-Morning: Immerse yourself in the local culture at Larym, a renowned beauty institute offering traditional spa and hammam treatments.
+Midday: Savor the local flavors at Saddi Uno, a highly-rated restaurant specializing in Tunisian cuisine.
+Afternoon: Spend the afternoon relaxing at Plage, a beach pavilion where you can enjoy sunbathing, swimming, or simply taking in the stunning views of the Mediterranean Sea.
+Evening: Enhance your cultural experience at the Memorial Aux Victimes D'Octobre 1985, which commemorates the victims of a tragic terrorist attack.
+Night: Enjoy an authentic Tunisian dinner at Restaurant Erray, known for its delicious food and friendly service.</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.
+Club 55, nestled in Hammam-Lif, invites you to unwind 24/7. At the coordinates (36.7188867, 10.3543151), indulge in the cozy ambiance and delectable offerings of this Cafe.
+Chefchouf, located in Hammam-Lif, offers mouthwatering pizzas, as evidenced by its 4.8 rating based on 6 reviews. The pizzeria is open daily from 9am to 1pm and from 5pm to 10pm, except on Mondays. Chefchouf is easily accessible at Rue docteur calmet, with coordinates (36.7188867, 10.3543151).
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Arret du Stade, a bus stop located in Hammam-Lif, Tunisia, at the coordinates (36.732743558019, 10.322633566116).
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It offers a wide range of products and services, including food, clothing, and electronics. The market is located on P8FP+834 in Hammam-Lif and is open daily from 8am to 8pm.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It's dedicated to the victims of the October 1985 terrorist attack. The museum offers a unique opportunity to learn about this tragic event and its impact on the community. It's a place of remembrance and reflection, and a reminder of the importance of peace and reconciliation. It's a must-visit for anyone interested in the history of Tunisia and the fight against terrorism.
+Nestled around Mount Boukornine, Parc National Boukornine is a protected haven offering picturesque hiking trails amidst nature's splendor. Located in Hammam-Lif, it boasts a diverse ecosystem with vibrant orchids, elusive chacals, and graceful wildcats. With its stunning mountain backdrop and a rich cultural heritage dating back to 1987, this park invites nature enthusiasts to explore its wonders while embracing its historical significance.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+**ljbl l'khDr ltqTyr lnbtt**
+This natural food store is located in Hammam-Lif, Tunisia. It offers a variety of healthy and organic products, and is open from 9am to 6pm. It is highly recommended by its customers, who praise its quality products and friendly staff.
+Saddi Uno is a restaurant located in Hammam-Lif, Tunisia. It offers a variety of dishes and has a rating of 4.3 out of 5 stars. The restaurant is open from 11:00am to 12:00am and is closed on Mondays. It is a great place to go for a meal with friends or family.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Restaurant Metro is a fast-food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast-food options, including burgers, sandwiches, and pizzas. The restaurant is open from 11:00 AM to 12:00 AM, seven days a week. It is located at 002, Av Habib Bourguiba, +2+, Hammam-Lif 2050. The restaurant has a rating of 4.4 stars on Google Maps, based on 14 reviews.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+TotalEnergies HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia, at the coordinates (36.7287, 10.333). The gas station is open 24 hours a day and offers a wide range of services, including fuel, car wash, and oil change. TotalEnergies HAMMAM LIF also has a convenience store that sells snacks, drinks, and other items.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -887,12 +1006,69 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a top-rated Cafe, check out salon de the amazonia located at P999+2Q4 salon de the amazonia, Hammam-Lif. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 07:35-15:15. To get there, use these GPS coordinates: 36.7309361, 10.3325177.</t>
+          <t>Salon de thé Amazonia is a café located in Hammam-Lif, Tunisia, with a 4.4 rating based on 11 reviews. It is situated at coordinates (36.7309361, 10.3325177) and is known for its delicious coffee and pastries.</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Where in Hammam-Lif can you find a highly rated top-rated café with GPS coordinates 36.7309361, 10.3325177?</t>
+          <t>Day Plan:
+Morning: Explore Hammam-Lif Municipality, the city hall.
+Mid-Morning: Try local cuisine at Cafe-Restaurant 59, specializing in delectable pizzas.
+Midday: Visit the Gare Hammam Lif, a popular destination for tourists and locals alike.
+Afternoon: Enjoy outdoor activities like hiking at Parc National Boukornine, offering stunning trails and diverse flora.
+Evening: Visit the BiancoNero tea room, which offers a cozy ambiance and positive reviews.
+Night: Explore ljbl l'khDr ltqTyr lnbtt, a natural food store offering organic products.</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle, located at 8 Av. Habib Bourguiba in Hammam-Lif, is a popular spot for bubble tea lovers. Open from 10:00 to 21:30, except on Tuesdays, this cozy establishment offers a delightful selection of desserts and non-alcoholic beverages. Its average rating of 4.5 stars based on 20 reviews is a testament to its excellent service and quality offerings.
+Located at P8HV+JG2 La Cafet, Mandes France, Hammam-Lif 2050, La Cafet is a highly-rated cafe (5.0 out of 5 stars based on 2 reviews) that opens daily from 6 AM to midnight. Unfortunately, there is no further information or description available about this establishment.
+Cafe-Restaurant 59, located in Hammam-Lif, Tunisia (36.7255857, 10.3437438), offers a delightful dining experience specializing in delectable pizzas. Open 24 hours a day, this pizzeria welcomes guests at any time, providing a convenient option for those seeking a satisfying meal. Despite lacking a website, Cafe-Restaurant 59 garners positive reviews, boasting a 4.0 rating from 10 satisfied customers. Its featured image showcases an inviting ambiance, while its main category, Pizzeria, accurately reflects the establishment's culinary focus.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+The Gare Hammam Lif is a railway station located in the city of hammam-lif, Tunisia. It is a popular destination for tourists and locals alike, and offers a variety of services to its visitors. The station is located at the coordinates (36.7255857, 10.3437438), and is easily accessible by car or public transportation.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It is dedicated to the victims of the 1985 Hammam-Lif train disaster. The museum offers a variety of exhibits on the disaster, including photographs, artifacts, and personal stories. It is a popular tourist destination for those interested in learning more about Tunisian history. The museum is located at (36.7255857, 10.3437438).
+Parc National Boukornine is a protected area surrounding Mount Boukornine, offering stunning hiking trails where visitors can marvel at diverse flora, including vibrant orchids. This sanctuary is also home to an array of wildlife, including elusive jackals and graceful wildcats. Conveniently located at M96M+99H Parc National Boukornine, A1 in Hammam-Lif, it boasts exceptional reviews, earning a 4.1-star rating from 239 satisfied visitors.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+Fresh Instant is a restaurant located in Hammam-Lif, Tunisia. It is open from 8:00 AM to 5:00 PM from Monday to Friday and is closed on Saturday and Sunday. Its main category is Restaurant.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Restaurant Metro is a fast-food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast-food options, including burgers, sandwiches, and pizzas. The restaurant is open from 11:00 AM to 12:00 AM, seven days a week. It is located at 002, Av Habib Bourguiba, +2+, Hammam-Lif 2050. The restaurant has a rating of 4.4 stars on Google Maps, based on 14 reviews.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+TotalEnergies HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia, at the coordinates (36.7287, 10.333). The gas station is open 24 hours a day and offers a wide range of services, including fuel, car wash, and oil change. TotalEnergies HAMMAM LIF also has a convenience store that sells snacks, drinks, and other items.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -998,12 +1174,70 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Cafe-Restaurant 59 located at P8PJ+X2W Cafe-Restaurant 59, Unnamed Road,, Hammam-Lif. This top-rated spot is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on . To get there, use these GPS coordinates: 36.7255857, 10.3437438. For more details, visit their website at or call them at 92 232 177.</t>
+          <t>Cafe-Restaurant 59, located in Hammam-Lif, Tunisia (36.7255857, 10.3437438), offers a delightful dining experience specializing in delectable pizzas. Open 24 hours a day, this pizzeria welcomes guests at any time, providing a convenient option for those seeking a satisfying meal. Despite lacking a website, Cafe-Restaurant 59 garners positive reviews, boasting a 4.0 rating from 10 satisfied customers. Its featured image showcases an inviting ambiance, while its main category, Pizzeria, accurately reflects the establishment's culinary focus.</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>What is the top-rated pizzeria with a 4.0 rating in Hammam-Lif, located at specific GPS coordinates and operating 24 hours a day?</t>
+          <t>Day Plan:
+Morning: Exploring Hammam-Lif Municipality and the Memorial Aux Victimes D'Octobre 1985 to delve into the city's history and significance.
+Mid-Morning: Trying local cuisine at Restaurant Erray for a tantalizing taste of traditional Tunisian flavors.
+Midday: Visiting Parc National Boukornine for a picturesque hike amidst stunning nature and diverse wildlife, embracing the area's natural beauty.
+Afternoon: Enjoying recreational activities at Plage, basking in the Mediterranean sun, cooling off in the clear waters, and indulging in the beach pavilion's amenities.
+Evening: Relaxing with a rejuvenating spa treatment at Larym, pampering yourself with a soothing hammam experience or blissful massage.
+Night: Participating in a lively evening at Club 55, indulging in delectable offerings and cozy ambiance, immersing yourself in the local nightlife scene.</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle, located at 8 Av. Habib Bourguiba in Hammam-Lif, is a popular spot for bubble tea lovers. Open from 10:00 to 21:30, except on Tuesdays, this cozy establishment offers a delightful selection of desserts and non-alcoholic beverages. Its average rating of 4.5 stars based on 20 reviews is a testament to its excellent service and quality offerings.
+Club 55, nestled in Hammam-Lif, invites you to unwind 24/7. At the coordinates (36.7188867, 10.3543151), indulge in the cozy ambiance and delectable offerings of this Cafe.
+Cafe-Restaurant 59, located in Hammam-Lif, Tunisia (36.7255857, 10.3437438), offers a delightful dining experience specializing in delectable pizzas. Open 24 hours a day, this pizzeria welcomes guests at any time, providing a convenient option for those seeking a satisfying meal. Despite lacking a website, Cafe-Restaurant 59 garners positive reviews, boasting a 4.0 rating from 10 satisfied customers. Its featured image showcases an inviting ambiance, while its main category, Pizzeria, accurately reflects the establishment's culinary focus.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+The Gare Hammam Lif is a railway station located in the city of hammam-lif, Tunisia. It is a popular destination for tourists and locals alike, and offers a variety of services to its visitors. The station is located at the coordinates (36.7255857, 10.3437438), and is easily accessible by car or public transportation.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It offers a wide range of products and services, including food, clothing, and electronics. The market is located on P8FP+834 in Hammam-Lif and is open daily from 8am to 8pm.
+Hammam-Lif is a 3.6-rated Point d'eau located in Hammam-Lif, Tunisia. Its coordinates are (36.7255857, 10.3437438).
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It is dedicated to the victims of the 1985 Hammam-Lif train disaster. The museum offers a variety of exhibits on the disaster, including photographs, artifacts, and personal stories. It is a popular tourist destination for those interested in learning more about Tunisian history. The museum is located at (36.7255857, 10.3437438).
+Nestled around Mount Boukornine, Parc National Boukornine is a protected haven offering picturesque hiking trails amidst nature's splendor. Located in Hammam-Lif, it boasts a diverse ecosystem with vibrant orchids, elusive chacals, and graceful wildcats. With its stunning mountain backdrop and a rich cultural heritage dating back to 1987, this park invites nature enthusiasts to explore its wonders while embracing its historical significance.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+**ljbl l'khDr ltqTyr lnbtt**
+This natural food store is located in Hammam-Lif, Tunisia. It offers a variety of healthy and organic products, and is open from 9am to 6pm. It is highly recommended by its customers, who praise its quality products and friendly staff.
+Pizzeria PORTANOVA is a restaurant located in Hammam-lif, Tunisia. It is open from 3 PM to midnight and is closed on Mondays. The restaurant's featured image shows a colorful, visually appealing dish, suggesting that it specializes in traditional Italian cuisine. Pizzeria PORTANOVA has a rating of 4.9 out of 5 based on 10 reviews, and its main category is Restaurant. The restaurant's exact location is at coordinates (36.7255857, 10.3437438).
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+OLA ENERGY HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia. It offers 24/7 service and also has an auto accessory store and an oil change service. The station is highly rated and has received 8 reviews. The station is located at GP1 Avenue de la republic hammem lif, Hmm 'nf 2050, RN1, Hammam-Lif 2050. It is in close vicinity to public transportation and offers a wide range of services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1105,14 +1339,69 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a great Cafe, check out Coco Coffee located at Coco Coffee, Hammam-Lif. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 06:00-23:30. To get there, use these GPS coordinates: 36.7255857, 10.3437438.</t>
+          <t>Coco Coffee is a cafe located in Hammam-Lif, Tunisia, offering a variety of coffee drinks and pastries. It is open daily from 6:00 AM to 11:30 PM, and is highly rated by customers with an average rating of 4.2 out of 5. The cafe has a cozy atmosphere and friendly staff, making it a great place to relax and enjoy a cup of coffee.</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Where in Hammam-Lif can you find a highly-rated Cafe with a wide selection of options, open from 6 AM to 11:30 PM?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant Hammam Lif Market for local products and crafts.
+Mid-Morning: Indulge in the authentic flavors of Tunisian cuisine at Restaurant Erray, known for its traditional dishes.
+Midday: Visit the Hammam-Lif Municipality to learn about the city's history and governance.
+Afternoon: Stroll through Parc National Boukornine, enjoying scenic hiking trails amidst stunning nature and wildlife.
+Evening: Head to Larym, a renowned beauty institute, for a relaxing spa treatment and pampering.
+Night: Experience the lively ambiance of L'UNICA Cafe Resto for a delightful dinner and enjoy the 24/7 dining atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.
+Cafe el Warda is a cafe located in hammam-lif, Tunisia at the coordinates (36.721407909282, 10.358516541477). It is open 24 hours a day and offers a variety of cafe-style food and drinks. It has a rating of 5.0 stars based on one review.
+Cafe-Restaurant 59 is a Pizzeria located in hammam-lif (36.7255857, 10.3437438). It is open 24 hours a day and offers a variety of pizzas. It is rated 4.0 stars by its customers.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Gare Hammam Lif is a train station in Hammam-Lif, Tunisia. It offers rail services to various destinations in the country. The station is conveniently located with the following coordinates: (36.7255857, 10.3437438).
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It offers a wide range of products and services, including food, clothing, and electronics. The market is located on P8FP+834 in Hammam-Lif and is open daily from 8am to 8pm.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+In Hammam-Lif, the Memorial Aux Victimes D'Octobre 1985 is a museum located at the following coordinates: (36.7255857, 10.3437438). Currently, there are three reviews for this museum, which is owned by Memorial Aux Victimes D'Octobre 1985 (proprietaire).
+Nestled around Mount Boukornine, Parc National Boukornine is a protected haven offering picturesque hiking trails amidst nature's splendor. Located in Hammam-Lif, it boasts a diverse ecosystem with vibrant orchids, elusive chacals, and graceful wildcats. With its stunning mountain backdrop and a rich cultural heritage dating back to 1987, this park invites nature enthusiasts to explore its wonders while embracing its historical significance.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+L'UNICA Cafe Resto, located in Hammam-Lif (GPS coordinates: latitude 36.7255857 and longitude 10.3437438), offers its customers a 24/7 dining experience. With a 5.0 rating based on positive reviews, this establishment excels in the Restaurant category and has also received favorable feedback for its ambience and service. To learn more about L'UNICA Cafe Resto, visit their website or contact them directly using the provided phone number, 51 883 242.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+TotalEnergies HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia, at the coordinates (36.7287, 10.333). The gas station is open 24 hours a day and offers a wide range of services, including fuel, car wash, and oil change. TotalEnergies HAMMAM LIF also has a convenience store that sells snacks, drinks, and other items.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1214,12 +1503,75 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a great cafe experience, The Lab Cofee is the place to be! Located at Rue Habib Bougatfa, P8JP+RR4, this top-rated destination serves up delicious coffee and a cozy atmosphere. With a rating of 4.9, it's a must-visit spot for cafe lovers. The cafe is open from 07:00-23:00 every day of the week, so you can get your caffeine fix whenever you need it. To get there, use these GPS coordinates: 36.732938113011, 10.334654269469. For more details, visit their website or call them at 58 753 651.</t>
+          <t>The Lab Cofee, located at Rue Habib Bougatfa in Hammam-Lif (36.732938113011, 10.334654269469), is a popular cafe among locals. Open from 7 AM to 11 PM daily, The Lab Cofee has received an excellent rating of 4.9 based on 8 reviews. Despite not having a website or social media presence, the cafe's phone number is 58 753 651, and you can visit them during their regular business hours to enjoy a cup of their finest coffee.</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Where in Hammam-Lif can you find a highly rated cafe, The Lab Coffee, renowned for its cozy ambiance and delicious coffee?</t>
+          <t>Day Plan:
+**Morning:**
+- Exploring Hammam-Lif Municipality to gain insights into the city's governance and history.
+**Mid-Morning:**
+- Trying local cuisine at Fast-food Kahlewi, known for its delicious and affordable fast food options.
+**Midday:**
+- Visiting the Memorial Aux Victimes D'Octobre 1985 to learn about the tragic terrorist attack and pay respects to the victims.
+**Afternoon:**
+- Enjoying the natural beauty of Boukornine National Park, embarking on a hike while admiring the stunning mountain scenery and diverse wildlife.
+**Evening:**
+- Relaxing with a rejuvenating spa treatment at Larym, indulging in a luxurious hammam or spa experience.
+**Night:**
+- Experiencing cultural immersion at the Foret noire creperie, savoring both sweet and savory crepes while enjoying the lively ambiance.</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle, located at 8 Av. Habib Bourguiba in Hammam-Lif, is a popular spot for bubble tea lovers. Open from 10:00 to 21:30, except on Tuesdays, this cozy establishment offers a delightful selection of desserts and non-alcoholic beverages. Its average rating of 4.5 stars based on 20 reviews is a testament to its excellent service and quality offerings.
+Cafe El Bey, located in Hammam-Lif (36.731944, 10.34012), is a cafe that offers a warm and welcoming atmosphere. With a rating of 3.3 based on 15 reviews, it's a popular spot for locals and tourists alike. Cafe El Bey is a great place to relax and enjoy a cup of coffee or tea while taking in the sights and sounds of the city.
+Cafe-Restaurant 59 is a Pizzeria located in hammam-lif (36.7255857, 10.3437438). It is open 24 hours a day and offers a variety of pizzas. It is rated 4.0 stars by its customers.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Boukornine is a train station located in Hammam-Lif, Tunisia. It has received 4.2 stars from 24 reviews on Google Maps. Its coordinates are (36.73539, 10.32855).
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a 3.6-rated Point d'eau located in Hammam-Lif, Tunisia. Its coordinates are (36.7255857, 10.3437438).
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It's dedicated to the victims of the October 1985 terrorist attack. The museum offers a unique opportunity to learn about this tragic event and its impact on the community. It's a place of remembrance and reflection, and a reminder of the importance of peace and reconciliation. It's a must-visit for anyone interested in the history of Tunisia and the fight against terrorism.
+Parc National Boukornine is a protected area in Tunisia, set up in 1987 around the Boukornine mountain. The park offers many hiking trails, and is home to wildlife such as orchids, chacals, and wild cats. Reviews emphasize its natural beauty, with a focus on its mountain scenery and wildlife. It is located at M96M+99H Parc National Boukornine, A1, Hammam-Lif, Tunisia and can be reached by phone at 58 905 502.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+Restaurant Pizzeria Marakana is a restaurant located in Hammam-Lif, Tunisia. The restaurant offers a variety of dishes, including pizzas and other Italian dishes. It is located at the coordinates (36.733354, 3.0829392).
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+Agil Hammam lif is a well-rated gas station with a 5-star rating on Google reviews. It is located in hammam-lif, at the coordinates (36.722854, 10.3488626).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1325,12 +1677,70 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>Calling all coffee enthusiasts in Hammam-Lif! Café Resto M59, located at 59 Bchira Ben Mrad, is the place to be. Rated an impressive 4.7, this beloved destination offers a cozy ambiance perfect for sipping on delicious coffee. Open from 08:00-22:25 (closed on Tuesdays), Café Resto M59 invites you to relax and savor its carefully crafted beverages. To get there, simply make your way to the GPS coordinates (36.7255857, 10.3437438). For inquiries, give them a call at 97 445 322.</t>
+          <t>Cafe resto M59 is a highly-rated cafe in Hammam-Lif, Tunisia, known for its delicious food and friendly service. Located at 59 bchira ben mrad, it offers a wide variety of dishes and beverages, making it a popular spot for locals and tourists alike. The cafe is open from 8 AM to 10:25 PM every day except Tuesdays.</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Where can you find the highly-rated Café Resto M59, renowned for its cozy ambiance and exceptional coffee in Hammam-Lif?</t>
+          <t>Day Plan:
+Morning: Visit the historic Hammam-Lif Municipality to learn about the city's governance and history.
+Mid-Morning: Explore the vibrant Hammam Lif market for local souvenirs and fresh produce. Try local cuisine at Restaurant Erray for an authentic Tunisian dining experience.
+Midday: Immerse yourself in the natural beauty of Parc National Boukornine, offering breathtaking mountain scenery and diverse wildlife. Enjoy a leisurely hike or picnic amidst the stunning landscape.
+Afternoon: Indulge in a relaxing treatment at Larym beauty institute, known for its rejuvenating spa and hammam services.
+Evening: Head to Cafe-restaurant L' Opera for a delightful dinner, featuring a diverse menu and 24/7 service.
+Night: Experience the vibrant atmosphere of The Bet 216 H.lif casino, offering entertainment and gaming options near the Mediterranean Sea.</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle, located at 8 Av. Habib Bourguiba in Hammam-Lif, is a popular spot for bubble tea lovers. Open from 10:00 to 21:30, except on Tuesdays, this cozy establishment offers a delightful selection of desserts and non-alcoholic beverages. Its average rating of 4.5 stars based on 20 reviews is a testament to its excellent service and quality offerings.
+**Cafe Zina** is a highly-rated (4.7 out of 5 stars with 6 reviews) cafe located in Hammam-Lif, Tunisia. It serves as a popular spot for locals and tourists alike, offering a pleasant cafe atmosphere and various amenities. Cafe Zina is open during the day and evening from 6:00 AM to 11:00 PM. Its exact location is at P986+2P8 Cafe Zina, P1.
+Chefchouf, located in Hammam-Lif, offers mouthwatering pizzas, as evidenced by its 4.8 rating based on 6 reviews. The pizzeria is open daily from 9am to 1pm and from 5pm to 10pm, except on Mondays. Chefchouf is easily accessible at Rue docteur calmet, with coordinates (36.7188867, 10.3543151).
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Boukornine is a train station located in Hammam-Lif, Tunisia. It has received 4.2 stars from 24 reviews on Google Maps. Its coordinates are (36.73539, 10.32855).
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It is dedicated to the victims of the 1985 Hammam-Lif train disaster. The museum offers a variety of exhibits on the disaster, including photographs, artifacts, and personal stories. It is a popular tourist destination for those interested in learning more about Tunisian history. The museum is located at (36.7255857, 10.3437438).
+Parc National Boukornine is a protected area in Tunisia, set up in 1987 around the Boukornine mountain. The park offers many hiking trails, and is home to wildlife such as orchids, chacals, and wild cats. Reviews emphasize its natural beauty, with a focus on its mountain scenery and wildlife. It is located at M96M+99H Parc National Boukornine, A1, Hammam-Lif, Tunisia and can be reached by phone at 58 905 502.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+**ljbl l'khDr ltqTyr lnbtt**
+This natural food store is located in Hammam-Lif, Tunisia. It offers a variety of healthy and organic products, and is open from 9am to 6pm. It is highly recommended by its customers, who praise its quality products and friendly staff.
+Fresh Instant is a restaurant located in Hammam-Lif, Tunisia. It is open from 8:00 AM to 5:00 PM from Monday to Friday and is closed on Saturday and Sunday. Its main category is Restaurant.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+OLA ENERGY HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia. It offers 24/7 service and also has an auto accessory store and an oil change service. The station is highly rated and has received 8 reviews. The station is located at GP1 Avenue de la republic hammem lif, Hmm 'nf 2050, RN1, Hammam-Lif 2050. It is in close vicinity to public transportation and offers a wide range of services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1440,12 +1850,76 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out cafe brasilia located at cite casino, Hammam-Lif 2050. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-00:00, but closed on To get there, use these GPS coordinates: 36.7188867, 10.3543151. For more details, visit their website at https://www.facebook.com/Brasilia-coffee-101155535909236 or call them at 27 558 909.</t>
+          <t>Café Brasilia is a cozy cafe located in Hammam-Lif, Tunisia (coordinates: 36.7188867, 10.3543151). It offers a warm and inviting atmosphere, perfect for enjoying a cup of coffee or a light meal. The cafe is open from 6:00 AM to midnight every day, making it a convenient spot for both early risers and late-night owls.</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Cafe with a variety of options in Hammam-Lif, known for its excellent Cafe?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the lively Hammam Lif market, offering a wide variety of goods and services.
+**Mid-Morning:**
+- Visit the Larym beauty institute for a relaxing hammam or spa treatment.
+**Midday:**
+- Try local cuisine at Restaurant Metro, known for its delicious fast food options.
+**Afternoon:**
+- Engage in outdoor activities at Parc National Boukornine, offering picturesque hiking trails and stunning mountain views.
+**Evening:**
+- Enjoy scenic views at Plage, a beach pavilion with sun loungers, umbrellas, and a bar and restaurant.
+**Night:**
+- Experience cultural immersion at the Memorial Aux Victimes D'Octobre 1985, a museum dedicated to the victims of a terrorist attack.</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.
+Biz-ART Coffee Club, located at P8JQ+4PM Biz-ART Coffee Club, Rue Salammbo, Hammam-Lif (36.7255857, 10.3437438), is a popular cafe frequented by satisfied patrons. It offers a range of refreshments to delight coffee enthusiasts, with average ratings of 4.0. It operates daily from 6:00-23:00 except on days it is closed.
+Cafe-Restaurant 59 is a Pizzeria located in hammam-lif (36.7255857, 10.3437438). It is open 24 hours a day and offers a variety of pizzas. It is rated 4.0 stars by its customers.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+by'r lby offers a range of services to meet the needs of its customers. It has 13 reviews and a rating of 3.1. Located at (36.7255857, 10.3437438) in the city of hammam-lif, by'r lby is easily accessible.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a 3.6-rated Point d'eau located in Hammam-Lif, Tunisia. Its coordinates are (36.7255857, 10.3437438).
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It's dedicated to the victims of the October 1985 terrorist attack. The museum offers a unique opportunity to learn about this tragic event and its impact on the community. It's a place of remembrance and reflection, and a reminder of the importance of peace and reconciliation. It's a must-visit for anyone interested in the history of Tunisia and the fight against terrorism.
+Nestled around Mount Boukornine, Parc National Boukornine is a protected haven offering picturesque hiking trails amidst nature's splendor. Located in Hammam-Lif, it boasts a diverse ecosystem with vibrant orchids, elusive chacals, and graceful wildcats. With its stunning mountain backdrop and a rich cultural heritage dating back to 1987, this park invites nature enthusiasts to explore its wonders while embracing its historical significance.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+**ljbl l'khDr ltqTyr lnbtt**
+This natural food store is located in Hammam-Lif, Tunisia. It offers a variety of healthy and organic products, and is open from 9am to 6pm. It is highly recommended by its customers, who praise its quality products and friendly staff.
+Paname fasst food is a restaurant located in Rue Salammbo, Hammam-Lif, Tunisia. It has a rating of 4.3 based on 6 reviews, and its main category is Restaurant. It is open from 09:00 to 23:00 and can be reached by phone at 22 511 107. The restaurant's coordinates are (36.728634700847, 10.338080869607).
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Restaurant Metro is a fast-food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast-food options, including burgers, sandwiches, and pizzas. The restaurant is open from 11:00 AM to 12:00 AM, seven days a week. It is located at 002, Av Habib Bourguiba, +2+, Hammam-Lif 2050. The restaurant has a rating of 4.4 stars on Google Maps, based on 14 reviews.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+OLA ENERGY HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia. It offers 24/7 service and also has an auto accessory store and an oil change service. The station is highly rated and has received 8 reviews. The station is located at GP1 Avenue de la republic hammem lif, Hmm 'nf 2050, RN1, Hammam-Lif 2050. It is in close vicinity to public transportation and offers a wide range of services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1551,12 +2025,76 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a great cafe, check out Cafe Chaabia located at n15, Avenue Charles Nicolle. This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 05:30-23:00. To get there, use these GPS coordinates: 36.725680425691, 10.345652176782. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A8+Chaabia/data=!4m7!3m6!1s0x12fd492cc25bb2e1:0x98c04cb849f65662!8m2!3d36.7245618!4d10.3484431!16s%2Fg%2F11dxrr7_g_!19sChIJ4bJbwixJ_RIRYlb2SbhMwJg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 25 641 601.</t>
+          <t>Nestled in Hammam-Lif, Cafe Chaabia is a cozy spot to unwind. Located at 36.725680425691, 10.345652176782, it offers a relaxing ambiance from 05:30 to 23:00 daily. With a rating of 4.7 based on 6 reviews, Cafe Chaabia is known for its cafe offerings. You can contact them at 25 641 601 for inquiries.</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Where can you find an exceptional cafe with a 4.7 rating, perfect for cafe enthusiasts, located in Hammam-Lif?</t>
+          <t>Day Plan:
+Morning: Exploring Hammam-Lif Municipality
+- Start the day by exploring the heart of Hammam-Lif at the Hammam-Lif Municipality. Learn about the city's history, culture, and local government.
+Mid-Morning: Shopping at ljbl l'khDr ltqTyr lnbtt
+- Immerse yourself in the local culture by visiting ljbl l'khDr ltqTyr lnbtt. Discover a wide variety of organic and natural products, supporting local businesses.
+Midday: Trying local cuisine at Restaurant Erray
+- Indulge in the authentic flavors of Tunisia at Restaurant Erray. Savor traditional dishes and enjoy the warm hospitality.
+Afternoon: Relaxing at Parc National Boukornine
+- Escape the urban hustle and bustle at Parc National Boukornine. Immerse yourself in nature, hike through verdant trails, and admire breathtaking panoramic views.
+Evening: Enjoying scenic views at Plage
+- Head to Plage for a leisurely stroll along the beautiful sandy beach. Take in the stunning views of the Mediterranean Sea, relax on sun loungers, or enjoy a refreshing beverage at a beach pavilion.
+Night: Exploring Salon de The Aicha
+- End the day at Salon de The Aicha, a charming cafe renowned for its ambiance and delicious non-alcoholic beverages. Relish local desserts and soak in the vibrant atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle, located at 8 Av. Habib Bourguiba in Hammam-Lif, is a popular spot for bubble tea lovers. Open from 10:00 to 21:30, except on Tuesdays, this cozy establishment offers a delightful selection of desserts and non-alcoholic beverages. Its average rating of 4.5 stars based on 20 reviews is a testament to its excellent service and quality offerings.
+**Salon de The Aicha** 
+Situated at (36.73076352016, 10.335894253637), this cafe is located on 49 Rue D' Alger in Hammam-Lif, Tunisia. Open from 5:30 AM to midnight, this cafe is popular with reviewers, who give it an average rating of 4.0 out of 5.
+Cafe-Restaurant 59 is a Pizzeria located in hammam-lif (36.7255857, 10.3437438). It is open 24 hours a day and offers a variety of pizzas. It is rated 4.0 stars by its customers.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Gare Hammam Lif is a train station in Hammam-Lif, Tunisia. It offers rail services to various destinations in the country. The station is conveniently located with the following coordinates: (36.7255857, 10.3437438).
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+In Hammam-Lif, the Memorial Aux Victimes D'Octobre 1985 is a museum located at the following coordinates: (36.7255857, 10.3437438). Currently, there are three reviews for this museum, which is owned by Memorial Aux Victimes D'Octobre 1985 (proprietaire).
+Nestled in northern Tunisia and established in 1987, Parc National Boukornine encompasses the majestic Boukornine Mountain. Designated as a protected natural area, the park offers a vibrant ecosystem and sanctuary for diverse flora and fauna. Situated at coordinates (36.7303975, 10.3295395), it boasts an altitude of 3963 feet, providing breathtaking panoramic views. The park is a paradise for nature enthusiasts, with a network of hiking trails winding through its verdant landscapes. Within its borders, visitors can spot orchids, mammals like chacals, and elusive wildcats amidst a rich biodiversity.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+Matador Restaurant is located at 32 Rue Hassine Bouzaiene, Hammam-Lif with coordinates (36.7255857, 10.3437438). Rated 4.5 based on 2 reviews, it's open from 11:00-23:00, except on Sunday. It's a restaurant that offers a variety of dishes.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Restaurant Metro is a fast-food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast-food options, including burgers, sandwiches, and pizzas. The restaurant is open from 11:00 AM to 12:00 AM, seven days a week. It is located at 002, Av Habib Bourguiba, +2+, Hammam-Lif 2050. The restaurant has a rating of 4.4 stars on Google Maps, based on 14 reviews.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+OLA ENERGY HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia. It offers 24/7 service and also has an auto accessory store and an oil change service. The station is highly rated and has received 8 reviews. The station is located at GP1 Avenue de la republic hammem lif, Hmm 'nf 2050, RN1, Hammam-Lif 2050. It is in close vicinity to public transportation and offers a wide range of services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1654,12 +2192,69 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Cafe Zina located at P986+2P8 Cafe Zina, P1, Hammam-Lif. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 06:00-23:00. To get there, use these GPS coordinates: 36.7255857, 10.3437438.</t>
+          <t>**Cafe Zina** is a highly-rated (4.7 out of 5 stars with 6 reviews) cafe located in Hammam-Lif, Tunisia. It serves as a popular spot for locals and tourists alike, offering a pleasant cafe atmosphere and various amenities. Cafe Zina is open during the day and evening from 6:00 AM to 11:00 PM. Its exact location is at P986+2P8 Cafe Zina, P1.</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>Where in Hammam-Lif can you find a highly rated café with a wide selection of options, making it a must-visit destination for café enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the bustling Hammam Lif Market for local goods and souvenirs.
+Mid-Morning: Visit Historical Landmark: Memorial Aux Victimes D'Octobre 1985, a museum that commemorates a tragic event.
+Midday: Try Local Cuisine at Restaurant Erray, a traditional Tunisian restaurant known for its delicious food.
+Afternoon: Enjoy Scenic Views at Plage, a beach pavilion offering stunning views of the Mediterranean Sea.
+Evening: Participate in Event/Activity at The Bet 216 H.lif, a highly-rated casino near the sea.
+Night: Relax with an Activity at Larym, a renowned beauty institute offering a range of spa and hammam treatments.</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle, located at 8 Av. Habib Bourguiba in Hammam-Lif, is a popular spot for bubble tea lovers. Open from 10:00 to 21:30, except on Tuesdays, this cozy establishment offers a delightful selection of desserts and non-alcoholic beverages. Its average rating of 4.5 stars based on 20 reviews is a testament to its excellent service and quality offerings.
+"Cafe du Sport" is a cafe located in Hammam-Lif, Tunisia. It has a rating of 4.5 out of 5 based on 2 reviews and is open from 6:30 AM to 11:00 PM.
+Chefchouf, located in Hammam-Lif, offers mouthwatering pizzas, as evidenced by its 4.8 rating based on 6 reviews. The pizzeria is open daily from 9am to 1pm and from 5pm to 10pm, except on Mondays. Chefchouf is easily accessible at Rue docteur calmet, with coordinates (36.7188867, 10.3543151).
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Gare Hammam Lif is a railway station located in Hammam-Lif, Tunisia. It offers convenient train services for locals and tourists alike. The station is situated at convenient coordinates of (36.7255857, 10.3437438). Additionally, Gare Hammam Lif boasts a 3.6 out of 5 stars rating, indicating its popularity and customer satisfaction.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It's dedicated to the victims of the October 1985 terrorist attack. The museum offers a unique opportunity to learn about this tragic event and its impact on the community. It's a place of remembrance and reflection, and a reminder of the importance of peace and reconciliation. It's a must-visit for anyone interested in the history of Tunisia and the fight against terrorism.
+Parc National Boukornine is a protected area in Tunisia, set up in 1987 around the Boukornine mountain. The park offers many hiking trails, and is home to wildlife such as orchids, chacals, and wild cats. Reviews emphasize its natural beauty, with a focus on its mountain scenery and wildlife. It is located at M96M+99H Parc National Boukornine, A1, Hammam-Lif, Tunisia and can be reached by phone at 58 905 502.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+Lblby nwr@ - Lablebi noura is a restaurant located in Hammam-Lif, Tunisia. It has a 4.4-star rating and offers a variety of dishes. The restaurant is open daily and is closed on Fridays.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+Agil Hammam lif is a well-rated gas station with a 5-star rating on Google reviews. It is located in hammam-lif, at the coordinates (36.722854, 10.3488626).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1757,12 +2352,76 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Cafe Wifi located at P979+623 Cafe Wifi, Av. de la paix, Hammam-Lif. This top-rated destination is perfect for Cafe lovers. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 07:00-23:00. To get there, use these GPS coordinates: 36.7255857, 10.3437438.</t>
+          <t>Cafe Wifi, located in Hammam-Lif, Tunisia (36.7255857, 10.3437438), is a cozy cafe that offers a warm and inviting atmosphere for its customers. The cafe opens daily from 7 AM to 11 PM, providing ample time for patrons to enjoy their coffee, tea, or other beverages. Cafe Wifi's focus on customer satisfaction is evident in its positive reviews, which praise its friendly staff and relaxing ambiance.</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>In Hammam-Lif, what highly-rated Cafe with GPS coordinates 36.7255857, 10.3437438 should be included in my trip plan?</t>
+          <t>**Day Plan:**
+**Morning:** Explore Parc National Boukornine
+Hike along the picturesque trails amidst nature's splendor and discover the vibrant ecosystem.
+**Mid-Morning:** Visit Memorial Aux Victimes D'Octobre 1985
+Learn about the history of the 1985 Hammam-Lif train disaster and pay respects to the victims.
+**Midday:** Lunch at Restaurant Metro
+Indulge in a quick and satisfying lunch with a variety of fast-food options.
+**Afternoon:** Relax at Hammam Lif
+Visit the natural food store and browse a wide range of healthy and organic products.
+**Evening:** Dinner at Restaurant Sehili Junior
+Experience the flavors of Tunisian cuisine at this popular restaurant for a casual and relaxed dining experience.
+**Night:** Enjoy a Crepe at Foret noire
+End the day with a sweet or savory crepe at this highly-rated creperie.</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle, located at 8 Av. Habib Bourguiba in Hammam-Lif, is a popular spot for bubble tea lovers. Open from 10:00 to 21:30, except on Tuesdays, this cozy establishment offers a delightful selection of desserts and non-alcoholic beverages. Its average rating of 4.5 stars based on 20 reviews is a testament to its excellent service and quality offerings.
+Coco Coffee is a cafe located in Hammam-Lif, Tunisia, offering a variety of coffee drinks and pastries. It is open daily from 6:00 AM to 11:30 PM, and is highly rated by customers with an average rating of 4.2 out of 5. The cafe has a cozy atmosphere and friendly staff, making it a great place to relax and enjoy a cup of coffee.
+Chefchouf, located in Hammam-Lif, offers mouthwatering pizzas, as evidenced by its 4.8 rating based on 6 reviews. The pizzeria is open daily from 9am to 1pm and from 5pm to 10pm, except on Mondays. Chefchouf is easily accessible at Rue docteur calmet, with coordinates (36.7188867, 10.3543151).
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Arret du Stade, a bus stop located in Hammam-Lif, Tunisia, at the coordinates (36.732743558019, 10.322633566116).
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It is dedicated to the victims of the 1985 Hammam-Lif train disaster. The museum offers a variety of exhibits on the disaster, including photographs, artifacts, and personal stories. It is a popular tourist destination for those interested in learning more about Tunisian history. The museum is located at (36.7255857, 10.3437438).
+Nestled around Mount Boukornine, Parc National Boukornine is a protected haven offering picturesque hiking trails amidst nature's splendor. Located in Hammam-Lif, it boasts a diverse ecosystem with vibrant orchids, elusive chacals, and graceful wildcats. With its stunning mountain backdrop and a rich cultural heritage dating back to 1987, this park invites nature enthusiasts to explore its wonders while embracing its historical significance.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+**ljbl l'khDr ltqTyr lnbtt**
+This natural food store is located in Hammam-Lif, Tunisia. It offers a variety of healthy and organic products, and is open from 9am to 6pm. It is highly recommended by its customers, who praise its quality products and friendly staff.
+Restaurant Sehili Junior is a well-rated restaurant located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of dishes in a casual and relaxed setting. The restaurant is open from 11:00 am to 11:00 pm, and is closed on Tuesdays.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Restaurant Metro is a fast-food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast-food options, including burgers, sandwiches, and pizzas. The restaurant is open from 11:00 AM to 12:00 AM, seven days a week. It is located at 002, Av Habib Bourguiba, +2+, Hammam-Lif 2050. The restaurant has a rating of 4.4 stars on Google Maps, based on 14 reviews.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+TotalEnergies HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia, at the coordinates (36.7287, 10.333). The gas station is open 24 hours a day and offers a wide range of services, including fuel, car wash, and oil change. TotalEnergies HAMMAM LIF also has a convenience store that sells snacks, drinks, and other items.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1864,12 +2523,69 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a cozy Cafe, check out La Cabane (Sardouk) located at P8QH+G6P La Cabane (Sardouk), Rue Saad Zaghloul, Hammam-Lif. This top-rated spot offers a range of Cafe options to choose from. With a rating of 4.8, it's a must-visit spot. It's open 24/24. To get there, you can use these GPS coordinates: 36.736779162907, 10.32952542942. For more details, visit their website at https://www.google.com/maps/place/La+Cabane+%28Sardouk%29/data=!4m7!3m6!1s0x12fd4930f69b7605:0x2b102fdad8226b8c!8m2!3d36.7388324!4d10.3280664!16s%2Fg%2F11jx1x2rht!19sChIJBXab9jBJ_RIRjGsi2NovECs?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>La Cabane (Sardouk) is a popular cafe located in Hammam-Lif, Tunisia. It offers a range of services, including 24-hour service. The cafe is well-rated, with an average score of 4.8 out of 5, and has received positive reviews for its ambiance and service.</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>Where can I find a top-rated cafe with a cozy ambiance in Hammam-Lif?</t>
+          <t>Day Plan:
+Morning: Explore Hammam-Lif Market for local goods and produce.
+Mid-Morning: Visit the nearby Hammam-Lif Municipality for historical insight and administrative services.
+Midday: Indulge in traditional cuisine at Restaurant Erray, a renowned Tunisian restaurant offering a 24-hour dining experience.
+Afternoon: Take a guided tour of Parc National Boukornine, exploring its scenic landscapes, wildlife, and hiking trails.
+Evening: Experience a relaxing hammam treatment at Larym beauty institute, allowing yourself to rejuvenate and unwind.
+Night: Enjoy a delightful dinner at Pizzeria PORTANOVA, known for its delectable Italian specialties and cozy ambiance.</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.
+Café Brasilia is a cozy cafe located in Hammam-Lif, Tunisia (coordinates: 36.7188867, 10.3543151). It offers a warm and inviting atmosphere, perfect for enjoying a cup of coffee or a light meal. The cafe is open from 6:00 AM to midnight every day, making it a convenient spot for both early risers and late-night owls.
+Cafe-Restaurant 59, located in Hammam-Lif, Tunisia (36.7255857, 10.3437438), offers a delightful dining experience specializing in delectable pizzas. Open 24 hours a day, this pizzeria welcomes guests at any time, providing a convenient option for those seeking a satisfying meal. Despite lacking a website, Cafe-Restaurant 59 garners positive reviews, boasting a 4.0 rating from 10 satisfied customers. Its featured image showcases an inviting ambiance, while its main category, Pizzeria, accurately reflects the establishment's culinary focus.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Arret du Stade, a bus stop located in Hammam-Lif, Tunisia, at the coordinates (36.732743558019, 10.322633566116).
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+In Hammam-Lif, the Memorial Aux Victimes D'Octobre 1985 is a museum located at the following coordinates: (36.7255857, 10.3437438). Currently, there are three reviews for this museum, which is owned by Memorial Aux Victimes D'Octobre 1985 (proprietaire).
+Parc National Boukornine is a protected area in Tunisia, set up in 1987 around the Boukornine mountain. The park offers many hiking trails, and is home to wildlife such as orchids, chacals, and wild cats. Reviews emphasize its natural beauty, with a focus on its mountain scenery and wildlife. It is located at M96M+99H Parc National Boukornine, A1, Hammam-Lif, Tunisia and can be reached by phone at 58 905 502.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+Pizzeria PORTANOVA, located in Hammam-Lif (coordinates: 36.7255857, 10.3437438), offers a delicious dining experience with an extensive menu of pizzas and other Italian specialties. It is highly rated (4.9 out of 5), has received 10 reviews, and is open from 3 PM to midnight, except for Mondays.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Restaurant Metro is a fast-food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast-food options, including burgers, sandwiches, and pizzas. The restaurant is open from 11:00 AM to 12:00 AM, seven days a week. It is located at 002, Av Habib Bourguiba, +2+, Hammam-Lif 2050. The restaurant has a rating of 4.4 stars on Google Maps, based on 14 reviews.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+TotalEnergies HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia, at the coordinates (36.7287, 10.333). The gas station is open 24 hours a day and offers a wide range of services, including fuel, car wash, and oil change. TotalEnergies HAMMAM LIF also has a convenience store that sells snacks, drinks, and other items.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1971,14 +2687,69 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Hammam Linf located at Rue Habib Bougatfa, Hammam-Lif.
-This top-rated destination is perfect for Cafe lovers.
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 36.732938113011, 10.334654269469.</t>
+          <t>Hammam Linf is a cafe located in Hammam-Lif, Tunisia, known for its cozy ambiance and delicious offerings. Situated on Rue Habib Bougatfa, it operates daily from 6 am to midnight, except for holidays. Featuring a 4.0 rating based on customer reviews, the cafe offers a relaxing atmosphere and friendly service.</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Cafe (4.0 stars) in Hammam-Lif, perfect for cafe enthusiasts seeking a delectable culinary experience?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant Hammam Lif Market, offering a wide array of local goods and produce.
+Mid-Morning: Visit the Larym beauty institute for a revitalizing spa treatment or hammam experience.
+Midday: Savor authentic Tunisian cuisine at the highly-rated Restaurant Erray, known for its traditional dishes.
+Afternoon: Take a scenic stroll through Parc National Boukornine, admiring its diverse flora and fauna amidst a breathtaking mountain backdrop.
+Evening: Indulge in delicious crepes, both sweet and savory, at the charming creperie, Foret noire.
+Night: Experience the lively atmosphere of Cafe-restaurant L' Opera, a diner open 24/7, offering a delightful dining experience late into the evening.</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle, located at 8 Av. Habib Bourguiba in Hammam-Lif, is a popular spot for bubble tea lovers. Open from 10:00 to 21:30, except on Tuesdays, this cozy establishment offers a delightful selection of desserts and non-alcoholic beverages. Its average rating of 4.5 stars based on 20 reviews is a testament to its excellent service and quality offerings.
+Cafe El Bey, located in Hammam-Lif (36.731944, 10.34012), is a cafe that offers a warm and welcoming atmosphere. With a rating of 3.3 based on 15 reviews, it's a popular spot for locals and tourists alike. Cafe El Bey is a great place to relax and enjoy a cup of coffee or tea while taking in the sights and sounds of the city.
+Chefchouf, located in Hammam-Lif, offers mouthwatering pizzas, as evidenced by its 4.8 rating based on 6 reviews. The pizzeria is open daily from 9am to 1pm and from 5pm to 10pm, except on Mondays. Chefchouf is easily accessible at Rue docteur calmet, with coordinates (36.7188867, 10.3543151).
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+The Gare Hammam Lif is a railway station located in the city of hammam-lif, Tunisia. It is a popular destination for tourists and locals alike, and offers a variety of services to its visitors. The station is located at the coordinates (36.7255857, 10.3437438), and is easily accessible by car or public transportation.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+In Hammam-Lif, the Memorial Aux Victimes D'Octobre 1985 is a museum located at the following coordinates: (36.7255857, 10.3437438). Currently, there are three reviews for this museum, which is owned by Memorial Aux Victimes D'Octobre 1985 (proprietaire).
+Nestled around Mount Boukornine, Parc National Boukornine is a protected haven offering picturesque hiking trails amidst nature's splendor. Located in Hammam-Lif, it boasts a diverse ecosystem with vibrant orchids, elusive chacals, and graceful wildcats. With its stunning mountain backdrop and a rich cultural heritage dating back to 1987, this park invites nature enthusiasts to explore its wonders while embracing its historical significance.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+Ghalya cuisine et conserves is a restaurant located in Hammam-Lif, Tunisia, at the coordinates (36.7255857, 10.3437438). It has received 2 reviews and has a rating of 5.0. The restaurant offers cuisine and conserves and is open from 09:00-17:00, except on Sundays.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Restaurant Metro is a fast-food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast-food options, including burgers, sandwiches, and pizzas. The restaurant is open from 11:00 AM to 12:00 AM, seven days a week. It is located at 002, Av Habib Bourguiba, +2+, Hammam-Lif 2050. The restaurant has a rating of 4.4 stars on Google Maps, based on 14 reviews.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+OLA ENERGY HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia. It offers 24/7 service and also has an auto accessory store and an oil change service. The station is highly rated and has received 8 reviews. The station is located at GP1 Avenue de la republic hammem lif, Hmm 'nf 2050, RN1, Hammam-Lif 2050. It is in close vicinity to public transportation and offers a wide range of services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2076,12 +2847,70 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif, 3 Bro's, located at 6 Rue D' Alger, Hammam-Lif, is a highly recommended destination for Cafe enthusiasts. This top-rated spot offers a range of Cafe to choose from, making it a must-visit for lovers of this category. It boasts a rating of 4.5, based on 4 reviews.</t>
+          <t>3 Bro's is a Café located in Hammam Lif, Tunisia. It has 4 reviews with an average rating of 4.5. It can be found in the following coordinates: (36.731793003498, 10.333876679807).</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>Where in Hammam-Lif can you find a highly recommended cafe renowned for its wide selection of Cafe, earning it a 4.5 rating based on customer reviews?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant Hammam-Lif Market for local produce, spices, and handmade crafts.
+Mid-Morning: Visit the Memorial Aux Victimes D'Octobre 1985 to learn about the tragic terrorist attack and its impact on the community.
+Midday: Savor delicious Tunisian cuisine at the highly-rated Restaurant Erray, known for its traditional dishes and warm hospitality.
+Afternoon: Relax and rejuvenate at Larym, a renowned beauty institute offering spa treatments, hammam, and other pampering services.
+Evening: Witness the spectacular sunset over the Mediterranean Sea at Plage, a charming beach pavilion offering stunning views and a refreshing atmosphere.
+Night: Explore the lively The Bet 216 H.lif casino, renowned for its elegant gaming tables and vibrant nightlife.</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.
+Cafe Bessaies is a cafe located in Hammam-Lif, Tunisia. It is situated at the coordinates (36.7255857, 10.3437438) and offers a variety of services. The cafe is open from 6:00 AM to 12:00 AM, seven days a week. Cafe Bessaies has a 4.0 rating on Google and has received 2 reviews.
+Cafe-Restaurant 59, located in Hammam-Lif, Tunisia (36.7255857, 10.3437438), offers a delightful dining experience specializing in delectable pizzas. Open 24 hours a day, this pizzeria welcomes guests at any time, providing a convenient option for those seeking a satisfying meal. Despite lacking a website, Cafe-Restaurant 59 garners positive reviews, boasting a 4.0 rating from 10 satisfied customers. Its featured image showcases an inviting ambiance, while its main category, Pizzeria, accurately reflects the establishment's culinary focus.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Arret du Stade, a bus stop located in Hammam-Lif, Tunisia, at the coordinates (36.732743558019, 10.322633566116).
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It offers a wide range of products and services, including food, clothing, and electronics. The market is located on P8FP+834 in Hammam-Lif and is open daily from 8am to 8pm.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It's dedicated to the victims of the October 1985 terrorist attack. The museum offers a unique opportunity to learn about this tragic event and its impact on the community. It's a place of remembrance and reflection, and a reminder of the importance of peace and reconciliation. It's a must-visit for anyone interested in the history of Tunisia and the fight against terrorism.
+Parc National Boukornine is a protected area in Tunisia, set up in 1987 around the Boukornine mountain. The park offers many hiking trails, and is home to wildlife such as orchids, chacals, and wild cats. Reviews emphasize its natural beauty, with a focus on its mountain scenery and wildlife. It is located at M96M+99H Parc National Boukornine, A1, Hammam-Lif, Tunisia and can be reached by phone at 58 905 502.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+**ljbl l'khDr ltqTyr lnbtt**
+This natural food store is located in Hammam-Lif, Tunisia. It offers a variety of healthy and organic products, and is open from 9am to 6pm. It is highly recommended by its customers, who praise its quality products and friendly staff.
+Restaurant Sehili Junior is a well-rated restaurant located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of dishes in a casual and relaxed setting. The restaurant is open from 11:00 am to 11:00 pm, and is closed on Tuesdays.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Restaurant Metro is a fast-food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast-food options, including burgers, sandwiches, and pizzas. The restaurant is open from 11:00 AM to 12:00 AM, seven days a week. It is located at 002, Av Habib Bourguiba, +2+, Hammam-Lif 2050. The restaurant has a rating of 4.4 stars on Google Maps, based on 14 reviews.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+Agil Hammam lif is a well-rated gas station with a 5-star rating on Google reviews. It is located in hammam-lif, at the coordinates (36.722854, 10.3488626).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2191,12 +3020,71 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out BiancoNero located at 2, Avenue de l'independance, Hammam-Lif. This top-rated destination is perfect for Salon de the lovers and offers a range of Salon de the to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 14:00-22:00. To get there, use these GPS coordinates: 36.724316681141, 10.352072282858. For more details, visit their website at https://www.facebook.com/Bianconero-1161385820673252/ or call them at 71 421 893.</t>
+          <t>BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>Where in Hammam-Lif can you indulge in a highly-rated Salon de the experience with an excellent rating of 4.3?</t>
+          <t>Day Plan:
+Morning: Explore the historic Hammam Lif Municipality and learn about the city's governance and infrastructure.
+Mid-Morning: Visit the Memorial Aux Victimes D'Octobre 1985 to pay respects to the victims of the tragic terrorist attack and gain insights into Tunisia's history.
+Midday: Savor the authentic flavors of Tunisian cuisine at Restaurant Erray, renowned for its delectable traditional dishes and warm hospitality.
+Afternoon: Embark on a guided tour of Parc National Boukornine, marveling at the diverse flora, including vibrant orchids, and encounter the elusive wildlife that roams this protected area.
+Evening: As the sun sets, take a leisurely stroll along the scenic Plage beach pavilion, enjoying the tranquil ambiance and stunning views of the Mediterranean Sea.
+Night: Experience the vibrant nightlife of Hammam-Lif by visiting The Bet 216 H.lif casino, trying your luck at various games of chance while enjoying the electric atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.
+**Salon de The Aicha** 
+Situated at (36.73076352016, 10.335894253637), this cafe is located on 49 Rue D' Alger in Hammam-Lif, Tunisia. Open from 5:30 AM to midnight, this cafe is popular with reviewers, who give it an average rating of 4.0 out of 5.
+Cafe-Restaurant 59, located in Hammam-Lif, Tunisia (36.7255857, 10.3437438), offers a delightful dining experience specializing in delectable pizzas. Open 24 hours a day, this pizzeria welcomes guests at any time, providing a convenient option for those seeking a satisfying meal. Despite lacking a website, Cafe-Restaurant 59 garners positive reviews, boasting a 4.0 rating from 10 satisfied customers. Its featured image showcases an inviting ambiance, while its main category, Pizzeria, accurately reflects the establishment's culinary focus.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Gare Hammam Lif is a train station in Hammam-Lif, Tunisia. It offers rail services to various destinations in the country. The station is conveniently located with the following coordinates: (36.7255857, 10.3437438).
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a 3.6-rated Point d'eau located in Hammam-Lif, Tunisia. Its coordinates are (36.7255857, 10.3437438).
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It's dedicated to the victims of the October 1985 terrorist attack. The museum offers a unique opportunity to learn about this tragic event and its impact on the community. It's a place of remembrance and reflection, and a reminder of the importance of peace and reconciliation. It's a must-visit for anyone interested in the history of Tunisia and the fight against terrorism.
+Parc National Boukornine is a protected area surrounding Mount Boukornine, offering stunning hiking trails where visitors can marvel at diverse flora, including vibrant orchids. This sanctuary is also home to an array of wildlife, including elusive jackals and graceful wildcats. Conveniently located at M96M+99H Parc National Boukornine, A1 in Hammam-Lif, it boasts exceptional reviews, earning a 4.1-star rating from 239 satisfied visitors.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+**ljbl l'khDr ltqTyr lnbtt**
+This natural food store is located in Hammam-Lif, Tunisia. It offers a variety of healthy and organic products, and is open from 9am to 6pm. It is highly recommended by its customers, who praise its quality products and friendly staff.
+Creche Ile au Tresor is a restaurant located in Hammam-Lif, Tunisia. It is open 24 hours a day and offers a variety of food options. The restaurant has a 4.0 rating on Google and is located at the coordinates (36.733289598091, 10.323450671271).
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Restaurant Metro is a fast-food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast-food options, including burgers, sandwiches, and pizzas. The restaurant is open from 11:00 AM to 12:00 AM, seven days a week. It is located at 002, Av Habib Bourguiba, +2+, Hammam-Lif 2050. The restaurant has a rating of 4.4 stars on Google Maps, based on 14 reviews.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+TotalEnergies HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia, at the coordinates (36.7287, 10.333). The gas station is open 24 hours a day and offers a wide range of services, including fuel, car wash, and oil change. TotalEnergies HAMMAM LIF also has a convenience store that sells snacks, drinks, and other items.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2302,12 +3190,70 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Cafe Ludo located at Rue Slaheddine Bouchoucha, Hammam-Lif 2050. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 36.730867795258, 10.338396637101. For more details, call them at 50 315 711.</t>
+          <t>Cafe Ludo is a highly-rated cafe located in Hammam-Lif, offering a cozy and inviting ambiance. Open from 6 AM to midnight, this cafe serves a variety of coffee, tea, and other beverages along with snacks and light meals. Located at 36.730867795258, 10.338396637101, Cafe Ludo is a popular spot for locals and tourists alike to relax, socialize, and enjoy a delicious cup of coffee.</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated cafe with a 4.7 rating in Hammam-Lif, known for its exceptional cafe options?</t>
+          <t>Day Plan:
+Morning: Exploring the market at Hammam Lif to soak in the local culture and shop for souvenirs.
+Mid-Morning: Trying local cuisine at Chefchouf, known for its mouthwatering pizzas.
+Midday: Visiting the Memorial Aux Victimes D'Octobre 1985 to learn about the tragic train disaster and the resilience of the community.
+Afternoon: Enjoying a relaxing massage at Larym Beauty Institute to rejuvenate and unwind.
+Evening: Savoring a delicious dinner at Restaurant Erray, renowned for its authentic Tunisian flavors.
+Night: Witnessing a captivating performance at The Bet 216 H.lif casino, renowned for its vibrant atmosphere and exciting entertainment.</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.
+Cafe Perfeito is a cafe located in Hammam-Lif, Tunisia. It is located at the coordinates (36.747038652609, 10.308746266612). The cafe offers a variety of drinks and snacks, and is a popular spot for locals and tourists alike. It has a rating of 4.9 on Google Maps and has received 1 review.
+Chefchouf, located in Hammam-Lif, offers mouthwatering pizzas, as evidenced by its 4.8 rating based on 6 reviews. The pizzeria is open daily from 9am to 1pm and from 5pm to 10pm, except on Mondays. Chefchouf is easily accessible at Rue docteur calmet, with coordinates (36.7188867, 10.3543151).
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Gare Hammam Lif is a train station in Hammam-Lif, Tunisia. It offers rail services to various destinations in the country. The station is conveniently located with the following coordinates: (36.7255857, 10.3437438).
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a 3.6-rated Point d'eau located in Hammam-Lif, Tunisia. Its coordinates are (36.7255857, 10.3437438).
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It is dedicated to the victims of the 1985 Hammam-Lif train disaster. The museum offers a variety of exhibits on the disaster, including photographs, artifacts, and personal stories. It is a popular tourist destination for those interested in learning more about Tunisian history. The museum is located at (36.7255857, 10.3437438).
+Nestled around Mount Boukornine, Parc National Boukornine is a protected haven offering picturesque hiking trails amidst nature's splendor. Located in Hammam-Lif, it boasts a diverse ecosystem with vibrant orchids, elusive chacals, and graceful wildcats. With its stunning mountain backdrop and a rich cultural heritage dating back to 1987, this park invites nature enthusiasts to explore its wonders while embracing its historical significance.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+**ljbl l'khDr ltqTyr lnbtt**
+This natural food store is located in Hammam-Lif, Tunisia. It offers a variety of healthy and organic products, and is open from 9am to 6pm. It is highly recommended by its customers, who praise its quality products and friendly staff.
+Pizzeria PORTANOVA, located in Hammam-Lif (coordinates: 36.7255857, 10.3437438), offers a delicious dining experience with an extensive menu of pizzas and other Italian specialties. It is highly rated (4.9 out of 5), has received 10 reviews, and is open from 3 PM to midnight, except for Mondays.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+Agil Hammam lif is a well-rated gas station with a 5-star rating on Google reviews. It is located in hammam-lif, at the coordinates (36.722854, 10.3488626).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2409,12 +3355,69 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a great cafe, check out cafe mosaique located at P8JR+8G7 cafe mosaique, Rue Pasteur. This top-rated destination is perfect for Cafe lovers, offering a cozy atmosphere and delicious menu items. With a rating of 4.7, it's a must-visit spot. cafe mosaique is open during these hours: 06:00-00:00. For more details, visit their website at https://www.google.com/maps/place/caf%C3%A9+mosaique/data=!4m7!3m6!1s0x12fd49fcf297edbb:0xc39da1f374624c1d!8m2!3d36.7307765!4d10.341288!16s%2Fg%2F11hjkqgh5l!19sChIJu-2X8vxJ_RIRHUxidPOhncM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan for reservations or inquiries.</t>
+          <t>Cafe Mosaique, located in Hammam-Lif (coordinates: 36.72951172979, 10.340563329129), is a cafe with a 4.7 rating based on 3 reviews. It offers its services from 6:00 am to midnight, every day of the week.</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated café with a cozy ambiance and a prime location in Hammam-Lif?</t>
+          <t>Day Plan:
+Morning: Exploring Hammam-Lif Municipality
+Mid-Morning: Trying local cuisine at Restaurant Erray
+Midday: Visiting the Memorial Aux Victimes D'Octobre 1985
+Afternoon: Enjoying the scenic views at Plage
+Evening: Relaxing with a hammam experience at Larym
+Night: Exploring the nightlife at The Bet 216 H.lif</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.
+La Cabane (Sardouk) is a popular cafe located in Hammam-Lif, Tunisia. It offers a range of services, including 24-hour service. The cafe is well-rated, with an average score of 4.8 out of 5, and has received positive reviews for its ambiance and service.
+Cafe-Restaurant 59 is a Pizzeria located in hammam-lif (36.7255857, 10.3437438). It is open 24 hours a day and offers a variety of pizzas. It is rated 4.0 stars by its customers.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Gare Hammam Lif is a train station in Hammam-Lif, Tunisia. It offers rail services to various destinations in the country. The station is conveniently located with the following coordinates: (36.7255857, 10.3437438).
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It offers a wide range of products and services, including food, clothing, and electronics. The market is located on P8FP+834 in Hammam-Lif and is open daily from 8am to 8pm.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It is dedicated to the victims of the 1985 Hammam-Lif train disaster. The museum offers a variety of exhibits on the disaster, including photographs, artifacts, and personal stories. It is a popular tourist destination for those interested in learning more about Tunisian history. The museum is located at (36.7255857, 10.3437438).
+Parc National Boukornine is a protected area in Tunisia, set up in 1987 around the Boukornine mountain. The park offers many hiking trails, and is home to wildlife such as orchids, chacals, and wild cats. Reviews emphasize its natural beauty, with a focus on its mountain scenery and wildlife. It is located at M96M+99H Parc National Boukornine, A1, Hammam-Lif, Tunisia and can be reached by phone at 58 905 502.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+Creche Ile au Tresor is a restaurant located in Hammam-Lif, Tunisia. It is open 24 hours a day and offers a variety of food options. The restaurant has a 4.0 rating on Google and is located at the coordinates (36.733289598091, 10.323450671271).
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Restaurant Metro is a fast-food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast-food options, including burgers, sandwiches, and pizzas. The restaurant is open from 11:00 AM to 12:00 AM, seven days a week. It is located at 002, Av Habib Bourguiba, +2+, Hammam-Lif 2050. The restaurant has a rating of 4.4 stars on Google Maps, based on 14 reviews.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+OLA ENERGY HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia. It offers 24/7 service and also has an auto accessory store and an oil change service. The station is highly rated and has received 8 reviews. The station is located at GP1 Avenue de la republic hammem lif, Hmm 'nf 2050, RN1, Hammam-Lif 2050. It is in close vicinity to public transportation and offers a wide range of services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2520,13 +3523,71 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Casa Italiana located at P8JM+CG6 Casa Italiana, Rue Antony, Hammam-Lif. This top-rated destination is perfect for Cafe lovers and offers Cafe to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 05:00-00:00. To get there, use these GPS coordinates: 36.7310773, 10.3336664. For more details, visit their website at  or call them at 55 940 854.</t>
+          <t>Casa Italiana is a cafe located in Hammam-Lif, Tunisia, offering a cozy ambiance and delicious food and drinks. Its prime location makes it easily accessible, and with its warm atmosphere, Casa Italiana is the perfect place to relax and socialize.</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>Question:
-Where is the highly-rated Casa Italiana that offers a delightful cafe experience in Hammam-Lif?</t>
+          <t>Day Plan:
+Morning: Explore the bustling Hammam-Lif Market, immersing yourself in its vibrant atmosphere and browsing the diverse range of products and services.
+Mid-Morning: Visit the Memorial Aux Victimes D'Octobre 1985, where you can delve into the poignant history of the 1985 terrorist attack and pay respects to the victims.
+Midday: Indulge in traditional Tunisian flavors at Restaurant Erray, savoring the delectable dishes that have earned it high praise and a 5.0 rating.
+Afternoon: Embark on a nature escape to Parc National Boukornine, where you can explore scenic hiking trails and encounter the area's abundant wildlife.
+Evening: Ascend to the scenic viewpoint at Plage, where you can witness a breathtaking sunset over the Mediterranean Sea and enjoy panoramic views of the surroundings.
+Night: Immerse yourself in the local nightlife at The Bet 216 H.lif casino, trying your luck at various games or simply soaking up the lively ambiance.</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle, located at 8 Av. Habib Bourguiba in Hammam-Lif, is a popular spot for bubble tea lovers. Open from 10:00 to 21:30, except on Tuesdays, this cozy establishment offers a delightful selection of desserts and non-alcoholic beverages. Its average rating of 4.5 stars based on 20 reviews is a testament to its excellent service and quality offerings.
+Biz-ART Coffee Club, located at P8JQ+4PM Biz-ART Coffee Club, Rue Salammbo, Hammam-Lif (36.7255857, 10.3437438), is a popular cafe frequented by satisfied patrons. It offers a range of refreshments to delight coffee enthusiasts, with average ratings of 4.0. It operates daily from 6:00-23:00 except on days it is closed.
+Cafe-Restaurant 59, located in Hammam-Lif, Tunisia (36.7255857, 10.3437438), offers a delightful dining experience specializing in delectable pizzas. Open 24 hours a day, this pizzeria welcomes guests at any time, providing a convenient option for those seeking a satisfying meal. Despite lacking a website, Cafe-Restaurant 59 garners positive reviews, boasting a 4.0 rating from 10 satisfied customers. Its featured image showcases an inviting ambiance, while its main category, Pizzeria, accurately reflects the establishment's culinary focus.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Gare Hammam Lif is a railway station located in Hammam-Lif, Tunisia. It offers convenient train services for locals and tourists alike. The station is situated at convenient coordinates of (36.7255857, 10.3437438). Additionally, Gare Hammam Lif boasts a 3.6 out of 5 stars rating, indicating its popularity and customer satisfaction.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It offers a wide range of products and services, including food, clothing, and electronics. The market is located on P8FP+834 in Hammam-Lif and is open daily from 8am to 8pm.
+Hammam-Lif is a 3.6-rated Point d'eau located in Hammam-Lif, Tunisia. Its coordinates are (36.7255857, 10.3437438).
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It's dedicated to the victims of the October 1985 terrorist attack. The museum offers a unique opportunity to learn about this tragic event and its impact on the community. It's a place of remembrance and reflection, and a reminder of the importance of peace and reconciliation. It's a must-visit for anyone interested in the history of Tunisia and the fight against terrorism.
+Parc National Boukornine is a protected area in Tunisia, set up in 1987 around the Boukornine mountain. The park offers many hiking trails, and is home to wildlife such as orchids, chacals, and wild cats. Reviews emphasize its natural beauty, with a focus on its mountain scenery and wildlife. It is located at M96M+99H Parc National Boukornine, A1, Hammam-Lif, Tunisia and can be reached by phone at 58 905 502.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+**ljbl l'khDr ltqTyr lnbtt**
+This natural food store is located in Hammam-Lif, Tunisia. It offers a variety of healthy and organic products, and is open from 9am to 6pm. It is highly recommended by its customers, who praise its quality products and friendly staff.
+**Machewi Khayati**
+Machewi Khayati is a restaurant located in Hammam-Lif, Tunisia at the address 208 Avenue de la Republique. The restaurant is open from 7:00 AM to 10:00 PM, and it serves a variety of dishes. It also has a rating of 4.3 out of 5 stars on Google reviews.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Restaurant Metro is a fast-food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast-food options, including burgers, sandwiches, and pizzas. The restaurant is open from 11:00 AM to 12:00 AM, seven days a week. It is located at 002, Av Habib Bourguiba, +2+, Hammam-Lif 2050. The restaurant has a rating of 4.4 stars on Google Maps, based on 14 reviews.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+TotalEnergies HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia, at the coordinates (36.7287, 10.333). The gas station is open 24 hours a day and offers a wide range of services, including fuel, car wash, and oil change. TotalEnergies HAMMAM LIF also has a convenience store that sells snacks, drinks, and other items.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2624,12 +3685,70 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Salon De The L'histoire located at P8JP+VG3 Salon De The L'histoire, Rue Habib Bougatfa, Hammam-Lif. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 08:00-23:00, but closed on []. To get there, use these GPS coordinates: nan, nan. For more details, visit their website at nan or call them at 71 437 055.</t>
+          <t>Salon De The L'histoire is a cafe with a 4.3 rating located in Hammam-Lif. Located at P8JP+VG3 Rue Habib Bougatfa, it is open from 08:00-23:00 and offers a relaxing atmosphere to enjoy a cup of coffee or tea. Its phone number is 71 437 055, and you can also reach out to its owner, Salon De The L'histoire (proprietaire).</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>What is the special spot in Hammam-Lif with top-rated Cafe and a cozy ambiance?</t>
+          <t>Day Plan:
+Morning: Exploring the Hammam-Lif Municipality
+Mid-Morning: Trying local cuisine at Cafe skander
+Midday: Visiting Memorial Aux Victimes D'Octobre 1985
+Afternoon: Enjoying scenic views at Parc National Boukornine
+Evening: Participating in outdoor activities at Plage
+Night: Relaxing with a massage at Larym</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.
+**Cafe skander** is a cafe located in hammam-lif, Tunisia. It offers a variety of coffee drinks, as well as pastries and snacks. The cafe is open from 8am to 8pm every day, and is located at P8HJ+MGR RN1, Hammam-Lif.
+Cafe-Restaurant 59, located in Hammam-Lif, Tunisia (36.7255857, 10.3437438), offers a delightful dining experience specializing in delectable pizzas. Open 24 hours a day, this pizzeria welcomes guests at any time, providing a convenient option for those seeking a satisfying meal. Despite lacking a website, Cafe-Restaurant 59 garners positive reviews, boasting a 4.0 rating from 10 satisfied customers. Its featured image showcases an inviting ambiance, while its main category, Pizzeria, accurately reflects the establishment's culinary focus.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+by'r lby offers a range of services to meet the needs of its customers. It has 13 reviews and a rating of 3.1. Located at (36.7255857, 10.3437438) in the city of hammam-lif, by'r lby is easily accessible.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a 3.6-rated Point d'eau located in Hammam-Lif, Tunisia. Its coordinates are (36.7255857, 10.3437438).
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+In Hammam-Lif, the Memorial Aux Victimes D'Octobre 1985 is a museum located at the following coordinates: (36.7255857, 10.3437438). Currently, there are three reviews for this museum, which is owned by Memorial Aux Victimes D'Octobre 1985 (proprietaire).
+Nestled in northern Tunisia and established in 1987, Parc National Boukornine encompasses the majestic Boukornine Mountain. Designated as a protected natural area, the park offers a vibrant ecosystem and sanctuary for diverse flora and fauna. Situated at coordinates (36.7303975, 10.3295395), it boasts an altitude of 3963 feet, providing breathtaking panoramic views. The park is a paradise for nature enthusiasts, with a network of hiking trails winding through its verdant landscapes. Within its borders, visitors can spot orchids, mammals like chacals, and elusive wildcats amidst a rich biodiversity.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+**ljbl l'khDr ltqTyr lnbtt**
+This natural food store is located in Hammam-Lif, Tunisia. It offers a variety of healthy and organic products, and is open from 9am to 6pm. It is highly recommended by its customers, who praise its quality products and friendly staff.
+Los Caprichos is a restaurant located in Hammam-Lif, Tunisia. It is rated 4.0 out of 5 stars on Google and has received 3 reviews. Los Caprichos offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the following coordinates: 36.721708762725, 10.358406416192.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Restaurant Metro is a fast-food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast-food options, including burgers, sandwiches, and pizzas. The restaurant is open from 11:00 AM to 12:00 AM, seven days a week. It is located at 002, Av Habib Bourguiba, +2+, Hammam-Lif 2050. The restaurant has a rating of 4.4 stars on Google Maps, based on 14 reviews.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+Agil Hammam lif is a well-rated gas station with a 5-star rating on Google reviews. It is located in hammam-lif, at the coordinates (36.722854, 10.3488626).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2727,12 +3846,70 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out La Cafet located at P8HV+JG2 La Cafet, Mandes France, Hammam-Lif 2050. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-00:00, but closed on []. To get there, use these GPS coordinates: 36.7188867, 10.3543151. For more details, visit their website at https://www.google.com/maps/place/La+Caf%C3%A9t/data=!4m7!3m6!1s0x12fd4984e95cd7db:0x8a90cd6e8c497f38!8m2!3d36.7290128!4d10.3437693!16s%2Fg%2F11g__476t_!19sChIJ29dc6YRJ_RIROH9JjG7NkIo?authuser=0&amp;hl=fr&amp;rclk=1 or call them at , as this information is currently unavailable.</t>
+          <t>Located at P8HV+JG2 La Cafet, Mandes France, Hammam-Lif 2050, La Cafet is a highly-rated cafe (5.0 out of 5 stars based on 2 reviews) that opens daily from 6 AM to midnight. Unfortunately, there is no further information or description available about this establishment.</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated cafe with a wide selection of Cafe options in the Hammam-Lif area, known for its 5.0 rating and a perfect destination for Cafe enthusiasts?</t>
+          <t>Day Plan:
+Morning: Take a guided tour of Parc National Boukornine to explore its stunning nature trails and learn about its cultural heritage.
+Mid-Morning: Visit the Memorial Aux Victimes D'Octobre 1985 to pay your respects and learn about the tragic terrorist attack.
+Midday: Try local cuisine at Restaurant Erray, known for its delicious traditional Tunisian dishes served 24 hours a day.
+Afternoon: Enjoy a relaxing massage at Larym beauty institute to rejuvenate and unwind.
+Evening: Experience cultural immersion at the Hammam-Lif Municipality, where you can observe local festivities or engage in community events.
+Night: Explore the Hammam Lif market to discover unique local products and soak in the lively atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.
+Cafe Wifi, located in Hammam-Lif, Tunisia (36.7255857, 10.3437438), is a cozy cafe that offers a warm and inviting atmosphere for its customers. The cafe opens daily from 7 AM to 11 PM, providing ample time for patrons to enjoy their coffee, tea, or other beverages. Cafe Wifi's focus on customer satisfaction is evident in its positive reviews, which praise its friendly staff and relaxing ambiance.
+Cafe-Restaurant 59, located in Hammam-Lif, Tunisia (36.7255857, 10.3437438), offers a delightful dining experience specializing in delectable pizzas. Open 24 hours a day, this pizzeria welcomes guests at any time, providing a convenient option for those seeking a satisfying meal. Despite lacking a website, Cafe-Restaurant 59 garners positive reviews, boasting a 4.0 rating from 10 satisfied customers. Its featured image showcases an inviting ambiance, while its main category, Pizzeria, accurately reflects the establishment's culinary focus.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+by'r lby offers a range of services to meet the needs of its customers. It has 13 reviews and a rating of 3.1. Located at (36.7255857, 10.3437438) in the city of hammam-lif, by'r lby is easily accessible.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a 3.6-rated Point d'eau located in Hammam-Lif, Tunisia. Its coordinates are (36.7255857, 10.3437438).
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It's dedicated to the victims of the October 1985 terrorist attack. The museum offers a unique opportunity to learn about this tragic event and its impact on the community. It's a place of remembrance and reflection, and a reminder of the importance of peace and reconciliation. It's a must-visit for anyone interested in the history of Tunisia and the fight against terrorism.
+Nestled around Mount Boukornine, Parc National Boukornine is a protected haven offering picturesque hiking trails amidst nature's splendor. Located in Hammam-Lif, it boasts a diverse ecosystem with vibrant orchids, elusive chacals, and graceful wildcats. With its stunning mountain backdrop and a rich cultural heritage dating back to 1987, this park invites nature enthusiasts to explore its wonders while embracing its historical significance.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+**ljbl l'khDr ltqTyr lnbtt**
+This natural food store is located in Hammam-Lif, Tunisia. It offers a variety of healthy and organic products, and is open from 9am to 6pm. It is highly recommended by its customers, who praise its quality products and friendly staff.
+Creche Ile au Tresor is a restaurant located in Hammam-Lif, Tunisia. It is open 24 hours a day and offers a variety of food options. The restaurant has a 4.0 rating on Google and is located at the coordinates (36.733289598091, 10.323450671271).
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+Agil Hammam lif is a well-rated gas station with a 5-star rating on Google reviews. It is located in hammam-lif, at the coordinates (36.722854, 10.3488626).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2838,12 +4015,69 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a great cafe, check out CAFE EL MAESTRO located at 03 Rue de la Republique. This top-rated spot offers a range of cafe options to choose from. With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day, but closed on []. To get there, use these GPS coordinates: 36.74439153775, 10.313528385302. For more details, visit their website at [website] or call them at 28 751 802.</t>
+          <t>CAFE EL MAESTRO is a 5-star rated cafe located at 03 Rue de la Republique, Hammam-Lif. It is open 24 hours a day and offers a variety of cafe-related services. The cafe is located at (36.74439153775, 10.313528385302).</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated café with 24-hour accessibility in Hammam-Lif, renowned for its exceptional café offerings?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant Hammam-Lif Market for local goods and stunning handicraft souvenirs.
+Mid-Morning: Immerse in the aromatic flavors of Tunisia at Let's Waffle, known for its delectable bubble tea and dessert selection.
+Midday: Indulge in authentic Tunisian cuisine at Restaurant Erray, renowned for its traditional dishes and exceptional service.
+Afternoon: Visit the Parc National Boukornine, a breathtaking natural sanctuary, and embark on a refreshing hike amidst its diverse flora and fauna.
+Evening: Head to Cafe-restaurant L' Opera for a delightful dinner in a cozy atmosphere, relishing the local flavors and warm hospitality.
+Night: Explore the lively streets of Hammam-Lif, soak in the vibrant atmosphere, and discover hidden gems such as Mariem Onglerie et beaute for a relaxing nail treatment.</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle, located at 8 Av. Habib Bourguiba in Hammam-Lif, is a popular spot for bubble tea lovers. Open from 10:00 to 21:30, except on Tuesdays, this cozy establishment offers a delightful selection of desserts and non-alcoholic beverages. Its average rating of 4.5 stars based on 20 reviews is a testament to its excellent service and quality offerings.
+Salon de thé Amazonia is a café located in Hammam-Lif, Tunisia, with a 4.4 rating based on 11 reviews. It is situated at coordinates (36.7309361, 10.3325177) and is known for its delicious coffee and pastries.
+Cafe-Restaurant 59 is a Pizzeria located in hammam-lif (36.7255857, 10.3437438). It is open 24 hours a day and offers a variety of pizzas. It is rated 4.0 stars by its customers.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Gare Hammam Lif is a train station in Hammam-Lif, Tunisia. It offers rail services to various destinations in the country. The station is conveniently located with the following coordinates: (36.7255857, 10.3437438).
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It is dedicated to the victims of the 1985 Hammam-Lif train disaster. The museum offers a variety of exhibits on the disaster, including photographs, artifacts, and personal stories. It is a popular tourist destination for those interested in learning more about Tunisian history. The museum is located at (36.7255857, 10.3437438).
+Parc National Boukornine is a protected area surrounding Mount Boukornine, offering stunning hiking trails where visitors can marvel at diverse flora, including vibrant orchids. This sanctuary is also home to an array of wildlife, including elusive jackals and graceful wildcats. Conveniently located at M96M+99H Parc National Boukornine, A1 in Hammam-Lif, it boasts exceptional reviews, earning a 4.1-star rating from 239 satisfied visitors.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+Creche Ile au Tresor is a restaurant located in Hammam-Lif, Tunisia. It is open 24 hours a day and offers a variety of food options. The restaurant has a 4.0 rating on Google and is located at the coordinates (36.733289598091, 10.323450671271).
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+Agil Hammam lif is a well-rated gas station with a 5-star rating on Google reviews. It is located in hammam-lif, at the coordinates (36.722854, 10.3488626).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2945,13 +4179,70 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a top-rated cafe, check out Cafe Mosaique located at P979+8H6 Cafe Mosaique, P1. 
-This destination is a must-visit spot for cafe lovers with a rating of 4.0. It's open 24 hours a day. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Mosaique/data=!4m7!3m6!1s0x12fd4f20fb19dba3:0xe34582cca982b154!8m2!3d36.7132806!4d10.3688865!16s%2Fg%2F1tpb861d!19sChIJo9sZ-yBP_RIRVLGCqcyCReM?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Cafe Mosaique, located at P979+8H6 Cafe Mosaique, P1, Hammam-Lif, offers a cozy ambiance and a menu that caters to cafe enthusiasts. The cafe is open 24 hours a day, making it a convenient spot for those seeking a caffeine fix or a bite to eat at any hour. Its geolocation at (36.7255857, 10.3437438) places it conveniently within the city of Hammam-Lif.</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe open 24 hours a day in Hammam-Lif?</t>
+          <t>Day Plan:
+Morning: Explore the lively Hammam Lif Market, offering a wide array of local produce, souvenirs, and handicrafts.
+Mid-Morning: Visit the Memorial Aux Victimes D'Octobre 1985, a museum dedicated to the victims of the 1985 Hammam-Lif train disaster, offering insights into Tunisia's history.
+Midday: Enjoy a delicious lunch of traditional Tunisian cuisine at the highly-rated Restaurant Erray, known for its authentic flavors and warm hospitality.
+Afternoon: Head to Parc National Boukornine for a rejuvenating hike amidst its stunning natural beauty, with its diverse ecosystem and picturesque trails.
+Evening: Immerse yourself in the vibrant atmosphere of the Bet 216 H.lif Casino, located near the Mediterranean Sea, offering a thrilling and entertaining experience.
+Night: Relax and unwind with a soothing spa treatment at Larym, a renowned beauty institute, leaving you refreshed and rejuvenated for the rest of your trip.</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.
+Cafe Mosaique, located at P979+8H6 Cafe Mosaique, P1, Hammam-Lif, offers a cozy ambiance and a menu that caters to cafe enthusiasts. The cafe is open 24 hours a day, making it a convenient spot for those seeking a caffeine fix or a bite to eat at any hour. Its geolocation at (36.7255857, 10.3437438) places it conveniently within the city of Hammam-Lif.
+Cafe-Restaurant 59 is a Pizzeria located in hammam-lif (36.7255857, 10.3437438). It is open 24 hours a day and offers a variety of pizzas. It is rated 4.0 stars by its customers.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Gare Hammam Lif is a train station in Hammam-Lif, Tunisia. It offers rail services to various destinations in the country. The station is conveniently located with the following coordinates: (36.7255857, 10.3437438).
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It offers a wide range of products and services, including food, clothing, and electronics. The market is located on P8FP+834 in Hammam-Lif and is open daily from 8am to 8pm.
+Hammam-Lif is a 3.6-rated Point d'eau located in Hammam-Lif, Tunisia. Its coordinates are (36.7255857, 10.3437438).
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It is dedicated to the victims of the 1985 Hammam-Lif train disaster. The museum offers a variety of exhibits on the disaster, including photographs, artifacts, and personal stories. It is a popular tourist destination for those interested in learning more about Tunisian history. The museum is located at (36.7255857, 10.3437438).
+Nestled around Mount Boukornine, Parc National Boukornine is a protected haven offering picturesque hiking trails amidst nature's splendor. Located in Hammam-Lif, it boasts a diverse ecosystem with vibrant orchids, elusive chacals, and graceful wildcats. With its stunning mountain backdrop and a rich cultural heritage dating back to 1987, this park invites nature enthusiasts to explore its wonders while embracing its historical significance.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+**ljbl l'khDr ltqTyr lnbtt**
+This natural food store is located in Hammam-Lif, Tunisia. It offers a variety of healthy and organic products, and is open from 9am to 6pm. It is highly recommended by its customers, who praise its quality products and friendly staff.
+The Restaurant Hammam is located in hammam-lif. The restaurant offers a variety of food and drinks, and has a rating of 4.0 out of 5 stars. It is located at the following coordinates: (36.7255857, 10.3437438).
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+OLA ENERGY HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia. It offers 24/7 service and also has an auto accessory store and an oil change service. The station is highly rated and has received 8 reviews. The station is located at GP1 Avenue de la republic hammem lif, Hmm 'nf 2050, RN1, Hammam-Lif 2050. It is in close vicinity to public transportation and offers a wide range of services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3053,12 +4344,70 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a great cafe, check out Cafe Bessaies located at Militant Ali Chehimi. This top-rated destination is perfect for cafe lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 36.7255857, 10.3437438. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Bessaies/data=!4m7!3m6!1s0x12fd493af982ee99:0xf5ac426f58794e49!8m2!3d36.7316671!4d10.3364023!16s%2Fg%2F11dyp1c0dw!19sChIJme6C-TpJ_RIRSU55WG9CrPU?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Cafe Bessaies is a cafe located in Hammam-Lif, Tunisia. It is situated at the coordinates (36.7255857, 10.3437438) and offers a variety of services. The cafe is open from 6:00 AM to 12:00 AM, seven days a week. Cafe Bessaies has a 4.0 rating on Google and has received 2 reviews.</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>Where in Hammam-Lif can you find a highly-rated cafe with a wide selection of categories, perfect for cafe enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the bustling Hammam Lif market and soak up the vibrant atmosphere.
+Mid-Morning: Indulge in authentic Tunisian cuisine at Restaurant Erray, savoring the delectable flavors of the region.
+Midday: Visit the Memorial Aux Victimes D'Octobre 1985, a poignant reminder of the past and a tribute to resilience.
+Afternoon: Escape to Parc National Boukornine, embracing nature's tranquility while enjoying scenic hiking trails.
+Evening: Savor the delightful crepes at Foret noire, a culinary haven offering both sweet and savory delights.
+Night: Recharge and rejuvenate at Mariem Onglerie et beaute, pampering yourself with exceptional nail treatments.</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.
+Cafe Mosaique, located at P979+8H6 Cafe Mosaique, P1, Hammam-Lif, offers a cozy ambiance and a menu that caters to cafe enthusiasts. The cafe is open 24 hours a day, making it a convenient spot for those seeking a caffeine fix or a bite to eat at any hour. Its geolocation at (36.7255857, 10.3437438) places it conveniently within the city of Hammam-Lif.
+Cafe-Restaurant 59 is a Pizzeria located in hammam-lif (36.7255857, 10.3437438). It is open 24 hours a day and offers a variety of pizzas. It is rated 4.0 stars by its customers.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Gare Hammam Lif is a railway station located in Hammam-Lif, Tunisia. It offers convenient train services for locals and tourists alike. The station is situated at convenient coordinates of (36.7255857, 10.3437438). Additionally, Gare Hammam Lif boasts a 3.6 out of 5 stars rating, indicating its popularity and customer satisfaction.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It's dedicated to the victims of the October 1985 terrorist attack. The museum offers a unique opportunity to learn about this tragic event and its impact on the community. It's a place of remembrance and reflection, and a reminder of the importance of peace and reconciliation. It's a must-visit for anyone interested in the history of Tunisia and the fight against terrorism.
+Nestled around Mount Boukornine, Parc National Boukornine is a protected haven offering picturesque hiking trails amidst nature's splendor. Located in Hammam-Lif, it boasts a diverse ecosystem with vibrant orchids, elusive chacals, and graceful wildcats. With its stunning mountain backdrop and a rich cultural heritage dating back to 1987, this park invites nature enthusiasts to explore its wonders while embracing its historical significance.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+**ljbl l'khDr ltqTyr lnbtt**
+This natural food store is located in Hammam-Lif, Tunisia. It offers a variety of healthy and organic products, and is open from 9am to 6pm. It is highly recommended by its customers, who praise its quality products and friendly staff.
+Fresh Instant is a restaurant located in Hammam-Lif, Tunisia. It is open from 8:00 AM to 5:00 PM from Monday to Friday and is closed on Saturday and Sunday. Its main category is Restaurant.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+Agil Hammam lif is a well-rated gas station with a 5-star rating on Google reviews. It is located in hammam-lif, at the coordinates (36.722854, 10.3488626).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3156,12 +4505,70 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a top-rated cafe, check out cafe du sport located at P978+4PW cafe du sport, Av. de la paix,. This popular destination is perfect for cafe lovers and has a rating of 4.5. It's open during these hours: 06:30-23:00. To get there, use these GPS coordinates: 30.05492, -90.66731.</t>
+          <t>"Cafe du Sport" is a cafe located in Hammam-Lif, Tunisia. It has a rating of 4.5 out of 5 based on 2 reviews and is open from 6:30 AM to 11:00 PM.</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>Where can you find a highly acclaimed cafe (with a 4.5 rating) in Hammam-Lif that caters to cafe enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the bustling Hammam Lif Market for local goods and a glimpse into the daily life of the city.
+Mid-Morning: Visit the Memorial Aux Victimes D'Octobre 1985 to learn about the city's history and pay tribute to those who lost their lives in the train disaster.
+Midday: Savor a traditional Tunisian lunch at Restaurant Erray, known for its authentic dishes and warm hospitality.
+Afternoon: Spend some time at Parc National Boukornine, immersing yourself in the beauty of nature with scenic trails and diverse wildlife.
+Evening: Enjoy a refreshing crepe at Foret Noire, renowned for its delicious sweet and savory options.
+Night: Relax and rejuvenate with a traditional hammam treatment at Larym beauty institute, known for its spa and relaxation services.</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle, located at 8 Av. Habib Bourguiba in Hammam-Lif, is a popular spot for bubble tea lovers. Open from 10:00 to 21:30, except on Tuesdays, this cozy establishment offers a delightful selection of desserts and non-alcoholic beverages. Its average rating of 4.5 stars based on 20 reviews is a testament to its excellent service and quality offerings.
+CAFE EL MAESTRO is a 5-star rated cafe located at 03 Rue de la Republique, Hammam-Lif. It is open 24 hours a day and offers a variety of cafe-related services. The cafe is located at (36.74439153775, 10.313528385302).
+Cafe-Restaurant 59 is a Pizzeria located in hammam-lif (36.7255857, 10.3437438). It is open 24 hours a day and offers a variety of pizzas. It is rated 4.0 stars by its customers.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Gare Hammam Lif is a train station in Hammam-Lif, Tunisia. It offers rail services to various destinations in the country. The station is conveniently located with the following coordinates: (36.7255857, 10.3437438).
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It is dedicated to the victims of the 1985 Hammam-Lif train disaster. The museum offers a variety of exhibits on the disaster, including photographs, artifacts, and personal stories. It is a popular tourist destination for those interested in learning more about Tunisian history. The museum is located at (36.7255857, 10.3437438).
+Parc National Boukornine is a protected area surrounding Mount Boukornine, offering stunning hiking trails where visitors can marvel at diverse flora, including vibrant orchids. This sanctuary is also home to an array of wildlife, including elusive jackals and graceful wildcats. Conveniently located at M96M+99H Parc National Boukornine, A1 in Hammam-Lif, it boasts exceptional reviews, earning a 4.1-star rating from 239 satisfied visitors.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+**ljbl l'khDr ltqTyr lnbtt**
+This natural food store is located in Hammam-Lif, Tunisia. It offers a variety of healthy and organic products, and is open from 9am to 6pm. It is highly recommended by its customers, who praise its quality products and friendly staff.
+Ghalya cuisine et conserves is a restaurant located in Hammam-Lif, Tunisia, at the coordinates (36.7255857, 10.3437438). It has received 2 reviews and has a rating of 5.0. The restaurant offers cuisine and conserves and is open from 09:00-17:00, except on Sundays.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Restaurant Metro is a fast-food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast-food options, including burgers, sandwiches, and pizzas. The restaurant is open from 11:00 AM to 12:00 AM, seven days a week. It is located at 002, Av Habib Bourguiba, +2+, Hammam-Lif 2050. The restaurant has a rating of 4.4 stars on Google Maps, based on 14 reviews.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+Agil Hammam lif is a well-rated gas station with a 5-star rating on Google reviews. It is located in hammam-lif, at the coordinates (36.722854, 10.3488626).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3263,12 +4670,75 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Cafe hannibal located at P8GQ+J6C, RN1, Hammam-Lif. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 04:00-00:00. To get there, use these GPS coordinates: 36.732743558019, 10.322633566116.</t>
+          <t>Cafe Hannibal is a cozy cafe located in Hammam-Lif, Tunisia. It offers a warm and inviting atmosphere, making it the perfect place to relax and enjoy a cup of coffee or tea. The cafe also serves a variety of snacks and light meals, making it a great spot to grab a bite to eat. Cafe Hannibal is located at P8GQ+J6C on RN1, and its coordinates are 36.732743558019, 10.322633566116.</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>Where in Hammam-Lif can you indulge in highly-rated Cafe offerings at Cafe Hannibal?</t>
+          <t>Day Plan:
+**Morning:**
+Explore Hammam-Lif Municipality, the city hall of Hammam-Lif.
+**Mid-Morning:**
+Try local cuisine at Restaurant Metro, a fast-food restaurant offering a variety of local dishes.
+**Midday:**
+Visit the National Boukornine Park, a protected natural area with hiking trails and panoramic views.
+**Afternoon:**
+Enjoy the sun and water at Plage, a beach pavilion with sun loungers, umbrellas, and a bar and restaurant.
+**Evening:**
+Explore the vibrant Hammam Lif market, offering a wide range of products and services.
+**Night:**
+Relax with a massage at Larym, a renowned beauty institute.</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.
+Cafe Rossignol is a popular cafe located in Hammam-Lif, Tunisia. It offers a pleasant atmosphere to relax or work. Visit it to appreciate its food and coffee items. It is open for long hours.
+Chefchouf, located in Hammam-Lif, offers mouthwatering pizzas, as evidenced by its 4.8 rating based on 6 reviews. The pizzeria is open daily from 9am to 1pm and from 5pm to 10pm, except on Mondays. Chefchouf is easily accessible at Rue docteur calmet, with coordinates (36.7188867, 10.3543151).
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Gare Hammam Lif is a train station in Hammam-Lif, Tunisia. It offers rail services to various destinations in the country. The station is conveniently located with the following coordinates: (36.7255857, 10.3437438).
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It offers a wide range of products and services, including food, clothing, and electronics. The market is located on P8FP+834 in Hammam-Lif and is open daily from 8am to 8pm.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It's dedicated to the victims of the October 1985 terrorist attack. The museum offers a unique opportunity to learn about this tragic event and its impact on the community. It's a place of remembrance and reflection, and a reminder of the importance of peace and reconciliation. It's a must-visit for anyone interested in the history of Tunisia and the fight against terrorism.
+Nestled in northern Tunisia and established in 1987, Parc National Boukornine encompasses the majestic Boukornine Mountain. Designated as a protected natural area, the park offers a vibrant ecosystem and sanctuary for diverse flora and fauna. Situated at coordinates (36.7303975, 10.3295395), it boasts an altitude of 3963 feet, providing breathtaking panoramic views. The park is a paradise for nature enthusiasts, with a network of hiking trails winding through its verdant landscapes. Within its borders, visitors can spot orchids, mammals like chacals, and elusive wildcats amidst a rich biodiversity.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+Pizzeria PORTANOVA is a restaurant located in Hammam-lif, Tunisia. It is open from 3 PM to midnight and is closed on Mondays. The restaurant's featured image shows a colorful, visually appealing dish, suggesting that it specializes in traditional Italian cuisine. Pizzeria PORTANOVA has a rating of 4.9 out of 5 based on 10 reviews, and its main category is Restaurant. The restaurant's exact location is at coordinates (36.7255857, 10.3437438).
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Restaurant Metro is a fast-food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast-food options, including burgers, sandwiches, and pizzas. The restaurant is open from 11:00 AM to 12:00 AM, seven days a week. It is located at 002, Av Habib Bourguiba, +2+, Hammam-Lif 2050. The restaurant has a rating of 4.4 stars on Google Maps, based on 14 reviews.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+OLA ENERGY HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia. It offers 24/7 service and also has an auto accessory store and an oil change service. The station is highly rated and has received 8 reviews. The station is located at GP1 Avenue de la republic hammem lif, Hmm 'nf 2050, RN1, Hammam-Lif 2050. It is in close vicinity to public transportation and offers a wide range of services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3366,14 +4836,76 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Cafe skander located at P8HJ+MGR Cafe skander, RN1, Hammam-Lif. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+skander/data=!4m7!3m6!1s0x12fd498c14fc6eed:0xd787f8caec8ba57f!8m2!3d36.7292269!4d10.3312709!16s%2Fg%2F11k9kdwrhz!19sChIJ7W78FIxJ_RIRf6WL7Mr4h9c?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>**Cafe skander** is a cafe located in hammam-lif, Tunisia. It offers a variety of coffee drinks, as well as pastries and snacks. The cafe is open from 8am to 8pm every day, and is located at P8HJ+MGR RN1, Hammam-Lif.</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>Where can you go in Hammam-Lif to experience top-rated Cafe options?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the bustling Hammam Lif Market, discovering its vast selection of products and vibrant atmosphere.
+**Mid-Morning:**
+* Visit the historic Boukornine train station, admiring its architectural charm and learning about its significance as a transportation hub.
+**Midday:**
+* Try local cuisine at the renowned Restaurant Erray, savoring authentic Tunisian dishes in a welcoming ambiance.
+**Afternoon:**
+* Relax with a rejuvenating spa experience at Larym, indulging in various treatments and massages.
+**Evening:**
+* Enjoy a picturesque stroll along the sandy shores of Plage, taking in the breathtaking views of the Mediterranean Sea.
+**Night:**
+* Experience the lively ambiance of Cafe-restaurant L' Opera, savoring delicious food and enjoying the company of locals and tourists alike.</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle, located at 8 Av. Habib Bourguiba in Hammam-Lif, is a popular spot for bubble tea lovers. Open from 10:00 to 21:30, except on Tuesdays, this cozy establishment offers a delightful selection of desserts and non-alcoholic beverages. Its average rating of 4.5 stars based on 20 reviews is a testament to its excellent service and quality offerings.
+CAFE EL MAESTRO is a 5-star rated cafe located at 03 Rue de la Republique, Hammam-Lif. It is open 24 hours a day and offers a variety of cafe-related services. The cafe is located at (36.74439153775, 10.313528385302).
+Cafe-Restaurant 59 is a Pizzeria located in hammam-lif (36.7255857, 10.3437438). It is open 24 hours a day and offers a variety of pizzas. It is rated 4.0 stars by its customers.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Boukornine is a train station located in Hammam-Lif, Tunisia. It has received 4.2 stars from 24 reviews on Google Maps. Its coordinates are (36.73539, 10.32855).
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It offers a wide range of products and services, including food, clothing, and electronics. The market is located on P8FP+834 in Hammam-Lif and is open daily from 8am to 8pm.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+In Hammam-Lif, the Memorial Aux Victimes D'Octobre 1985 is a museum located at the following coordinates: (36.7255857, 10.3437438). Currently, there are three reviews for this museum, which is owned by Memorial Aux Victimes D'Octobre 1985 (proprietaire).
+Parc National Boukornine is a protected area surrounding Mount Boukornine, offering stunning hiking trails where visitors can marvel at diverse flora, including vibrant orchids. This sanctuary is also home to an array of wildlife, including elusive jackals and graceful wildcats. Conveniently located at M96M+99H Parc National Boukornine, A1 in Hammam-Lif, it boasts exceptional reviews, earning a 4.1-star rating from 239 satisfied visitors.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+**ljbl l'khDr ltqTyr lnbtt**
+This natural food store is located in Hammam-Lif, Tunisia. It offers a variety of healthy and organic products, and is open from 9am to 6pm. It is highly recommended by its customers, who praise its quality products and friendly staff.
+GRILL 33 is a restaurant located in Hammam-Lif, Tunisia. It is rated 4.0 out of 5 stars on Google and has one review. The restaurant's main category is Restaurant.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+Agil Hammam lif is a well-rated gas station with a 5-star rating on Google reviews. It is located in hammam-lif, at the coordinates (36.722854, 10.3488626).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3475,12 +5007,69 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Salon De The Jribi located at 36 Av. de la liberte, Hammam-Lif. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-23:00, but closed on []. To get there, use these GPS coordinates: 36.721708762725, 10.358406416192. For more details, visit their website at https://www.google.com/maps/place/Salon+De+Th%C3%A9+Jribi/data=!4m7!3m6!1s0x12fd4ed9af827b9b:0x466876590165042b!8m2!3d36.7193488!4d10.3633121!16s%2Fg%2F11f15dym0z!19sChIJm3uCr9lO_RIRKwRlAVl2aEY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at [nan].</t>
+          <t>The "Salon De The Jribi", located in Hammam-Lif (lon: 10.358406416192, lat: 36.721708762725), is a highly-rated cafe with a rating of 5.0 out of 5. The cafe offers patrons the opportunity to enjoy a delightful experience, with a focus on providing great service.</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Cafe with a 5.0 rating in Hammam-Lif that serves a variety of Cafe options?</t>
+          <t>Day Plan:
+Morning: Embark on a guided tour of the Memorial Aux Victimes D'Octobre 1985 to learn about the historical significance of the city.
+Mid-Morning: Visit the Hammam-Lif Municipality, the city hall, to gain insights into local administration and the city's infrastructure.
+Midday: Savor the delightful flavors of local Tunisian cuisine at the highly-rated Restaurant Erray, known for its authentic and delectable dishes.
+Afternoon: Explore the picturesque Parc National Boukornine, embark on a hiking trail to marvel at the stunning natural beauty and diverse flora, and potentially spot elusive wildlife.
+Evening: Immerse yourself in the lively atmosphere of the Medina of Hammam-Lif, where you can discover traditional handicrafts, local street food, and vibrant markets.
+Night: Indulge in a relaxing and rejuvenating spa experience at Larym, renowned for its exceptional spa treatments and services, leaving you feeling refreshed and revitalized.</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle, located at 8 Av. Habib Bourguiba in Hammam-Lif, is a popular spot for bubble tea lovers. Open from 10:00 to 21:30, except on Tuesdays, this cozy establishment offers a delightful selection of desserts and non-alcoholic beverages. Its average rating of 4.5 stars based on 20 reviews is a testament to its excellent service and quality offerings.
+Cafe Bessaies is a cafe located in Hammam-Lif, Tunisia. It is situated at the coordinates (36.7255857, 10.3437438) and offers a variety of services. The cafe is open from 6:00 AM to 12:00 AM, seven days a week. Cafe Bessaies has a 4.0 rating on Google and has received 2 reviews.
+Chefchouf, located in Hammam-Lif, offers mouthwatering pizzas, as evidenced by its 4.8 rating based on 6 reviews. The pizzeria is open daily from 9am to 1pm and from 5pm to 10pm, except on Mondays. Chefchouf is easily accessible at Rue docteur calmet, with coordinates (36.7188867, 10.3543151).
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Arret du Stade, a bus stop located in Hammam-Lif, Tunisia, at the coordinates (36.732743558019, 10.322633566116).
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It offers a wide range of products and services, including food, clothing, and electronics. The market is located on P8FP+834 in Hammam-Lif and is open daily from 8am to 8pm.
+Hammam-Lif is a 3.6-rated Point d'eau located in Hammam-Lif, Tunisia. Its coordinates are (36.7255857, 10.3437438).
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It is dedicated to the victims of the 1985 Hammam-Lif train disaster. The museum offers a variety of exhibits on the disaster, including photographs, artifacts, and personal stories. It is a popular tourist destination for those interested in learning more about Tunisian history. The museum is located at (36.7255857, 10.3437438).
+Parc National Boukornine is a protected area surrounding Mount Boukornine, offering stunning hiking trails where visitors can marvel at diverse flora, including vibrant orchids. This sanctuary is also home to an array of wildlife, including elusive jackals and graceful wildcats. Conveniently located at M96M+99H Parc National Boukornine, A1 in Hammam-Lif, it boasts exceptional reviews, earning a 4.1-star rating from 239 satisfied visitors.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+Restaurant Sehili Junior is a restaurant located in Hammam-Lif, Tunisia. It offers a variety of dishes, and is open from 11:00am to 11:00pm every day. The restaurant is located at the coordinates (36.7275104, 10.3351815).
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+OLA ENERGY HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia. It offers 24/7 service and also has an auto accessory store and an oil change service. The station is highly rated and has received 8 reviews. The station is located at GP1 Avenue de la republic hammem lif, Hmm 'nf 2050, RN1, Hammam-Lif 2050. It is in close vicinity to public transportation and offers a wide range of services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3578,12 +5167,70 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Cafe perfetto located at P8JP+FF6 Cafe perfetto, Av. Habib Bourguiba, Hammam-Lif. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.747038652609, 10.308746266612.</t>
+          <t>Cafe Perfeito is a cafe located in Hammam-Lif, Tunisia. It is located at the coordinates (36.747038652609, 10.308746266612). The cafe offers a variety of drinks and snacks, and is a popular spot for locals and tourists alike. It has a rating of 4.9 on Google Maps and has received 1 review.</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated spot in Hammam-Lif with a variety of Cafe options and a perfect 5.0 rating?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant Hammam-Lif Municipality, the bustling city hall.
+Mid-Morning: Visit the Memorial Aux Victimes D'Octobre 1985, a museum dedicated to the somber history of the 1985 train disaster.
+Midday: Savor traditional Tunisian cuisine at the highly-rated Restaurant Erray, renowned for its authentic flavors.
+Afternoon: Stroll through the picturesque Parc National Boukornine, marveling at its diverse ecosystem and breathtaking panoramic views.
+Evening: Indulge in exquisite nail art at Mariem Onglerie et beaute, pampering your hands and feet with expert care.
+Night: Immerse in the Tunisian cultural heritage at the Foret noire creperie, delighting in the delectable fusion of sweet and savory flavors.</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.
+Cafe El Bey, located in Hammam-Lif (36.731944, 10.34012), is a cafe that offers a warm and welcoming atmosphere. With a rating of 3.3 based on 15 reviews, it's a popular spot for locals and tourists alike. Cafe El Bey is a great place to relax and enjoy a cup of coffee or tea while taking in the sights and sounds of the city.
+Cafe-Restaurant 59, located in Hammam-Lif, Tunisia (36.7255857, 10.3437438), offers a delightful dining experience specializing in delectable pizzas. Open 24 hours a day, this pizzeria welcomes guests at any time, providing a convenient option for those seeking a satisfying meal. Despite lacking a website, Cafe-Restaurant 59 garners positive reviews, boasting a 4.0 rating from 10 satisfied customers. Its featured image showcases an inviting ambiance, while its main category, Pizzeria, accurately reflects the establishment's culinary focus.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Tahar Sfar is a train station located in Hammam-Lif, Tunisia. It is a popular destination for both tourists and locals. The station is well-maintained and offers a variety of services to its passengers. It is also well-connected to the rest of the city, making it easy to get to and from.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It offers a wide range of products and services, including food, clothing, and electronics. The market is located on P8FP+834 in Hammam-Lif and is open daily from 8am to 8pm.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It is dedicated to the victims of the 1985 Hammam-Lif train disaster. The museum offers a variety of exhibits on the disaster, including photographs, artifacts, and personal stories. It is a popular tourist destination for those interested in learning more about Tunisian history. The museum is located at (36.7255857, 10.3437438).
+Nestled in northern Tunisia and established in 1987, Parc National Boukornine encompasses the majestic Boukornine Mountain. Designated as a protected natural area, the park offers a vibrant ecosystem and sanctuary for diverse flora and fauna. Situated at coordinates (36.7303975, 10.3295395), it boasts an altitude of 3963 feet, providing breathtaking panoramic views. The park is a paradise for nature enthusiasts, with a network of hiking trails winding through its verdant landscapes. Within its borders, visitors can spot orchids, mammals like chacals, and elusive wildcats amidst a rich biodiversity.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+**ljbl l'khDr ltqTyr lnbtt**
+This natural food store is located in Hammam-Lif, Tunisia. It offers a variety of healthy and organic products, and is open from 9am to 6pm. It is highly recommended by its customers, who praise its quality products and friendly staff.
+Restaurant Pizzeria Marakana is a restaurant located in Hammam-Lif, Tunisia. It offers a variety of dishes, including pizzas, pasta, and salads. The restaurant is open from 11:00am to 11:00pm, and is closed on Mondays. The average rating for Restaurant Pizzeria Marakana is 4.3 stars out of 5.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Restaurant Metro is a fast-food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast-food options, including burgers, sandwiches, and pizzas. The restaurant is open from 11:00 AM to 12:00 AM, seven days a week. It is located at 002, Av Habib Bourguiba, +2+, Hammam-Lif 2050. The restaurant has a rating of 4.4 stars on Google Maps, based on 14 reviews.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+TotalEnergies HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia, at the coordinates (36.7287, 10.333). The gas station is open 24 hours a day and offers a wide range of services, including fuel, car wash, and oil change. TotalEnergies HAMMAM LIF also has a convenience store that sells snacks, drinks, and other items.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3685,12 +5332,70 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Biz-ART Coffee Club located at P8JQ+4PM Biz-ART Coffee Club, Rue Salammbo, Hammam-Lif. This top-rated destination is perfect for Cafe lovers and offers Cafe to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-23:00, but closed on []. To get there, use these GPS coordinates: 36.7255857, 10.3437438. For more details, call them at 92 221 045.</t>
+          <t>Biz-ART Coffee Club, located at P8JQ+4PM Biz-ART Coffee Club, Rue Salammbo, Hammam-Lif (36.7255857, 10.3437438), is a popular cafe frequented by satisfied patrons. It offers a range of refreshments to delight coffee enthusiasts, with average ratings of 4.0. It operates daily from 6:00-23:00 except on days it is closed.</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>Where in Hammam-Lif can you find a highly-rated destination offering cafe options, perfect for cafe enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the historic Hammam-Lif Market for a vibrant local experience.
+Mid-Morning: Try local cuisine at Cafe-restaurant L' Opera, a diner offering 24/7 service.
+Midday: Visit Larym Beauty Institute for a relaxing spa treatment or hammam experience.
+Afternoon: Enjoy scenic views at Plage, a beach pavilion with stunning Mediterranean Sea views.
+Evening: Engage in cultural immersion at the Memorial Aux Victimes D'Octobre 1985, a museum dedicated to the victims of the 1985 Hammam-Lif train disaster.
+Night: Experience the lively atmosphere at The Bet 216 H.lif, a casino near the Mediterranean Sea.</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.
+Cafe Rossignol is a popular cafe located in Hammam-Lif, Tunisia. It offers a pleasant atmosphere to relax or work. Visit it to appreciate its food and coffee items. It is open for long hours.
+Chefchouf, located in Hammam-Lif, offers mouthwatering pizzas, as evidenced by its 4.8 rating based on 6 reviews. The pizzeria is open daily from 9am to 1pm and from 5pm to 10pm, except on Mondays. Chefchouf is easily accessible at Rue docteur calmet, with coordinates (36.7188867, 10.3543151).
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+by'r lby offers a range of services to meet the needs of its customers. It has 13 reviews and a rating of 3.1. Located at (36.7255857, 10.3437438) in the city of hammam-lif, by'r lby is easily accessible.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It is dedicated to the victims of the 1985 Hammam-Lif train disaster. The museum offers a variety of exhibits on the disaster, including photographs, artifacts, and personal stories. It is a popular tourist destination for those interested in learning more about Tunisian history. The museum is located at (36.7255857, 10.3437438).
+Parc National Boukornine is a protected area in Tunisia, set up in 1987 around the Boukornine mountain. The park offers many hiking trails, and is home to wildlife such as orchids, chacals, and wild cats. Reviews emphasize its natural beauty, with a focus on its mountain scenery and wildlife. It is located at M96M+99H Parc National Boukornine, A1, Hammam-Lif, Tunisia and can be reached by phone at 58 905 502.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+**ljbl l'khDr ltqTyr lnbtt**
+This natural food store is located in Hammam-Lif, Tunisia. It offers a variety of healthy and organic products, and is open from 9am to 6pm. It is highly recommended by its customers, who praise its quality products and friendly staff.
+Paname fasst food is a restaurant located in Rue Salammbo, Hammam-Lif, Tunisia. It has a rating of 4.3 based on 6 reviews, and its main category is Restaurant. It is open from 09:00 to 23:00 and can be reached by phone at 22 511 107. The restaurant's coordinates are (36.728634700847, 10.338080869607).
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+Agil Hammam lif is a well-rated gas station with a 5-star rating on Google reviews. It is located in hammam-lif, at the coordinates (36.722854, 10.3488626).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3796,14 +5501,70 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a great Cafe, head to Cafe el Warda located at 2 Av. de la liberte, Hammam-Lif 1164. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day, but closed on unspecified days. To get there, use these GPS coordinates: 36.721407909282, 10.358516541477. For more details, visit their website.</t>
+          <t>Cafe el Warda is a cafe located in hammam-lif, Tunisia at the coordinates (36.721407909282, 10.358516541477). It is open 24 hours a day and offers a variety of cafe-style food and drinks. It has a rating of 5.0 stars based on one review.</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated café with 24-hour availability in Hammam-Lif?</t>
+          <t>Day Plan:
+Morning: Explore Hammam-Lif Municipality.
+Mid-Morning: Visit the Memorial Aux Victimes D'Octobre 1985 to learn about the city's history.
+Midday: Try local cuisine at Restaurant Metro.
+Afternoon: Enjoy scenic views at the Plage beach.
+Evening: Engage in outdoor activities like hiking at the Parc National Boukornine. 
+Night: Relish the Tunisian flavors at Restaurant Erray.</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.
+The "Salon De The Jribi", located in Hammam-Lif (lon: 10.358406416192, lat: 36.721708762725), is a highly-rated cafe with a rating of 5.0 out of 5. The cafe offers patrons the opportunity to enjoy a delightful experience, with a focus on providing great service.
+Chefchouf, located in Hammam-Lif, offers mouthwatering pizzas, as evidenced by its 4.8 rating based on 6 reviews. The pizzeria is open daily from 9am to 1pm and from 5pm to 10pm, except on Mondays. Chefchouf is easily accessible at Rue docteur calmet, with coordinates (36.7188867, 10.3543151).
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Gare Hammam Lif is a train station in Hammam-Lif, Tunisia. It offers rail services to various destinations in the country. The station is conveniently located with the following coordinates: (36.7255857, 10.3437438).
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It is dedicated to the victims of the 1985 Hammam-Lif train disaster. The museum offers a variety of exhibits on the disaster, including photographs, artifacts, and personal stories. It is a popular tourist destination for those interested in learning more about Tunisian history. The museum is located at (36.7255857, 10.3437438).
+Parc National Boukornine is a protected area in Tunisia, set up in 1987 around the Boukornine mountain. The park offers many hiking trails, and is home to wildlife such as orchids, chacals, and wild cats. Reviews emphasize its natural beauty, with a focus on its mountain scenery and wildlife. It is located at M96M+99H Parc National Boukornine, A1, Hammam-Lif, Tunisia and can be reached by phone at 58 905 502.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+**ljbl l'khDr ltqTyr lnbtt**
+This natural food store is located in Hammam-Lif, Tunisia. It offers a variety of healthy and organic products, and is open from 9am to 6pm. It is highly recommended by its customers, who praise its quality products and friendly staff.
+Pizzeria PORTANOVA is a restaurant located in Hammam-lif, Tunisia. It is open from 3 PM to midnight and is closed on Mondays. The restaurant's featured image shows a colorful, visually appealing dish, suggesting that it specializes in traditional Italian cuisine. Pizzeria PORTANOVA has a rating of 4.9 out of 5 based on 10 reviews, and its main category is Restaurant. The restaurant's exact location is at coordinates (36.7255857, 10.3437438).
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Restaurant Metro is a fast-food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast-food options, including burgers, sandwiches, and pizzas. The restaurant is open from 11:00 AM to 12:00 AM, seven days a week. It is located at 002, Av Habib Bourguiba, +2+, Hammam-Lif 2050. The restaurant has a rating of 4.4 stars on Google Maps, based on 14 reviews.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+Agil Hammam lif is a well-rated gas station with a 5-star rating on Google reviews. It is located in hammam-lif, at the coordinates (36.722854, 10.3488626).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3909,15 +5670,71 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a nice Cafe, check out Salon de The Aicha located at 49 Rue D' Alger, Hammam-Lif. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 05:30-00:00. 
-To get there, use these GPS coordinates: 36.73076352016, 10.335894253637. For more details, visit their website or call them at 26 726 484.</t>
+          <t>**Salon de The Aicha** 
+Situated at (36.73076352016, 10.335894253637), this cafe is located on 49 Rue D' Alger in Hammam-Lif, Tunisia. Open from 5:30 AM to midnight, this cafe is popular with reviewers, who give it an average rating of 4.0 out of 5.</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Cafe with convenient opening hours in Hammam-Lif?</t>
+          <t>Day Plan:
+Morning: Explore the Hammam Lif Market for local goods and flavors; try Banette for authentic Tunisian bread.
+Mid-Morning: Visit the Parc National Boukornine for breathtaking views, nature trails, and diverse flora and fauna.
+Midday: Indulge in traditional Tunisian cuisine at Restaurant Erray, known for its exceptional flavors and friendly service.
+Afternoon: Embark on a guided tour of the Hammam-Lif Municipality to learn about the city's history and infrastructure.
+Evening: Enjoy a relaxing spa experience at Larym Beauty Institute for rejuvenating treatments and services.
+Night: Experience the vibrant atmosphere at The Bet 216 H.lif casino, where you can try your luck at various games.</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.
+The "Salon De The Jribi", located in Hammam-Lif (lon: 10.358406416192, lat: 36.721708762725), is a highly-rated cafe with a rating of 5.0 out of 5. The cafe offers patrons the opportunity to enjoy a delightful experience, with a focus on providing great service.
+Chefchouf, located in Hammam-Lif, offers mouthwatering pizzas, as evidenced by its 4.8 rating based on 6 reviews. The pizzeria is open daily from 9am to 1pm and from 5pm to 10pm, except on Mondays. Chefchouf is easily accessible at Rue docteur calmet, with coordinates (36.7188867, 10.3543151).
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Gare Hammam Lif is a railway station located in Hammam-Lif, Tunisia. It offers convenient train services for locals and tourists alike. The station is situated at convenient coordinates of (36.7255857, 10.3437438). Additionally, Gare Hammam Lif boasts a 3.6 out of 5 stars rating, indicating its popularity and customer satisfaction.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+In Hammam-Lif, the Memorial Aux Victimes D'Octobre 1985 is a museum located at the following coordinates: (36.7255857, 10.3437438). Currently, there are three reviews for this museum, which is owned by Memorial Aux Victimes D'Octobre 1985 (proprietaire).
+Nestled in northern Tunisia and established in 1987, Parc National Boukornine encompasses the majestic Boukornine Mountain. Designated as a protected natural area, the park offers a vibrant ecosystem and sanctuary for diverse flora and fauna. Situated at coordinates (36.7303975, 10.3295395), it boasts an altitude of 3963 feet, providing breathtaking panoramic views. The park is a paradise for nature enthusiasts, with a network of hiking trails winding through its verdant landscapes. Within its borders, visitors can spot orchids, mammals like chacals, and elusive wildcats amidst a rich biodiversity.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+**ljbl l'khDr ltqTyr lnbtt**
+This natural food store is located in Hammam-Lif, Tunisia. It offers a variety of healthy and organic products, and is open from 9am to 6pm. It is highly recommended by its customers, who praise its quality products and friendly staff.
+Los Caprichos is a restaurant located in Hammam-Lif, Tunisia. It is rated 4.0 out of 5 stars on Google and has received 3 reviews. Los Caprichos offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the following coordinates: 36.721708762725, 10.358406416192.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+Agil Hammam lif is a well-rated gas station with a 5-star rating on Google reviews. It is located in hammam-lif, at the coordinates (36.722854, 10.3488626).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4015,12 +5832,75 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Gare Hammam Lif located at Gare Hammam Lif, Hammam-Lif. This top-rated destination is perfect for Gare lovers and offers a range of Gare to choose from. With a rating of 3.6, it's a must-visit spot. To get there, use these GPS coordinates: 36.7255857, 10.3437438. For more details, visit their website at https://www.google.com/maps/place/Gare+Hammam+Lif/data=!4m7!3m6!1s0x12fd493b2d86b9dd:0x67526779e8018d5f!8m2!3d36.7293916!4d10.3350717!16s%2Fg%2F1tf90ptm!19sChIJ3bmGLTtJ_RIRX40B6HlnUmc?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Gare Hammam Lif is a railway station located in Hammam-Lif, Tunisia. It offers convenient train services for locals and tourists alike. The station is situated at convenient coordinates of (36.7255857, 10.3437438). Additionally, Gare Hammam Lif boasts a 3.6 out of 5 stars rating, indicating its popularity and customer satisfaction.</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>Where in Hammam-Lif can you find a top-rated Gare destination with a variety of Gare to choose from?</t>
+          <t>Day Plan:
+Morning:
+- Explore the bustling Hammam Lif Market and savor the vibrant atmosphere while discovering local products and delicacies.
+Mid-Morning:
+- Visit the Memorial Aux Victimes D'Octobre 1985 for a poignant glimpse into the city's history.
+Midday:
+- Indulge in a delightful lunch at Restaurant Erray, renowned for its exceptional Tunisian cuisine.
+Afternoon:
+- Immerse yourself in natural beauty at Parc National Boukornine, embarking on a scenic hike amidst breathtaking flora and diverse wildlife.
+Evening:
+- Enjoy a relaxing and revitalizing hammam experience at Larym, renowned for its tranquility and rejuvenating treatments.
+Night:
+- Experience the vibrant nightlife at Cafe-restaurant L' Opera, savoring delicious food and drinks while absorbing the lively atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle, located at 8 Av. Habib Bourguiba in Hammam-Lif, is a popular spot for bubble tea lovers. Open from 10:00 to 21:30, except on Tuesdays, this cozy establishment offers a delightful selection of desserts and non-alcoholic beverages. Its average rating of 4.5 stars based on 20 reviews is a testament to its excellent service and quality offerings.
+Cafe Mosaique, located at P979+8H6 Cafe Mosaique, P1, Hammam-Lif, offers a cozy ambiance and a menu that caters to cafe enthusiasts. The cafe is open 24 hours a day, making it a convenient spot for those seeking a caffeine fix or a bite to eat at any hour. Its geolocation at (36.7255857, 10.3437438) places it conveniently within the city of Hammam-Lif.
+Chefchouf, located in Hammam-Lif, offers mouthwatering pizzas, as evidenced by its 4.8 rating based on 6 reviews. The pizzeria is open daily from 9am to 1pm and from 5pm to 10pm, except on Mondays. Chefchouf is easily accessible at Rue docteur calmet, with coordinates (36.7188867, 10.3543151).
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Arret du Stade, a bus stop located in Hammam-Lif, Tunisia, at the coordinates (36.732743558019, 10.322633566116).
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a 3.6-rated Point d'eau located in Hammam-Lif, Tunisia. Its coordinates are (36.7255857, 10.3437438).
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+In Hammam-Lif, the Memorial Aux Victimes D'Octobre 1985 is a museum located at the following coordinates: (36.7255857, 10.3437438). Currently, there are three reviews for this museum, which is owned by Memorial Aux Victimes D'Octobre 1985 (proprietaire).
+Parc National Boukornine is a protected area surrounding Mount Boukornine, offering stunning hiking trails where visitors can marvel at diverse flora, including vibrant orchids. This sanctuary is also home to an array of wildlife, including elusive jackals and graceful wildcats. Conveniently located at M96M+99H Parc National Boukornine, A1 in Hammam-Lif, it boasts exceptional reviews, earning a 4.1-star rating from 239 satisfied visitors.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+Paname fasst food is a restaurant located in Rue Salammbo, Hammam-Lif, Tunisia. It has a rating of 4.3 based on 6 reviews, and its main category is Restaurant. It is open from 09:00 to 23:00 and can be reached by phone at 22 511 107. The restaurant's coordinates are (36.728634700847, 10.338080869607).
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Restaurant Metro is a fast-food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast-food options, including burgers, sandwiches, and pizzas. The restaurant is open from 11:00 AM to 12:00 AM, seven days a week. It is located at 002, Av Habib Bourguiba, +2+, Hammam-Lif 2050. The restaurant has a rating of 4.4 stars on Google Maps, based on 14 reviews.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+TotalEnergies HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia, at the coordinates (36.7287, 10.333). The gas station is open 24 hours a day and offers a wide range of services, including fuel, car wash, and oil change. TotalEnergies HAMMAM LIF also has a convenience store that sells snacks, drinks, and other items.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4130,12 +6010,69 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Game Zone hammam-lif located at Av. de la mer mediterannee, Hammam-Lif. This top-rated destination is perfect for Salle de jeux video lovers and offers a range of categories to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-22:00. To get there, use these GPS coordinates: 36.7255857, 10.3437438. For more details, visit their website at http://www.game-zone-hammamlif.com/ or call them at 58 584 577.</t>
+          <t>Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>What is the address of the highly-rated Salle de jeux video destination in Hammam-Lif?</t>
+          <t>Day Plan:
+Morning: Start your day by exploring the Hammam-Lif Market, where you can immerse yourself in local culture and enjoy a cup of tea at BiancoNero.
+Mid-Morning: Visit the Memorial Aux Victimes D'Octobre 1985 to learn about the tragic train disaster that took place in the city.
+Midday: Indulge in a delightful lunch at Restaurant Erray, which serves authentic Tunisian cuisine.
+Afternoon: Spend the afternoon at Parc National Boukornine, where you can enjoy scenic hiking trails, wildlife viewing, and capture breathtaking mountain views.
+Evening: Head to Cafe-Restaurant 59 for a casual dinner, then explore the gaming centre Game Zone hammam-lif for a fun and interactive evening.
+Night: Enjoy a relaxing night of stargazing at Hammam-Lif, a place marked by a point of water with stunning views of the night sky.</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.
+Club 55, nestled in Hammam-Lif, invites you to unwind 24/7. At the coordinates (36.7188867, 10.3543151), indulge in the cozy ambiance and delectable offerings of this Cafe.
+Cafe-Restaurant 59 is a Pizzeria located in hammam-lif (36.7255857, 10.3437438). It is open 24 hours a day and offers a variety of pizzas. It is rated 4.0 stars by its customers.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+The Gare Hammam Lif is a railway station located in the city of hammam-lif, Tunisia. It is a popular destination for tourists and locals alike, and offers a variety of services to its visitors. The station is located at the coordinates (36.7255857, 10.3437438), and is easily accessible by car or public transportation.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It offers a wide range of products and services, including food, clothing, and electronics. The market is located on P8FP+834 in Hammam-Lif and is open daily from 8am to 8pm.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It is dedicated to the victims of the 1985 Hammam-Lif train disaster. The museum offers a variety of exhibits on the disaster, including photographs, artifacts, and personal stories. It is a popular tourist destination for those interested in learning more about Tunisian history. The museum is located at (36.7255857, 10.3437438).
+Parc National Boukornine is a protected area in Tunisia, set up in 1987 around the Boukornine mountain. The park offers many hiking trails, and is home to wildlife such as orchids, chacals, and wild cats. Reviews emphasize its natural beauty, with a focus on its mountain scenery and wildlife. It is located at M96M+99H Parc National Boukornine, A1, Hammam-Lif, Tunisia and can be reached by phone at 58 905 502.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+kskrwt tn Hmm l'nf is a restaurant located in Hammam-Lif. Its coordinates are (36.7255857, 10.3437438) and it has a rating of 4.0.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+OLA ENERGY HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia. It offers 24/7 service and also has an auto accessory store and an oil change service. The station is highly rated and has received 8 reviews. The station is located at GP1 Avenue de la republic hammem lif, Hmm 'nf 2050, RN1, Hammam-Lif 2050. It is in close vicinity to public transportation and offers a wide range of services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4237,12 +6174,76 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a great place to grab a bite, check out Cafe El Bey located at Av. de la mer mediterannee, Hammam-Lif 2050. This top-rated destination is perfect for Cafe lovers and offers a cozy ambiance. With a rating of 3.3, it's a must-visit spot. It's open during these hours: 05:00-02:00. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+El+Bey/data=!4m7!3m6!1s0x12fd493c9885ef25:0x578a6b220128a2f3!8m2!3d36.7307908!4d10.3324741!16s%2Fg%2F1hc8dlh82!19sChIJJe-FmDxJ_RIR86IoASJrilc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 2804.</t>
+          <t>Cafe El Bey, located in Hammam-Lif (36.731944, 10.34012), is a cafe that offers a warm and welcoming atmosphere. With a rating of 3.3 based on 15 reviews, it's a popular spot for locals and tourists alike. Cafe El Bey is a great place to relax and enjoy a cup of coffee or tea while taking in the sights and sounds of the city.</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>Where in Hammam-Lif can you find a highly-rated cafe, Cafe El Bey, known for its cozy ambiance and top-notch offerings?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the bustling Hammam Lif Market for local goods and souvenirs.
+**Mid-Morning:**
+* Indulge in a traditional breakfast of Lablebi noura at Lblby nwr@ - Lablebi noura.
+**Midday:**
+* Visit the Parc National Boukornine for breathtaking mountain views and nature trails.
+**Afternoon:**
+* Enjoy panoramic views of the city from the Hammam-Lif Municipality building.
+**Evening:**
+* Try local cuisine at Restaurant Metro for a casual and convenient dining experience.
+**Night:**
+* Experience the lively atmosphere at The Bet 216 H.lif for a fun night out at a local casino.</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle, located at 8 Av. Habib Bourguiba in Hammam-Lif, is a popular spot for bubble tea lovers. Open from 10:00 to 21:30, except on Tuesdays, this cozy establishment offers a delightful selection of desserts and non-alcoholic beverages. Its average rating of 4.5 stars based on 20 reviews is a testament to its excellent service and quality offerings.
+Café Brasilia is a cozy cafe located in Hammam-Lif, Tunisia (coordinates: 36.7188867, 10.3543151). It offers a warm and inviting atmosphere, perfect for enjoying a cup of coffee or a light meal. The cafe is open from 6:00 AM to midnight every day, making it a convenient spot for both early risers and late-night owls.
+Cafe-Restaurant 59, located in Hammam-Lif, Tunisia (36.7255857, 10.3437438), offers a delightful dining experience specializing in delectable pizzas. Open 24 hours a day, this pizzeria welcomes guests at any time, providing a convenient option for those seeking a satisfying meal. Despite lacking a website, Cafe-Restaurant 59 garners positive reviews, boasting a 4.0 rating from 10 satisfied customers. Its featured image showcases an inviting ambiance, while its main category, Pizzeria, accurately reflects the establishment's culinary focus.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Gare Hammam Lif is a train station in Hammam-Lif, Tunisia. It offers rail services to various destinations in the country. The station is conveniently located with the following coordinates: (36.7255857, 10.3437438).
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a 3.6-rated Point d'eau located in Hammam-Lif, Tunisia. Its coordinates are (36.7255857, 10.3437438).
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It's dedicated to the victims of the October 1985 terrorist attack. The museum offers a unique opportunity to learn about this tragic event and its impact on the community. It's a place of remembrance and reflection, and a reminder of the importance of peace and reconciliation. It's a must-visit for anyone interested in the history of Tunisia and the fight against terrorism.
+Nestled in northern Tunisia and established in 1987, Parc National Boukornine encompasses the majestic Boukornine Mountain. Designated as a protected natural area, the park offers a vibrant ecosystem and sanctuary for diverse flora and fauna. Situated at coordinates (36.7303975, 10.3295395), it boasts an altitude of 3963 feet, providing breathtaking panoramic views. The park is a paradise for nature enthusiasts, with a network of hiking trails winding through its verdant landscapes. Within its borders, visitors can spot orchids, mammals like chacals, and elusive wildcats amidst a rich biodiversity.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+**ljbl l'khDr ltqTyr lnbtt**
+This natural food store is located in Hammam-Lif, Tunisia. It offers a variety of healthy and organic products, and is open from 9am to 6pm. It is highly recommended by its customers, who praise its quality products and friendly staff.
+Lblby nwr@ - Lablebi noura is a restaurant located in Hammam-Lif, Tunisia. It has a 4.4-star rating and offers a variety of dishes. The restaurant is open daily and is closed on Fridays.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Restaurant Metro is a fast-food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast-food options, including burgers, sandwiches, and pizzas. The restaurant is open from 11:00 AM to 12:00 AM, seven days a week. It is located at 002, Av Habib Bourguiba, +2+, Hammam-Lif 2050. The restaurant has a rating of 4.4 stars on Google Maps, based on 14 reviews.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+OLA ENERGY HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia. It offers 24/7 service and also has an auto accessory store and an oil change service. The station is highly rated and has received 8 reviews. The station is located at GP1 Avenue de la republic hammem lif, Hmm 'nf 2050, RN1, Hammam-Lif 2050. It is in close vicinity to public transportation and offers a wide range of services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4352,12 +6353,70 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for relaxation, check out Larym located at 04 Avenue de la Republique, RN1. This top-rated destination is perfect for beauty, hammam, and spa lovers. With a rating of 3.9, it's a must-visit spot. It's open during these hours: 09:00-18:00, but closed on Mondays. To get there, use these GPS coordinates: 36.714115135042, 10.365112185542. For more details, visit their website at http://www.larym.tn/ or call them at 23 440 359.</t>
+          <t>Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>For those seeking relaxation in Hammam-Lif, where can you find a popular destination offering beauty, hammam, and spa experiences?</t>
+          <t>Day Plan:
+Morning: Explore the colorful Hammam Lif market for its vibrant atmosphere and unique local products.
+Mid-Morning: Get a delicious cup of bubble tea and other refreshments at Let's Waffle.
+Midday: Savor the authentic flavors of Tunisian cuisine at the highly-rated Restaurant Erray.
+Afternoon: Visit the Memorial Aux Victimes D'Octobre 1985 museum to learn about the history of the region.
+Evening: Take a leisurely stroll along the scenic Plage beach, enjoying the beautiful views and fresh sea air.
+Night: End the day with a relaxing and rejuvenating spa experience at Larym beauty institute.</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.
+Located at P8HV+JG2 La Cafet, Mandes France, Hammam-Lif 2050, La Cafet is a highly-rated cafe (5.0 out of 5 stars based on 2 reviews) that opens daily from 6 AM to midnight. Unfortunately, there is no further information or description available about this establishment.
+Cafe-Restaurant 59 is a Pizzeria located in hammam-lif (36.7255857, 10.3437438). It is open 24 hours a day and offers a variety of pizzas. It is rated 4.0 stars by its customers.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Arret du Stade, a bus stop located in Hammam-Lif, Tunisia, at the coordinates (36.732743558019, 10.322633566116).
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a 3.6-rated Point d'eau located in Hammam-Lif, Tunisia. Its coordinates are (36.7255857, 10.3437438).
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It is dedicated to the victims of the 1985 Hammam-Lif train disaster. The museum offers a variety of exhibits on the disaster, including photographs, artifacts, and personal stories. It is a popular tourist destination for those interested in learning more about Tunisian history. The museum is located at (36.7255857, 10.3437438).
+Parc National Boukornine is a protected area surrounding Mount Boukornine, offering stunning hiking trails where visitors can marvel at diverse flora, including vibrant orchids. This sanctuary is also home to an array of wildlife, including elusive jackals and graceful wildcats. Conveniently located at M96M+99H Parc National Boukornine, A1 in Hammam-Lif, it boasts exceptional reviews, earning a 4.1-star rating from 239 satisfied visitors.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+**ljbl l'khDr ltqTyr lnbtt**
+This natural food store is located in Hammam-Lif, Tunisia. It offers a variety of healthy and organic products, and is open from 9am to 6pm. It is highly recommended by its customers, who praise its quality products and friendly staff.
+Mezzanotte Pizzeria is a highly-rated restaurant located in Hammam-Lif, Tunisia. It is known for its delicious pizzas. The restaurant is conveniently located on Rue Salammbo, making it easily accessible. Mezzanotte Pizzeria is open from 11:00-23:00 every day except Mondays, so you can enjoy its food anytime.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+OLA ENERGY HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia. It offers 24/7 service and also has an auto accessory store and an oil change service. The station is highly rated and has received 8 reviews. The station is located at GP1 Avenue de la republic hammem lif, Hmm 'nf 2050, RN1, Hammam-Lif 2050. It is in close vicinity to public transportation and offers a wide range of services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4459,12 +6518,76 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a place to buy groceries, check out Hammam lif at P8FP+834 Hammam lif, Hammam-Lif. This market offers a wide variety of fresh produce, meats, cheeses, and other grocery items. With a rating of 4.5, it's a must-visit spot for locals and tourists alike. To get there, use these GPS coordinates: 36.7255857, 10.3437438. For more details, visit their website at https://www.google.com/maps/place/Hammam+lif/data=!4m7!3m6!1s0x12fd49ae196db81b:0xf908571acbf1e299!8m2!3d36.7232639!4d10.3352131!16s%2Fg%2F11ry6sz8zp!19sChIJG7htGa5J_RIRmeLxyxpXCPk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 50 751 756.</t>
+          <t>Hammam Lif is a market located in Hammam-Lif, Tunisia. It offers a wide range of products and services, including food, clothing, and electronics. The market is located on P8FP+834 in Hammam-Lif and is open daily from 8am to 8pm.</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>Where in Hammam-Lif can you find a highly-rated market offering a wide variety of groceries and earning a rating of 4.5?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the local market, Hammam Lif Market, and immerse yourself in the vibrant atmosphere.
+**Mid-Morning:**
+* Visit the historical landmark, Memorial Aux Victimes D'Octobre 1985, to learn about the city's past.
+**Midday:**
+* Lunch at Cafe-Restaurant L'Opera, a diner known for its 24/7 service and delicious food.
+**Afternoon:**
+* Relax and unwind at Larym, a renowned beauty institute, and indulge in a rejuvenating spa treatment.
+**Evening:**
+* Immerse yourself in Tunisian culture at Parc National Boukornine, exploring its diverse ecosystem and breathtaking panoramic views.
+**Night:**
+* Try the local cuisine at Restaurant Erray, a highly-rated restaurant offering authentic Tunisian dishes.</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.
+**Salon de The Aicha** 
+Situated at (36.73076352016, 10.335894253637), this cafe is located on 49 Rue D' Alger in Hammam-Lif, Tunisia. Open from 5:30 AM to midnight, this cafe is popular with reviewers, who give it an average rating of 4.0 out of 5.
+Cafe-Restaurant 59 is a Pizzeria located in hammam-lif (36.7255857, 10.3437438). It is open 24 hours a day and offers a variety of pizzas. It is rated 4.0 stars by its customers.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+by'r lby offers a range of services to meet the needs of its customers. It has 13 reviews and a rating of 3.1. Located at (36.7255857, 10.3437438) in the city of hammam-lif, by'r lby is easily accessible.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+In Hammam-Lif, the Memorial Aux Victimes D'Octobre 1985 is a museum located at the following coordinates: (36.7255857, 10.3437438). Currently, there are three reviews for this museum, which is owned by Memorial Aux Victimes D'Octobre 1985 (proprietaire).
+Nestled in northern Tunisia and established in 1987, Parc National Boukornine encompasses the majestic Boukornine Mountain. Designated as a protected natural area, the park offers a vibrant ecosystem and sanctuary for diverse flora and fauna. Situated at coordinates (36.7303975, 10.3295395), it boasts an altitude of 3963 feet, providing breathtaking panoramic views. The park is a paradise for nature enthusiasts, with a network of hiking trails winding through its verdant landscapes. Within its borders, visitors can spot orchids, mammals like chacals, and elusive wildcats amidst a rich biodiversity.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+L'UNICA Cafe Resto, located in Hammam-Lif (GPS coordinates: latitude 36.7255857 and longitude 10.3437438), offers its customers a 24/7 dining experience. With a 5.0 rating based on positive reviews, this establishment excels in the Restaurant category and has also received favorable feedback for its ambience and service. To learn more about L'UNICA Cafe Resto, visit their website or contact them directly using the provided phone number, 51 883 242.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+TotalEnergies HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia, at the coordinates (36.7287, 10.333). The gas station is open 24 hours a day and offers a wide range of services, including fuel, car wash, and oil change. TotalEnergies HAMMAM LIF also has a convenience store that sells snacks, drinks, and other items.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4562,14 +6685,76 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Hammam-Lif. 
-This top-rated destination with a rating of 3.6  is perfect for Point d'eau lovers and offers a range of Point d'eau to choose from. 
-It's open during these hours: , but closed on . To get there, use these GPS coordinates: 36.7255857, 10.3437438.</t>
+          <t>Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>What is the top-rated destination in Hammam-lif that is known for offering a range of Point d'eau options?</t>
+          <t>Day Plan:
+**Morning:**
+* Explore the historic market **Hammam Lif** for local goods and souvenirs.
+**Mid-Morning:**
+* Visit the **Larym** beauty institute for a relaxing spa treatment.
+**Midday:**
+* Try local Tunisian cuisine at the highly-rated **Restaurant Erray**.
+**Afternoon:**
+* Engage in outdoor activities like hiking or birdwatching at **Parc National Boukornine**.
+**Evening:**
+* Enjoy scenic views at the **Memorial Aux Victimes D'Octobre 1985**, a museum dedicated to a significant historical event.
+**Night:**
+* Experience cultural immersion at the **ljbl l'khDr ltqTyr lnbtt** natural food store, which offers a glimpse into the local lifestyle.</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle, located at 8 Av. Habib Bourguiba in Hammam-Lif, is a popular spot for bubble tea lovers. Open from 10:00 to 21:30, except on Tuesdays, this cozy establishment offers a delightful selection of desserts and non-alcoholic beverages. Its average rating of 4.5 stars based on 20 reviews is a testament to its excellent service and quality offerings.
+Cafe Wifi, located in Hammam-Lif, Tunisia (36.7255857, 10.3437438), is a cozy cafe that offers a warm and inviting atmosphere for its customers. The cafe opens daily from 7 AM to 11 PM, providing ample time for patrons to enjoy their coffee, tea, or other beverages. Cafe Wifi's focus on customer satisfaction is evident in its positive reviews, which praise its friendly staff and relaxing ambiance.
+Chefchouf, located in Hammam-Lif, offers mouthwatering pizzas, as evidenced by its 4.8 rating based on 6 reviews. The pizzeria is open daily from 9am to 1pm and from 5pm to 10pm, except on Mondays. Chefchouf is easily accessible at Rue docteur calmet, with coordinates (36.7188867, 10.3543151).
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+The Gare Hammam Lif is a railway station located in the city of hammam-lif, Tunisia. It is a popular destination for tourists and locals alike, and offers a variety of services to its visitors. The station is located at the coordinates (36.7255857, 10.3437438), and is easily accessible by car or public transportation.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a 3.6-rated Point d'eau located in Hammam-Lif, Tunisia. Its coordinates are (36.7255857, 10.3437438).
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It is dedicated to the victims of the 1985 Hammam-Lif train disaster. The museum offers a variety of exhibits on the disaster, including photographs, artifacts, and personal stories. It is a popular tourist destination for those interested in learning more about Tunisian history. The museum is located at (36.7255857, 10.3437438).
+Nestled in northern Tunisia and established in 1987, Parc National Boukornine encompasses the majestic Boukornine Mountain. Designated as a protected natural area, the park offers a vibrant ecosystem and sanctuary for diverse flora and fauna. Situated at coordinates (36.7303975, 10.3295395), it boasts an altitude of 3963 feet, providing breathtaking panoramic views. The park is a paradise for nature enthusiasts, with a network of hiking trails winding through its verdant landscapes. Within its borders, visitors can spot orchids, mammals like chacals, and elusive wildcats amidst a rich biodiversity.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+**ljbl l'khDr ltqTyr lnbtt**
+This natural food store is located in Hammam-Lif, Tunisia. It offers a variety of healthy and organic products, and is open from 9am to 6pm. It is highly recommended by its customers, who praise its quality products and friendly staff.
+Paname fasst food is a restaurant located in Rue Salammbo, Hammam-Lif, Tunisia. It has a rating of 4.3 based on 6 reviews, and its main category is Restaurant. It is open from 09:00 to 23:00 and can be reached by phone at 22 511 107. The restaurant's coordinates are (36.728634700847, 10.338080869607).
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+Agil Hammam lif is a well-rated gas station with a 5-star rating on Google reviews. It is located in hammam-lif, at the coordinates (36.722854, 10.3488626).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4675,14 +6860,75 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Electro Nabli located at Avenue de la mer, Rue de Mediterranee, Hammam-Lif 2050. 
-This top-rated destination is perfect for Magasin d'ameublement et de decoration lovers and offers a range of Magasin d'ameublement et de decoration to choose from. 
-With a rating of 3.9, it's a must-visit spot. It's open during these hours: 08:30-19:30, but closed on . To get there, use these GPS coordinates: 36.7188867, 10.3543151. For more details, visit their website at  or call them at 23 994 416.</t>
+          <t>Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>Where in Hammam-Lif can you find a top-rated destination with a 3.9 rating for Magasin d'ameublement et de decoration enthusiasts?</t>
+          <t>Day Plan:
+Morning:
+* Explore the bustling Hammam Lif Market for local products.
+Mid-Morning:
+* Visit the Memorial Aux Victimes D'Octobre 1985 to learn about the tragic train disaster.
+Midday:
+* Indulge in delicious local cuisine at Coco Coffee, known for its great coffee and pastries.
+Afternoon:
+* Enjoy a refreshing escape at the beautiful Plage beach pavilion, soaking up the sun and swimming in the clear blue waters.
+Evening:
+* Discover the flavors of Tunisian cuisine at the highly-rated Restaurant Erray for a delightful dining experience.
+Night:
+* Head to Cafe-restaurant L' Opera for a late-night dessert and enjoy the 24/7 ambiance.</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.
+Coco Coffee is a cafe located in Hammam-Lif, Tunisia, offering a variety of coffee drinks and pastries. It is open daily from 6:00 AM to 11:30 PM, and is highly rated by customers with an average rating of 4.2 out of 5. The cafe has a cozy atmosphere and friendly staff, making it a great place to relax and enjoy a cup of coffee.
+Chefchouf, located in Hammam-Lif, offers mouthwatering pizzas, as evidenced by its 4.8 rating based on 6 reviews. The pizzeria is open daily from 9am to 1pm and from 5pm to 10pm, except on Mondays. Chefchouf is easily accessible at Rue docteur calmet, with coordinates (36.7188867, 10.3543151).
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Arret du Stade, a bus stop located in Hammam-Lif, Tunisia, at the coordinates (36.732743558019, 10.322633566116).
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It offers a wide range of products and services, including food, clothing, and electronics. The market is located on P8FP+834 in Hammam-Lif and is open daily from 8am to 8pm.
+Hammam-Lif is a 3.6-rated Point d'eau located in Hammam-Lif, Tunisia. Its coordinates are (36.7255857, 10.3437438).
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It is dedicated to the victims of the 1985 Hammam-Lif train disaster. The museum offers a variety of exhibits on the disaster, including photographs, artifacts, and personal stories. It is a popular tourist destination for those interested in learning more about Tunisian history. The museum is located at (36.7255857, 10.3437438).
+Nestled in northern Tunisia and established in 1987, Parc National Boukornine encompasses the majestic Boukornine Mountain. Designated as a protected natural area, the park offers a vibrant ecosystem and sanctuary for diverse flora and fauna. Situated at coordinates (36.7303975, 10.3295395), it boasts an altitude of 3963 feet, providing breathtaking panoramic views. The park is a paradise for nature enthusiasts, with a network of hiking trails winding through its verdant landscapes. Within its borders, visitors can spot orchids, mammals like chacals, and elusive wildcats amidst a rich biodiversity.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+Paname fasst food is a restaurant located in Rue Salammbo, Hammam-Lif, Tunisia. It has a rating of 4.3 based on 6 reviews, and its main category is Restaurant. It is open from 09:00 to 23:00 and can be reached by phone at 22 511 107. The restaurant's coordinates are (36.728634700847, 10.338080869607).
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Restaurant Metro is a fast-food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast-food options, including burgers, sandwiches, and pizzas. The restaurant is open from 11:00 AM to 12:00 AM, seven days a week. It is located at 002, Av Habib Bourguiba, +2+, Hammam-Lif 2050. The restaurant has a rating of 4.4 stars on Google Maps, based on 14 reviews.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+OLA ENERGY HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia. It offers 24/7 service and also has an auto accessory store and an oil change service. The station is highly rated and has received 8 reviews. The station is located at GP1 Avenue de la republic hammem lif, Hmm 'nf 2050, RN1, Hammam-Lif 2050. It is in close vicinity to public transportation and offers a wide range of services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4780,12 +7026,70 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a top-rated Pavillon de plage, check out Plage located at P98P+V2V Plage, Hammam-Lif. With a rating of 4.0, it's a must-visit spot for Pavillon de plage lovers. To get there, use these GPS coordinates: 36.7255857, 10.3437438.</t>
+          <t>Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>What is the highest-rated Pavillon de plage in Hammam-Lif, and what are its GPS coordinates?</t>
+          <t>Day Plan:
+Morning: Exploring Hammam-Lif Municipality to learn about the city's history and governance.
+Mid-Morning: Visiting the Memorial Aux Victimes D'Octobre 1985 museum to pay respects to the victims and learn about the historical event.
+Midday: Trying local cuisine at Restaurant Erray, a highly-rated Tunisian restaurant known for its delicious food and friendly service.
+Afternoon: Enjoying a walk through Parc National Boukornine, admiring the natural beauty of the mountain scenery and wildlife.
+Evening: Relaxing with a massage at Larym, a renowned beauty institute that offers various spa and wellness treatments.
+Night: Engaging in outdoor activities like stargazing at Hammam-Lif, admiring the clear night sky and enjoying the peaceful ambiance.</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle, located at 8 Av. Habib Bourguiba in Hammam-Lif, is a popular spot for bubble tea lovers. Open from 10:00 to 21:30, except on Tuesdays, this cozy establishment offers a delightful selection of desserts and non-alcoholic beverages. Its average rating of 4.5 stars based on 20 reviews is a testament to its excellent service and quality offerings.
+Cafe Perfeito is a cafe located in Hammam-Lif, Tunisia. It is located at the coordinates (36.747038652609, 10.308746266612). The cafe offers a variety of drinks and snacks, and is a popular spot for locals and tourists alike. It has a rating of 4.9 on Google Maps and has received 1 review.
+Chefchouf, located in Hammam-Lif, offers mouthwatering pizzas, as evidenced by its 4.8 rating based on 6 reviews. The pizzeria is open daily from 9am to 1pm and from 5pm to 10pm, except on Mondays. Chefchouf is easily accessible at Rue docteur calmet, with coordinates (36.7188867, 10.3543151).
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Gare Hammam Lif is a railway station located in Hammam-Lif, Tunisia. It offers convenient train services for locals and tourists alike. The station is situated at convenient coordinates of (36.7255857, 10.3437438). Additionally, Gare Hammam Lif boasts a 3.6 out of 5 stars rating, indicating its popularity and customer satisfaction.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It offers a wide range of products and services, including food, clothing, and electronics. The market is located on P8FP+834 in Hammam-Lif and is open daily from 8am to 8pm.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+In Hammam-Lif, the Memorial Aux Victimes D'Octobre 1985 is a museum located at the following coordinates: (36.7255857, 10.3437438). Currently, there are three reviews for this museum, which is owned by Memorial Aux Victimes D'Octobre 1985 (proprietaire).
+Parc National Boukornine is a protected area in Tunisia, set up in 1987 around the Boukornine mountain. The park offers many hiking trails, and is home to wildlife such as orchids, chacals, and wild cats. Reviews emphasize its natural beauty, with a focus on its mountain scenery and wildlife. It is located at M96M+99H Parc National Boukornine, A1, Hammam-Lif, Tunisia and can be reached by phone at 58 905 502.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+**ljbl l'khDr ltqTyr lnbtt**
+This natural food store is located in Hammam-Lif, Tunisia. It offers a variety of healthy and organic products, and is open from 9am to 6pm. It is highly recommended by its customers, who praise its quality products and friendly staff.
+GRILL 33 is a restaurant located in Hammam-Lif, Tunisia. It is rated 4.0 out of 5 stars on Google and has one review. The restaurant's main category is Restaurant.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+OLA ENERGY HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia. It offers 24/7 service and also has an auto accessory store and an oil change service. The station is highly rated and has received 8 reviews. The station is located at GP1 Avenue de la republic hammem lif, Hmm 'nf 2050, RN1, Hammam-Lif 2050. It is in close vicinity to public transportation and offers a wide range of services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4885,10 +7189,71 @@
           <t>hammam-lif</t>
         </is>
       </c>
-      <c r="Z41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.</t>
+        </is>
+      </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>In which extraordinary location can you experience the allure of ancient history and stunning natural landscapes?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant Hammam-Lif Market, offering a diverse range of local products and souvenirs.
+Mid-Morning: Visit the captivating Parc National Boukornine, embarking on a scenic hike amidst stunning natural beauty.
+Midday: Indulge in an authentic Tunisian culinary experience at the highly-rated Restaurant Erray, savoring traditional dishes.
+Afternoon: Immerse in the calming ambiance of Larym, a renowned beauty institute, treating yourself to a rejuvenating spa session.
+Evening: Head to Cafe Mosaique, a cozy cafe, for a delightful dinner accompanied by aromatic coffee.
+Night: Experience the vibrant nightlife at The Bet 216 H.lif, a casino near the Mediterranean Sea, offering entertainment and excitement.</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle, located at 8 Av. Habib Bourguiba in Hammam-Lif, is a popular spot for bubble tea lovers. Open from 10:00 to 21:30, except on Tuesdays, this cozy establishment offers a delightful selection of desserts and non-alcoholic beverages. Its average rating of 4.5 stars based on 20 reviews is a testament to its excellent service and quality offerings.
+Cafe Mosaique, located at P979+8H6 Cafe Mosaique, P1, Hammam-Lif, offers a cozy ambiance and a menu that caters to cafe enthusiasts. The cafe is open 24 hours a day, making it a convenient spot for those seeking a caffeine fix or a bite to eat at any hour. Its geolocation at (36.7255857, 10.3437438) places it conveniently within the city of Hammam-Lif.
+Cafe-Restaurant 59, located in Hammam-Lif, Tunisia (36.7255857, 10.3437438), offers a delightful dining experience specializing in delectable pizzas. Open 24 hours a day, this pizzeria welcomes guests at any time, providing a convenient option for those seeking a satisfying meal. Despite lacking a website, Cafe-Restaurant 59 garners positive reviews, boasting a 4.0 rating from 10 satisfied customers. Its featured image showcases an inviting ambiance, while its main category, Pizzeria, accurately reflects the establishment's culinary focus.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Tahar Sfar is a train station located in Hammam-Lif, Tunisia. It is a popular destination for both tourists and locals. The station is well-maintained and offers a variety of services to its passengers. It is also well-connected to the rest of the city, making it easy to get to and from.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It offers a wide range of products and services, including food, clothing, and electronics. The market is located on P8FP+834 in Hammam-Lif and is open daily from 8am to 8pm.
+Hammam-Lif is a 3.6-rated Point d'eau located in Hammam-Lif, Tunisia. Its coordinates are (36.7255857, 10.3437438).
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+In Hammam-Lif, the Memorial Aux Victimes D'Octobre 1985 is a museum located at the following coordinates: (36.7255857, 10.3437438). Currently, there are three reviews for this museum, which is owned by Memorial Aux Victimes D'Octobre 1985 (proprietaire).
+Parc National Boukornine is a protected area surrounding Mount Boukornine, offering stunning hiking trails where visitors can marvel at diverse flora, including vibrant orchids. This sanctuary is also home to an array of wildlife, including elusive jackals and graceful wildcats. Conveniently located at M96M+99H Parc National Boukornine, A1 in Hammam-Lif, it boasts exceptional reviews, earning a 4.1-star rating from 239 satisfied visitors.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+Los Caprichos is a restaurant located in Hammam-Lif, Tunisia. It is rated 4.0 out of 5 stars on Google and has received 3 reviews. Los Caprichos offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the following coordinates: 36.721708762725, 10.358406416192.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+TotalEnergies HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia, at the coordinates (36.7287, 10.333). The gas station is open 24 hours a day and offers a wide range of services, including fuel, car wash, and oil change. TotalEnergies HAMMAM LIF also has a convenience store that sells snacks, drinks, and other items.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4982,16 +7347,76 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Banette located at P8JM+J72 Banette, Av. de la mer mediterannee, Hammam-Lif. 
-This top-rated destination is perfect for Boulangerie lovers and offers a range of Boulangerie to choose from. 
-With a rating of 5.0, it's a must-visit spot.
-To get there, use these GPS coordinates: 36.7255857, 10.3437438. 
-For more details, visit their website at https://www.google.com/maps/place/Banette/data=!4m7!3m6!1s0x12fd493b7cff05ab:0x7cce6b5e996b4cf1!8m2!3d36.7315181!4d10.3331522!16s%2Fg%2F1tm3m4fy!19sChIJqwX_fDtJ_RIR8UxrmV5rznw?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>Where in Hammam-Lif can you find a highly rated Boulangerie destination that is perfect for Boulangerie enthusiasts?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Begin your day with a rejuvenating experience at Larym, a renowned beauty institute in Hammam-Lif. Indulge in a relaxing spa treatment to revitalize your mind and body.
+**Mid-Morning:**
+- Explore the vibrant Hammam Lif market, where you can immerse yourself in local culture and discover a diverse range of products, from traditional crafts to fresh produce.
+**Midday:**
+- Savor the authentic flavors of Tunisia at Restaurant Erray, a highly-rated Tunisian restaurant known for its delicious cuisine and warm hospitality.
+**Afternoon:**
+- Embark on a guided tour of the Memorial Aux Victimes D'Octobre 1985, a poignant museum dedicated to the victims of a tragic train disaster. Learn about this significant event in Tunisian history.
+**Evening:**
+- Enjoy a leisurely stroll through Parc National Boukornine, surrounded by the picturesque beauty of nature. Admire the diverse flora and fauna while immersing yourself in the tranquility of the surroundings.
+**Night:**
+- Conclude the day with a delightful dinner at Cafe-restaurant L' Opera, a 24/7 diner that offers a cozy ambiance and a delectable menu. Relish the opportunity to engage with locals and fellow travelers.</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.
+Cafe Perfeito is a cafe located in Hammam-Lif, Tunisia. It is located at the coordinates (36.747038652609, 10.308746266612). The cafe offers a variety of drinks and snacks, and is a popular spot for locals and tourists alike. It has a rating of 4.9 on Google Maps and has received 1 review.
+Cafe-Restaurant 59 is a Pizzeria located in hammam-lif (36.7255857, 10.3437438). It is open 24 hours a day and offers a variety of pizzas. It is rated 4.0 stars by its customers.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Gare Hammam Lif is a train station in Hammam-Lif, Tunisia. It offers rail services to various destinations in the country. The station is conveniently located with the following coordinates: (36.7255857, 10.3437438).
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It offers a wide range of products and services, including food, clothing, and electronics. The market is located on P8FP+834 in Hammam-Lif and is open daily from 8am to 8pm.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It is dedicated to the victims of the 1985 Hammam-Lif train disaster. The museum offers a variety of exhibits on the disaster, including photographs, artifacts, and personal stories. It is a popular tourist destination for those interested in learning more about Tunisian history. The museum is located at (36.7255857, 10.3437438).
+Nestled around Mount Boukornine, Parc National Boukornine is a protected haven offering picturesque hiking trails amidst nature's splendor. Located in Hammam-Lif, it boasts a diverse ecosystem with vibrant orchids, elusive chacals, and graceful wildcats. With its stunning mountain backdrop and a rich cultural heritage dating back to 1987, this park invites nature enthusiasts to explore its wonders while embracing its historical significance.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+**ljbl l'khDr ltqTyr lnbtt**
+This natural food store is located in Hammam-Lif, Tunisia. It offers a variety of healthy and organic products, and is open from 9am to 6pm. It is highly recommended by its customers, who praise its quality products and friendly staff.
+Restaurant Coq Roti Shili is located in Hammam-Lif at 9 Avenue de la Republique. Its coordinates are (36.714115135042, 10.365112185542). It offers 24/7 service. There is no information about its website or description, but it has 1 review and a rating of 4.0.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+OLA ENERGY HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia. It offers 24/7 service and also has an auto accessory store and an oil change service. The station is highly rated and has received 8 reviews. The station is located at GP1 Avenue de la republic hammem lif, Hmm 'nf 2050, RN1, Hammam-Lif 2050. It is in close vicinity to public transportation and offers a wide range of services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5089,16 +7514,76 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a place to stay, check out Municipalite d'Hammam-Lif located at P8HM+FFX Municipalite d'Hammam-Lif, RN1, Hammam-Lif. 
-This top-rated destination is perfect for Hotel de ville lovers. 
-With a rating of 5.0, it's a must-visit spot. 
-To get there, use these GPS coordinates: 36.7284639, 10.3336672. For more details, visit their website 
-at https://www.google.com/maps/place/Municipalit%C3%A9+d%27Hammam-Lif/data=!4m7!3m6!1s0x12fd4924b0155555:0x720eac12f208817b!8m2!3d36.7287346!4d10.3337387!16s%2Fg%2F11txv23376!19sChIJVVUVsCRJ_RIRe4EI8hKsDnI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>Where in Hammam-Lif is a highly rated destination with a 5.0 rating, perfect for Hotel de ville enthusiasts?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the bustling Hammam Lif Market for local products and daily life.
+**Mid-Morning:**
+- Visit the Hammam-Lif Municipality to learn about the city's governance and history.
+**Midday:**
+- Indulge in a delightful meal of traditional Tunisian cuisine at Restaurant Erray, known for its delicious dishes.
+**Afternoon:**
+- Unwind and relax with a rejuvenating spa treatment at Larym beauty institute.
+**Evening:**
+- Catch a captivating live performance at Club 55 or enjoy the cozy atmosphere at Cafe-restaurant L' Opera.
+**Night:**
+- Take a serene stroll along the sandy shores of Plage, admiring the shimmering Mediterranean Sea under the moonlight.</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle, located at 8 Av. Habib Bourguiba in Hammam-Lif, is a popular spot for bubble tea lovers. Open from 10:00 to 21:30, except on Tuesdays, this cozy establishment offers a delightful selection of desserts and non-alcoholic beverages. Its average rating of 4.5 stars based on 20 reviews is a testament to its excellent service and quality offerings.
+Club 55, nestled in Hammam-Lif, invites you to unwind 24/7. At the coordinates (36.7188867, 10.3543151), indulge in the cozy ambiance and delectable offerings of this Cafe.
+Cafe-Restaurant 59, located in Hammam-Lif, Tunisia (36.7255857, 10.3437438), offers a delightful dining experience specializing in delectable pizzas. Open 24 hours a day, this pizzeria welcomes guests at any time, providing a convenient option for those seeking a satisfying meal. Despite lacking a website, Cafe-Restaurant 59 garners positive reviews, boasting a 4.0 rating from 10 satisfied customers. Its featured image showcases an inviting ambiance, while its main category, Pizzeria, accurately reflects the establishment's culinary focus.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Boukornine is a train station located in Hammam-Lif, Tunisia. It has received 4.2 stars from 24 reviews on Google Maps. Its coordinates are (36.73539, 10.32855).
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It offers a wide range of products and services, including food, clothing, and electronics. The market is located on P8FP+834 in Hammam-Lif and is open daily from 8am to 8pm.
+Hammam-Lif is a 3.6-rated Point d'eau located in Hammam-Lif, Tunisia. Its coordinates are (36.7255857, 10.3437438).
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+In Hammam-Lif, the Memorial Aux Victimes D'Octobre 1985 is a museum located at the following coordinates: (36.7255857, 10.3437438). Currently, there are three reviews for this museum, which is owned by Memorial Aux Victimes D'Octobre 1985 (proprietaire).
+Nestled around Mount Boukornine, Parc National Boukornine is a protected haven offering picturesque hiking trails amidst nature's splendor. Located in Hammam-Lif, it boasts a diverse ecosystem with vibrant orchids, elusive chacals, and graceful wildcats. With its stunning mountain backdrop and a rich cultural heritage dating back to 1987, this park invites nature enthusiasts to explore its wonders while embracing its historical significance.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+**Machewi Khayati**
+Machewi Khayati is a restaurant located in Hammam-Lif, Tunisia at the address 208 Avenue de la Republique. The restaurant is open from 7:00 AM to 10:00 PM, and it serves a variety of dishes. It also has a rating of 4.3 out of 5 stars on Google reviews.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+Agil Hammam lif is a well-rated gas station with a 5-star rating on Google reviews. It is located in hammam-lif, at the coordinates (36.722854, 10.3488626).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5196,12 +7681,76 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Memorial Aux Victimes D'Octobre 1985 located at P98C+R4H Memorial Aux Victimes D'Octobre 1985, shr` shhd Gr@ 'ktwbr1985,, Hammam-Lif. This top-rated destination is perfect for Musee lovers. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/M%C3%A9morial+Aux+Victimes+D%27Octobre+1985/data=!4m7!3m6!1s0x12fd4f1d447d9167:0x2676999f6651755e!8m2!3d36.7170674!4d10.3703548!16s%2Fg%2F11h51c7jv8!19sChIJZ5F9RB1P_RIRXnVRZp-ZdiY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It's dedicated to the victims of the October 1985 terrorist attack. The museum offers a unique opportunity to learn about this tragic event and its impact on the community. It's a place of remembrance and reflection, and a reminder of the importance of peace and reconciliation. It's a must-visit for anyone interested in the history of Tunisia and the fight against terrorism.</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Musee destination with a rating of 5.0 in Hammam-Lif, known for its historical significance?</t>
+          <t>Day Plan:
+**Morning:**
+* Explore the bustling Hammam Lif market (Hammam Lif)
+**Mid-Morning:**
+* Try local cuisine at Machewi Khayati (Restaurant)
+**Midday:**
+* Visit the Memorial Aux Victimes D'Octobre 1985 (Museum)
+**Afternoon:**
+* Enjoy scenic views at Plage (Beach Pavilion)
+**Evening:**
+* Relax with a traditional hammam treatment at Larym (Beauty Institute)
+**Night:**
+* Experience cultural immersion at Parc National Boukornine (Natural Park)</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle, located at 8 Av. Habib Bourguiba in Hammam-Lif, is a popular spot for bubble tea lovers. Open from 10:00 to 21:30, except on Tuesdays, this cozy establishment offers a delightful selection of desserts and non-alcoholic beverages. Its average rating of 4.5 stars based on 20 reviews is a testament to its excellent service and quality offerings.
+The Lab Cofee, located at Rue Habib Bougatfa in Hammam-Lif (36.732938113011, 10.334654269469), is a popular cafe among locals. Open from 7 AM to 11 PM daily, The Lab Cofee has received an excellent rating of 4.9 based on 8 reviews. Despite not having a website or social media presence, the cafe's phone number is 58 753 651, and you can visit them during their regular business hours to enjoy a cup of their finest coffee.
+Chefchouf, located in Hammam-Lif, offers mouthwatering pizzas, as evidenced by its 4.8 rating based on 6 reviews. The pizzeria is open daily from 9am to 1pm and from 5pm to 10pm, except on Mondays. Chefchouf is easily accessible at Rue docteur calmet, with coordinates (36.7188867, 10.3543151).
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Gare Hammam Lif is a train station in Hammam-Lif, Tunisia. It offers rail services to various destinations in the country. The station is conveniently located with the following coordinates: (36.7255857, 10.3437438).
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a 3.6-rated Point d'eau located in Hammam-Lif, Tunisia. Its coordinates are (36.7255857, 10.3437438).
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It's dedicated to the victims of the October 1985 terrorist attack. The museum offers a unique opportunity to learn about this tragic event and its impact on the community. It's a place of remembrance and reflection, and a reminder of the importance of peace and reconciliation. It's a must-visit for anyone interested in the history of Tunisia and the fight against terrorism.
+Nestled in northern Tunisia and established in 1987, Parc National Boukornine encompasses the majestic Boukornine Mountain. Designated as a protected natural area, the park offers a vibrant ecosystem and sanctuary for diverse flora and fauna. Situated at coordinates (36.7303975, 10.3295395), it boasts an altitude of 3963 feet, providing breathtaking panoramic views. The park is a paradise for nature enthusiasts, with a network of hiking trails winding through its verdant landscapes. Within its borders, visitors can spot orchids, mammals like chacals, and elusive wildcats amidst a rich biodiversity.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+**Machewi Khayati**
+Machewi Khayati is a restaurant located in Hammam-Lif, Tunisia at the address 208 Avenue de la Republique. The restaurant is open from 7:00 AM to 10:00 PM, and it serves a variety of dishes. It also has a rating of 4.3 out of 5 stars on Google reviews.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Restaurant Metro is a fast-food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast-food options, including burgers, sandwiches, and pizzas. The restaurant is open from 11:00 AM to 12:00 AM, seven days a week. It is located at 002, Av Habib Bourguiba, +2+, Hammam-Lif 2050. The restaurant has a rating of 4.4 stars on Google Maps, based on 14 reviews.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+Agil Hammam lif is a well-rated gas station with a 5-star rating on Google reviews. It is located in hammam-lif, at the coordinates (36.722854, 10.3488626).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5299,12 +7848,76 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Memorial Aux Victimes D'Octobre 1985 located at P98C+R4H Memorial Aux Victimes D'Octobre 1985, shr` shhd Gr@ 'ktwbr1985,, Hammam-Lif. This top-rated destination is perfect for Musee lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.7255857, 10.3437438. For more details, visit their website at https://www.google.com/maps/place/M%C3%A9morial+Aux+Victimes+D%27Octobre+1985/data=!4m7!3m6!1s0x12fd4f1d447d9167:0x2676999f6651755e!8m2!3d36.7170674!4d10.3703548!16s%2Fg%2F11h51c7jv8!19sChIJZ5F9RB1P_RIRXnVRZp-ZdiY?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>In Hammam-Lif, the Memorial Aux Victimes D'Octobre 1985 is a museum located at the following coordinates: (36.7255857, 10.3437438). Currently, there are three reviews for this museum, which is owned by Memorial Aux Victimes D'Octobre 1985 (proprietaire).</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>Where can you visit a highly-rated Musée in Hammam-Lif, known for its excellent reputation among Musee enthusiasts?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the bustling Hammam Lif market, offering a vibrant array of local goods and produce.
+**Mid-Morning:**
+* Visit the historic Memorial Aux Victimes D'Octobre 1985, honoring the memory of those who lost their lives in the devastating terrorist attack.
+**Midday:**
+* Savor the authentic flavors of Tunisian cuisine at the highly-rated Restaurant Erray, known for its traditional dishes.
+**Afternoon:**
+* Enjoy a leisurely stroll through Parc National Boukornine, a breathtaking nature reserve with stunning mountain scenery and diverse wildlife.
+**Evening:**
+* Indulge in a rejuvenating spa session at the renowned Larym beauty institute, offering a range of relaxing treatments.
+**Night:**
+* Experience the vibrant nightlife of Hammam Lif at Cafe-restaurant L' Opera, serving delicious food and providing a lively atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle, located at 8 Av. Habib Bourguiba in Hammam-Lif, is a popular spot for bubble tea lovers. Open from 10:00 to 21:30, except on Tuesdays, this cozy establishment offers a delightful selection of desserts and non-alcoholic beverages. Its average rating of 4.5 stars based on 20 reviews is a testament to its excellent service and quality offerings.
+Cafe Mosaique, located in Hammam-Lif (coordinates: 36.72951172979, 10.340563329129), is a cafe with a 4.7 rating based on 3 reviews. It offers its services from 6:00 am to midnight, every day of the week.
+Cafe-Restaurant 59, located in Hammam-Lif, Tunisia (36.7255857, 10.3437438), offers a delightful dining experience specializing in delectable pizzas. Open 24 hours a day, this pizzeria welcomes guests at any time, providing a convenient option for those seeking a satisfying meal. Despite lacking a website, Cafe-Restaurant 59 garners positive reviews, boasting a 4.0 rating from 10 satisfied customers. Its featured image showcases an inviting ambiance, while its main category, Pizzeria, accurately reflects the establishment's culinary focus.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+by'r lby offers a range of services to meet the needs of its customers. It has 13 reviews and a rating of 3.1. Located at (36.7255857, 10.3437438) in the city of hammam-lif, by'r lby is easily accessible.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a 3.6-rated Point d'eau located in Hammam-Lif, Tunisia. Its coordinates are (36.7255857, 10.3437438).
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+In Hammam-Lif, the Memorial Aux Victimes D'Octobre 1985 is a museum located at the following coordinates: (36.7255857, 10.3437438). Currently, there are three reviews for this museum, which is owned by Memorial Aux Victimes D'Octobre 1985 (proprietaire).
+Parc National Boukornine is a protected area in Tunisia, set up in 1987 around the Boukornine mountain. The park offers many hiking trails, and is home to wildlife such as orchids, chacals, and wild cats. Reviews emphasize its natural beauty, with a focus on its mountain scenery and wildlife. It is located at M96M+99H Parc National Boukornine, A1, Hammam-Lif, Tunisia and can be reached by phone at 58 905 502.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+**Machewi Khayati**
+Machewi Khayati is a restaurant located in Hammam-Lif, Tunisia at the address 208 Avenue de la Republique. The restaurant is open from 7:00 AM to 10:00 PM, and it serves a variety of dishes. It also has a rating of 4.3 out of 5 stars on Google reviews.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+OLA ENERGY HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia. It offers 24/7 service and also has an auto accessory store and an oil change service. The station is highly rated and has received 8 reviews. The station is located at GP1 Avenue de la republic hammem lif, Hmm 'nf 2050, RN1, Hammam-Lif 2050. It is in close vicinity to public transportation and offers a wide range of services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5402,13 +8015,70 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Memorial Aux Victimes D'Octobre 1985 located at P98C+R4H Memorial Aux Victimes D'Octobre 1985, shr` shhd Gr@ 'ktwbr1985,,. 
-This top-rated destination is perfect for Musee lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.7255857, 10.3437438.</t>
+          <t>The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It is dedicated to the victims of the 1985 Hammam-Lif train disaster. The museum offers a variety of exhibits on the disaster, including photographs, artifacts, and personal stories. It is a popular tourist destination for those interested in learning more about Tunisian history. The museum is located at (36.7255857, 10.3437438).</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>What is the must-visit spot for history buffs in Hammam-Lif, known for its high ratings and focus on the Musee experience?</t>
+          <t>Day Plan:
+Morning: Explore the bustling Hammam-Lif Market, a treasure trove of local products and souvenirs.
+Mid-Morning: Immerse yourself in Tunisian culture at the Memorial Aux Victimes D'Octobre, a museum commemorating the victims of terrorism.
+Midday: Indulge in authentic Tunisian cuisine at Restaurant Metro, renowned for its fast food delights.
+Afternoon: Unwind and revitalize with a rejuvenating spa session at Larym, a beauty institute offering a range of treatments.
+Evening: Experience the vibrant atmosphere of Foret Noire creperie, savoring both sweet and savory crepes while enjoying live music.
+Night: Explore the town's historic landmarks, such as the Hammam-Lif Municipality and Tahar Sfar train station, to soak up the city's rich heritage.</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.
+3 Bro's is a Café located in Hammam Lif, Tunisia. It has 4 reviews with an average rating of 4.5. It can be found in the following coordinates: (36.731793003498, 10.333876679807).
+Cafe-Restaurant 59 is a Pizzeria located in hammam-lif (36.7255857, 10.3437438). It is open 24 hours a day and offers a variety of pizzas. It is rated 4.0 stars by its customers.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Tahar Sfar is a train station located in Hammam-Lif, Tunisia. It is a popular destination for both tourists and locals. The station is well-maintained and offers a variety of services to its passengers. It is also well-connected to the rest of the city, making it easy to get to and from.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It offers a wide range of products and services, including food, clothing, and electronics. The market is located on P8FP+834 in Hammam-Lif and is open daily from 8am to 8pm.
+Hammam-Lif is a 3.6-rated Point d'eau located in Hammam-Lif, Tunisia. Its coordinates are (36.7255857, 10.3437438).
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It's dedicated to the victims of the October 1985 terrorist attack. The museum offers a unique opportunity to learn about this tragic event and its impact on the community. It's a place of remembrance and reflection, and a reminder of the importance of peace and reconciliation. It's a must-visit for anyone interested in the history of Tunisia and the fight against terrorism.
+Nestled in northern Tunisia and established in 1987, Parc National Boukornine encompasses the majestic Boukornine Mountain. Designated as a protected natural area, the park offers a vibrant ecosystem and sanctuary for diverse flora and fauna. Situated at coordinates (36.7303975, 10.3295395), it boasts an altitude of 3963 feet, providing breathtaking panoramic views. The park is a paradise for nature enthusiasts, with a network of hiking trails winding through its verdant landscapes. Within its borders, visitors can spot orchids, mammals like chacals, and elusive wildcats amidst a rich biodiversity.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+**Machewi Khayati**
+Machewi Khayati is a restaurant located in Hammam-Lif, Tunisia at the address 208 Avenue de la Republique. The restaurant is open from 7:00 AM to 10:00 PM, and it serves a variety of dishes. It also has a rating of 4.3 out of 5 stars on Google reviews.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Restaurant Metro is a fast-food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast-food options, including burgers, sandwiches, and pizzas. The restaurant is open from 11:00 AM to 12:00 AM, seven days a week. It is located at 002, Av Habib Bourguiba, +2+, Hammam-Lif 2050. The restaurant has a rating of 4.4 stars on Google Maps, based on 14 reviews.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+Agil Hammam lif is a well-rated gas station with a 5-star rating on Google reviews. It is located in hammam-lif, at the coordinates (36.722854, 10.3488626).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5514,12 +8184,69 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a top-rated Parc national destination, check out Parc National Boukornine located at M96M+99H Parc National Boukornine, A1, Hammam-Lif. This must-visit spot with a rating of 4.1 has a range of categories to choose from, including Parc national and Attraction touristique. To get there, use these GPS coordinates: 36.7303975, 10.3295395. For more details, call them at 58 905 502.</t>
+          <t>Parc National Boukornine is a protected area in Tunisia, set up in 1987 around the Boukornine mountain. The park offers many hiking trails, and is home to wildlife such as orchids, chacals, and wild cats. Reviews emphasize its natural beauty, with a focus on its mountain scenery and wildlife. It is located at M96M+99H Parc National Boukornine, A1, Hammam-Lif, Tunisia and can be reached by phone at 58 905 502.</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>If you're visiting Hammam-Lif and seeking an exceptional Parc national destination, where can you find Parc National Boukornine, a must-visit spot with a 4.1 rating?</t>
+          <t>Day Plan:
+Morning: Exploring Hammam-Lif Municipality, the vibrant city hall at the heart of Hammam-Lif.
+Mid-Morning: Immersing in the rich history of Tunisia at the Memorial Aux Victimes D'Octobre 1985.
+Midday: Savoring authentic Tunisian flavors at Restaurant Erray, renowned for its traditional cuisine.
+Afternoon: Embracing the natural beauty of Parc National Boukornine, hiking through lush trails adorned with vibrant flora and wildlife.
+Evening: Indulging in a rejuvenating hammam experience at Larym, a renowned beauty institute offering a tranquil escape.
+Night: Experiencing the lively ambiance of Cafe-restaurant L'Opera, a 24/7 diner serving delectable local dishes.</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle, located at 8 Av. Habib Bourguiba in Hammam-Lif, is a popular spot for bubble tea lovers. Open from 10:00 to 21:30, except on Tuesdays, this cozy establishment offers a delightful selection of desserts and non-alcoholic beverages. Its average rating of 4.5 stars based on 20 reviews is a testament to its excellent service and quality offerings.
+Located at P8HV+JG2 La Cafet, Mandes France, Hammam-Lif 2050, La Cafet is a highly-rated cafe (5.0 out of 5 stars based on 2 reviews) that opens daily from 6 AM to midnight. Unfortunately, there is no further information or description available about this establishment.
+Cafe-Restaurant 59, located in Hammam-Lif, Tunisia (36.7255857, 10.3437438), offers a delightful dining experience specializing in delectable pizzas. Open 24 hours a day, this pizzeria welcomes guests at any time, providing a convenient option for those seeking a satisfying meal. Despite lacking a website, Cafe-Restaurant 59 garners positive reviews, boasting a 4.0 rating from 10 satisfied customers. Its featured image showcases an inviting ambiance, while its main category, Pizzeria, accurately reflects the establishment's culinary focus.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+by'r lby offers a range of services to meet the needs of its customers. It has 13 reviews and a rating of 3.1. Located at (36.7255857, 10.3437438) in the city of hammam-lif, by'r lby is easily accessible.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It's dedicated to the victims of the October 1985 terrorist attack. The museum offers a unique opportunity to learn about this tragic event and its impact on the community. It's a place of remembrance and reflection, and a reminder of the importance of peace and reconciliation. It's a must-visit for anyone interested in the history of Tunisia and the fight against terrorism.
+Parc National Boukornine is a protected area surrounding Mount Boukornine, offering stunning hiking trails where visitors can marvel at diverse flora, including vibrant orchids. This sanctuary is also home to an array of wildlife, including elusive jackals and graceful wildcats. Conveniently located at M96M+99H Parc National Boukornine, A1 in Hammam-Lif, it boasts exceptional reviews, earning a 4.1-star rating from 239 satisfied visitors.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+Fresh Instant is a restaurant located in Hammam-Lif, Tunisia. It is open from 8:00 AM to 5:00 PM from Monday to Friday and is closed on Saturday and Sunday. Its main category is Restaurant.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Restaurant Metro is a fast-food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast-food options, including burgers, sandwiches, and pizzas. The restaurant is open from 11:00 AM to 12:00 AM, seven days a week. It is located at 002, Av Habib Bourguiba, +2+, Hammam-Lif 2050. The restaurant has a rating of 4.4 stars on Google Maps, based on 14 reviews.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+TotalEnergies HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia, at the coordinates (36.7287, 10.333). The gas station is open 24 hours a day and offers a wide range of services, including fuel, car wash, and oil change. TotalEnergies HAMMAM LIF also has a convenience store that sells snacks, drinks, and other items.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5625,12 +8352,69 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Parc National Boukornine located at M96M+99H Parc National Boukornine, A1, Hammam-Lif. This top-rated destination is perfect for Parc national lovers and offers a range of attractions to choose from. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 36.7303975, 10.3295395. For more details, visit their website at https://www.google.com/maps/place/Parc+National+Boukornine/data=!4m7!3m6!1s0x12fd458bac3c534b:0x6a33d35c2c66dc9b!8m2!3d36.6609432!4d10.383479!16s%2Fm%2F012w469s!19sChIJS1M8rItF_RIRm9xmLFzTM2o?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 58 905 502.</t>
+          <t>Nestled in northern Tunisia and established in 1987, Parc National Boukornine encompasses the majestic Boukornine Mountain. Designated as a protected natural area, the park offers a vibrant ecosystem and sanctuary for diverse flora and fauna. Situated at coordinates (36.7303975, 10.3295395), it boasts an altitude of 3963 feet, providing breathtaking panoramic views. The park is a paradise for nature enthusiasts, with a network of hiking trails winding through its verdant landscapes. Within its borders, visitors can spot orchids, mammals like chacals, and elusive wildcats amidst a rich biodiversity.</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>Where can you visit a highly rated Parc National in Hammam-Lif that offers a range of attractions?</t>
+          <t>Day Plan:
+Morning: Explore the local market at Hammam Lif for authentic Tunisian goods
+Mid-Morning: Visit the historic Memorial Aux Victimes D'Octobre 1985 to learn about the 1985 terrorist attack
+Midday: Try local cuisine at Restaurant Sehili Junior, known for its delicious dishes
+Afternoon: Engage in outdoor activities like hiking or nature walks at Parc National Boukornine, known for its picturesque trails and diverse ecosystem
+Evening: Relax with a refreshing experience at Larym, a renowned beauty institute, and indulge in spa treatments or hammam services
+Night: Experience cultural immersion at the Casino The Bet 216 H.lif, known for its vibrant atmosphere and entertainment options</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle, located at 8 Av. Habib Bourguiba in Hammam-Lif, is a popular spot for bubble tea lovers. Open from 10:00 to 21:30, except on Tuesdays, this cozy establishment offers a delightful selection of desserts and non-alcoholic beverages. Its average rating of 4.5 stars based on 20 reviews is a testament to its excellent service and quality offerings.
+La Cabane (Sardouk) is a popular cafe located in Hammam-Lif, Tunisia. It offers a range of services, including 24-hour service. The cafe is well-rated, with an average score of 4.8 out of 5, and has received positive reviews for its ambiance and service.
+Cafe-Restaurant 59 is a Pizzeria located in hammam-lif (36.7255857, 10.3437438). It is open 24 hours a day and offers a variety of pizzas. It is rated 4.0 stars by its customers.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Gare Hammam Lif is a train station in Hammam-Lif, Tunisia. It offers rail services to various destinations in the country. The station is conveniently located with the following coordinates: (36.7255857, 10.3437438).
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a 3.6-rated Point d'eau located in Hammam-Lif, Tunisia. Its coordinates are (36.7255857, 10.3437438).
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It's dedicated to the victims of the October 1985 terrorist attack. The museum offers a unique opportunity to learn about this tragic event and its impact on the community. It's a place of remembrance and reflection, and a reminder of the importance of peace and reconciliation. It's a must-visit for anyone interested in the history of Tunisia and the fight against terrorism.
+Nestled around Mount Boukornine, Parc National Boukornine is a protected haven offering picturesque hiking trails amidst nature's splendor. Located in Hammam-Lif, it boasts a diverse ecosystem with vibrant orchids, elusive chacals, and graceful wildcats. With its stunning mountain backdrop and a rich cultural heritage dating back to 1987, this park invites nature enthusiasts to explore its wonders while embracing its historical significance.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+Restaurant Sehili Junior is a restaurant located in Hammam-Lif, Tunisia. It offers a variety of dishes, and is open from 11:00am to 11:00pm every day. The restaurant is located at the coordinates (36.7275104, 10.3351815).
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Restaurant Metro is a fast-food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast-food options, including burgers, sandwiches, and pizzas. The restaurant is open from 11:00 AM to 12:00 AM, seven days a week. It is located at 002, Av Habib Bourguiba, +2+, Hammam-Lif 2050. The restaurant has a rating of 4.4 stars on Google Maps, based on 14 reviews.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+Agil Hammam lif is a well-rated gas station with a 5-star rating on Google reviews. It is located in hammam-lif, at the coordinates (36.722854, 10.3488626).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5736,12 +8520,75 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Parc National Boukornine located at M96M+99H Parc National Boukornine, A1, Hammam-Lif. This top-rated destination is perfect for Parc national lovers and offers a range of categories to choose from. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 36.7303975, 10.3295395. For more details, visit their website at https://www.google.com/maps/place/Parc+National+Boukornine/data=!4m7!3m6!1s0x12fd458bac3c534b:0x6a33d35c2c66dc9b!8m2!3d36.6609432!4d10.383479!16s%2Fm%2F012w469s!19sChIJS1M8rItF_RIRm9xmLFzTM2o?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 58 905 502.</t>
+          <t>Parc National Boukornine is a protected area surrounding Mount Boukornine, offering stunning hiking trails where visitors can marvel at diverse flora, including vibrant orchids. This sanctuary is also home to an array of wildlife, including elusive jackals and graceful wildcats. Conveniently located at M96M+99H Parc National Boukornine, A1 in Hammam-Lif, it boasts exceptional reviews, earning a 4.1-star rating from 239 satisfied visitors.</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated (4.1) Parc national destination with diverse offerings located in Hammam-Lif?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the historic Hammam-Lif Municipality, the heart of the city.
+**Mid-Morning:**
+- Visit the Memorial Aux Victimes D'Octobre 1985 to learn about the tragic terrorist attack.
+**Midday:**
+- Have lunch at Matador Restaurant on Rue Hassine Bouzaiene, known for its delicious dishes.
+**Afternoon:**
+- Enjoy a relaxing afternoon at Parc National Boukornine, with stunning hiking trails and diverse wildlife.
+**Evening:**
+- Shop for organic and natural products at ljbl l'khDr ltqTyr lnbtt.
+**Night:**
+- Savor traditional Tunisian cuisine at the highly-rated Restaurant Erray, open 24 hours a day.</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle, located at 8 Av. Habib Bourguiba in Hammam-Lif, is a popular spot for bubble tea lovers. Open from 10:00 to 21:30, except on Tuesdays, this cozy establishment offers a delightful selection of desserts and non-alcoholic beverages. Its average rating of 4.5 stars based on 20 reviews is a testament to its excellent service and quality offerings.
+Biz-ART Coffee Club, located at P8JQ+4PM Biz-ART Coffee Club, Rue Salammbo, Hammam-Lif (36.7255857, 10.3437438), is a popular cafe frequented by satisfied patrons. It offers a range of refreshments to delight coffee enthusiasts, with average ratings of 4.0. It operates daily from 6:00-23:00 except on days it is closed.
+Cafe-Restaurant 59 is a Pizzeria located in hammam-lif (36.7255857, 10.3437438). It is open 24 hours a day and offers a variety of pizzas. It is rated 4.0 stars by its customers.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Gare Hammam Lif is a railway station located in Hammam-Lif, Tunisia. It offers convenient train services for locals and tourists alike. The station is situated at convenient coordinates of (36.7255857, 10.3437438). Additionally, Gare Hammam Lif boasts a 3.6 out of 5 stars rating, indicating its popularity and customer satisfaction.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It offers a wide range of products and services, including food, clothing, and electronics. The market is located on P8FP+834 in Hammam-Lif and is open daily from 8am to 8pm.
+Hammam-Lif is a 3.6-rated Point d'eau located in Hammam-Lif, Tunisia. Its coordinates are (36.7255857, 10.3437438).
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It's dedicated to the victims of the October 1985 terrorist attack. The museum offers a unique opportunity to learn about this tragic event and its impact on the community. It's a place of remembrance and reflection, and a reminder of the importance of peace and reconciliation. It's a must-visit for anyone interested in the history of Tunisia and the fight against terrorism.
+Parc National Boukornine is a protected area surrounding Mount Boukornine, offering stunning hiking trails where visitors can marvel at diverse flora, including vibrant orchids. This sanctuary is also home to an array of wildlife, including elusive jackals and graceful wildcats. Conveniently located at M96M+99H Parc National Boukornine, A1 in Hammam-Lif, it boasts exceptional reviews, earning a 4.1-star rating from 239 satisfied visitors.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+Matador Restaurant is located at 32 Rue Hassine Bouzaiene, Hammam-Lif with coordinates (36.7255857, 10.3437438). Rated 4.5 based on 2 reviews, it's open from 11:00-23:00, except on Sunday. It's a restaurant that offers a variety of dishes.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Restaurant Metro is a fast-food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast-food options, including burgers, sandwiches, and pizzas. The restaurant is open from 11:00 AM to 12:00 AM, seven days a week. It is located at 002, Av Habib Bourguiba, +2+, Hammam-Lif 2050. The restaurant has a rating of 4.4 stars on Google Maps, based on 14 reviews.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+Agil Hammam lif is a well-rated gas station with a 5-star rating on Google reviews. It is located in hammam-lif, at the coordinates (36.722854, 10.3488626).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5839,14 +8686,70 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a Gare to visit, check out Gare Hammam Lif located at Gare Hammam Lif. 
-This top-rated destination is perfect for Gare lovers and offers a range of Gare to choose from. 
-With a rating of 3.6, it's a must-visit spot. To get there, use these GPS coordinates: 36.7255857, 10.3437438.</t>
+          <t>Gare Hammam Lif is a train station in Hammam-Lif, Tunisia. It offers rail services to various destinations in the country. The station is conveniently located with the following coordinates: (36.7255857, 10.3437438).</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>What is the top-rated Gare destination in Hammam-Lif, perfect for Gare enthusiasts?</t>
+          <t>Day Plan:
+Morning: Exploring Hammam-Lif Municipality
+Mid-Morning: Trying local cuisine at Restaurant Erray
+Midday: Visiting Memorial Aux Victimes D'Octobre 1985
+Afternoon: Enjoying scenic views at Parc National Boukornine
+Evening: Relaxing with a massage at Larym
+Night: Participating in a tasting at ljbl l'khDr ltqTyr lnbtt</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle, located at 8 Av. Habib Bourguiba in Hammam-Lif, is a popular spot for bubble tea lovers. Open from 10:00 to 21:30, except on Tuesdays, this cozy establishment offers a delightful selection of desserts and non-alcoholic beverages. Its average rating of 4.5 stars based on 20 reviews is a testament to its excellent service and quality offerings.
+Cafe Bessaies is a cafe located in Hammam-Lif, Tunisia. It is situated at the coordinates (36.7255857, 10.3437438) and offers a variety of services. The cafe is open from 6:00 AM to 12:00 AM, seven days a week. Cafe Bessaies has a 4.0 rating on Google and has received 2 reviews.
+Cafe-Restaurant 59, located in Hammam-Lif, Tunisia (36.7255857, 10.3437438), offers a delightful dining experience specializing in delectable pizzas. Open 24 hours a day, this pizzeria welcomes guests at any time, providing a convenient option for those seeking a satisfying meal. Despite lacking a website, Cafe-Restaurant 59 garners positive reviews, boasting a 4.0 rating from 10 satisfied customers. Its featured image showcases an inviting ambiance, while its main category, Pizzeria, accurately reflects the establishment's culinary focus.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+by'r lby offers a range of services to meet the needs of its customers. It has 13 reviews and a rating of 3.1. Located at (36.7255857, 10.3437438) in the city of hammam-lif, by'r lby is easily accessible.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a 3.6-rated Point d'eau located in Hammam-Lif, Tunisia. Its coordinates are (36.7255857, 10.3437438).
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It is dedicated to the victims of the 1985 Hammam-Lif train disaster. The museum offers a variety of exhibits on the disaster, including photographs, artifacts, and personal stories. It is a popular tourist destination for those interested in learning more about Tunisian history. The museum is located at (36.7255857, 10.3437438).
+Nestled around Mount Boukornine, Parc National Boukornine is a protected haven offering picturesque hiking trails amidst nature's splendor. Located in Hammam-Lif, it boasts a diverse ecosystem with vibrant orchids, elusive chacals, and graceful wildcats. With its stunning mountain backdrop and a rich cultural heritage dating back to 1987, this park invites nature enthusiasts to explore its wonders while embracing its historical significance.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+**ljbl l'khDr ltqTyr lnbtt**
+This natural food store is located in Hammam-Lif, Tunisia. It offers a variety of healthy and organic products, and is open from 9am to 6pm. It is highly recommended by its customers, who praise its quality products and friendly staff.
+Pizzeria PORTANOVA is a restaurant located in Hammam-lif, Tunisia. It is open from 3 PM to midnight and is closed on Mondays. The restaurant's featured image shows a colorful, visually appealing dish, suggesting that it specializes in traditional Italian cuisine. Pizzeria PORTANOVA has a rating of 4.9 out of 5 based on 10 reviews, and its main category is Restaurant. The restaurant's exact location is at coordinates (36.7255857, 10.3437438).
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+Agil Hammam lif is a well-rated gas station with a 5-star rating on Google reviews. It is located in hammam-lif, at the coordinates (36.722854, 10.3488626).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5956,14 +8859,69 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a Salon de manucure, check out Mariem Onglerie et beaute located at Av. Habib Bourguiba. 
-This top-rated destination offers a range of Salon de manucure to choose from. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: 09:00-21:00, but closed on lundi. To get there, use these GPS coordinates: 36.7255857, 10.3437438. For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D100057127132882 or call them at 23 600 071.</t>
+          <t>Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated salon that offers a variety of nail services near Hammam-Lif?</t>
+          <t>Day Plan:
+Morning: Exploring Parc National Boukornine
+Mid-Morning: Taking a guided tour of the Memorial Aux Victimes D'Octobre 1985
+Midday: Trying local cuisine at Restaurant Erray, known for its delicious Tunisian dishes
+Afternoon: Relaxing at Larym with a spa treatment
+Evening: Enjoying scenic views at Plage, sipping on cocktails while admiring the beachside ambiance
+Night: Indulging in a memorable dinner at Cafe-restaurant L' Opera, known for its exquisite ambiance and delectable cuisine</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle, located at 8 Av. Habib Bourguiba in Hammam-Lif, is a popular spot for bubble tea lovers. Open from 10:00 to 21:30, except on Tuesdays, this cozy establishment offers a delightful selection of desserts and non-alcoholic beverages. Its average rating of 4.5 stars based on 20 reviews is a testament to its excellent service and quality offerings.
+CAFE EL MAESTRO is a 5-star rated cafe located at 03 Rue de la Republique, Hammam-Lif. It is open 24 hours a day and offers a variety of cafe-related services. The cafe is located at (36.74439153775, 10.313528385302).
+Chefchouf, located in Hammam-Lif, offers mouthwatering pizzas, as evidenced by its 4.8 rating based on 6 reviews. The pizzeria is open daily from 9am to 1pm and from 5pm to 10pm, except on Mondays. Chefchouf is easily accessible at Rue docteur calmet, with coordinates (36.7188867, 10.3543151).
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Gare Hammam Lif is a railway station located in Hammam-Lif, Tunisia. It offers convenient train services for locals and tourists alike. The station is situated at convenient coordinates of (36.7255857, 10.3437438). Additionally, Gare Hammam Lif boasts a 3.6 out of 5 stars rating, indicating its popularity and customer satisfaction.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It's dedicated to the victims of the October 1985 terrorist attack. The museum offers a unique opportunity to learn about this tragic event and its impact on the community. It's a place of remembrance and reflection, and a reminder of the importance of peace and reconciliation. It's a must-visit for anyone interested in the history of Tunisia and the fight against terrorism.
+Nestled in northern Tunisia and established in 1987, Parc National Boukornine encompasses the majestic Boukornine Mountain. Designated as a protected natural area, the park offers a vibrant ecosystem and sanctuary for diverse flora and fauna. Situated at coordinates (36.7303975, 10.3295395), it boasts an altitude of 3963 feet, providing breathtaking panoramic views. The park is a paradise for nature enthusiasts, with a network of hiking trails winding through its verdant landscapes. Within its borders, visitors can spot orchids, mammals like chacals, and elusive wildcats amidst a rich biodiversity.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+Ghalya cuisine et conserves is a restaurant located in Hammam-Lif, Tunisia, at the coordinates (36.7255857, 10.3437438). It has received 2 reviews and has a rating of 5.0. The restaurant offers cuisine and conserves and is open from 09:00-17:00, except on Sundays.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Restaurant Metro is a fast-food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast-food options, including burgers, sandwiches, and pizzas. The restaurant is open from 11:00 AM to 12:00 AM, seven days a week. It is located at 002, Av Habib Bourguiba, +2+, Hammam-Lif 2050. The restaurant has a rating of 4.4 stars on Google Maps, based on 14 reviews.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+Agil Hammam lif is a well-rated gas station with a 5-star rating on Google reviews. It is located in hammam-lif, at the coordinates (36.722854, 10.3488626).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6065,12 +9023,70 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Hammam lif located at P8FP+834 Hammam lif, Hammam-Lif. This top-rated destination is perfect for Marche lovers and offers a range of categories to choose from. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.7255857, 10.3437438. For more details, call them at 50 751 756.</t>
+          <t>Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>What is the highly-rated attraction in Hammam lif, particularly known for its variety of categories and appeal to Marche enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant Hammam-Lif Market, offering a diverse range of local goods and services.
+Mid-Morning: Visit the Larym beauty institute, a renowned spa that offers various treatments to rejuvenate and relax.
+Midday: Indulge in the delightful Tunisian cuisine at Restaurant Erray, known for its traditional dishes and inviting atmosphere.
+Afternoon: Take a scenic walk through Parc National Boukornine, surrounded by Mount Boukornine's picturesque landscape and immerse yourself in nature's beauty.
+Evening: Enjoy the lively ambiance of Cafe Bessaies, a local cafe that offers a variety of services and is a popular gathering spot.
+Night: Experience the electrifying atmosphere at The Bet 216 H.lif, a highly rated casino located near the Mediterranean Sea.</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.
+Cafe Bessaies is a cafe located in Hammam-Lif, Tunisia. It is situated at the coordinates (36.7255857, 10.3437438) and offers a variety of services. The cafe is open from 6:00 AM to 12:00 AM, seven days a week. Cafe Bessaies has a 4.0 rating on Google and has received 2 reviews.
+Chefchouf, located in Hammam-Lif, offers mouthwatering pizzas, as evidenced by its 4.8 rating based on 6 reviews. The pizzeria is open daily from 9am to 1pm and from 5pm to 10pm, except on Mondays. Chefchouf is easily accessible at Rue docteur calmet, with coordinates (36.7188867, 10.3543151).
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Arret du Stade, a bus stop located in Hammam-Lif, Tunisia, at the coordinates (36.732743558019, 10.322633566116).
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It is dedicated to the victims of the 1985 Hammam-Lif train disaster. The museum offers a variety of exhibits on the disaster, including photographs, artifacts, and personal stories. It is a popular tourist destination for those interested in learning more about Tunisian history. The museum is located at (36.7255857, 10.3437438).
+Nestled around Mount Boukornine, Parc National Boukornine is a protected haven offering picturesque hiking trails amidst nature's splendor. Located in Hammam-Lif, it boasts a diverse ecosystem with vibrant orchids, elusive chacals, and graceful wildcats. With its stunning mountain backdrop and a rich cultural heritage dating back to 1987, this park invites nature enthusiasts to explore its wonders while embracing its historical significance.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+**ljbl l'khDr ltqTyr lnbtt**
+This natural food store is located in Hammam-Lif, Tunisia. It offers a variety of healthy and organic products, and is open from 9am to 6pm. It is highly recommended by its customers, who praise its quality products and friendly staff.
+Fresh Instant is a restaurant located in Hammam-Lif, Tunisia. It is open from 8:00 AM to 5:00 PM from Monday to Friday and is closed on Saturday and Sunday. Its main category is Restaurant.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Restaurant Metro is a fast-food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast-food options, including burgers, sandwiches, and pizzas. The restaurant is open from 11:00 AM to 12:00 AM, seven days a week. It is located at 002, Av Habib Bourguiba, +2+, Hammam-Lif 2050. The restaurant has a rating of 4.4 stars on Google Maps, based on 14 reviews.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+Agil Hammam lif is a well-rated gas station with a 5-star rating on Google reviews. It is located in hammam-lif, at the coordinates (36.722854, 10.3488626).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6168,14 +9184,69 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a Point d'eau, check out Hammam-Lif located at Hammam-Lif. 
-This top-rated destination is perfect for Point d'eau lovers and offers a range of Point d'eau to choose from. 
-With a rating of 3.6, it's a must-visit spot. To get there, use these GPS coordinates: 36.7255857, 10.3437438.</t>
+          <t>Hammam-Lif is a 3.6-rated Point d'eau located in Hammam-Lif, Tunisia. Its coordinates are (36.7255857, 10.3437438).</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>What highly-rated Point d'eau destination is conveniently located in Hammam-Lif, Tunisia?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant Hammam-Lif Market, offering an array of local products and souvenirs.
+Mid-Morning: Delight in a tasty breakfast at Banette, a bakery renowned for its mouthwatering pastries.
+Midday: Visit the historical Hammam-Lif Municipality to learn about the city's governance and history.
+Afternoon: Relax and rejuvenate with a revitalizing spa treatment at Larym, a well-regarded beauty institute.
+Evening: Savor the flavors of traditional Tunisian cuisine at Restaurant Erray, known for its delicious dishes and warm hospitality.
+Night: Enjoy the lively atmosphere at The Bet 216 H.lif, a casino near the Mediterranean Sea, offering entertainment and gaming options.</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle, located at 8 Av. Habib Bourguiba in Hammam-Lif, is a popular spot for bubble tea lovers. Open from 10:00 to 21:30, except on Tuesdays, this cozy establishment offers a delightful selection of desserts and non-alcoholic beverages. Its average rating of 4.5 stars based on 20 reviews is a testament to its excellent service and quality offerings.
+3 Bro's is a Café located in Hammam Lif, Tunisia. It has 4 reviews with an average rating of 4.5. It can be found in the following coordinates: (36.731793003498, 10.333876679807).
+Cafe-Restaurant 59, located in Hammam-Lif, Tunisia (36.7255857, 10.3437438), offers a delightful dining experience specializing in delectable pizzas. Open 24 hours a day, this pizzeria welcomes guests at any time, providing a convenient option for those seeking a satisfying meal. Despite lacking a website, Cafe-Restaurant 59 garners positive reviews, boasting a 4.0 rating from 10 satisfied customers. Its featured image showcases an inviting ambiance, while its main category, Pizzeria, accurately reflects the establishment's culinary focus.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Gare Hammam Lif is a train station in Hammam-Lif, Tunisia. It offers rail services to various destinations in the country. The station is conveniently located with the following coordinates: (36.7255857, 10.3437438).
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It offers a wide range of products and services, including food, clothing, and electronics. The market is located on P8FP+834 in Hammam-Lif and is open daily from 8am to 8pm.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It is dedicated to the victims of the 1985 Hammam-Lif train disaster. The museum offers a variety of exhibits on the disaster, including photographs, artifacts, and personal stories. It is a popular tourist destination for those interested in learning more about Tunisian history. The museum is located at (36.7255857, 10.3437438).
+Parc National Boukornine is a protected area in Tunisia, set up in 1987 around the Boukornine mountain. The park offers many hiking trails, and is home to wildlife such as orchids, chacals, and wild cats. Reviews emphasize its natural beauty, with a focus on its mountain scenery and wildlife. It is located at M96M+99H Parc National Boukornine, A1, Hammam-Lif, Tunisia and can be reached by phone at 58 905 502.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+Restaurant Pizzeria Marakana is a restaurant located in Hammam-Lif, Tunisia. The restaurant offers a variety of dishes, including pizzas and other Italian dishes. It is located at the coordinates (36.733354, 3.0829392).
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+Agil Hammam lif is a well-rated gas station with a 5-star rating on Google reviews. It is located in hammam-lif, at the coordinates (36.722854, 10.3488626).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6281,12 +9352,70 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and seeking a top-rated Kinesitherapeute, consider Promedical. Located at Rue Ali Ben Ayed, P8HP+QGQ, it's a highly recommended destination for Kinesitherapeute enthusiasts. With a rating of 3.0, it operates during 08:30-18:30 on weekdays but remains closed on Sundays. Use the GPS coordinates (36.731550842514, 10.337667090555) to navigate or call 71 210 702 for more information.</t>
+          <t>Promedical, a physiotherapy center located in Hammam-Lif (36.731550842514°N, 10.337667090555°E), offers a range of physiotherapy services. The center is open from Monday to Saturday from 8:30 AM to 6:30 PM, with a rating of 3.0.</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>Where can you find a highly recommended Kinesitherapeute practice in Hammam-Lif, featuring a top rating and convenient location?</t>
+          <t>Day Plan:
+Morning: Start the day by exploring the historic Hammam-Lif Municipality, learning about the city's history and governance.
+Mid-Morning: Indulge in the local cuisine by trying a traditional Tunisian breakfast at Restaurant Erray, known for its delicious food and friendly service.
+Midday: Visit the poignant Memorial Aux Victimes D'Octobre 1985 to pay respects to the victims of the terrorist attack and learn about its impact on the community.
+Afternoon: Immerse yourself in nature's beauty by hiking through Parc National Boukornine, taking in the diverse flora and fauna while enjoying the backdrop of Mount Boukornine.
+Evening: Enjoy a romantic dinner at Cafe-restaurant L' Opera, known for its delightful dishes and 24/7 service.
+Night: Head to The Bet 216 H.lif for an exciting casino experience, offering a chance to try your luck and enjoy the vibrant atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.
+**Cafe skander** is a cafe located in hammam-lif, Tunisia. It offers a variety of coffee drinks, as well as pastries and snacks. The cafe is open from 8am to 8pm every day, and is located at P8HJ+MGR RN1, Hammam-Lif.
+Cafe-Restaurant 59, located in Hammam-Lif, Tunisia (36.7255857, 10.3437438), offers a delightful dining experience specializing in delectable pizzas. Open 24 hours a day, this pizzeria welcomes guests at any time, providing a convenient option for those seeking a satisfying meal. Despite lacking a website, Cafe-Restaurant 59 garners positive reviews, boasting a 4.0 rating from 10 satisfied customers. Its featured image showcases an inviting ambiance, while its main category, Pizzeria, accurately reflects the establishment's culinary focus.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Gare Hammam Lif is a railway station located in Hammam-Lif, Tunisia. It offers convenient train services for locals and tourists alike. The station is situated at convenient coordinates of (36.7255857, 10.3437438). Additionally, Gare Hammam Lif boasts a 3.6 out of 5 stars rating, indicating its popularity and customer satisfaction.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It offers a wide range of products and services, including food, clothing, and electronics. The market is located on P8FP+834 in Hammam-Lif and is open daily from 8am to 8pm.
+Hammam-Lif is a 3.6-rated Point d'eau located in Hammam-Lif, Tunisia. Its coordinates are (36.7255857, 10.3437438).
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It's dedicated to the victims of the October 1985 terrorist attack. The museum offers a unique opportunity to learn about this tragic event and its impact on the community. It's a place of remembrance and reflection, and a reminder of the importance of peace and reconciliation. It's a must-visit for anyone interested in the history of Tunisia and the fight against terrorism.
+Nestled around Mount Boukornine, Parc National Boukornine is a protected haven offering picturesque hiking trails amidst nature's splendor. Located in Hammam-Lif, it boasts a diverse ecosystem with vibrant orchids, elusive chacals, and graceful wildcats. With its stunning mountain backdrop and a rich cultural heritage dating back to 1987, this park invites nature enthusiasts to explore its wonders while embracing its historical significance.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+**ljbl l'khDr ltqTyr lnbtt**
+This natural food store is located in Hammam-Lif, Tunisia. It offers a variety of healthy and organic products, and is open from 9am to 6pm. It is highly recommended by its customers, who praise its quality products and friendly staff.
+The Restaurant Hammam is located in hammam-lif. The restaurant offers a variety of food and drinks, and has a rating of 4.0 out of 5 stars. It is located at the following coordinates: (36.7255857, 10.3437438).
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Restaurant Metro is a fast-food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast-food options, including burgers, sandwiches, and pizzas. The restaurant is open from 11:00 AM to 12:00 AM, seven days a week. It is located at 002, Av Habib Bourguiba, +2+, Hammam-Lif 2050. The restaurant has a rating of 4.4 stars on Google Maps, based on 14 reviews.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+Agil Hammam lif is a well-rated gas station with a 5-star rating on Google reviews. It is located in hammam-lif, at the coordinates (36.722854, 10.3488626).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6392,14 +9521,71 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out ljbl l'khDr ltqTyr lnbtt located at P8GV+39F ljbl l'khDr ltqTyr lnbtt, Hammam-Lif. 
-This top-rated destination is perfect for Magasin d'alimentation naturelle lovers. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-18:00. To get there, use these GPS coordinates: 36.7255857, 10.3437438. For more details, visit their website at https://www.google.com/maps/place/%D8%A7%D9%84%D8%AC%D8%A8%D9%84+%D8%A7%D9%84%D8%A3%D8%AE%D8%B6%D8%B1+%D9%84%D8%AA%D9%82%D8%B7%D9%8A%D8%B1+%D8%A7%D9%84%D9%86%D8%A8%D8%A7%D8%AA%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x12fd49ac1aafd459:0x9248bfeb1e110678!8m2!3d36.7251753!4d10.3434265!16s%2Fg%2F11fn22s6s6!19sChIJWdSvGqxJ_RIReAYRHuu_SJI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 23 809 349.</t>
+          <t>ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>Where in hammam-lif can you find a highly rated Magasin d'alimentation naturelle destination open from 09:00-18:00?</t>
+          <t>Day Plan:
+Morning: Explore Plage, a picturesque beach pavilion with stunning Mediterranean views.
+Mid-Morning: Indulge in local cuisine at Restaurant Pizzeria Marakana, known for its delectable pizzas and pasta.
+Midday: Visit the Memorial Aux Victimes D'Octobre 1985, a museum dedicated to a significant event in Tunisian history.
+Afternoon: Engage in outdoor activities like hiking or wildlife spotting at Parc National Boukornine.
+Evening: Pamper yourself with a relaxing experience at Larym, a renowned beauty institute offering spa treatments and hammam rituals.
+Night: Immerse yourself in the lively ambiance of The Bet 216 H.lif, a highly-rated casino offering a captivating gaming experience.</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.
+**Salon de The Aicha** 
+Situated at (36.73076352016, 10.335894253637), this cafe is located on 49 Rue D' Alger in Hammam-Lif, Tunisia. Open from 5:30 AM to midnight, this cafe is popular with reviewers, who give it an average rating of 4.0 out of 5.
+Chefchouf, located in Hammam-Lif, offers mouthwatering pizzas, as evidenced by its 4.8 rating based on 6 reviews. The pizzeria is open daily from 9am to 1pm and from 5pm to 10pm, except on Mondays. Chefchouf is easily accessible at Rue docteur calmet, with coordinates (36.7188867, 10.3543151).
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Gare Hammam Lif is a railway station located in Hammam-Lif, Tunisia. It offers convenient train services for locals and tourists alike. The station is situated at convenient coordinates of (36.7255857, 10.3437438). Additionally, Gare Hammam Lif boasts a 3.6 out of 5 stars rating, indicating its popularity and customer satisfaction.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+In Hammam-Lif, the Memorial Aux Victimes D'Octobre 1985 is a museum located at the following coordinates: (36.7255857, 10.3437438). Currently, there are three reviews for this museum, which is owned by Memorial Aux Victimes D'Octobre 1985 (proprietaire).
+Parc National Boukornine is a protected area in Tunisia, set up in 1987 around the Boukornine mountain. The park offers many hiking trails, and is home to wildlife such as orchids, chacals, and wild cats. Reviews emphasize its natural beauty, with a focus on its mountain scenery and wildlife. It is located at M96M+99H Parc National Boukornine, A1, Hammam-Lif, Tunisia and can be reached by phone at 58 905 502.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+**ljbl l'khDr ltqTyr lnbtt**
+This natural food store is located in Hammam-Lif, Tunisia. It offers a variety of healthy and organic products, and is open from 9am to 6pm. It is highly recommended by its customers, who praise its quality products and friendly staff.
+Restaurant Pizzeria Marakana is a restaurant located in Hammam-Lif, Tunisia. It offers a variety of dishes, including pizzas, pasta, and salads. The restaurant is open from 11:00am to 11:00pm, and is closed on Mondays. The average rating for Restaurant Pizzeria Marakana is 4.3 stars out of 5.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+Agil Hammam lif is a well-rated gas station with a 5-star rating on Google reviews. It is located in hammam-lif, at the coordinates (36.722854, 10.3488626).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6505,12 +9691,75 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a great outdoor experience, head to Parc National Boukornine located at M96M+99H Parc National Boukornine, A1. This top-rated national park is perfect for nature lovers and offers hiking trails, orchids, and wildlife sightings. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 36.7303975, 10.3295395. For more details, visit their website at https://www.google.com/maps/place/Parc+National+Boukornine/data=!4m7!3m6!1s0x12fd458bac3c534b:0x6a33d35c2c66dc9b!8m2!3d36.6609432!4d10.383479!16s%2Fm%2F012w469s!19sChIJS1M8rItF_RIRm9xmLFzTM2o?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 58 905 502.</t>
+          <t>Nestled around Mount Boukornine, Parc National Boukornine is a protected haven offering picturesque hiking trails amidst nature's splendor. Located in Hammam-Lif, it boasts a diverse ecosystem with vibrant orchids, elusive chacals, and graceful wildcats. With its stunning mountain backdrop and a rich cultural heritage dating back to 1987, this park invites nature enthusiasts to explore its wonders while embracing its historical significance.</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>Where can nature enthusiasts enjoy hiking trails, orchids, and wildlife sightings, as well as top-rated facilities and easy accessibility?</t>
+          <t>Day Plan:
+**Morning:**
+- Explore Hammam-Lif Municipality, the city hall of Hammam-Lif.
+**Mid-Morning:**
+- Enjoy a delicious breakfast at Banette, a highly-rated bakery.
+**Midday:**
+- Visit the ljbl l'khDr ltqTyr lnbtt natural food store for a healthy lunch option.
+**Afternoon:**
+- Take a stroll through Parc National Boukornine, a stunning natural park with breathtaking views.
+**Evening:**
+- Sample traditional Tunisian cuisine at Restaurant Erray, known for its delicious food and friendly service.
+**Night:**
+- Relax with a soothing spa treatment at Larym, a renowned beauty institute.</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.
+Nestled in Hammam-Lif, Cafe Chaabia is a cozy spot to unwind. Located at 36.725680425691, 10.345652176782, it offers a relaxing ambiance from 05:30 to 23:00 daily. With a rating of 4.7 based on 6 reviews, Cafe Chaabia is known for its cafe offerings. You can contact them at 25 641 601 for inquiries.
+Chefchouf, located in Hammam-Lif, offers mouthwatering pizzas, as evidenced by its 4.8 rating based on 6 reviews. The pizzeria is open daily from 9am to 1pm and from 5pm to 10pm, except on Mondays. Chefchouf is easily accessible at Rue docteur calmet, with coordinates (36.7188867, 10.3543151).
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Tahar Sfar is a train station located in Hammam-Lif, Tunisia. It is a popular destination for both tourists and locals. The station is well-maintained and offers a variety of services to its passengers. It is also well-connected to the rest of the city, making it easy to get to and from.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It offers a wide range of products and services, including food, clothing, and electronics. The market is located on P8FP+834 in Hammam-Lif and is open daily from 8am to 8pm.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It is dedicated to the victims of the 1985 Hammam-Lif train disaster. The museum offers a variety of exhibits on the disaster, including photographs, artifacts, and personal stories. It is a popular tourist destination for those interested in learning more about Tunisian history. The museum is located at (36.7255857, 10.3437438).
+Nestled in northern Tunisia and established in 1987, Parc National Boukornine encompasses the majestic Boukornine Mountain. Designated as a protected natural area, the park offers a vibrant ecosystem and sanctuary for diverse flora and fauna. Situated at coordinates (36.7303975, 10.3295395), it boasts an altitude of 3963 feet, providing breathtaking panoramic views. The park is a paradise for nature enthusiasts, with a network of hiking trails winding through its verdant landscapes. Within its borders, visitors can spot orchids, mammals like chacals, and elusive wildcats amidst a rich biodiversity.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+Hotel Stokholm is a 4-star hotel located in Hammam-Lif, Tunisia. The hotel offers a variety of amenities, including a restaurant, bar, and fitness center. It is conveniently located near the city center and the beach. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful. Overall, Hotel Stokholm is a great option for travelers looking for a comfortable and convenient stay in Hammam-Lif.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+Agil Hammam lif is a well-rated gas station with a 5-star rating on Google reviews. It is located in hammam-lif, at the coordinates (36.722854, 10.3488626).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6616,12 +9865,71 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out ljbl l'khDr ltqTyr lnbtt located at P8GV+39F ljbl l'khDr ltqTyr lnbtt, Hammam-Lif. This top-rated spot is perfect for Magasin d'alimentation naturelle lovers and offers a range of Magasin d'alimentation naturelle to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-18:00. To get there, use these GPS coordinates: 36.7255857, 10.3437438. For more details, call them at 23 809 349.</t>
+          <t>**ljbl l'khDr ltqTyr lnbtt**
+This natural food store is located in Hammam-Lif, Tunisia. It offers a variety of healthy and organic products, and is open from 9am to 6pm. It is highly recommended by its customers, who praise its quality products and friendly staff.</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>What highly-rated Magasin d'alimentation naturelle establishment with a 5.0 rating can be found in Hammam-Lif, offering a variety of Magasin d'alimentation naturelle options?</t>
+          <t>Day Plan:
+Morning: Start your day by exploring the historic Hammam-Lif Municipality, the city hall of Hammam-Lif. Learn about the city's history and architecture.
+Mid-Morning: Visit the Memorial Aux Victimes D'Octobre 1985, a museum dedicated to the tragic terrorist attack in 1985. Honor the memory of the victims while understanding the importance of peace and reconciliation.
+Midday: Satisfy your taste buds with a delightful local cuisine experience at Restaurant Metro. Savor the flavors of authentic Tunisian dishes and immerse yourself in the local dining scene.
+Afternoon: Escape to the Parc National de Boukornine for a serene afternoon. Embark on a picturesque hike through its verdant trails, where breathtaking panoramic views and diverse wildlife await.
+Evening: As the sun sets, unwind at Cafe-restaurant l'Opera. Relish the ambiance of this charming diner while indulging in delectable food and beverages.
+Night: Experience the vibrancy of the local nightlife at The Bet 216 H.lif. This highly rated casino offers an exciting atmosphere for entertainment and socializing.</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle, located at 8 Av. Habib Bourguiba in Hammam-Lif, is a popular spot for bubble tea lovers. Open from 10:00 to 21:30, except on Tuesdays, this cozy establishment offers a delightful selection of desserts and non-alcoholic beverages. Its average rating of 4.5 stars based on 20 reviews is a testament to its excellent service and quality offerings.
+Cafe El Bey, located in Hammam-Lif (36.731944, 10.34012), is a cafe that offers a warm and welcoming atmosphere. With a rating of 3.3 based on 15 reviews, it's a popular spot for locals and tourists alike. Cafe El Bey is a great place to relax and enjoy a cup of coffee or tea while taking in the sights and sounds of the city.
+Cafe-Restaurant 59, located in Hammam-Lif, Tunisia (36.7255857, 10.3437438), offers a delightful dining experience specializing in delectable pizzas. Open 24 hours a day, this pizzeria welcomes guests at any time, providing a convenient option for those seeking a satisfying meal. Despite lacking a website, Cafe-Restaurant 59 garners positive reviews, boasting a 4.0 rating from 10 satisfied customers. Its featured image showcases an inviting ambiance, while its main category, Pizzeria, accurately reflects the establishment's culinary focus.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Gare Hammam Lif is a train station in Hammam-Lif, Tunisia. It offers rail services to various destinations in the country. The station is conveniently located with the following coordinates: (36.7255857, 10.3437438).
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It offers a wide range of products and services, including food, clothing, and electronics. The market is located on P8FP+834 in Hammam-Lif and is open daily from 8am to 8pm.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It's dedicated to the victims of the October 1985 terrorist attack. The museum offers a unique opportunity to learn about this tragic event and its impact on the community. It's a place of remembrance and reflection, and a reminder of the importance of peace and reconciliation. It's a must-visit for anyone interested in the history of Tunisia and the fight against terrorism.
+Nestled in northern Tunisia and established in 1987, Parc National Boukornine encompasses the majestic Boukornine Mountain. Designated as a protected natural area, the park offers a vibrant ecosystem and sanctuary for diverse flora and fauna. Situated at coordinates (36.7303975, 10.3295395), it boasts an altitude of 3963 feet, providing breathtaking panoramic views. The park is a paradise for nature enthusiasts, with a network of hiking trails winding through its verdant landscapes. Within its borders, visitors can spot orchids, mammals like chacals, and elusive wildcats amidst a rich biodiversity.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+**ljbl l'khDr ltqTyr lnbtt**
+This natural food store is located in Hammam-Lif, Tunisia. It offers a variety of healthy and organic products, and is open from 9am to 6pm. It is highly recommended by its customers, who praise its quality products and friendly staff.
+kskrwt tn Hmm l'nf is a restaurant located in Hammam-Lif. Its coordinates are (36.7255857, 10.3437438) and it has a rating of 4.0.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Restaurant Metro is a fast-food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast-food options, including burgers, sandwiches, and pizzas. The restaurant is open from 11:00 AM to 12:00 AM, seven days a week. It is located at 002, Av Habib Bourguiba, +2+, Hammam-Lif 2050. The restaurant has a rating of 4.4 stars on Google Maps, based on 14 reviews.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+OLA ENERGY HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia. It offers 24/7 service and also has an auto accessory store and an oil change service. The station is highly rated and has received 8 reviews. The station is located at GP1 Avenue de la republic hammem lif, Hmm 'nf 2050, RN1, Hammam-Lif 2050. It is in close vicinity to public transportation and offers a wide range of services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6727,12 +10035,75 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out club 55 located at club 55, Hammam-Lif 2050. This top-rated destination is perfect for Cafe lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.7188867, 10.3543151. For more details, visit their website at https://www.google.com/maps/place/club+55/data=!4m7!3m6!1s0x12fd4fd89a173cb7:0x27dd93c7213e2aa6!8m2!3d36.7209514!4d10.3691665!16s%2Fg%2F11k43v37r8!19sChIJtzwXmthP_RIRpio-IceT3Sc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 23 690 206.</t>
+          <t>Club 55, nestled in Hammam-Lif, invites you to unwind 24/7. At the coordinates (36.7188867, 10.3543151), indulge in the cozy ambiance and delectable offerings of this Cafe.</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>If I'm craving a cafe experience in Hammam-Lif, which highly-rated spot with a rating of 5.0 should I visit?</t>
+          <t>Day Plan:
+**Morning:**
+- Visit Parc National Boukornine to appreciate its stunning views and diverse flora and fauna.
+**Mid-Morning:**
+- Explore the exhibits at the Memorial Aux Victimes D'Octobre 1985 to learn about the tragic train disaster.
+**Midday:**
+- Savor traditional Tunisian cuisine at the highly-rated Restaurant Erray.
+**Afternoon:**
+- Relax on the beautiful beach and enjoy amenities like sun loungers and umbrellas at Plage.
+**Evening:**
+- Try out the renowned pizzas at Chefchouf, known for its 4.8-star rating.
+**Night:**
+- Experience the lively atmosphere and music at L'UNICA Cafe Resto, open 24/7 for dining and entertainment.</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.
+3 Bro's is a Café located in Hammam Lif, Tunisia. It has 4 reviews with an average rating of 4.5. It can be found in the following coordinates: (36.731793003498, 10.333876679807).
+Chefchouf, located in Hammam-Lif, offers mouthwatering pizzas, as evidenced by its 4.8 rating based on 6 reviews. The pizzeria is open daily from 9am to 1pm and from 5pm to 10pm, except on Mondays. Chefchouf is easily accessible at Rue docteur calmet, with coordinates (36.7188867, 10.3543151).
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Gare Hammam Lif is a train station in Hammam-Lif, Tunisia. It offers rail services to various destinations in the country. The station is conveniently located with the following coordinates: (36.7255857, 10.3437438).
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a 3.6-rated Point d'eau located in Hammam-Lif, Tunisia. Its coordinates are (36.7255857, 10.3437438).
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It is dedicated to the victims of the 1985 Hammam-Lif train disaster. The museum offers a variety of exhibits on the disaster, including photographs, artifacts, and personal stories. It is a popular tourist destination for those interested in learning more about Tunisian history. The museum is located at (36.7255857, 10.3437438).
+Nestled in northern Tunisia and established in 1987, Parc National Boukornine encompasses the majestic Boukornine Mountain. Designated as a protected natural area, the park offers a vibrant ecosystem and sanctuary for diverse flora and fauna. Situated at coordinates (36.7303975, 10.3295395), it boasts an altitude of 3963 feet, providing breathtaking panoramic views. The park is a paradise for nature enthusiasts, with a network of hiking trails winding through its verdant landscapes. Within its borders, visitors can spot orchids, mammals like chacals, and elusive wildcats amidst a rich biodiversity.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+L'UNICA Cafe Resto, located in Hammam-Lif (GPS coordinates: latitude 36.7255857 and longitude 10.3437438), offers its customers a 24/7 dining experience. With a 5.0 rating based on positive reviews, this establishment excels in the Restaurant category and has also received favorable feedback for its ambience and service. To learn more about L'UNICA Cafe Resto, visit their website or contact them directly using the provided phone number, 51 883 242.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+TotalEnergies HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia, at the coordinates (36.7287, 10.333). The gas station is open 24 hours a day and offers a wide range of services, including fuel, car wash, and oil change. TotalEnergies HAMMAM LIF also has a convenience store that sells snacks, drinks, and other items.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6834,12 +10205,70 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a great Restaurant, check out lblby nwr@ - Lablebi noura located at P8PJ+W5R lblby nwr@ - Lablebi noura, Unnamed Road, Hammam-Lif. This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 16:00-00:00. To get there, use these GPS coordinates: 36.7255857, 10.3437438. For more details, visit their website at https://www.google.com/maps/place/%D9%84%D8%A8%D9%84%D8%A7%D8%A8%D9%8A+%D9%86%D9%88%D8%B1%D8%A9+-+Lablebi+noura%E2%80%AD/data=!4m7!3m6!1s0x12fd496a7f8c774b:0x1aace0a68655ecde!8m2!3d36.737364!4d10.3303928!16s%2Fg%2F11h2k2t0t0!19sChIJS3eMf2pJ_RIR3uxVhqbgrBo?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Lblby nwr@ - Lablebi noura is a restaurant located in Hammam-Lif, Tunisia. It has a 4.4-star rating and offers a variety of dishes. The restaurant is open daily and is closed on Fridays.</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>What is the name and location of the highly-rated Restaurant in Hammam-Lif that specializes in Restaurant cuisine?</t>
+          <t>Day Plan:
+Morning: Explore Hammam-Lif Municipality. This will give you an insight into the governing body and structure of the city, allowing you to start your trip with a good understanding of the place.
+Mid-Morning: Visit the Memorial Aux Victimes D'Octobre 1985 museum to delve into the historical and cultural significance of the region.
+Midday: Try local cuisine at Restaurant Erray. Known for its traditional Tunisian dishes, this highly-rated restaurant will tantalize your taste buds with authentic flavors.
+Afternoon: Head to Parc National Boukornine for a scenic hike and spend the afternoon surrounded by nature's beauty.
+Evening: Enjoy a delightful dinner at Restaurant TAHRICHA tHrysh@. Its cozy atmosphere and delicious food will make this a memorable dining experience.
+Night: Wind down with a relaxing spa treatment at Larym beauty institute. Their professional services will ensure a rejuvenating end to your day.</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle, located at 8 Av. Habib Bourguiba in Hammam-Lif, is a popular spot for bubble tea lovers. Open from 10:00 to 21:30, except on Tuesdays, this cozy establishment offers a delightful selection of desserts and non-alcoholic beverages. Its average rating of 4.5 stars based on 20 reviews is a testament to its excellent service and quality offerings.
+Coco Coffee is a cafe located in Hammam-Lif, Tunisia, offering a variety of coffee drinks and pastries. It is open daily from 6:00 AM to 11:30 PM, and is highly rated by customers with an average rating of 4.2 out of 5. The cafe has a cozy atmosphere and friendly staff, making it a great place to relax and enjoy a cup of coffee.
+Chefchouf, located in Hammam-Lif, offers mouthwatering pizzas, as evidenced by its 4.8 rating based on 6 reviews. The pizzeria is open daily from 9am to 1pm and from 5pm to 10pm, except on Mondays. Chefchouf is easily accessible at Rue docteur calmet, with coordinates (36.7188867, 10.3543151).
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Gare Hammam Lif is a railway station located in Hammam-Lif, Tunisia. It offers convenient train services for locals and tourists alike. The station is situated at convenient coordinates of (36.7255857, 10.3437438). Additionally, Gare Hammam Lif boasts a 3.6 out of 5 stars rating, indicating its popularity and customer satisfaction.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It offers a wide range of products and services, including food, clothing, and electronics. The market is located on P8FP+834 in Hammam-Lif and is open daily from 8am to 8pm.
+Hammam-Lif is a 3.6-rated Point d'eau located in Hammam-Lif, Tunisia. Its coordinates are (36.7255857, 10.3437438).
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+In Hammam-Lif, the Memorial Aux Victimes D'Octobre 1985 is a museum located at the following coordinates: (36.7255857, 10.3437438). Currently, there are three reviews for this museum, which is owned by Memorial Aux Victimes D'Octobre 1985 (proprietaire).
+Parc National Boukornine is a protected area in Tunisia, set up in 1987 around the Boukornine mountain. The park offers many hiking trails, and is home to wildlife such as orchids, chacals, and wild cats. Reviews emphasize its natural beauty, with a focus on its mountain scenery and wildlife. It is located at M96M+99H Parc National Boukornine, A1, Hammam-Lif, Tunisia and can be reached by phone at 58 905 502.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+**ljbl l'khDr ltqTyr lnbtt**
+This natural food store is located in Hammam-Lif, Tunisia. It offers a variety of healthy and organic products, and is open from 9am to 6pm. It is highly recommended by its customers, who praise its quality products and friendly staff.
+Restaurant TAHRICHA tHrysh@ is a well-rated restaurant in Hammam-Lif, Tunisia, with a 4.0 rating based on 33 reviews. It offers a cozy atmosphere and serves delicious food. Located at 36.7255857 latitude and 10.3437438 longitude, it's open from 9:00 AM to midnight, except for special occasions.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+Agil Hammam lif is a well-rated gas station with a 5-star rating on Google reviews. It is located in hammam-lif, at the coordinates (36.722854, 10.3488626).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6949,12 +10378,69 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a great place to eat, check out Mezzanotte Pizzeria located at Rue Salammbo, Rez de chaussee, Magasin 3, Hammam-Lif 2050. This top-rated destination is perfect for restaurant lovers and offers a range of categories to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 11:00-23:00, but closed on lundis. To get there, use these GPS coordinates: 36.7188867, 10.3543151. For more details, visit their website at https://www.facebook.com/Mezzanotte.tn/ or call them at 52 721 172.</t>
+          <t>Mezzanotte Pizzeria is a highly-rated restaurant located in Hammam-Lif, Tunisia. It is known for its delicious pizzas. The restaurant is conveniently located on Rue Salammbo, making it easily accessible. Mezzanotte Pizzeria is open from 11:00-23:00 every day except Mondays, so you can enjoy its food anytime.</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Pizzeria in Hammam-Lif, known for its extensive menu categories and a cozy atmosphere?</t>
+          <t>Day Plan:
+Morning: Explore the bustling Hammam Lif Market, a vibrant hub of local vendors and artisanal goods.
+Mid-Morning: Immerse yourself in the rich history of Tunisia at the Memorial Aux Victimes D'Octobre 1985, a museum honoring the victims of a tragic terrorist attack.
+Midday: Indulge in authentic Tunisian cuisine at Restaurant Erray, renowned for its delectable traditional dishes in a cozy setting.
+Afternoon: Escape to the serene Parc National Boukornine, where you can embark on scenic hiking trails and admire the diverse flora and fauna.
+Evening: Pamper yourself at Larym, a highly-rated beauty institute, where you can rejuvenate with a relaxing spa treatment or rejuvenating hammam experience.
+Night: Experience the vibrant nightlife at Bet 216 H.lif, a casino near the Mediterranean Sea offering an exciting ambiance and entertainment.</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle, located at 8 Av. Habib Bourguiba in Hammam-Lif, is a popular spot for bubble tea lovers. Open from 10:00 to 21:30, except on Tuesdays, this cozy establishment offers a delightful selection of desserts and non-alcoholic beverages. Its average rating of 4.5 stars based on 20 reviews is a testament to its excellent service and quality offerings.
+The "Salon De The Jribi", located in Hammam-Lif (lon: 10.358406416192, lat: 36.721708762725), is a highly-rated cafe with a rating of 5.0 out of 5. The cafe offers patrons the opportunity to enjoy a delightful experience, with a focus on providing great service.
+Chefchouf, located in Hammam-Lif, offers mouthwatering pizzas, as evidenced by its 4.8 rating based on 6 reviews. The pizzeria is open daily from 9am to 1pm and from 5pm to 10pm, except on Mondays. Chefchouf is easily accessible at Rue docteur calmet, with coordinates (36.7188867, 10.3543151).
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Tahar Sfar is a train station located in Hammam-Lif, Tunisia. It is a popular destination for both tourists and locals. The station is well-maintained and offers a variety of services to its passengers. It is also well-connected to the rest of the city, making it easy to get to and from.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a 3.6-rated Point d'eau located in Hammam-Lif, Tunisia. Its coordinates are (36.7255857, 10.3437438).
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It's dedicated to the victims of the October 1985 terrorist attack. The museum offers a unique opportunity to learn about this tragic event and its impact on the community. It's a place of remembrance and reflection, and a reminder of the importance of peace and reconciliation. It's a must-visit for anyone interested in the history of Tunisia and the fight against terrorism.
+Parc National Boukornine is a protected area surrounding Mount Boukornine, offering stunning hiking trails where visitors can marvel at diverse flora, including vibrant orchids. This sanctuary is also home to an array of wildlife, including elusive jackals and graceful wildcats. Conveniently located at M96M+99H Parc National Boukornine, A1 in Hammam-Lif, it boasts exceptional reviews, earning a 4.1-star rating from 239 satisfied visitors.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+Restaurant Pizzeria Marakana is a restaurant located in Hammam-Lif, Tunisia. It offers a variety of dishes, including pizzas, pasta, and salads. The restaurant is open from 11:00am to 11:00pm, and is closed on Mondays. The average rating for Restaurant Pizzeria Marakana is 4.3 stars out of 5.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Restaurant Metro is a fast-food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast-food options, including burgers, sandwiches, and pizzas. The restaurant is open from 11:00 AM to 12:00 AM, seven days a week. It is located at 002, Av Habib Bourguiba, +2+, Hammam-Lif 2050. The restaurant has a rating of 4.4 stars on Google Maps, based on 14 reviews.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+Agil Hammam lif is a well-rated gas station with a 5-star rating on Google reviews. It is located in hammam-lif, at the coordinates (36.722854, 10.3488626).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7060,12 +10546,71 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Foret noire located at Av. Habib Bourguiba, Hammam-Lif 2050. This top-rated destination is perfect for Creperie lovers. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 12:00-23:00, but closed on lund. To get there, use these GPS coordinates: 36.7188867, 10.3543151.</t>
+          <t>Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>Where in Hammam-Lif can you find a highly-rated (4.4) destination that specializes in Crepes?</t>
+          <t>Day Plan:
+Morning: Explore Hammam-Lif market to soak in the local vibe and pick up unique souvenirs.
+Mid-Morning: Visit the stunning Memorial Aux Victimes D'Octobre 1985 to learn about the city's history.
+Midday: Indulge in local cuisine at the highly-rated Restaurant Erray, known for its authentic Tunisian flavors.
+Afternoon: Embark on a scenic hike through Parc National Boukornine, marveling at its diverse flora and abundant wildlife.
+Evening: Head to Foret noire for a delightful dinner of sweet and savory crepes.
+Night: Unwind at Cafe-restaurant L' Opera, a charming diner offering a cozy ambiance and 24-hour service.</t>
+        </is>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.
+Cafe resto M59 is a highly-rated cafe in Hammam-Lif, Tunisia, known for its delicious food and friendly service. Located at 59 bchira ben mrad, it offers a wide variety of dishes and beverages, making it a popular spot for locals and tourists alike. The cafe is open from 8 AM to 10:25 PM every day except Tuesdays.
+Cafe-Restaurant 59, located in Hammam-Lif, Tunisia (36.7255857, 10.3437438), offers a delightful dining experience specializing in delectable pizzas. Open 24 hours a day, this pizzeria welcomes guests at any time, providing a convenient option for those seeking a satisfying meal. Despite lacking a website, Cafe-Restaurant 59 garners positive reviews, boasting a 4.0 rating from 10 satisfied customers. Its featured image showcases an inviting ambiance, while its main category, Pizzeria, accurately reflects the establishment's culinary focus.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Gare Hammam Lif is a train station in Hammam-Lif, Tunisia. It offers rail services to various destinations in the country. The station is conveniently located with the following coordinates: (36.7255857, 10.3437438).
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a 3.6-rated Point d'eau located in Hammam-Lif, Tunisia. Its coordinates are (36.7255857, 10.3437438).
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It's dedicated to the victims of the October 1985 terrorist attack. The museum offers a unique opportunity to learn about this tragic event and its impact on the community. It's a place of remembrance and reflection, and a reminder of the importance of peace and reconciliation. It's a must-visit for anyone interested in the history of Tunisia and the fight against terrorism.
+Parc National Boukornine is a protected area surrounding Mount Boukornine, offering stunning hiking trails where visitors can marvel at diverse flora, including vibrant orchids. This sanctuary is also home to an array of wildlife, including elusive jackals and graceful wildcats. Conveniently located at M96M+99H Parc National Boukornine, A1 in Hammam-Lif, it boasts exceptional reviews, earning a 4.1-star rating from 239 satisfied visitors.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+**ljbl l'khDr ltqTyr lnbtt**
+This natural food store is located in Hammam-Lif, Tunisia. It offers a variety of healthy and organic products, and is open from 9am to 6pm. It is highly recommended by its customers, who praise its quality products and friendly staff.
+**Machewi Khayati**
+Machewi Khayati is a restaurant located in Hammam-Lif, Tunisia at the address 208 Avenue de la Republique. The restaurant is open from 7:00 AM to 10:00 PM, and it serves a variety of dishes. It also has a rating of 4.3 out of 5 stars on Google reviews.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Restaurant Metro is a fast-food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast-food options, including burgers, sandwiches, and pizzas. The restaurant is open from 11:00 AM to 12:00 AM, seven days a week. It is located at 002, Av Habib Bourguiba, +2+, Hammam-Lif 2050. The restaurant has a rating of 4.4 stars on Google Maps, based on 14 reviews.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+TotalEnergies HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia, at the coordinates (36.7287, 10.333). The gas station is open 24 hours a day and offers a wide range of services, including fuel, car wash, and oil change. TotalEnergies HAMMAM LIF also has a convenience store that sells snacks, drinks, and other items.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7171,14 +10716,70 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Restaurant TAHRICHA tHrysh@ located at P8JM+79Q Restaurant TAHRICHA tHrysh@, Av. 20 Mars, Hammam-Lif. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:00-00:00, but closed on []. To get there, use these GPS coordinates: 36.7255857, 10.3437438.  For more details, call them at 79 219 010.</t>
+          <t>Restaurant TAHRICHA tHrysh@ is a well-rated restaurant in Hammam-Lif, Tunisia, with a 4.0 rating based on 33 reviews. It offers a cozy atmosphere and serves delicious food. Located at 36.7255857 latitude and 10.3437438 longitude, it's open from 9:00 AM to midnight, except for special occasions.</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>What is the name and address of the top-rated Restaurant destination in Hammam-Lif with a 4.0 rating and open hours from 09:00-00:00?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant Hammam-Lif Market, offering a kaleidoscope of local products, from fresh produce to traditional handicrafts.
+Mid-Morning: Indulge in local cuisine at Restaurant Erray, renowned for its authentic Tunisian dishes and warm hospitality.
+Midday: Venture to the historic Memorial Aux Victimes D'Octobre 1985, a poignant museum commemorating the victims of the 1985 train disaster.
+Afternoon: Relax and rejuvenate with a luxurious hammam experience at Larym, a renowned beauty institute offering traditional spa treatments.
+Evening: Immerse yourself in the exquisite ambiance of Casa Italiana, savoring delectable Italian cuisine and immersing yourself in its warm and inviting atmosphere.
+Night: Dance the night away at Bet 216 H.lif, a lively casino offering an exhilarating entertainment experience by the Mediterranean Sea.</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle, located at 8 Av. Habib Bourguiba in Hammam-Lif, is a popular spot for bubble tea lovers. Open from 10:00 to 21:30, except on Tuesdays, this cozy establishment offers a delightful selection of desserts and non-alcoholic beverages. Its average rating of 4.5 stars based on 20 reviews is a testament to its excellent service and quality offerings.
+Casa Italiana is a cafe located in Hammam-Lif, Tunisia, offering a cozy ambiance and delicious food and drinks. Its prime location makes it easily accessible, and with its warm atmosphere, Casa Italiana is the perfect place to relax and socialize.
+Chefchouf, located in Hammam-Lif, offers mouthwatering pizzas, as evidenced by its 4.8 rating based on 6 reviews. The pizzeria is open daily from 9am to 1pm and from 5pm to 10pm, except on Mondays. Chefchouf is easily accessible at Rue docteur calmet, with coordinates (36.7188867, 10.3543151).
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+The Gare Hammam Lif is a railway station located in the city of hammam-lif, Tunisia. It is a popular destination for tourists and locals alike, and offers a variety of services to its visitors. The station is located at the coordinates (36.7255857, 10.3437438), and is easily accessible by car or public transportation.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It offers a wide range of products and services, including food, clothing, and electronics. The market is located on P8FP+834 in Hammam-Lif and is open daily from 8am to 8pm.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It is dedicated to the victims of the 1985 Hammam-Lif train disaster. The museum offers a variety of exhibits on the disaster, including photographs, artifacts, and personal stories. It is a popular tourist destination for those interested in learning more about Tunisian history. The museum is located at (36.7255857, 10.3437438).
+Nestled around Mount Boukornine, Parc National Boukornine is a protected haven offering picturesque hiking trails amidst nature's splendor. Located in Hammam-Lif, it boasts a diverse ecosystem with vibrant orchids, elusive chacals, and graceful wildcats. With its stunning mountain backdrop and a rich cultural heritage dating back to 1987, this park invites nature enthusiasts to explore its wonders while embracing its historical significance.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+**ljbl l'khDr ltqTyr lnbtt**
+This natural food store is located in Hammam-Lif, Tunisia. It offers a variety of healthy and organic products, and is open from 9am to 6pm. It is highly recommended by its customers, who praise its quality products and friendly staff.
+Restaurant Pizzeria Marakana is a restaurant located in Hammam-Lif, Tunisia. The restaurant offers a variety of dishes, including pizzas and other Italian dishes. It is located at the coordinates (36.733354, 3.0829392).
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Restaurant Metro is a fast-food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast-food options, including burgers, sandwiches, and pizzas. The restaurant is open from 11:00 AM to 12:00 AM, seven days a week. It is located at 002, Av Habib Bourguiba, +2+, Hammam-Lif 2050. The restaurant has a rating of 4.4 stars on Google Maps, based on 14 reviews.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+Agil Hammam lif is a well-rated gas station with a 5-star rating on Google reviews. It is located in hammam-lif, at the coordinates (36.722854, 10.3488626).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7284,12 +10885,70 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Restaurant Pizzeria Marakana located at P8HP+PGF Restaurant Pizzeria Marakana. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 11:00-23:00. To get there, use these GPS coordinates: 36.733354, 3.0829392. For more details, visit their website or call them at 56 495 617.</t>
+          <t>Restaurant Pizzeria Marakana is a restaurant located in Hammam-Lif, Tunisia. The restaurant offers a variety of dishes, including pizzas and other Italian dishes. It is located at the coordinates (36.733354, 3.0829392).</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>Question: Where in Hammam-Lif can you find a highly-rated Restaurant Pizzeria with a wide variety of dining options?</t>
+          <t>Day Plan:
+Morning: Explore Plage, a beach pavilion with stunning views of the Mediterranean Sea. Enjoy sunbathing or swimming in the clear blue waters.
+Mid-Morning: Visit Larym, a renowned beauty institute, for a relaxing spa treatment or hammam experience.
+Midday: Try local cuisine at Machewi Khayati, a traditional Tunisian restaurant serving delicious dishes.
+Afternoon: Explore the Hammam Lif market, a popular destination for locals and tourists, offering a wide variety of goods and services.
+Evening: Enjoy a romantic dinner at Restaurant Erray, a highly-rated Tunisian restaurant with excellent food and friendly service.
+Night: Participate in a lively event or activity at The Bet 216 H.lif casino, known for its high ratings and exciting atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle, located at 8 Av. Habib Bourguiba in Hammam-Lif, is a popular spot for bubble tea lovers. Open from 10:00 to 21:30, except on Tuesdays, this cozy establishment offers a delightful selection of desserts and non-alcoholic beverages. Its average rating of 4.5 stars based on 20 reviews is a testament to its excellent service and quality offerings.
+La Cabane (Sardouk) is a popular cafe located in Hammam-Lif, Tunisia. It offers a range of services, including 24-hour service. The cafe is well-rated, with an average score of 4.8 out of 5, and has received positive reviews for its ambiance and service.
+Cafe-Restaurant 59 is a Pizzeria located in hammam-lif (36.7255857, 10.3437438). It is open 24 hours a day and offers a variety of pizzas. It is rated 4.0 stars by its customers.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+by'r lby offers a range of services to meet the needs of its customers. It has 13 reviews and a rating of 3.1. Located at (36.7255857, 10.3437438) in the city of hammam-lif, by'r lby is easily accessible.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a 3.6-rated Point d'eau located in Hammam-Lif, Tunisia. Its coordinates are (36.7255857, 10.3437438).
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+In Hammam-Lif, the Memorial Aux Victimes D'Octobre 1985 is a museum located at the following coordinates: (36.7255857, 10.3437438). Currently, there are three reviews for this museum, which is owned by Memorial Aux Victimes D'Octobre 1985 (proprietaire).
+Parc National Boukornine is a protected area in Tunisia, set up in 1987 around the Boukornine mountain. The park offers many hiking trails, and is home to wildlife such as orchids, chacals, and wild cats. Reviews emphasize its natural beauty, with a focus on its mountain scenery and wildlife. It is located at M96M+99H Parc National Boukornine, A1, Hammam-Lif, Tunisia and can be reached by phone at 58 905 502.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+**Machewi Khayati**
+Machewi Khayati is a restaurant located in Hammam-Lif, Tunisia at the address 208 Avenue de la Republique. The restaurant is open from 7:00 AM to 10:00 PM, and it serves a variety of dishes. It also has a rating of 4.3 out of 5 stars on Google reviews.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+TotalEnergies HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia, at the coordinates (36.7287, 10.333). The gas station is open 24 hours a day and offers a wide range of services, including fuel, car wash, and oil change. TotalEnergies HAMMAM LIF also has a convenience store that sells snacks, drinks, and other items.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7399,12 +11058,69 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Let's Waffle located at 8 Av. Habib Bourguiba, Hammam-Lif 2050. This top-rated destination is perfect for Magasin de the aux perles lovers and offers a range of categories to choose from, including Boutique de desserts, Restaurant, and Boutique de boissons sans alcool. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 10:00-21:30, but closed on mar. To get there, use these GPS coordinates: 36.749742807238, 10.31095410246. For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D100090508456915 or call them at 26 085 503.</t>
+          <t>Let's Waffle, located at 8 Av. Habib Bourguiba in Hammam-Lif, is a popular spot for bubble tea lovers. Open from 10:00 to 21:30, except on Tuesdays, this cozy establishment offers a delightful selection of desserts and non-alcoholic beverages. Its average rating of 4.5 stars based on 20 reviews is a testament to its excellent service and quality offerings.</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>Where in Hammam-Lif can you find a highly-rated destination known for its Magasin de the aux perles offerings, featuring a variety of categories and open from 10:00-21:30 except on Tuesdays?</t>
+          <t>Day Plan:
+Morning: Exploring Hammam-Lif Municipality, City hall Hammam-Lif
+Mid-Morning: Trying local cuisine at Restaurant Erray, Hammam-Lif
+Midday: Visiting Memorial Aux Victimes D'Octobre 1985, Hammam-Lif
+Afternoon: Enjoying scenic views at Plage, Hammam-Lif
+Evening: Relaxing with a Hammam treatment at Larym, Hammam-Lif
+Night: Participating in a guided tour of Parc National Boukornine, Hammam-Lif</t>
+        </is>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle, located at 8 Av. Habib Bourguiba in Hammam-Lif, is a popular spot for bubble tea lovers. Open from 10:00 to 21:30, except on Tuesdays, this cozy establishment offers a delightful selection of desserts and non-alcoholic beverages. Its average rating of 4.5 stars based on 20 reviews is a testament to its excellent service and quality offerings.
+Salon De The L'histoire is a cafe with a 4.3 rating located in Hammam-Lif. Located at P8JP+VG3 Rue Habib Bougatfa, it is open from 08:00-23:00 and offers a relaxing atmosphere to enjoy a cup of coffee or tea. Its phone number is 71 437 055, and you can also reach out to its owner, Salon De The L'histoire (proprietaire).
+Cafe-Restaurant 59, located in Hammam-Lif, Tunisia (36.7255857, 10.3437438), offers a delightful dining experience specializing in delectable pizzas. Open 24 hours a day, this pizzeria welcomes guests at any time, providing a convenient option for those seeking a satisfying meal. Despite lacking a website, Cafe-Restaurant 59 garners positive reviews, boasting a 4.0 rating from 10 satisfied customers. Its featured image showcases an inviting ambiance, while its main category, Pizzeria, accurately reflects the establishment's culinary focus.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+The Gare Hammam Lif is a railway station located in the city of hammam-lif, Tunisia. It is a popular destination for tourists and locals alike, and offers a variety of services to its visitors. The station is located at the coordinates (36.7255857, 10.3437438), and is easily accessible by car or public transportation.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a 3.6-rated Point d'eau located in Hammam-Lif, Tunisia. Its coordinates are (36.7255857, 10.3437438).
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+In Hammam-Lif, the Memorial Aux Victimes D'Octobre 1985 is a museum located at the following coordinates: (36.7255857, 10.3437438). Currently, there are three reviews for this museum, which is owned by Memorial Aux Victimes D'Octobre 1985 (proprietaire).
+Parc National Boukornine is a protected area in Tunisia, set up in 1987 around the Boukornine mountain. The park offers many hiking trails, and is home to wildlife such as orchids, chacals, and wild cats. Reviews emphasize its natural beauty, with a focus on its mountain scenery and wildlife. It is located at M96M+99H Parc National Boukornine, A1, Hammam-Lif, Tunisia and can be reached by phone at 58 905 502.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+Paname fasst food is a restaurant located in Rue Salammbo, Hammam-Lif, Tunisia. It has a rating of 4.3 based on 6 reviews, and its main category is Restaurant. It is open from 09:00 to 23:00 and can be reached by phone at 22 511 107. The restaurant's coordinates are (36.728634700847, 10.338080869607).
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+Agil Hammam lif is a well-rated gas station with a 5-star rating on Google reviews. It is located in hammam-lif, at the coordinates (36.722854, 10.3488626).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7510,12 +11226,75 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Restaurant Metro located at 002, Av Habib Bourguiba, +2+, Hammam-Lif 2050. This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 11:00-00:00, but closed on []. To get there, use these GPS coordinates: 36.7322979, 10.3371658. For more details, visit their website at nan or call them at 26 908 321.</t>
+          <t>Restaurant Metro is a fast-food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast-food options, including burgers, sandwiches, and pizzas. The restaurant is open from 11:00 AM to 12:00 AM, seven days a week. It is located at 002, Av Habib Bourguiba, +2+, Hammam-Lif 2050. The restaurant has a rating of 4.4 stars on Google Maps, based on 14 reviews.</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>Where can you find a well-rated Restauration rapide spot with high ratings and specific opening hours in Hammam-Lif?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the lively Hammam-Lif Market, offering an array of local goods and produce.
+**Mid-Morning:**
+* Visit the Memorial Aux Victimes D'Octobre 1985 to learn about the city's history.
+**Midday:**
+* Indulge in a delightful lunch at Cafe-Restaurant L' Opera, known for its 24/7 service and delectable cuisine.
+**Afternoon:**
+* Stroll along the picturesque beach at Plage, enjoying the Mediterranean Sea's stunning views.
+**Evening:**
+* Head to The Bet 216 H.lif for some exciting casino action and entertainment.
+**Night:**
+* Relax at Larym, a renowned beauty institute, and treat yourself to a rejuvenating spa treatment.</t>
+        </is>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle, located at 8 Av. Habib Bourguiba in Hammam-Lif, is a popular spot for bubble tea lovers. Open from 10:00 to 21:30, except on Tuesdays, this cozy establishment offers a delightful selection of desserts and non-alcoholic beverages. Its average rating of 4.5 stars based on 20 reviews is a testament to its excellent service and quality offerings.
+Cafe Wifi, located in Hammam-Lif, Tunisia (36.7255857, 10.3437438), is a cozy cafe that offers a warm and inviting atmosphere for its customers. The cafe opens daily from 7 AM to 11 PM, providing ample time for patrons to enjoy their coffee, tea, or other beverages. Cafe Wifi's focus on customer satisfaction is evident in its positive reviews, which praise its friendly staff and relaxing ambiance.
+Cafe-Restaurant 59, located in Hammam-Lif, Tunisia (36.7255857, 10.3437438), offers a delightful dining experience specializing in delectable pizzas. Open 24 hours a day, this pizzeria welcomes guests at any time, providing a convenient option for those seeking a satisfying meal. Despite lacking a website, Cafe-Restaurant 59 garners positive reviews, boasting a 4.0 rating from 10 satisfied customers. Its featured image showcases an inviting ambiance, while its main category, Pizzeria, accurately reflects the establishment's culinary focus.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Gare Hammam Lif is a railway station located in Hammam-Lif, Tunisia. It offers convenient train services for locals and tourists alike. The station is situated at convenient coordinates of (36.7255857, 10.3437438). Additionally, Gare Hammam Lif boasts a 3.6 out of 5 stars rating, indicating its popularity and customer satisfaction.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a 3.6-rated Point d'eau located in Hammam-Lif, Tunisia. Its coordinates are (36.7255857, 10.3437438).
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It is dedicated to the victims of the 1985 Hammam-Lif train disaster. The museum offers a variety of exhibits on the disaster, including photographs, artifacts, and personal stories. It is a popular tourist destination for those interested in learning more about Tunisian history. The museum is located at (36.7255857, 10.3437438).
+Nestled in northern Tunisia and established in 1987, Parc National Boukornine encompasses the majestic Boukornine Mountain. Designated as a protected natural area, the park offers a vibrant ecosystem and sanctuary for diverse flora and fauna. Situated at coordinates (36.7303975, 10.3295395), it boasts an altitude of 3963 feet, providing breathtaking panoramic views. The park is a paradise for nature enthusiasts, with a network of hiking trails winding through its verdant landscapes. Within its borders, visitors can spot orchids, mammals like chacals, and elusive wildcats amidst a rich biodiversity.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+L'UNICA Cafe Resto, located in Hammam-Lif (GPS coordinates: latitude 36.7255857 and longitude 10.3437438), offers its customers a 24/7 dining experience. With a 5.0 rating based on positive reviews, this establishment excels in the Restaurant category and has also received favorable feedback for its ambience and service. To learn more about L'UNICA Cafe Resto, visit their website or contact them directly using the provided phone number, 51 883 242.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+TotalEnergies HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia, at the coordinates (36.7287, 10.333). The gas station is open 24 hours a day and offers a wide range of services, including fuel, car wash, and oil change. TotalEnergies HAMMAM LIF also has a convenience store that sells snacks, drinks, and other items.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7617,12 +11396,76 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Restaurant Sehili Junior located at P8HJ+GVH Restaurant Sehili Junior, Hammam-Lif. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 11:00-23:00, but closed on []. To get there, use these GPS coordinates: 36.7275104, 10.3351815. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Sehili+Junior/data=!4m7!3m6!1s0x12fd49234fff11c3:0x5ea2643dfc011e0!8m2!3d36.7288028!4d10.33224!16s%2Fg%2F1hc5qwkt8!19sChIJwxH_TyNJ_RIR4BHA30Mm6gU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Restaurant Sehili Junior is a well-rated restaurant located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of dishes in a casual and relaxed setting. The restaurant is open from 11:00 am to 11:00 pm, and is closed on Tuesdays.</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>Where in Hammam-Lif can you find a top-rated destination with a variety of Restaurant options, particularly appealing to Restaurant enthusiasts?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore **Hammam-Lif Market** for local products and vibrant ambiance.
+**Mid-Morning:**
+* Visit **Memorial Aux Victimes D'Octobre 1985** to learn about the tragic train disaster and Tunisian history.
+**Midday:**
+* Savor authentic Tunisian cuisine at **Restaurant Erray**, known for its delicious food and friendly service.
+**Afternoon:**
+* Engage in outdoor adventures at **Parc National Boukornine**, offering scenic hiking trails and wildlife sightings.
+**Evening:**
+* Relax with a rejuvenating spa treatment at **Larym Beauty Institute**, offering specialized spa and hammam services.
+**Night:**
+* Immerse yourself in local culture at **Cafe-restaurant L' Opera**, known for its 24/7 service and convivial atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.
+Hammam Linf is a cafe located in Hammam-Lif, Tunisia, known for its cozy ambiance and delicious offerings. Situated on Rue Habib Bougatfa, it operates daily from 6 am to midnight, except for holidays. Featuring a 4.0 rating based on customer reviews, the cafe offers a relaxing atmosphere and friendly service.
+Chefchouf, located in Hammam-Lif, offers mouthwatering pizzas, as evidenced by its 4.8 rating based on 6 reviews. The pizzeria is open daily from 9am to 1pm and from 5pm to 10pm, except on Mondays. Chefchouf is easily accessible at Rue docteur calmet, with coordinates (36.7188867, 10.3543151).
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Gare Hammam Lif is a train station in Hammam-Lif, Tunisia. It offers rail services to various destinations in the country. The station is conveniently located with the following coordinates: (36.7255857, 10.3437438).
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It offers a wide range of products and services, including food, clothing, and electronics. The market is located on P8FP+834 in Hammam-Lif and is open daily from 8am to 8pm.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It is dedicated to the victims of the 1985 Hammam-Lif train disaster. The museum offers a variety of exhibits on the disaster, including photographs, artifacts, and personal stories. It is a popular tourist destination for those interested in learning more about Tunisian history. The museum is located at (36.7255857, 10.3437438).
+Parc National Boukornine is a protected area surrounding Mount Boukornine, offering stunning hiking trails where visitors can marvel at diverse flora, including vibrant orchids. This sanctuary is also home to an array of wildlife, including elusive jackals and graceful wildcats. Conveniently located at M96M+99H Parc National Boukornine, A1 in Hammam-Lif, it boasts exceptional reviews, earning a 4.1-star rating from 239 satisfied visitors.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+**ljbl l'khDr ltqTyr lnbtt**
+This natural food store is located in Hammam-Lif, Tunisia. It offers a variety of healthy and organic products, and is open from 9am to 6pm. It is highly recommended by its customers, who praise its quality products and friendly staff.
+Restaurant Sehili Junior is a well-rated restaurant located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of dishes in a casual and relaxed setting. The restaurant is open from 11:00 am to 11:00 pm, and is closed on Tuesdays.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Restaurant Metro is a fast-food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast-food options, including burgers, sandwiches, and pizzas. The restaurant is open from 11:00 AM to 12:00 AM, seven days a week. It is located at 002, Av Habib Bourguiba, +2+, Hammam-Lif 2050. The restaurant has a rating of 4.4 stars on Google Maps, based on 14 reviews.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+Agil Hammam lif is a well-rated gas station with a 5-star rating on Google reviews. It is located in hammam-lif, at the coordinates (36.722854, 10.3488626).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7728,15 +11571,69 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>If you're in Hammam-Lif and looking for a delicious pizza, check out Cafe-Restaurant 59 located at P8PJ+X2W Cafe-Restaurant 59, Unnamed Road. 
-This top-rated pizzeria is perfect for pizza lovers and offers a range of mouth-watering options to choose from. 
-With a rating of 4.0, it's a must-visit spot! Cafe-Restaurant 59 is open 24 hours a day, so you can satisfy your pizza craving anytime. 
-To get there, use these GPS coordinates: 36.7255857, 10.3437438. For more details, visit their website or call them at 92 232 177.</t>
+          <t>Cafe-Restaurant 59 is a Pizzeria located in hammam-lif (36.7255857, 10.3437438). It is open 24 hours a day and offers a variety of pizzas. It is rated 4.0 stars by its customers.</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>Where in Hammam-Lif can you find a highly rated pizzeria that's open 24 hours a day?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant Hammam-Lif Market, soak in the local atmosphere, and indulge in fresh local produce.
+Mid-Morning: Visit the Memorial Aux Victimes D'Octobre 1985 to delve into the city's history and pay respects to the victims of the tragic train disaster.
+Midday: Satisfy your taste buds with an authentic Tunisian feast at Restaurant Erray, savor the flavors of traditional dishes while experiencing warm hospitality.
+Afternoon: Escape to Parc National Boukornine, embark on a refreshing hike amidst breathtaking scenery, and immerse yourself in the wonders of nature.
+Evening: Experience the lively ambiance of Cafe-restaurant L' Opera, enjoy a delicious dinner while soaking in the city's vibrant nightlife.
+Night: Unwind and relax at Larym, indulge in rejuvenating spa treatments, and pamper yourself with soothing beauty services.</t>
+        </is>
+      </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle, located at 8 Av. Habib Bourguiba in Hammam-Lif, is a popular spot for bubble tea lovers. Open from 10:00 to 21:30, except on Tuesdays, this cozy establishment offers a delightful selection of desserts and non-alcoholic beverages. Its average rating of 4.5 stars based on 20 reviews is a testament to its excellent service and quality offerings.
+Cafe Hannibal is a cozy cafe located in Hammam-Lif, Tunisia. It offers a warm and inviting atmosphere, making it the perfect place to relax and enjoy a cup of coffee or tea. The cafe also serves a variety of snacks and light meals, making it a great spot to grab a bite to eat. Cafe Hannibal is located at P8GQ+J6C on RN1, and its coordinates are 36.732743558019, 10.322633566116.
+Chefchouf, located in Hammam-Lif, offers mouthwatering pizzas, as evidenced by its 4.8 rating based on 6 reviews. The pizzeria is open daily from 9am to 1pm and from 5pm to 10pm, except on Mondays. Chefchouf is easily accessible at Rue docteur calmet, with coordinates (36.7188867, 10.3543151).
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Gare Hammam Lif is a railway station located in Hammam-Lif, Tunisia. It offers convenient train services for locals and tourists alike. The station is situated at convenient coordinates of (36.7255857, 10.3437438). Additionally, Gare Hammam Lif boasts a 3.6 out of 5 stars rating, indicating its popularity and customer satisfaction.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It offers a wide range of products and services, including food, clothing, and electronics. The market is located on P8FP+834 in Hammam-Lif and is open daily from 8am to 8pm.
+Hammam-Lif is a 3.6-rated Point d'eau located in Hammam-Lif, Tunisia. Its coordinates are (36.7255857, 10.3437438).
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It is dedicated to the victims of the 1985 Hammam-Lif train disaster. The museum offers a variety of exhibits on the disaster, including photographs, artifacts, and personal stories. It is a popular tourist destination for those interested in learning more about Tunisian history. The museum is located at (36.7255857, 10.3437438).
+Nestled around Mount Boukornine, Parc National Boukornine is a protected haven offering picturesque hiking trails amidst nature's splendor. Located in Hammam-Lif, it boasts a diverse ecosystem with vibrant orchids, elusive chacals, and graceful wildcats. With its stunning mountain backdrop and a rich cultural heritage dating back to 1987, this park invites nature enthusiasts to explore its wonders while embracing its historical significance.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+Ghalya cuisine et conserves is a restaurant located in Hammam-Lif, Tunisia, at the coordinates (36.7255857, 10.3437438). It has received 2 reviews and has a rating of 5.0. The restaurant offers cuisine and conserves and is open from 09:00-17:00, except on Sundays.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Restaurant Metro is a fast-food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast-food options, including burgers, sandwiches, and pizzas. The restaurant is open from 11:00 AM to 12:00 AM, seven days a week. It is located at 002, Av Habib Bourguiba, +2+, Hammam-Lif 2050. The restaurant has a rating of 4.4 stars on Google Maps, based on 14 reviews.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+Agil Hammam lif is a well-rated gas station with a 5-star rating on Google reviews. It is located in hammam-lif, at the coordinates (36.722854, 10.3488626).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7842,12 +11739,75 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Pizzeria PORTANOVA located at P8HR+73P Pizzeria PORTANOVA, Hammam-Lif. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.9, it's a must-visit spot. It's open during these hours: 15:00-00:00, but closed on lundi. To get there, use these GPS coordinates: 36.7255857, 10.3437438. For more details, visit their website at https://www.google.com/maps/place/Pizzeria+PORTANOVA/data=!4m7!3m6!1s0x12fd492fc2d5c61f:0x398a8999bdb5cefc!8m2!3d36.7282193!4d10.3401897!16s%2Fg%2F11g8wj68f3!19sChIJH8bVwi9J_RIR_M61vZmJijk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 24 146 633.</t>
+          <t>Pizzeria PORTANOVA, located in Hammam-Lif (coordinates: 36.7255857, 10.3437438), offers a delicious dining experience with an extensive menu of pizzas and other Italian specialties. It is highly rated (4.9 out of 5), has received 10 reviews, and is open from 3 PM to midnight, except for Mondays.</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>Where in Hammam-Lif can you find a highly-rated restaurant with a focus on Restaurant cuisine, open from 15:00-00:00, except on Mondays?</t>
+          <t>Day Plan:
+Morning:
+- Explore the historic Hammam-Lif Municipality, the city hall, and learn about the local government.
+Mid-Morning:
+- Visit the Memorial Aux Victimes D'Octobre 1985 museum to understand the tragic events and pay tribute to the victims.
+Midday:
+- Indulge in a delectable lunch at Restaurant Erray, renowned for its authentic Tunisian cuisine, receiving a perfect 5.0 rating.
+Afternoon:
+- Immerse in nature's beauty at Parc National Boukornine, capturing breathtaking panoramic views while hiking amidst diverse flora and fauna.
+Evening:
+- Savor the flavors of African cuisine at Restaurant &amp; Salon de Thé Africano, experiencing the warmth of African hospitality.
+Night:
+- Experience cultural immersion at Larym Beauty Institute, indulging in traditional spa treatments like hammam and other rejuvenating services.</t>
+        </is>
+      </c>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.
+Cafe resto M59 is a highly-rated cafe in Hammam-Lif, Tunisia, known for its delicious food and friendly service. Located at 59 bchira ben mrad, it offers a wide variety of dishes and beverages, making it a popular spot for locals and tourists alike. The cafe is open from 8 AM to 10:25 PM every day except Tuesdays.
+Cafe-Restaurant 59, located in Hammam-Lif, Tunisia (36.7255857, 10.3437438), offers a delightful dining experience specializing in delectable pizzas. Open 24 hours a day, this pizzeria welcomes guests at any time, providing a convenient option for those seeking a satisfying meal. Despite lacking a website, Cafe-Restaurant 59 garners positive reviews, boasting a 4.0 rating from 10 satisfied customers. Its featured image showcases an inviting ambiance, while its main category, Pizzeria, accurately reflects the establishment's culinary focus.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Tahar Sfar is a train station located in Hammam-Lif, Tunisia. It is a popular destination for both tourists and locals. The station is well-maintained and offers a variety of services to its passengers. It is also well-connected to the rest of the city, making it easy to get to and from.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It offers a wide range of products and services, including food, clothing, and electronics. The market is located on P8FP+834 in Hammam-Lif and is open daily from 8am to 8pm.
+Hammam-Lif is a 3.6-rated Point d'eau located in Hammam-Lif, Tunisia. Its coordinates are (36.7255857, 10.3437438).
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It's dedicated to the victims of the October 1985 terrorist attack. The museum offers a unique opportunity to learn about this tragic event and its impact on the community. It's a place of remembrance and reflection, and a reminder of the importance of peace and reconciliation. It's a must-visit for anyone interested in the history of Tunisia and the fight against terrorism.
+Nestled in northern Tunisia and established in 1987, Parc National Boukornine encompasses the majestic Boukornine Mountain. Designated as a protected natural area, the park offers a vibrant ecosystem and sanctuary for diverse flora and fauna. Situated at coordinates (36.7303975, 10.3295395), it boasts an altitude of 3963 feet, providing breathtaking panoramic views. The park is a paradise for nature enthusiasts, with a network of hiking trails winding through its verdant landscapes. Within its borders, visitors can spot orchids, mammals like chacals, and elusive wildcats amidst a rich biodiversity.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+Nestled in the heart of Hammam-Lif, Tunisia, lies Restaurant &amp; Salon de Thé Africano. This renowned establishment offers an unforgettable culinary experience, inviting guests to savor the captivating flavors of African cuisine in a warm and inviting atmosphere. Conveniently located at coordinates (5.92451, -71.18018), Africano welcomes patrons from 9:00 AM to 10:00 PM every day, excluding holidays.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Restaurant Metro is a fast-food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast-food options, including burgers, sandwiches, and pizzas. The restaurant is open from 11:00 AM to 12:00 AM, seven days a week. It is located at 002, Av Habib Bourguiba, +2+, Hammam-Lif 2050. The restaurant has a rating of 4.4 stars on Google Maps, based on 14 reviews.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+Agil Hammam lif is a well-rated gas station with a 5-star rating on Google reviews. It is located in hammam-lif, at the coordinates (36.722854, 10.3488626).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7953,12 +11913,69 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Paname fasst food located at Rue Salammbo, Hammam-Lif. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 09:00-23:00, but closed on . To get there, use these GPS coordinates: 36.728634700847, 10.338080869607. For more details, visit their website at or call them at 22 511 107.</t>
+          <t>Paname fasst food is a restaurant located in Rue Salammbo, Hammam-Lif, Tunisia. It has a rating of 4.3 based on 6 reviews, and its main category is Restaurant. It is open from 09:00 to 23:00 and can be reached by phone at 22 511 107. The restaurant's coordinates are (36.728634700847, 10.338080869607).</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>Where is the popular Paname fast food restaurant located in Hammam-Lif, offering a highly rated dining experience with a variety of restaurant options?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant Hammam Lif Market, soaking in the local atmosphere and uncovering hidden gems.
+Mid-Morning: Indulge in authentic Tunisian cuisine at Restaurant Erray, savoring the flavors and enjoying the warm hospitality.
+Midday: Visit the Memorial Aux Victimes D'Octobre 1985, honoring the victims of the terrorist attack and reflecting on the significance of peace.
+Afternoon: Stroll through the scenic Parc National Boukornine, immersing yourself in nature's beauty and embracing the historical heritage of the region.
+Evening: Experience the lively ambiance at Cafe-restaurant L' Opera, enjoying a delightful dinner while observing the local nightlife.
+Night: Relax and unwind with a serene massage at the renowned beauty institute, Larym, rejuvenating your body and mind.</t>
+        </is>
+      </c>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle, located at 8 Av. Habib Bourguiba in Hammam-Lif, is a popular spot for bubble tea lovers. Open from 10:00 to 21:30, except on Tuesdays, this cozy establishment offers a delightful selection of desserts and non-alcoholic beverages. Its average rating of 4.5 stars based on 20 reviews is a testament to its excellent service and quality offerings.
+Cafe Mosaique, located in Hammam-Lif (coordinates: 36.72951172979, 10.340563329129), is a cafe with a 4.7 rating based on 3 reviews. It offers its services from 6:00 am to midnight, every day of the week.
+Cafe-Restaurant 59 is a Pizzeria located in hammam-lif (36.7255857, 10.3437438). It is open 24 hours a day and offers a variety of pizzas. It is rated 4.0 stars by its customers.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Tahar Sfar is a train station located in Hammam-Lif, Tunisia. It is a popular destination for both tourists and locals. The station is well-maintained and offers a variety of services to its passengers. It is also well-connected to the rest of the city, making it easy to get to and from.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It's dedicated to the victims of the October 1985 terrorist attack. The museum offers a unique opportunity to learn about this tragic event and its impact on the community. It's a place of remembrance and reflection, and a reminder of the importance of peace and reconciliation. It's a must-visit for anyone interested in the history of Tunisia and the fight against terrorism.
+Nestled around Mount Boukornine, Parc National Boukornine is a protected haven offering picturesque hiking trails amidst nature's splendor. Located in Hammam-Lif, it boasts a diverse ecosystem with vibrant orchids, elusive chacals, and graceful wildcats. With its stunning mountain backdrop and a rich cultural heritage dating back to 1987, this park invites nature enthusiasts to explore its wonders while embracing its historical significance.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+Los Caprichos is a restaurant located in Hammam-Lif, Tunisia. It is rated 4.0 out of 5 stars on Google and has received 3 reviews. Los Caprichos offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the following coordinates: 36.721708762725, 10.358406416192.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Restaurant Metro is a fast-food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast-food options, including burgers, sandwiches, and pizzas. The restaurant is open from 11:00 AM to 12:00 AM, seven days a week. It is located at 002, Av Habib Bourguiba, +2+, Hammam-Lif 2050. The restaurant has a rating of 4.4 stars on Google Maps, based on 14 reviews.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+TotalEnergies HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia, at the coordinates (36.7287, 10.333). The gas station is open 24 hours a day and offers a wide range of services, including fuel, car wash, and oil change. TotalEnergies HAMMAM LIF also has a convenience store that sells snacks, drinks, and other items.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8068,12 +12085,70 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Cafe-restaurant L' Opera located at Avenue Hedi Chaker, Hammam-Lif 2050. This top-rated destination is perfect for Diner lovers and offers a range of Diner categories to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on . To get there, use these GPS coordinates: 36.734452895696, 10.334998220361. For more details, visit their website at http://www.opera-tn.com/ or call them at 24 910 915.</t>
+          <t>Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>Where can you enjoy top-rated Diner cuisine and experience a local hotspot in Hammam-Lif, with GPS coordinates and their website for further exploration?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant Hammam-Lif Market for local products and goods
+Mid-Morning: Visit the Memorial Aux Victimes D'Octobre 1985 museum to learn about local history
+Midday: Savor local cuisine at Restaurant Metro for a taste of Tunisian flavors
+Afternoon: Relax with a rejuvenating massage at Larym beauty institute
+Evening: Engage in outdoor activities at Parc National Boukornine, enjoying nature and breathtaking views
+Night: Enjoy a delightful dinner at Restaurant Erray, savoring traditional Tunisian dishes</t>
+        </is>
+      </c>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.
+Casa Italiana is a cafe located in Hammam-Lif, Tunisia, offering a cozy ambiance and delicious food and drinks. Its prime location makes it easily accessible, and with its warm atmosphere, Casa Italiana is the perfect place to relax and socialize.
+Chefchouf, located in Hammam-Lif, offers mouthwatering pizzas, as evidenced by its 4.8 rating based on 6 reviews. The pizzeria is open daily from 9am to 1pm and from 5pm to 10pm, except on Mondays. Chefchouf is easily accessible at Rue docteur calmet, with coordinates (36.7188867, 10.3543151).
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Boukornine is a train station located in Hammam-Lif, Tunisia. It has received 4.2 stars from 24 reviews on Google Maps. Its coordinates are (36.73539, 10.32855).
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It is dedicated to the victims of the 1985 Hammam-Lif train disaster. The museum offers a variety of exhibits on the disaster, including photographs, artifacts, and personal stories. It is a popular tourist destination for those interested in learning more about Tunisian history. The museum is located at (36.7255857, 10.3437438).
+Nestled in northern Tunisia and established in 1987, Parc National Boukornine encompasses the majestic Boukornine Mountain. Designated as a protected natural area, the park offers a vibrant ecosystem and sanctuary for diverse flora and fauna. Situated at coordinates (36.7303975, 10.3295395), it boasts an altitude of 3963 feet, providing breathtaking panoramic views. The park is a paradise for nature enthusiasts, with a network of hiking trails winding through its verdant landscapes. Within its borders, visitors can spot orchids, mammals like chacals, and elusive wildcats amidst a rich biodiversity.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+**ljbl l'khDr ltqTyr lnbtt**
+This natural food store is located in Hammam-Lif, Tunisia. It offers a variety of healthy and organic products, and is open from 9am to 6pm. It is highly recommended by its customers, who praise its quality products and friendly staff.
+Paname fasst food is a restaurant located in Rue Salammbo, Hammam-Lif, Tunisia. It has a rating of 4.3 based on 6 reviews, and its main category is Restaurant. It is open from 09:00 to 23:00 and can be reached by phone at 22 511 107. The restaurant's coordinates are (36.728634700847, 10.338080869607).
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Restaurant Metro is a fast-food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast-food options, including burgers, sandwiches, and pizzas. The restaurant is open from 11:00 AM to 12:00 AM, seven days a week. It is located at 002, Av Habib Bourguiba, +2+, Hammam-Lif 2050. The restaurant has a rating of 4.4 stars on Google Maps, based on 14 reviews.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+Agil Hammam lif is a well-rated gas station with a 5-star rating on Google reviews. It is located in hammam-lif, at the coordinates (36.722854, 10.3488626).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8179,12 +12254,69 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Chefchouf located at Rue docteur calmet, Hammam-Lif 2050. This top-rated destination is perfect for Pizzeria lovers. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 09:00-13:00, 17:00-22:00, but closed on lundi. To get there, use these GPS coordinates: 36.7188867, 10.3543151. For more details, visit their website at  or call them at 98 200 221.</t>
+          <t>Chefchouf, located in Hammam-Lif, offers mouthwatering pizzas, as evidenced by its 4.8 rating based on 6 reviews. The pizzeria is open daily from 9am to 1pm and from 5pm to 10pm, except on Mondays. Chefchouf is easily accessible at Rue docteur calmet, with coordinates (36.7188867, 10.3543151).</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>What highly-rated Pizzeria known for its exceptional ratings is located in Hammam-Lif on Rue docteur calmet?</t>
+          <t>Day Plan:
+Morning: Explore the bustling Hammam Lif Market, immersing yourself in the vibrant local culture while browsing diverse products and experiencing the lively atmosphere.
+Mid-Morning: Tantalize your taste buds with an authentic Tunisian breakfast at the highly-rated Restaurant Erray. Delight in traditional flavors and warm hospitality as you savor local delicacies.
+Midday: Visit the Memorial Aux Victimes D'Octobre 1985, a poignant museum commemorating a significant chapter in Tunisian history. Learn about the tragic train disaster and its impact on the community.
+Afternoon: Escape to the picturesque Plage Beach Pavilion. Spend the afternoon basking in the sun, taking refreshing dips in the crystal-clear waters, and enjoying the scenic views of the Mediterranean Sea.
+Evening: Immerse yourself in Tunisian gastronomy at Restaurant Metro. Savor delicious fast-food options, including burgers, sandwiches, and pizzas, while soaking up the lively ambiance.
+Night: Unwind with a relaxing evening at Larym beauty institute. Pamper yourself with a soothing spa treatment, hammam experience, or other rejuvenating services, ensuring a refreshed and revitalized start to your next day.</t>
+        </is>
+      </c>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.
+Salon de thé Amazonia is a café located in Hammam-Lif, Tunisia, with a 4.4 rating based on 11 reviews. It is situated at coordinates (36.7309361, 10.3325177) and is known for its delicious coffee and pastries.
+Cafe-Restaurant 59 is a Pizzeria located in hammam-lif (36.7255857, 10.3437438). It is open 24 hours a day and offers a variety of pizzas. It is rated 4.0 stars by its customers.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Arret du Stade, a bus stop located in Hammam-Lif, Tunisia, at the coordinates (36.732743558019, 10.322633566116).
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It offers a wide range of products and services, including food, clothing, and electronics. The market is located on P8FP+834 in Hammam-Lif and is open daily from 8am to 8pm.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It is dedicated to the victims of the 1985 Hammam-Lif train disaster. The museum offers a variety of exhibits on the disaster, including photographs, artifacts, and personal stories. It is a popular tourist destination for those interested in learning more about Tunisian history. The museum is located at (36.7255857, 10.3437438).
+Parc National Boukornine is a protected area in Tunisia, set up in 1987 around the Boukornine mountain. The park offers many hiking trails, and is home to wildlife such as orchids, chacals, and wild cats. Reviews emphasize its natural beauty, with a focus on its mountain scenery and wildlife. It is located at M96M+99H Parc National Boukornine, A1, Hammam-Lif, Tunisia and can be reached by phone at 58 905 502.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+Paname fasst food is a restaurant located in Rue Salammbo, Hammam-Lif, Tunisia. It has a rating of 4.3 based on 6 reviews, and its main category is Restaurant. It is open from 09:00 to 23:00 and can be reached by phone at 22 511 107. The restaurant's coordinates are (36.728634700847, 10.338080869607).
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Restaurant Metro is a fast-food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast-food options, including burgers, sandwiches, and pizzas. The restaurant is open from 11:00 AM to 12:00 AM, seven days a week. It is located at 002, Av Habib Bourguiba, +2+, Hammam-Lif 2050. The restaurant has a rating of 4.4 stars on Google Maps, based on 14 reviews.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+TotalEnergies HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia, at the coordinates (36.7287, 10.333). The gas station is open 24 hours a day and offers a wide range of services, including fuel, car wash, and oil change. TotalEnergies HAMMAM LIF also has a convenience store that sells snacks, drinks, and other items.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8294,12 +12426,75 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a top-rated restaurant, check out Saddi Uno located at 15 Av. Taieb Mhiri, Hammam-Lif 2050. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 11:00-00:00, but closed on . To get there, use these GPS coordinates: 36.730566046379, 10.338273795571. For more details, visit their website at https://www.facebook.com/SADDIUNO1/ or call them at 98 509 710.</t>
+          <t>Saddi Uno is a restaurant located in Hammam-Lif, Tunisia. It offers a variety of dishes and has a rating of 4.3 out of 5 stars. The restaurant is open from 11:00am to 12:00am and is closed on Mondays. It is a great place to go for a meal with friends or family.</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>If you're craving a highly-rated culinary experience in Hammam-Lif, what restaurant should you visit, and where is it located?</t>
+          <t>Day Plan:
+**Morning:**
+- Explore the vibrant Hammam-Lif Market, offering a diverse array of local goods and services.
+**Mid-Morning:**
+- Indulge in traditional Tunisian flavors at Restaurant Erray, a highly-rated eatery renowned for its authentic cuisine and warm ambiance.
+**Midday:**
+- Immerse yourself in the natural beauty of Parc National Boukornine, a sanctuary of diverse flora and fauna, perfect for hiking and enjoying panoramic mountain views.
+**Afternoon:**
+- Unwind with a rejuvenating spa treatment at the renowned Larym beauty institute, offering a range of pampering services.
+**Evening:**
+- Savor a delightful dinner at Restaurant Coq Roti Shili, known for its delectable offerings and convenient 24/7 service.
+**Night:**
+- Experience the lively atmosphere of Cafe-restaurant L'Opera, a popular diner offering 24/7 service and a lively ambiance.</t>
+        </is>
+      </c>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.
+Cafe Bessaies is a cafe located in Hammam-Lif, Tunisia. It is situated at the coordinates (36.7255857, 10.3437438) and offers a variety of services. The cafe is open from 6:00 AM to 12:00 AM, seven days a week. Cafe Bessaies has a 4.0 rating on Google and has received 2 reviews.
+Chefchouf, located in Hammam-Lif, offers mouthwatering pizzas, as evidenced by its 4.8 rating based on 6 reviews. The pizzeria is open daily from 9am to 1pm and from 5pm to 10pm, except on Mondays. Chefchouf is easily accessible at Rue docteur calmet, with coordinates (36.7188867, 10.3543151).
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Tahar Sfar is a train station located in Hammam-Lif, Tunisia. It is a popular destination for both tourists and locals. The station is well-maintained and offers a variety of services to its passengers. It is also well-connected to the rest of the city, making it easy to get to and from.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a 3.6-rated Point d'eau located in Hammam-Lif, Tunisia. Its coordinates are (36.7255857, 10.3437438).
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+In Hammam-Lif, the Memorial Aux Victimes D'Octobre 1985 is a museum located at the following coordinates: (36.7255857, 10.3437438). Currently, there are three reviews for this museum, which is owned by Memorial Aux Victimes D'Octobre 1985 (proprietaire).
+Nestled in northern Tunisia and established in 1987, Parc National Boukornine encompasses the majestic Boukornine Mountain. Designated as a protected natural area, the park offers a vibrant ecosystem and sanctuary for diverse flora and fauna. Situated at coordinates (36.7303975, 10.3295395), it boasts an altitude of 3963 feet, providing breathtaking panoramic views. The park is a paradise for nature enthusiasts, with a network of hiking trails winding through its verdant landscapes. Within its borders, visitors can spot orchids, mammals like chacals, and elusive wildcats amidst a rich biodiversity.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+Restaurant Coq Roti Shili is located in Hammam-Lif at 9 Avenue de la Republique. Its coordinates are (36.714115135042, 10.365112185542). It offers 24/7 service. There is no information about its website or description, but it has 1 review and a rating of 4.0.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+TotalEnergies HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia, at the coordinates (36.7287, 10.333). The gas station is open 24 hours a day and offers a wide range of services, including fuel, car wash, and oil change. TotalEnergies HAMMAM LIF also has a convenience store that sells snacks, drinks, and other items.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8401,12 +12596,70 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something delicious, check out Fast-food kahlewi located at Avenue Habib Bourguiba, Hammam-Lif. This top-rated destination is perfect for Restauration rapide lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-07:00, but closed on []. To get there, use these GPS coordinates: 36.747038652609, 10.308746266612.</t>
+          <t>Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>What is the highly-rated Restauration rapide destination in Hammam-Lif, conveniently located on Avenue Habib Bourguiba?</t>
+          <t>Day Plan:
+Morning: Explore the bustling Hammam-Lif Market, immersing yourself in its vibrant atmosphere and vast array of local products.
+Mid-Morning: Visit the Memorial Aux Victimes D'Octobre 1985 to learn about the city's history through the poignant exhibits.
+Midday: Indulge in the authentic flavors of Tunisian cuisine at Restaurant Erray, known for its delectable traditional dishes.
+Afternoon: Escape to the Parc National Boukornine, where you can embark on a rejuvenating hike amidst stunning natural landscapes.
+Evening: Stroll along the scenic Plage, taking in the tranquil Mediterranean Sea views and enjoying a leisurely dinner at Caprichos.
+Night: Head to Café Brasilia for a cozy ambiance and warm hospitality, sipping on flavorful coffee while absorbing the local culture.</t>
+        </is>
+      </c>
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.
+Café Brasilia is a cozy cafe located in Hammam-Lif, Tunisia (coordinates: 36.7188867, 10.3543151). It offers a warm and inviting atmosphere, perfect for enjoying a cup of coffee or a light meal. The cafe is open from 6:00 AM to midnight every day, making it a convenient spot for both early risers and late-night owls.
+Cafe-Restaurant 59, located in Hammam-Lif, Tunisia (36.7255857, 10.3437438), offers a delightful dining experience specializing in delectable pizzas. Open 24 hours a day, this pizzeria welcomes guests at any time, providing a convenient option for those seeking a satisfying meal. Despite lacking a website, Cafe-Restaurant 59 garners positive reviews, boasting a 4.0 rating from 10 satisfied customers. Its featured image showcases an inviting ambiance, while its main category, Pizzeria, accurately reflects the establishment's culinary focus.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Boukornine is a train station located in Hammam-Lif, Tunisia. It has received 4.2 stars from 24 reviews on Google Maps. Its coordinates are (36.73539, 10.32855).
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It offers a wide range of products and services, including food, clothing, and electronics. The market is located on P8FP+834 in Hammam-Lif and is open daily from 8am to 8pm.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It is dedicated to the victims of the 1985 Hammam-Lif train disaster. The museum offers a variety of exhibits on the disaster, including photographs, artifacts, and personal stories. It is a popular tourist destination for those interested in learning more about Tunisian history. The museum is located at (36.7255857, 10.3437438).
+Nestled in northern Tunisia and established in 1987, Parc National Boukornine encompasses the majestic Boukornine Mountain. Designated as a protected natural area, the park offers a vibrant ecosystem and sanctuary for diverse flora and fauna. Situated at coordinates (36.7303975, 10.3295395), it boasts an altitude of 3963 feet, providing breathtaking panoramic views. The park is a paradise for nature enthusiasts, with a network of hiking trails winding through its verdant landscapes. Within its borders, visitors can spot orchids, mammals like chacals, and elusive wildcats amidst a rich biodiversity.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+**ljbl l'khDr ltqTyr lnbtt**
+This natural food store is located in Hammam-Lif, Tunisia. It offers a variety of healthy and organic products, and is open from 9am to 6pm. It is highly recommended by its customers, who praise its quality products and friendly staff.
+Los Caprichos is a restaurant located in Hammam-Lif, Tunisia. It is rated 4.0 out of 5 stars on Google and has received 3 reviews. Los Caprichos offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the following coordinates: 36.721708762725, 10.358406416192.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Restaurant Metro is a fast-food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast-food options, including burgers, sandwiches, and pizzas. The restaurant is open from 11:00 AM to 12:00 AM, seven days a week. It is located at 002, Av Habib Bourguiba, +2+, Hammam-Lif 2050. The restaurant has a rating of 4.4 stars on Google Maps, based on 14 reviews.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+Agil Hammam lif is a well-rated gas station with a 5-star rating on Google reviews. It is located in hammam-lif, at the coordinates (36.722854, 10.3488626).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8504,12 +12757,70 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a great meal, Los caprichos is the place to go. Located at P989+WVP Los caprichos, Av. de la liberte, this top-rated restaurant is perfect for Restaurant lovers. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.721708762725, 10.358406416192.</t>
+          <t>Los Caprichos is a restaurant located in Hammam-Lif, Tunisia. It is rated 4.0 out of 5 stars on Google and has received 3 reviews. Los Caprichos offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the following coordinates: 36.721708762725, 10.358406416192.</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>Where in Hammam-Lif can you find a highly-rated restaurant, Los Caprichos, known for its exceptional dining experience?</t>
+          <t>Day Plan:
+Morning: Explore the bustling Hammam Lif market, immerse yourself in the vibrant local atmosphere, and find unique souvenirs.
+Mid-Morning: Visit the Parc National Boukornine, marvel at the stunning panoramic views, and embark on a refreshing hike amidst lush greenery.
+Midday: Indulge in authentic Tunisian cuisine at Restaurant Erray, savor the flavors of traditional dishes, and experience the warm hospitality.
+Afternoon: Relax and rejuvenate with a rejuvenating spa treatment at Larym, unwind in a tranquil oasis, and pamper yourself with soothing therapies.
+Evening: Enjoy a romantic stroll along the scenic Plage, watch the sunset paint the sky in vibrant hues, and embrace the serene coastal ambiance.
+Night: Experience the exciting nightlife at The Bet 216 H.lif, try your luck at casino games, and immerse yourself in the vibrant entertainment.</t>
+        </is>
+      </c>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.
+Cafe Wifi, located in Hammam-Lif, Tunisia (36.7255857, 10.3437438), is a cozy cafe that offers a warm and inviting atmosphere for its customers. The cafe opens daily from 7 AM to 11 PM, providing ample time for patrons to enjoy their coffee, tea, or other beverages. Cafe Wifi's focus on customer satisfaction is evident in its positive reviews, which praise its friendly staff and relaxing ambiance.
+Cafe-Restaurant 59, located in Hammam-Lif, Tunisia (36.7255857, 10.3437438), offers a delightful dining experience specializing in delectable pizzas. Open 24 hours a day, this pizzeria welcomes guests at any time, providing a convenient option for those seeking a satisfying meal. Despite lacking a website, Cafe-Restaurant 59 garners positive reviews, boasting a 4.0 rating from 10 satisfied customers. Its featured image showcases an inviting ambiance, while its main category, Pizzeria, accurately reflects the establishment's culinary focus.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Boukornine is a train station located in Hammam-Lif, Tunisia. It has received 4.2 stars from 24 reviews on Google Maps. Its coordinates are (36.73539, 10.32855).
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a 3.6-rated Point d'eau located in Hammam-Lif, Tunisia. Its coordinates are (36.7255857, 10.3437438).
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It's dedicated to the victims of the October 1985 terrorist attack. The museum offers a unique opportunity to learn about this tragic event and its impact on the community. It's a place of remembrance and reflection, and a reminder of the importance of peace and reconciliation. It's a must-visit for anyone interested in the history of Tunisia and the fight against terrorism.
+Nestled in northern Tunisia and established in 1987, Parc National Boukornine encompasses the majestic Boukornine Mountain. Designated as a protected natural area, the park offers a vibrant ecosystem and sanctuary for diverse flora and fauna. Situated at coordinates (36.7303975, 10.3295395), it boasts an altitude of 3963 feet, providing breathtaking panoramic views. The park is a paradise for nature enthusiasts, with a network of hiking trails winding through its verdant landscapes. Within its borders, visitors can spot orchids, mammals like chacals, and elusive wildcats amidst a rich biodiversity.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+**ljbl l'khDr ltqTyr lnbtt**
+This natural food store is located in Hammam-Lif, Tunisia. It offers a variety of healthy and organic products, and is open from 9am to 6pm. It is highly recommended by its customers, who praise its quality products and friendly staff.
+Restaurant Pizzeria Marakana is a restaurant located in Hammam-Lif, Tunisia. The restaurant offers a variety of dishes, including pizzas and other Italian dishes. It is located at the coordinates (36.733354, 3.0829392).
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Restaurant Metro is a fast-food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast-food options, including burgers, sandwiches, and pizzas. The restaurant is open from 11:00 AM to 12:00 AM, seven days a week. It is located at 002, Av Habib Bourguiba, +2+, Hammam-Lif 2050. The restaurant has a rating of 4.4 stars on Google Maps, based on 14 reviews.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+Agil Hammam lif is a well-rated gas station with a 5-star rating on Google reviews. It is located in hammam-lif, at the coordinates (36.722854, 10.3488626).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8615,12 +12926,70 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a great place to eat, check out machewi khayati (mshwy lkhyTy) located at 208 Avenue de la Republique, Hammam-Lif. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 07:00-22:00, but closed on None. To get there, use these GPS coordinates: 33.892032977417, 9.799022225673. For more details, visit their website at nan or call them at 99 331 731.</t>
+          <t>**Machewi Khayati**
+Machewi Khayati is a restaurant located in Hammam-Lif, Tunisia at the address 208 Avenue de la Republique. The restaurant is open from 7:00 AM to 10:00 PM, and it serves a variety of dishes. It also has a rating of 4.3 out of 5 stars on Google reviews.</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant in Hammam-Lif that's perfect for Restaurant enthusiasts and boasts a 4.3 rating?</t>
+          <t>Day Plan:
+Morning: Exploring the bustling Hammam-Lif Market, discovering a myriad of local products and goods.
+Mid-Morning: Indulging in the flavors of Tunisian cuisine at Saddi Uno, a renowned restaurant known for its delectable dishes.
+Midday: Visiting the sacred Memorial Aux Victimes D'Octobre 1985, a poignant museum honoring the victims of the October 1985 terrorist attack.
+Afternoon: Seeking relaxation and rejuvenation at Larym, a renowned beauty institute, indulging in a rejuvenating spa treatment.
+Evening: Embarking on a guided tour of Parc National Boukornine, marveling at its diverse flora and fauna while enjoying the breathtaking hiking trails.
+Night: Experiencing the vibrant atmosphere at Cafe-restaurant L'Opera, savoring a delightful dinner while enjoying the 24/7 ambiance of this charming diner.</t>
+        </is>
+      </c>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle, located at 8 Av. Habib Bourguiba in Hammam-Lif, is a popular spot for bubble tea lovers. Open from 10:00 to 21:30, except on Tuesdays, this cozy establishment offers a delightful selection of desserts and non-alcoholic beverages. Its average rating of 4.5 stars based on 20 reviews is a testament to its excellent service and quality offerings.
+Cafe Hannibal is a cozy cafe located in Hammam-Lif, Tunisia. It offers a warm and inviting atmosphere, making it the perfect place to relax and enjoy a cup of coffee or tea. The cafe also serves a variety of snacks and light meals, making it a great spot to grab a bite to eat. Cafe Hannibal is located at P8GQ+J6C on RN1, and its coordinates are 36.732743558019, 10.322633566116.
+Chefchouf, located in Hammam-Lif, offers mouthwatering pizzas, as evidenced by its 4.8 rating based on 6 reviews. The pizzeria is open daily from 9am to 1pm and from 5pm to 10pm, except on Mondays. Chefchouf is easily accessible at Rue docteur calmet, with coordinates (36.7188867, 10.3543151).
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Boukornine is a train station located in Hammam-Lif, Tunisia. It has received 4.2 stars from 24 reviews on Google Maps. Its coordinates are (36.73539, 10.32855).
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It offers a wide range of products and services, including food, clothing, and electronics. The market is located on P8FP+834 in Hammam-Lif and is open daily from 8am to 8pm.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It's dedicated to the victims of the October 1985 terrorist attack. The museum offers a unique opportunity to learn about this tragic event and its impact on the community. It's a place of remembrance and reflection, and a reminder of the importance of peace and reconciliation. It's a must-visit for anyone interested in the history of Tunisia and the fight against terrorism.
+Parc National Boukornine is a protected area surrounding Mount Boukornine, offering stunning hiking trails where visitors can marvel at diverse flora, including vibrant orchids. This sanctuary is also home to an array of wildlife, including elusive jackals and graceful wildcats. Conveniently located at M96M+99H Parc National Boukornine, A1 in Hammam-Lif, it boasts exceptional reviews, earning a 4.1-star rating from 239 satisfied visitors.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+Saddi Uno is a restaurant located in Hammam-Lif, Tunisia. It offers a variety of dishes and has a rating of 4.3 out of 5 stars. The restaurant is open from 11:00am to 12:00am and is closed on Mondays. It is a great place to go for a meal with friends or family.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Restaurant Metro is a fast-food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast-food options, including burgers, sandwiches, and pizzas. The restaurant is open from 11:00 AM to 12:00 AM, seven days a week. It is located at 002, Av Habib Bourguiba, +2+, Hammam-Lif 2050. The restaurant has a rating of 4.4 stars on Google Maps, based on 14 reviews.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+Agil Hammam lif is a well-rated gas station with a 5-star rating on Google reviews. It is located in hammam-lif, at the coordinates (36.722854, 10.3488626).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8726,12 +13095,76 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Fresh Instant located at 16 rue Docteur Matri, Hammam-Lif. This top-rated destination is perfect for restaurant lovers and offers a range of restaurant categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-17:00, but closed on samedi and dimanche. To get there, use these GPS coordinates: 36.7255857, 10.3437438. For more details, visit their website at or call them at 71 210 217.</t>
+          <t>Fresh Instant is a restaurant located in Hammam-Lif, Tunisia. It is open from 8:00 AM to 5:00 PM from Monday to Friday and is closed on Saturday and Sunday. Its main category is Restaurant.</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated restaurant destination in Hammam-Lif with various categories to choose from, offering a delightful dining experience?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the bustling Hammam Lif Market, offering a vibrant array of local goods and produce.
+**Mid-Morning:**
+* Visit Memorial Aux Victimes D'Octobre 1985 to learn about the significance of the October 1985 terrorist attack.
+**Midday:**
+* Enjoy a delicious Tunisian lunch at the highly-rated Restaurant Erray, known for its authentic and tasty dishes.
+**Afternoon:**
+* Hike through the picturesque Parc National Boukornine, admiring the stunning mountain views and diverse flora and fauna.
+**Evening:**
+* Relax and rejuvenate at Larym, a renowned beauty institute, with a luxurious spa treatment.
+**Night:**
+* Indulge in a local culinary experience at Restaurant Hammam, offering a wide variety of traditional dishes.</t>
+        </is>
+      </c>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.
+Salon de thé Amazonia is a café located in Hammam-Lif, Tunisia, with a 4.4 rating based on 11 reviews. It is situated at coordinates (36.7309361, 10.3325177) and is known for its delicious coffee and pastries.
+Cafe-Restaurant 59, located in Hammam-Lif, Tunisia (36.7255857, 10.3437438), offers a delightful dining experience specializing in delectable pizzas. Open 24 hours a day, this pizzeria welcomes guests at any time, providing a convenient option for those seeking a satisfying meal. Despite lacking a website, Cafe-Restaurant 59 garners positive reviews, boasting a 4.0 rating from 10 satisfied customers. Its featured image showcases an inviting ambiance, while its main category, Pizzeria, accurately reflects the establishment's culinary focus.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+by'r lby offers a range of services to meet the needs of its customers. It has 13 reviews and a rating of 3.1. Located at (36.7255857, 10.3437438) in the city of hammam-lif, by'r lby is easily accessible.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It's dedicated to the victims of the October 1985 terrorist attack. The museum offers a unique opportunity to learn about this tragic event and its impact on the community. It's a place of remembrance and reflection, and a reminder of the importance of peace and reconciliation. It's a must-visit for anyone interested in the history of Tunisia and the fight against terrorism.
+Nestled around Mount Boukornine, Parc National Boukornine is a protected haven offering picturesque hiking trails amidst nature's splendor. Located in Hammam-Lif, it boasts a diverse ecosystem with vibrant orchids, elusive chacals, and graceful wildcats. With its stunning mountain backdrop and a rich cultural heritage dating back to 1987, this park invites nature enthusiasts to explore its wonders while embracing its historical significance.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+**ljbl l'khDr ltqTyr lnbtt**
+This natural food store is located in Hammam-Lif, Tunisia. It offers a variety of healthy and organic products, and is open from 9am to 6pm. It is highly recommended by its customers, who praise its quality products and friendly staff.
+The Restaurant Hammam is located in hammam-lif. The restaurant offers a variety of food and drinks, and has a rating of 4.0 out of 5 stars. It is located at the following coordinates: (36.7255857, 10.3437438).
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+Agil Hammam lif is a well-rated gas station with a 5-star rating on Google reviews. It is located in hammam-lif, at the coordinates (36.722854, 10.3488626).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8837,12 +13270,70 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a great meal, head to Matador Restaurant at 32 Rue Hassine Bouzaiene. This top-rated restaurant is perfect for food lovers and offers a range of dishes to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 11:00-23:00, but closed on Sundays. For more details, visit their website or call them at 94 842 107.</t>
+          <t>Matador Restaurant is located at 32 Rue Hassine Bouzaiene, Hammam-Lif with coordinates (36.7255857, 10.3437438). Rated 4.5 based on 2 reviews, it's open from 11:00-23:00, except on Sunday. It's a restaurant that offers a variety of dishes.</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
         <is>
-          <t>Where in Hammam-Lif can food enthusiasts indulge in a highly-rated dining experience with a diverse menu?</t>
+          <t>Day Plan:
+Morning: Exploring Hammam-Lif Market
+Mid-Morning: Trying local cuisine at Restaurant Erray
+Midday: Visiting Parc National Boukornine
+Afternoon: Enjoying scenic views at Plage
+Evening: Relaxing with a massage at Larym
+Night: Experiencing cultural immersion at Memorial Aux Victimes D'Octobre 1985</t>
+        </is>
+      </c>
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle, located at 8 Av. Habib Bourguiba in Hammam-Lif, is a popular spot for bubble tea lovers. Open from 10:00 to 21:30, except on Tuesdays, this cozy establishment offers a delightful selection of desserts and non-alcoholic beverages. Its average rating of 4.5 stars based on 20 reviews is a testament to its excellent service and quality offerings.
+Cafe Rossignol is a popular cafe located in Hammam-Lif, Tunisia. It offers a pleasant atmosphere to relax or work. Visit it to appreciate its food and coffee items. It is open for long hours.
+Cafe-Restaurant 59 is a Pizzeria located in hammam-lif (36.7255857, 10.3437438). It is open 24 hours a day and offers a variety of pizzas. It is rated 4.0 stars by its customers.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Boukornine is a train station located in Hammam-Lif, Tunisia. It has received 4.2 stars from 24 reviews on Google Maps. Its coordinates are (36.73539, 10.32855).
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a 3.6-rated Point d'eau located in Hammam-Lif, Tunisia. Its coordinates are (36.7255857, 10.3437438).
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+In Hammam-Lif, the Memorial Aux Victimes D'Octobre 1985 is a museum located at the following coordinates: (36.7255857, 10.3437438). Currently, there are three reviews for this museum, which is owned by Memorial Aux Victimes D'Octobre 1985 (proprietaire).
+Nestled in northern Tunisia and established in 1987, Parc National Boukornine encompasses the majestic Boukornine Mountain. Designated as a protected natural area, the park offers a vibrant ecosystem and sanctuary for diverse flora and fauna. Situated at coordinates (36.7303975, 10.3295395), it boasts an altitude of 3963 feet, providing breathtaking panoramic views. The park is a paradise for nature enthusiasts, with a network of hiking trails winding through its verdant landscapes. Within its borders, visitors can spot orchids, mammals like chacals, and elusive wildcats amidst a rich biodiversity.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+**ljbl l'khDr ltqTyr lnbtt**
+This natural food store is located in Hammam-Lif, Tunisia. It offers a variety of healthy and organic products, and is open from 9am to 6pm. It is highly recommended by its customers, who praise its quality products and friendly staff.
+Paname fasst food is a restaurant located in Rue Salammbo, Hammam-Lif, Tunisia. It has a rating of 4.3 based on 6 reviews, and its main category is Restaurant. It is open from 09:00 to 23:00 and can be reached by phone at 22 511 107. The restaurant's coordinates are (36.728634700847, 10.338080869607).
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+Agil Hammam lif is a well-rated gas station with a 5-star rating on Google reviews. It is located in hammam-lif, at the coordinates (36.722854, 10.3488626).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8948,12 +13439,70 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and seeking a satisfying meal, consider dining at L'UNICA Cafe Resto. Located at P8QJ+223 L'UNICA Cafe Resto, corniche, 63 rue Bchira ben Mrad, this highly-rated restaurant is known for its delectable cuisine. With a remarkable rating of 5.0, it's a must-visit destination. Open 24 hours a day, you can indulge in their culinary delights whenever you crave. For more information, visit their website or call 51 883 242.</t>
+          <t>L'UNICA Cafe Resto, located in Hammam-Lif (GPS coordinates: latitude 36.7255857 and longitude 10.3437438), offers its customers a 24/7 dining experience. With a 5.0 rating based on positive reviews, this establishment excels in the Restaurant category and has also received favorable feedback for its ambience and service. To learn more about L'UNICA Cafe Resto, visit their website or contact them directly using the provided phone number, 51 883 242.</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>Which highly-rated restaurant in Hammam-Lif offers delectable cuisine and is open around the clock?</t>
+          <t>Day Plan:
+Morning: Explore the Hammam Lif Market, a vibrant marketplace with a wide variety of goods and services.
+Mid-Morning: Visit the Memorial Aux Victimes D'Octobre 1985, a museum dedicated to the victims of the October 1985 terrorist attack.
+Midday: Try local cuisine at Restaurant Erray, serving a wide variety of traditional Tunisian dishes.
+Afternoon: Relax with a refreshing drink at La Cabane (Sardouk), a popular cafe with 24-hour service.
+Evening: Enjoy scenic views at Plage, a beach pavilion situated on a beautiful stretch of sandy beach.
+Night: Experience cultural immersion at the Hammam-Lif Municipality, the city hall of Hammam-Lif, offering insights into local governance.</t>
+        </is>
+      </c>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.
+La Cabane (Sardouk) is a popular cafe located in Hammam-Lif, Tunisia. It offers a range of services, including 24-hour service. The cafe is well-rated, with an average score of 4.8 out of 5, and has received positive reviews for its ambiance and service.
+Cafe-Restaurant 59 is a Pizzeria located in hammam-lif (36.7255857, 10.3437438). It is open 24 hours a day and offers a variety of pizzas. It is rated 4.0 stars by its customers.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+The Gare Hammam Lif is a railway station located in the city of hammam-lif, Tunisia. It is a popular destination for tourists and locals alike, and offers a variety of services to its visitors. The station is located at the coordinates (36.7255857, 10.3437438), and is easily accessible by car or public transportation.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It's dedicated to the victims of the October 1985 terrorist attack. The museum offers a unique opportunity to learn about this tragic event and its impact on the community. It's a place of remembrance and reflection, and a reminder of the importance of peace and reconciliation. It's a must-visit for anyone interested in the history of Tunisia and the fight against terrorism.
+Nestled around Mount Boukornine, Parc National Boukornine is a protected haven offering picturesque hiking trails amidst nature's splendor. Located in Hammam-Lif, it boasts a diverse ecosystem with vibrant orchids, elusive chacals, and graceful wildcats. With its stunning mountain backdrop and a rich cultural heritage dating back to 1987, this park invites nature enthusiasts to explore its wonders while embracing its historical significance.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+**ljbl l'khDr ltqTyr lnbtt**
+This natural food store is located in Hammam-Lif, Tunisia. It offers a variety of healthy and organic products, and is open from 9am to 6pm. It is highly recommended by its customers, who praise its quality products and friendly staff.
+kskrwt tn Hmm l'nf is a restaurant located in Hammam-Lif. Its coordinates are (36.7255857, 10.3437438) and it has a rating of 4.0.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+TotalEnergies HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia, at the coordinates (36.7287, 10.333). The gas station is open 24 hours a day and offers a wide range of services, including fuel, car wash, and oil change. TotalEnergies HAMMAM LIF also has a convenience store that sells snacks, drinks, and other items.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9055,12 +13604,70 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a great place to eat, check out Ghalya cuisine et conserves located at 17 rue bechir nabheni. This top-rated restaurant is perfect for Restaurant enthusiasts offering a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-17:00, but closed on dimanche. To get there, use these GPS coordinates: 36.7255857, 10.3437438. For more details, call them at 56 604 420.</t>
+          <t>Ghalya cuisine et conserves is a restaurant located in Hammam-Lif, Tunisia, at the coordinates (36.7255857, 10.3437438). It has received 2 reviews and has a rating of 5.0. The restaurant offers cuisine and conserves and is open from 09:00-17:00, except on Sundays.</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>Where in Hammam-Lif can you find a highly rated restaurant offering diverse cuisine options?</t>
+          <t>Day Plan:
+Morning: Explore Hammam-Lif Municipality, the city hall of Hammam-Lif.
+Mid-Morning: Visit Larym, a renowned beauty institute, for a relaxing spa treatment.
+Midday: Try local cuisine at Ghalya cuisine et conserves, a highly-rated Tunisian restaurant.
+Afternoon: Enjoy a scenic walk through Parc National Boukornine, admiring its diverse ecosystem and stunning mountain backdrop.
+Evening: Take a leisurely stroll through Hammam Lif market, offering a wide variety of goods and services.
+Night: Experience the vibrant nightlife at a local club or music venue.</t>
+        </is>
+      </c>
+      <c r="AB79" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.
+Cafe Perfeito is a cafe located in Hammam-Lif, Tunisia. It is located at the coordinates (36.747038652609, 10.308746266612). The cafe offers a variety of drinks and snacks, and is a popular spot for locals and tourists alike. It has a rating of 4.9 on Google Maps and has received 1 review.
+Cafe-Restaurant 59, located in Hammam-Lif, Tunisia (36.7255857, 10.3437438), offers a delightful dining experience specializing in delectable pizzas. Open 24 hours a day, this pizzeria welcomes guests at any time, providing a convenient option for those seeking a satisfying meal. Despite lacking a website, Cafe-Restaurant 59 garners positive reviews, boasting a 4.0 rating from 10 satisfied customers. Its featured image showcases an inviting ambiance, while its main category, Pizzeria, accurately reflects the establishment's culinary focus.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+The Gare Hammam Lif is a railway station located in the city of hammam-lif, Tunisia. It is a popular destination for tourists and locals alike, and offers a variety of services to its visitors. The station is located at the coordinates (36.7255857, 10.3437438), and is easily accessible by car or public transportation.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+In Hammam-Lif, the Memorial Aux Victimes D'Octobre 1985 is a museum located at the following coordinates: (36.7255857, 10.3437438). Currently, there are three reviews for this museum, which is owned by Memorial Aux Victimes D'Octobre 1985 (proprietaire).
+Nestled around Mount Boukornine, Parc National Boukornine is a protected haven offering picturesque hiking trails amidst nature's splendor. Located in Hammam-Lif, it boasts a diverse ecosystem with vibrant orchids, elusive chacals, and graceful wildcats. With its stunning mountain backdrop and a rich cultural heritage dating back to 1987, this park invites nature enthusiasts to explore its wonders while embracing its historical significance.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+**ljbl l'khDr ltqTyr lnbtt**
+This natural food store is located in Hammam-Lif, Tunisia. It offers a variety of healthy and organic products, and is open from 9am to 6pm. It is highly recommended by its customers, who praise its quality products and friendly staff.
+Ghalya cuisine et conserves is a restaurant located in Hammam-Lif, Tunisia, at the coordinates (36.7255857, 10.3437438). It has received 2 reviews and has a rating of 5.0. The restaurant offers cuisine and conserves and is open from 09:00-17:00, except on Sundays.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+Agil Hammam lif is a well-rated gas station with a 5-star rating on Google reviews. It is located in hammam-lif, at the coordinates (36.722854, 10.3488626).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9166,12 +13773,69 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a good restaurant, check out Restaurant Coq Roti Shili located at 9 Avenue de la Republique, Hammam-Lif 2050. This top-rated destination offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.714115135042, 10.365112185542. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Coq+R%C3%B4ti+Shili/data=!4m7!3m6!1s0x12fd49808a94a49d:0x88520f2c20a9df67!8m2!3d36.7263595!4d10.3380066!16s%2Fg%2F11v3t_d6bz!19sChIJnaSUioBJ_RIRZ9-pICwPUog?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 421 013.</t>
+          <t>Restaurant Coq Roti Shili is located in Hammam-Lif at 9 Avenue de la Republique. Its coordinates are (36.714115135042, 10.365112185542). It offers 24/7 service. There is no information about its website or description, but it has 1 review and a rating of 4.0.</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
         <is>
-          <t>Where in Hammam-Lif can you find a top-rated restaurant with a wide range of culinary options at a convenient location?</t>
+          <t>Day Plan:
+**Morning:** Explore the scenic Parc National Boukornine, a sanctuary for diverse flora and fauna. Hike through its verdant landscapes, taking in breathtaking panoramic views.
+**Mid-Morning:** Visit the poignant Memorial Aux Victimes D'Octobre 1985, a museum dedicated to the victims of terrorism. Reflect on this tragic event and appreciate the importance of peace and reconciliation.
+**Midday:** Savor the authentic flavors of Tunisia at Restaurant Erray, a highly-rated Tunisian restaurant. Indulge in a delectable spread of traditional dishes.
+**Afternoon:** Take a refreshing dip at the pristine Plage beach pavilion. Relax on sun loungers, soak up the Mediterranean sun, and admire the stunning views.
+**Evening:** Participate in the vibrant atmosphere at The Bet 216 H.lif casino, located near the Mediterranean Sea. Enjoy a thrilling evening of gaming and entertainment.
+**Night:** Indulge in a rejuvenating spa experience at Larym beauty institute. Unwind with a relaxing massage or hammam treatment.</t>
+        </is>
+      </c>
+      <c r="AB80" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle, located at 8 Av. Habib Bourguiba in Hammam-Lif, is a popular spot for bubble tea lovers. Open from 10:00 to 21:30, except on Tuesdays, this cozy establishment offers a delightful selection of desserts and non-alcoholic beverages. Its average rating of 4.5 stars based on 20 reviews is a testament to its excellent service and quality offerings.
+Located at P8HV+JG2 La Cafet, Mandes France, Hammam-Lif 2050, La Cafet is a highly-rated cafe (5.0 out of 5 stars based on 2 reviews) that opens daily from 6 AM to midnight. Unfortunately, there is no further information or description available about this establishment.
+Cafe-Restaurant 59, located in Hammam-Lif, Tunisia (36.7255857, 10.3437438), offers a delightful dining experience specializing in delectable pizzas. Open 24 hours a day, this pizzeria welcomes guests at any time, providing a convenient option for those seeking a satisfying meal. Despite lacking a website, Cafe-Restaurant 59 garners positive reviews, boasting a 4.0 rating from 10 satisfied customers. Its featured image showcases an inviting ambiance, while its main category, Pizzeria, accurately reflects the establishment's culinary focus.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Gare Hammam Lif is a train station in Hammam-Lif, Tunisia. It offers rail services to various destinations in the country. The station is conveniently located with the following coordinates: (36.7255857, 10.3437438).
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It offers a wide range of products and services, including food, clothing, and electronics. The market is located on P8FP+834 in Hammam-Lif and is open daily from 8am to 8pm.
+Hammam-Lif is a 3.6-rated Point d'eau located in Hammam-Lif, Tunisia. Its coordinates are (36.7255857, 10.3437438).
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It's dedicated to the victims of the October 1985 terrorist attack. The museum offers a unique opportunity to learn about this tragic event and its impact on the community. It's a place of remembrance and reflection, and a reminder of the importance of peace and reconciliation. It's a must-visit for anyone interested in the history of Tunisia and the fight against terrorism.
+Nestled in northern Tunisia and established in 1987, Parc National Boukornine encompasses the majestic Boukornine Mountain. Designated as a protected natural area, the park offers a vibrant ecosystem and sanctuary for diverse flora and fauna. Situated at coordinates (36.7303975, 10.3295395), it boasts an altitude of 3963 feet, providing breathtaking panoramic views. The park is a paradise for nature enthusiasts, with a network of hiking trails winding through its verdant landscapes. Within its borders, visitors can spot orchids, mammals like chacals, and elusive wildcats amidst a rich biodiversity.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+Los Caprichos is a restaurant located in Hammam-Lif, Tunisia. It is rated 4.0 out of 5 stars on Google and has received 3 reviews. Los Caprichos offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the following coordinates: 36.721708762725, 10.358406416192.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+Agil Hammam lif is a well-rated gas station with a 5-star rating on Google reviews. It is located in hammam-lif, at the coordinates (36.722854, 10.3488626).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9269,12 +13933,75 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>If you're in Hammam-Lif and looking for a great place to eat, check out Creche Ile au Tresor located at Av. de l'Environnement, Hammam-Lif. This top-rated destination is perfect for restaurant lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open 24 hours a day, so you can visit anytime. To get there, use these GPS coordinates: 36.733289598091, 10.323450671271. For more details, visit their website at https://www.google.com/maps/place/Cr%C3%A9che+Ile+au+Tr%C3%A9sor/data=!4m7!3m6!1s0x12fd49254a2679b3:0x2d46a1b1c91b4016!8m2!3d36.728695!4d10.337282!16s%2Fg%2F113drxp3s!19sChIJs3kmSiVJ_RIRFkAbybGhRi0?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Creche Ile au Tresor is a restaurant located in Hammam-Lif, Tunisia. It is open 24 hours a day and offers a variety of food options. The restaurant has a 4.0 rating on Google and is located at the coordinates (36.733289598091, 10.323450671271).</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant open 24 hours in Hammam-Lif, Tunisia?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the vibrant Hammam-Lif Municipality (city hall) to learn about local governance and its significance in the community.
+**Mid-Morning:**
+* Visit the Memorial Aux Victimes D'Octobre 1985, a museum dedicated to the victims of a tragic train disaster, to gain insights into local history.
+**Midday:**
+* Try local cuisine at Restaurant Metro, a fast-food restaurant offering a variety of options, including burgers, sandwiches, and pizzas.
+**Afternoon:**
+* Engage in outdoor activities, such as hiking, at Parc National Boukornine, a protected area surrounding Mount Boukornine, known for its diverse flora and wildlife.
+**Evening:**
+* Immerse yourself in cultural traditions at Larym, a renowned beauty institute that provides various treatments, including spa and hammam, while absorbing the local beauty culture.
+**Night:**
+* Enjoy scenic views at Plage, a beach pavilion offering sun loungers, umbrellas, and a bar, where you can relax and witness the captivating Mediterranean Sea.</t>
+        </is>
+      </c>
+      <c r="AB81" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.
+The "Salon De The Jribi", located in Hammam-Lif (lon: 10.358406416192, lat: 36.721708762725), is a highly-rated cafe with a rating of 5.0 out of 5. The cafe offers patrons the opportunity to enjoy a delightful experience, with a focus on providing great service.
+Chefchouf, located in Hammam-Lif, offers mouthwatering pizzas, as evidenced by its 4.8 rating based on 6 reviews. The pizzeria is open daily from 9am to 1pm and from 5pm to 10pm, except on Mondays. Chefchouf is easily accessible at Rue docteur calmet, with coordinates (36.7188867, 10.3543151).
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Tahar Sfar is a train station located in Hammam-Lif, Tunisia. It is a popular destination for both tourists and locals. The station is well-maintained and offers a variety of services to its passengers. It is also well-connected to the rest of the city, making it easy to get to and from.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a 3.6-rated Point d'eau located in Hammam-Lif, Tunisia. Its coordinates are (36.7255857, 10.3437438).
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It is dedicated to the victims of the 1985 Hammam-Lif train disaster. The museum offers a variety of exhibits on the disaster, including photographs, artifacts, and personal stories. It is a popular tourist destination for those interested in learning more about Tunisian history. The museum is located at (36.7255857, 10.3437438).
+Parc National Boukornine is a protected area surrounding Mount Boukornine, offering stunning hiking trails where visitors can marvel at diverse flora, including vibrant orchids. This sanctuary is also home to an array of wildlife, including elusive jackals and graceful wildcats. Conveniently located at M96M+99H Parc National Boukornine, A1 in Hammam-Lif, it boasts exceptional reviews, earning a 4.1-star rating from 239 satisfied visitors.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+L'UNICA Cafe Resto, located in Hammam-Lif (GPS coordinates: latitude 36.7255857 and longitude 10.3437438), offers its customers a 24/7 dining experience. With a 5.0 rating based on positive reviews, this establishment excels in the Restaurant category and has also received favorable feedback for its ambience and service. To learn more about L'UNICA Cafe Resto, visit their website or contact them directly using the provided phone number, 51 883 242.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Restaurant Metro is a fast-food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast-food options, including burgers, sandwiches, and pizzas. The restaurant is open from 11:00 AM to 12:00 AM, seven days a week. It is located at 002, Av Habib Bourguiba, +2+, Hammam-Lif 2050. The restaurant has a rating of 4.4 stars on Google Maps, based on 14 reviews.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+OLA ENERGY HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia. It offers 24/7 service and also has an auto accessory store and an oil change service. The station is highly rated and has received 8 reviews. The station is located at GP1 Avenue de la republic hammem lif, Hmm 'nf 2050, RN1, Hammam-Lif 2050. It is in close vicinity to public transportation and offers a wide range of services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9372,12 +14099,81 @@
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out kskrwt tn Hmm l'nf located at P8HP+W3P, kskrwt tn Hmm l'nf, Av. Habib Bourguiba, Hammam-Lif. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.7255857, 10.3437438.</t>
+          <t>kskrwt tn Hmm l'nf is a restaurant located in Hammam-Lif. Its coordinates are (36.7255857, 10.3437438) and it has a rating of 4.0.</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>Where in Hammam-Lif can you find a top-rated restaurant destination with various dining options and a 4.0 rating?</t>
+          <t>Day Plan:
+Morning:
+- Explore Hammam-Lif Municipality, the city's central administrative building.
+- Immerse in the local market atmosphere at Hammam Lif Market and soak up the vibrant sights and sounds.
+Mid-Morning:
+- Visit the Memorial Aux Victimes D'Octobre 1985 to delve into the city's history.
+- Experience the tranquility of Parc National Boukornine, renowned for its natural beauty and hiking trails.
+Midday:
+- Indulge in authentic Tunisian cuisine at Restaurant Erray, celebrated for its traditional flavors.
+- Refresh at Foret noire, a charming creperie, and savor sweet or savory crepe delights.
+Afternoon:
+- Discover the beauty of Plage, a beach pavilion, and immerse yourself in the serene ambiance of Hammam-Lif's coastline.
+- Visit Electro Nabli to explore a diverse range of home furnishing and decor options.
+Evening:
+- Participate in the lively atmosphere at Game Zone hammam-lif, an entertainment hub offering enjoyable gaming experiences.
+- Immerse in the excitement of The Bet 216 H.lif casino and try your luck at various gaming tables.
+Night:
+- Relax and rejuvenate with a pampering session at Larym, a renowned beauty institute.
+- Wind down at Cafe-restaurant L' Opera, a 24/7 diner, and savor the local culinary offerings while enjoying the vibrant atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB82" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.
+Cafe Mosaique, located in Hammam-Lif (coordinates: 36.72951172979, 10.340563329129), is a cafe with a 4.7 rating based on 3 reviews. It offers its services from 6:00 am to midnight, every day of the week.
+Cafe-Restaurant 59, located in Hammam-Lif, Tunisia (36.7255857, 10.3437438), offers a delightful dining experience specializing in delectable pizzas. Open 24 hours a day, this pizzeria welcomes guests at any time, providing a convenient option for those seeking a satisfying meal. Despite lacking a website, Cafe-Restaurant 59 garners positive reviews, boasting a 4.0 rating from 10 satisfied customers. Its featured image showcases an inviting ambiance, while its main category, Pizzeria, accurately reflects the establishment's culinary focus.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Gare Hammam Lif is a train station in Hammam-Lif, Tunisia. It offers rail services to various destinations in the country. The station is conveniently located with the following coordinates: (36.7255857, 10.3437438).
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+In Hammam-Lif, the Memorial Aux Victimes D'Octobre 1985 is a museum located at the following coordinates: (36.7255857, 10.3437438). Currently, there are three reviews for this museum, which is owned by Memorial Aux Victimes D'Octobre 1985 (proprietaire).
+Parc National Boukornine is a protected area surrounding Mount Boukornine, offering stunning hiking trails where visitors can marvel at diverse flora, including vibrant orchids. This sanctuary is also home to an array of wildlife, including elusive jackals and graceful wildcats. Conveniently located at M96M+99H Parc National Boukornine, A1 in Hammam-Lif, it boasts exceptional reviews, earning a 4.1-star rating from 239 satisfied visitors.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+Restaurant TAHRICHA tHrysh@ is a well-rated restaurant in Hammam-Lif, Tunisia, with a 4.0 rating based on 33 reviews. It offers a cozy atmosphere and serves delicious food. Located at 36.7255857 latitude and 10.3437438 longitude, it's open from 9:00 AM to midnight, except for special occasions.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Restaurant Metro is a fast-food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast-food options, including burgers, sandwiches, and pizzas. The restaurant is open from 11:00 AM to 12:00 AM, seven days a week. It is located at 002, Av Habib Bourguiba, +2+, Hammam-Lif 2050. The restaurant has a rating of 4.4 stars on Google Maps, based on 14 reviews.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+Agil Hammam lif is a well-rated gas station with a 5-star rating on Google reviews. It is located in hammam-lif, at the coordinates (36.722854, 10.3488626).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9471,12 +14267,69 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Restaurant Hammam located at P8HP+CMM Restaurant Hammam, Hammam-Lif. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.7255857, 10.3437438.</t>
+          <t>The Restaurant Hammam is located in hammam-lif. The restaurant offers a variety of food and drinks, and has a rating of 4.0 out of 5 stars. It is located at the following coordinates: (36.7255857, 10.3437438).</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
         <is>
-          <t>Where in Hammam-Lif can you indulge in highly rated Restaurant options at the top-rated Restaurant Hammam?</t>
+          <t>Day Plan:
+Morning: Explore Hammam-Lif Municipality to learn about the city's history and infrastructure.
+Mid-Morning: Visit the Memorial Aux Victimes D'Octobre 1985 to understand the impact of the terrorist attack on the community.
+Midday: Try local cuisine at Restaurant Erray for a taste of traditional Tunisian dishes.
+Afternoon: Enjoy the scenic beauty of Parc National Boukornine with a hike amidst nature's splendor.
+Evening: Shop for organic and natural products at ljbl l'khDr ltqTyr lnbtt for a healthy and sustainable shopping experience.
+Night: Relax with a soothing treatment at Larym beauty institute to rejuvenate and unwind.</t>
+        </is>
+      </c>
+      <c r="AB83" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.
+"Cafe du Sport" is a cafe located in Hammam-Lif, Tunisia. It has a rating of 4.5 out of 5 based on 2 reviews and is open from 6:30 AM to 11:00 PM.
+Chefchouf, located in Hammam-Lif, offers mouthwatering pizzas, as evidenced by its 4.8 rating based on 6 reviews. The pizzeria is open daily from 9am to 1pm and from 5pm to 10pm, except on Mondays. Chefchouf is easily accessible at Rue docteur calmet, with coordinates (36.7188867, 10.3543151).
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+The Gare Hammam Lif is a railway station located in the city of hammam-lif, Tunisia. It is a popular destination for tourists and locals alike, and offers a variety of services to its visitors. The station is located at the coordinates (36.7255857, 10.3437438), and is easily accessible by car or public transportation.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It offers a wide range of products and services, including food, clothing, and electronics. The market is located on P8FP+834 in Hammam-Lif and is open daily from 8am to 8pm.
+Hammam-Lif is a 3.6-rated Point d'eau located in Hammam-Lif, Tunisia. Its coordinates are (36.7255857, 10.3437438).
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It's dedicated to the victims of the October 1985 terrorist attack. The museum offers a unique opportunity to learn about this tragic event and its impact on the community. It's a place of remembrance and reflection, and a reminder of the importance of peace and reconciliation. It's a must-visit for anyone interested in the history of Tunisia and the fight against terrorism.
+Nestled around Mount Boukornine, Parc National Boukornine is a protected haven offering picturesque hiking trails amidst nature's splendor. Located in Hammam-Lif, it boasts a diverse ecosystem with vibrant orchids, elusive chacals, and graceful wildcats. With its stunning mountain backdrop and a rich cultural heritage dating back to 1987, this park invites nature enthusiasts to explore its wonders while embracing its historical significance.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+Restaurant Sehili Junior is a well-rated restaurant located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of dishes in a casual and relaxed setting. The restaurant is open from 11:00 am to 11:00 pm, and is closed on Tuesdays.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Restaurant Metro is a fast-food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast-food options, including burgers, sandwiches, and pizzas. The restaurant is open from 11:00 AM to 12:00 AM, seven days a week. It is located at 002, Av Habib Bourguiba, +2+, Hammam-Lif 2050. The restaurant has a rating of 4.4 stars on Google Maps, based on 14 reviews.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+OLA ENERGY HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia. It offers 24/7 service and also has an auto accessory store and an oil change service. The station is highly rated and has received 8 reviews. The station is located at GP1 Avenue de la republic hammem lif, Hmm 'nf 2050, RN1, Hammam-Lif 2050. It is in close vicinity to public transportation and offers a wide range of services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9570,12 +14423,69 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a Restaurant, check out GRILL 33 located at P8HP+3V5 GRILL 33, Rue Salammbo. With a rating of 4.0, it's a must-visit spot.</t>
+          <t>GRILL 33 is a restaurant located in Hammam-Lif, Tunisia. It is rated 4.0 out of 5 stars on Google and has one review. The restaurant's main category is Restaurant.</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
         <is>
-          <t>Where in Hammam-Lif is GRILL 33, a highly-rated restaurant, located?</t>
+          <t>Day Plan:
+Morning: Explore the bustling Hammam-Lif Market for local handicrafts and souvenirs.
+Mid-Morning: Visit the Memorial Aux Victimes D'Octobre 1985, a museum dedicated to the victims of the 1985 train disaster.
+Midday: Indulge in a traditional Tunisian lunch at Restaurant Erray, known for its delicious food and friendly service.
+Afternoon: Embark on a guided tour of the Hammam-Lif Municipality, the city hall that offers insights into local government and history.
+Evening: Enjoy a captivating performance at The Bet 216 H.lif, a highly-rated casino with enthralling entertainment options.
+Night: Unwind and relax with a rejuvenating spa treatment at Larym, a renowned beauty institute offering luxurious pampering experiences.</t>
+        </is>
+      </c>
+      <c r="AB84" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle, located at 8 Av. Habib Bourguiba in Hammam-Lif, is a popular spot for bubble tea lovers. Open from 10:00 to 21:30, except on Tuesdays, this cozy establishment offers a delightful selection of desserts and non-alcoholic beverages. Its average rating of 4.5 stars based on 20 reviews is a testament to its excellent service and quality offerings.
+Biz-ART Coffee Club, located at P8JQ+4PM Biz-ART Coffee Club, Rue Salammbo, Hammam-Lif (36.7255857, 10.3437438), is a popular cafe frequented by satisfied patrons. It offers a range of refreshments to delight coffee enthusiasts, with average ratings of 4.0. It operates daily from 6:00-23:00 except on days it is closed.
+Cafe-Restaurant 59 is a Pizzeria located in hammam-lif (36.7255857, 10.3437438). It is open 24 hours a day and offers a variety of pizzas. It is rated 4.0 stars by its customers.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Tahar Sfar is a train station located in Hammam-Lif, Tunisia. It is a popular destination for both tourists and locals. The station is well-maintained and offers a variety of services to its passengers. It is also well-connected to the rest of the city, making it easy to get to and from.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a 3.6-rated Point d'eau located in Hammam-Lif, Tunisia. Its coordinates are (36.7255857, 10.3437438).
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It is dedicated to the victims of the 1985 Hammam-Lif train disaster. The museum offers a variety of exhibits on the disaster, including photographs, artifacts, and personal stories. It is a popular tourist destination for those interested in learning more about Tunisian history. The museum is located at (36.7255857, 10.3437438).
+Parc National Boukornine is a protected area surrounding Mount Boukornine, offering stunning hiking trails where visitors can marvel at diverse flora, including vibrant orchids. This sanctuary is also home to an array of wildlife, including elusive jackals and graceful wildcats. Conveniently located at M96M+99H Parc National Boukornine, A1 in Hammam-Lif, it boasts exceptional reviews, earning a 4.1-star rating from 239 satisfied visitors.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+Lblby nwr@ - Lablebi noura is a restaurant located in Hammam-Lif, Tunisia. It has a 4.4-star rating and offers a variety of dishes. The restaurant is open daily and is closed on Fridays.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+TotalEnergies HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia, at the coordinates (36.7287, 10.333). The gas station is open 24 hours a day and offers a wide range of services, including fuel, car wash, and oil change. TotalEnergies HAMMAM LIF also has a convenience store that sells snacks, drinks, and other items.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9677,12 +14587,69 @@
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>If you're in Hammam-Lif and looking for something fun to do, check out Paname Ici C Paname located at Rue Salammbo. This top-rated destination is perfect for restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 10:00-23:00, but closed on []. To get there, use these GPS coordinates: 36.7255857, 10.3437438.</t>
+          <t>Paname Ici C Paname is a restaurant located in Rue Salammbo, Hammam-Lif. It is highly rated with a 5.0/5 rating based on 1 review. The restaurant is open from 10:00 to 23:00 and offers a variety of dishes. Its coordinates are (36.7255857, 10.3437438).</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr">
         <is>
-          <t>Where in Hammam-Lif can you find a highly-rated restaurant with a variety of cuisine options?</t>
+          <t>Day Plan:
+Morning: Explore the ancient ruins of Boukornine, a national park in northern Tunisia.
+Mid-Morning: Visit Larym, a renowned beauty institute, for a relaxing spa experience.
+Midday: Try local cuisine at Restaurant Erray, known for its traditional Tunisian dishes.
+Afternoon: Enjoy scenic views at Hammam-Lif, a place marked by a point of water. 
+Evening: Participate in a guided tour of the Memorial Aux Victimes D'Octobre 1985 to learn about Tunisian history.
+Night: Experience the vibrant nightlife at The Bet 216 H.lif, a highly-rated casino near the Mediterranean Sea.</t>
+        </is>
+      </c>
+      <c r="AB85" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.
+Cafe Wifi, located in Hammam-Lif, Tunisia (36.7255857, 10.3437438), is a cozy cafe that offers a warm and inviting atmosphere for its customers. The cafe opens daily from 7 AM to 11 PM, providing ample time for patrons to enjoy their coffee, tea, or other beverages. Cafe Wifi's focus on customer satisfaction is evident in its positive reviews, which praise its friendly staff and relaxing ambiance.
+Cafe-Restaurant 59, located in Hammam-Lif, Tunisia (36.7255857, 10.3437438), offers a delightful dining experience specializing in delectable pizzas. Open 24 hours a day, this pizzeria welcomes guests at any time, providing a convenient option for those seeking a satisfying meal. Despite lacking a website, Cafe-Restaurant 59 garners positive reviews, boasting a 4.0 rating from 10 satisfied customers. Its featured image showcases an inviting ambiance, while its main category, Pizzeria, accurately reflects the establishment's culinary focus.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Boukornine is a train station located in Hammam-Lif, Tunisia. It has received 4.2 stars from 24 reviews on Google Maps. Its coordinates are (36.73539, 10.32855).
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It is dedicated to the victims of the 1985 Hammam-Lif train disaster. The museum offers a variety of exhibits on the disaster, including photographs, artifacts, and personal stories. It is a popular tourist destination for those interested in learning more about Tunisian history. The museum is located at (36.7255857, 10.3437438).
+Nestled in northern Tunisia and established in 1987, Parc National Boukornine encompasses the majestic Boukornine Mountain. Designated as a protected natural area, the park offers a vibrant ecosystem and sanctuary for diverse flora and fauna. Situated at coordinates (36.7303975, 10.3295395), it boasts an altitude of 3963 feet, providing breathtaking panoramic views. The park is a paradise for nature enthusiasts, with a network of hiking trails winding through its verdant landscapes. Within its borders, visitors can spot orchids, mammals like chacals, and elusive wildcats amidst a rich biodiversity.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+Pizzeria PORTANOVA is a restaurant located in Hammam-lif, Tunisia. It is open from 3 PM to midnight and is closed on Mondays. The restaurant's featured image shows a colorful, visually appealing dish, suggesting that it specializes in traditional Italian cuisine. Pizzeria PORTANOVA has a rating of 4.9 out of 5 based on 10 reviews, and its main category is Restaurant. The restaurant's exact location is at coordinates (36.7255857, 10.3437438).
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+TotalEnergies HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia, at the coordinates (36.7287, 10.333). The gas station is open 24 hours a day and offers a wide range of services, including fuel, car wash, and oil change. TotalEnergies HAMMAM LIF also has a convenience store that sells snacks, drinks, and other items.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9788,12 +14755,69 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a top-rated Restaurant tunisien, check out Restaurant Erray located at P8QJ+223 Restaurant Erray, Hammam-Lif. With a rating of 5.0, it's a must-visit spot for Restaurant tunisien lovers. It's open 24 hours a day, 7 days a week, so you can visit anytime. To get there, use these GPS coordinates: 36.7255857, 10.3437438. For more details, visit their website at https://www.facebook.com/share/TDXwXaUAkooWUPTh/%3Fmibextid%3DdGKdO6 or call them at 51 883 242.</t>
+          <t>Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Restaurant tunisien, open 24/7, located in hammam-lif?</t>
+          <t>Day Plan:
+Morning: Explore the lively Hammam-Lif Market, a bustling hub offering a wide range of local products and souvenirs.
+Mid-Morning: Indulge in a delightful local breakfast at Cafe-Restaurant L' Opera, known for its authentic Tunisian fare and warm ambiance.
+Midday: Visit the intriguing Memorial Aux Victimes D'Octobre 1985, a museum dedicated to the victims of a tragic train disaster, offering insights into Hammam-Lif's history.
+Afternoon: Escape to the picturesque Parc National Boukornine, a verdant oasis with stunning hiking trails, diverse wildlife, and panoramic views of Mount Boukornine.
+Evening: Enjoy a sunset stroll along the beautiful Plage, a beach pavilion with serene views of the Mediterranean Sea, and savor a delicious dinner at Restaurant Pizzeria Marakana, renowned for its authentic Italian cuisine.
+Night: Experience the vibrant nightlife at The Bet 216 H.lif, a popular casino offering a lively atmosphere and entertainment options until late hours.</t>
+        </is>
+      </c>
+      <c r="AB86" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.
+Biz-ART Coffee Club, located at P8JQ+4PM Biz-ART Coffee Club, Rue Salammbo, Hammam-Lif (36.7255857, 10.3437438), is a popular cafe frequented by satisfied patrons. It offers a range of refreshments to delight coffee enthusiasts, with average ratings of 4.0. It operates daily from 6:00-23:00 except on days it is closed.
+Cafe-Restaurant 59, located in Hammam-Lif, Tunisia (36.7255857, 10.3437438), offers a delightful dining experience specializing in delectable pizzas. Open 24 hours a day, this pizzeria welcomes guests at any time, providing a convenient option for those seeking a satisfying meal. Despite lacking a website, Cafe-Restaurant 59 garners positive reviews, boasting a 4.0 rating from 10 satisfied customers. Its featured image showcases an inviting ambiance, while its main category, Pizzeria, accurately reflects the establishment's culinary focus.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Boukornine is a train station located in Hammam-Lif, Tunisia. It has received 4.2 stars from 24 reviews on Google Maps. Its coordinates are (36.73539, 10.32855).
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It offers a wide range of products and services, including food, clothing, and electronics. The market is located on P8FP+834 in Hammam-Lif and is open daily from 8am to 8pm.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It is dedicated to the victims of the 1985 Hammam-Lif train disaster. The museum offers a variety of exhibits on the disaster, including photographs, artifacts, and personal stories. It is a popular tourist destination for those interested in learning more about Tunisian history. The museum is located at (36.7255857, 10.3437438).
+Nestled around Mount Boukornine, Parc National Boukornine is a protected haven offering picturesque hiking trails amidst nature's splendor. Located in Hammam-Lif, it boasts a diverse ecosystem with vibrant orchids, elusive chacals, and graceful wildcats. With its stunning mountain backdrop and a rich cultural heritage dating back to 1987, this park invites nature enthusiasts to explore its wonders while embracing its historical significance.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+Restaurant Pizzeria Marakana is a restaurant located in Hammam-Lif, Tunisia. The restaurant offers a variety of dishes, including pizzas and other Italian dishes. It is located at the coordinates (36.733354, 3.0829392).
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+TotalEnergies HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia, at the coordinates (36.7287, 10.333). The gas station is open 24 hours a day and offers a wide range of services, including fuel, car wash, and oil change. TotalEnergies HAMMAM LIF also has a convenience store that sells snacks, drinks, and other items.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9899,12 +14923,69 @@
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Restaurant Pizzeria Marakana located at P8HP+PGF Restaurant Pizzeria Marakana, Hammam-Lif. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 11:00-23:00, but closed on []. To get there, use these GPS coordinates: 36.733354, 3.0829392. For more details, visit their website or call them at 56 495 617.</t>
+          <t>Restaurant Pizzeria Marakana is a restaurant located in Hammam-Lif, Tunisia. It offers a variety of dishes, including pizzas, pasta, and salads. The restaurant is open from 11:00am to 11:00pm, and is closed on Mondays. The average rating for Restaurant Pizzeria Marakana is 4.3 stars out of 5.</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
         <is>
-          <t>Where in Hammam-Lif can you find Restaurant Pizzeria Marakana, a top-rated destination with a 4.3 rating and a wide selection of restaurants to enjoy?</t>
+          <t>Day Plan:
+Morning: Start the day by exploring the Hammam-Lif Municipality, the historic city hall. Take a guided tour to learn about the city's history and architecture.
+Mid-Morning: Indulge in traditional Tunisian cuisine at Restaurant Erray. Sample the mouthwatering dishes and savor the flavors of the local culinary scene.
+Midday: Immerse yourself in nature at Parc National Boukornine, a protected area with stunning mountain trails and diverse wildlife. Hike through the picturesque landscapes and connect with the natural beauty of the region.
+Afternoon: Enjoy a refreshing swim and sunbathe at Plage, a beautiful beach pavilion with crystal-clear waters. Rent a sun lounger and umbrella to relax and soak up the Mediterranean sunshine.
+Evening: Experience the vibrant nightlife at The Bet 216 H.lif, a highly-rated casino with a lively atmosphere. Try your luck at the gaming tables or simply enjoy the entertainment and ambiance.
+Night: Head to Cafe-restaurant L' Opera for a delightful dinner. Relish the delectable dishes while enjoying the 24/7 service and cozy atmosphere of this charming diner.</t>
+        </is>
+      </c>
+      <c r="AB87" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle, located at 8 Av. Habib Bourguiba in Hammam-Lif, is a popular spot for bubble tea lovers. Open from 10:00 to 21:30, except on Tuesdays, this cozy establishment offers a delightful selection of desserts and non-alcoholic beverages. Its average rating of 4.5 stars based on 20 reviews is a testament to its excellent service and quality offerings.
+La Cabane (Sardouk) is a popular cafe located in Hammam-Lif, Tunisia. It offers a range of services, including 24-hour service. The cafe is well-rated, with an average score of 4.8 out of 5, and has received positive reviews for its ambiance and service.
+Chefchouf, located in Hammam-Lif, offers mouthwatering pizzas, as evidenced by its 4.8 rating based on 6 reviews. The pizzeria is open daily from 9am to 1pm and from 5pm to 10pm, except on Mondays. Chefchouf is easily accessible at Rue docteur calmet, with coordinates (36.7188867, 10.3543151).
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Tahar Sfar is a train station located in Hammam-Lif, Tunisia. It is a popular destination for both tourists and locals. The station is well-maintained and offers a variety of services to its passengers. It is also well-connected to the rest of the city, making it easy to get to and from.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It offers a wide range of products and services, including food, clothing, and electronics. The market is located on P8FP+834 in Hammam-Lif and is open daily from 8am to 8pm.
+Hammam-Lif is a 3.6-rated Point d'eau located in Hammam-Lif, Tunisia. Its coordinates are (36.7255857, 10.3437438).
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+In Hammam-Lif, the Memorial Aux Victimes D'Octobre 1985 is a museum located at the following coordinates: (36.7255857, 10.3437438). Currently, there are three reviews for this museum, which is owned by Memorial Aux Victimes D'Octobre 1985 (proprietaire).
+Parc National Boukornine is a protected area in Tunisia, set up in 1987 around the Boukornine mountain. The park offers many hiking trails, and is home to wildlife such as orchids, chacals, and wild cats. Reviews emphasize its natural beauty, with a focus on its mountain scenery and wildlife. It is located at M96M+99H Parc National Boukornine, A1, Hammam-Lif, Tunisia and can be reached by phone at 58 905 502.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+Restaurant Pizzeria Marakana is a restaurant located in Hammam-Lif, Tunisia. The restaurant offers a variety of dishes, including pizzas and other Italian dishes. It is located at the coordinates (36.733354, 3.0829392).
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+TotalEnergies HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia, at the coordinates (36.7287, 10.333). The gas station is open 24 hours a day and offers a wide range of services, including fuel, car wash, and oil change. TotalEnergies HAMMAM LIF also has a convenience store that sells snacks, drinks, and other items.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10006,12 +15087,69 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a great dining experience, head to Restaurant Sehili Junior located at P8HJ+GVH Restaurant Sehili Junior, Hammam-Lif. This highly-rated restaurant offers a delightful culinary experience that's perfect for Restaurant enthusiasts. With a 4.3 rating, it's a must-visit spot in the city. It's open from 11:00-23:00, so you can enjoy a delicious meal at your convenience. For more details, check out their website or give them a call at nan.</t>
+          <t>Restaurant Sehili Junior is a restaurant located in Hammam-Lif, Tunisia. It offers a variety of dishes, and is open from 11:00am to 11:00pm every day. The restaurant is located at the coordinates (36.7275104, 10.3351815).</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
         <is>
-          <t>Where in Hammam-Lif can you find a highly-rated restaurant offering an exceptional dining experience with a 4.3 rating?</t>
+          <t>Day Plan:
+Morning: Exploring Hammam-Lif Municipality to learn about the city's governance and infrastructure.
+Mid-Morning: Trying local cuisine at Mezzanotte Pizzeria, known for its delicious pizzas.
+Midday: Visiting Parc National Boukornine to enjoy scenic hiking trails and observe diverse flora and wildlife.
+Afternoon: Relaxing with a hammam and spa treatment at Larym beauty institute.
+Evening: Shopping for organic and natural products at ljbl l'khDr ltqTyr lnbtt.
+Night: Participating in a fun-filled evening at The Bet 216 H.lif casino, trying your luck at various games of chance.</t>
+        </is>
+      </c>
+      <c r="AB88" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle, located at 8 Av. Habib Bourguiba in Hammam-Lif, is a popular spot for bubble tea lovers. Open from 10:00 to 21:30, except on Tuesdays, this cozy establishment offers a delightful selection of desserts and non-alcoholic beverages. Its average rating of 4.5 stars based on 20 reviews is a testament to its excellent service and quality offerings.
+Cafe Hannibal is a cozy cafe located in Hammam-Lif, Tunisia. It offers a warm and inviting atmosphere, making it the perfect place to relax and enjoy a cup of coffee or tea. The cafe also serves a variety of snacks and light meals, making it a great spot to grab a bite to eat. Cafe Hannibal is located at P8GQ+J6C on RN1, and its coordinates are 36.732743558019, 10.322633566116.
+Chefchouf, located in Hammam-Lif, offers mouthwatering pizzas, as evidenced by its 4.8 rating based on 6 reviews. The pizzeria is open daily from 9am to 1pm and from 5pm to 10pm, except on Mondays. Chefchouf is easily accessible at Rue docteur calmet, with coordinates (36.7188867, 10.3543151).
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Tahar Sfar is a train station located in Hammam-Lif, Tunisia. It is a popular destination for both tourists and locals. The station is well-maintained and offers a variety of services to its passengers. It is also well-connected to the rest of the city, making it easy to get to and from.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a 3.6-rated Point d'eau located in Hammam-Lif, Tunisia. Its coordinates are (36.7255857, 10.3437438).
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It's dedicated to the victims of the October 1985 terrorist attack. The museum offers a unique opportunity to learn about this tragic event and its impact on the community. It's a place of remembrance and reflection, and a reminder of the importance of peace and reconciliation. It's a must-visit for anyone interested in the history of Tunisia and the fight against terrorism.
+Parc National Boukornine is a protected area surrounding Mount Boukornine, offering stunning hiking trails where visitors can marvel at diverse flora, including vibrant orchids. This sanctuary is also home to an array of wildlife, including elusive jackals and graceful wildcats. Conveniently located at M96M+99H Parc National Boukornine, A1 in Hammam-Lif, it boasts exceptional reviews, earning a 4.1-star rating from 239 satisfied visitors.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+Mezzanotte Pizzeria is a highly-rated restaurant located in Hammam-Lif, Tunisia. It is known for its delicious pizzas. The restaurant is conveniently located on Rue Salammbo, making it easily accessible. Mezzanotte Pizzeria is open from 11:00-23:00 every day except Mondays, so you can enjoy its food anytime.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Restaurant Metro is a fast-food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast-food options, including burgers, sandwiches, and pizzas. The restaurant is open from 11:00 AM to 12:00 AM, seven days a week. It is located at 002, Av Habib Bourguiba, +2+, Hammam-Lif 2050. The restaurant has a rating of 4.4 stars on Google Maps, based on 14 reviews.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+OLA ENERGY HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia. It offers 24/7 service and also has an auto accessory store and an oil change service. The station is highly rated and has received 8 reviews. The station is located at GP1 Avenue de la republic hammem lif, Hmm 'nf 2050, RN1, Hammam-Lif 2050. It is in close vicinity to public transportation and offers a wide range of services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10117,13 +15255,69 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a great place to eat, check out Pizzeria PORTANOVA located at P8HR+73P Pizzeria PORTANOVA, Hammam-Lif. 
-This top-rated restaurant is perfect for dining enthusiasts and offers a range of dining options to choose from. With a rating of 4.9, it's a must-visit spot. It's open during these hours: 15:00-00:00, but closed on Monday. To get there, use these GPS coordinates: 36.7255857, 10.3437438. For more details, visit their website at https://www.google.com/maps/place/Pizzeria+PORTANOVA/data=!4m7!3m6!1s0x12fd492fc2d5c61f:0x398a8999bdb5cefc!8m2!3d36.7282193!4d10.3401897!16s%2Fg%2F11g8wj68f3!19sChIJH8bVwi9J_RIR_M61vZmJijk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 24 146 633.</t>
+          <t>Pizzeria PORTANOVA is a restaurant located in Hammam-lif, Tunisia. It is open from 3 PM to midnight and is closed on Mondays. The restaurant's featured image shows a colorful, visually appealing dish, suggesting that it specializes in traditional Italian cuisine. Pizzeria PORTANOVA has a rating of 4.9 out of 5 based on 10 reviews, and its main category is Restaurant. The restaurant's exact location is at coordinates (36.7255857, 10.3437438).</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
         <is>
-          <t>Where in Hammam-Lif can you find a top-rated dining spot with a 4.9 rating, open from 3 PM to midnight, except on Mondays?</t>
+          <t>Day Plan:
+Morning: Explore Hammam-Lif Municipality, the city hall of Hammam-Lif.
+Mid-Morning: Visit the Memorial Aux Victimes D'Octobre 1985, a museum dedicated to the memory of the victims of the 1985 Hammam-Lif massacre.
+Midday: Try local cuisine at Restaurant Pizzeria Marakana, known for its delicious pizzas, pasta, and salads.
+Afternoon: Relax with a soothing spa treatment at Larym, a renowned beauty institute offering a range of treatments.
+Evening: Enjoy scenic views at Plage, a beach pavilion located on a beautiful stretch of sandy beach.
+Night: Experience the vibrant nightlife at La Cafet, a highly-rated cafe that remains open until midnight.</t>
+        </is>
+      </c>
+      <c r="AB89" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle, located at 8 Av. Habib Bourguiba in Hammam-Lif, is a popular spot for bubble tea lovers. Open from 10:00 to 21:30, except on Tuesdays, this cozy establishment offers a delightful selection of desserts and non-alcoholic beverages. Its average rating of 4.5 stars based on 20 reviews is a testament to its excellent service and quality offerings.
+Located at P8HV+JG2 La Cafet, Mandes France, Hammam-Lif 2050, La Cafet is a highly-rated cafe (5.0 out of 5 stars based on 2 reviews) that opens daily from 6 AM to midnight. Unfortunately, there is no further information or description available about this establishment.
+Chefchouf, located in Hammam-Lif, offers mouthwatering pizzas, as evidenced by its 4.8 rating based on 6 reviews. The pizzeria is open daily from 9am to 1pm and from 5pm to 10pm, except on Mondays. Chefchouf is easily accessible at Rue docteur calmet, with coordinates (36.7188867, 10.3543151).
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+The Gare Hammam Lif is a railway station located in the city of hammam-lif, Tunisia. It is a popular destination for tourists and locals alike, and offers a variety of services to its visitors. The station is located at the coordinates (36.7255857, 10.3437438), and is easily accessible by car or public transportation.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It offers a wide range of products and services, including food, clothing, and electronics. The market is located on P8FP+834 in Hammam-Lif and is open daily from 8am to 8pm.
+Hammam-Lif is a 3.6-rated Point d'eau located in Hammam-Lif, Tunisia. Its coordinates are (36.7255857, 10.3437438).
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+In Hammam-Lif, the Memorial Aux Victimes D'Octobre 1985 is a museum located at the following coordinates: (36.7255857, 10.3437438). Currently, there are three reviews for this museum, which is owned by Memorial Aux Victimes D'Octobre 1985 (proprietaire).
+Parc National Boukornine is a protected area surrounding Mount Boukornine, offering stunning hiking trails where visitors can marvel at diverse flora, including vibrant orchids. This sanctuary is also home to an array of wildlife, including elusive jackals and graceful wildcats. Conveniently located at M96M+99H Parc National Boukornine, A1 in Hammam-Lif, it boasts exceptional reviews, earning a 4.1-star rating from 239 satisfied visitors.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+Restaurant Pizzeria Marakana is a restaurant located in Hammam-Lif, Tunisia. It offers a variety of dishes, including pizzas, pasta, and salads. The restaurant is open from 11:00am to 11:00pm, and is closed on Mondays. The average rating for Restaurant Pizzeria Marakana is 4.3 stars out of 5.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+OLA ENERGY HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia. It offers 24/7 service and also has an auto accessory store and an oil change service. The station is highly rated and has received 8 reviews. The station is located at GP1 Avenue de la republic hammem lif, Hmm 'nf 2050, RN1, Hammam-Lif 2050. It is in close vicinity to public transportation and offers a wide range of services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10229,14 +15423,71 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Hotel Stokholm, Cite Ibn Rachik, A Cote De La Salle Couverte Ghelela located at P993+HFH Hotel Stokholm, Cite Ibn Rachik, A Cote De La Salle Couverte Ghelela, Hammam-Lif. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:00-23:00, but closed on []. To get there, use these GPS coordinates: 36.7255857, 10.3437438. For more details, visit their website at https://www.google.com/maps/place/Hotel+Stokholm,+Cit%C3%A9+Ibn+Rachik,+%C3%80+C%C3%B4t%C3%A9+De+La+Salle+Couverte+Ghelela/data=!4m7!3m6!1s0x12fd4ed5b769cfcb:0x1afcfc4e21cad9d2!8m2!3d36.7189448!4d10.3537488!16s%2Fg%2F11bzsflklk!19sChIJy89pt9VO_RIR0tnKIU78_Bo?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 928 127.</t>
+          <t>Hotel Stokholm is a 4-star hotel located in Hammam-Lif, Tunisia. The hotel offers a variety of amenities, including a restaurant, bar, and fitness center. It is conveniently located near the city center and the beach. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful. Overall, Hotel Stokholm is a great option for travelers looking for a comfortable and convenient stay in Hammam-Lif.</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
         <is>
-          <t>Where can you find a 4.0-rated destination perfect for restaurant lovers in hammam-lif?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant Hammam-Lif Market, offering a diverse range of local products and souvenirs.
+Mid-Morning: Visit the Memorial Aux Victimes D'Octobre 1985 to delve into the history of the tragic train disaster and its impact on the community.
+Midday: Indulge in a delightful lunch at Restaurant Erray, renowned for its authentic Tunisian cuisine and friendly service.
+Afternoon: Head to Parc National Boukornine, a breathtaking natural reserve, for a scenic hike amidst its verdant landscapes and diverse flora and fauna.
+Evening: Immerse yourself in the local culture at Larym, a renowned beauty institute offering a range of rejuvenating spa treatments and relaxing experiences.
+Night: Enjoy a memorable dining experience at Machewi Khayati, a traditional restaurant serving a variety of delectable dishes in a warm and inviting ambiance.</t>
+        </is>
+      </c>
+      <c r="AB90" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.
+The "Salon De The Jribi", located in Hammam-Lif (lon: 10.358406416192, lat: 36.721708762725), is a highly-rated cafe with a rating of 5.0 out of 5. The cafe offers patrons the opportunity to enjoy a delightful experience, with a focus on providing great service.
+Chefchouf, located in Hammam-Lif, offers mouthwatering pizzas, as evidenced by its 4.8 rating based on 6 reviews. The pizzeria is open daily from 9am to 1pm and from 5pm to 10pm, except on Mondays. Chefchouf is easily accessible at Rue docteur calmet, with coordinates (36.7188867, 10.3543151).
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Tahar Sfar is a train station located in Hammam-Lif, Tunisia. It is a popular destination for both tourists and locals. The station is well-maintained and offers a variety of services to its passengers. It is also well-connected to the rest of the city, making it easy to get to and from.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It offers a wide range of products and services, including food, clothing, and electronics. The market is located on P8FP+834 in Hammam-Lif and is open daily from 8am to 8pm.
+Hammam-Lif is a 3.6-rated Point d'eau located in Hammam-Lif, Tunisia. Its coordinates are (36.7255857, 10.3437438).
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It is dedicated to the victims of the 1985 Hammam-Lif train disaster. The museum offers a variety of exhibits on the disaster, including photographs, artifacts, and personal stories. It is a popular tourist destination for those interested in learning more about Tunisian history. The museum is located at (36.7255857, 10.3437438).
+Nestled in northern Tunisia and established in 1987, Parc National Boukornine encompasses the majestic Boukornine Mountain. Designated as a protected natural area, the park offers a vibrant ecosystem and sanctuary for diverse flora and fauna. Situated at coordinates (36.7303975, 10.3295395), it boasts an altitude of 3963 feet, providing breathtaking panoramic views. The park is a paradise for nature enthusiasts, with a network of hiking trails winding through its verdant landscapes. Within its borders, visitors can spot orchids, mammals like chacals, and elusive wildcats amidst a rich biodiversity.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+**ljbl l'khDr ltqTyr lnbtt**
+This natural food store is located in Hammam-Lif, Tunisia. It offers a variety of healthy and organic products, and is open from 9am to 6pm. It is highly recommended by its customers, who praise its quality products and friendly staff.
+**Machewi Khayati**
+Machewi Khayati is a restaurant located in Hammam-Lif, Tunisia at the address 208 Avenue de la Republique. The restaurant is open from 7:00 AM to 10:00 PM, and it serves a variety of dishes. It also has a rating of 4.3 out of 5 stars on Google reviews.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+Agil Hammam lif is a well-rated gas station with a 5-star rating on Google reviews. It is located in hammam-lif, at the coordinates (36.722854, 10.3488626).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10342,12 +15593,69 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Restaurant &amp; Salon de The AFRICANO located at P93V+Q98, Hammam-Lif. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-22:00, but closed on []. To get there, use these GPS coordinates: 5.92451, -71.18018. For more details, visit their website at or call them at 51 844 999.</t>
+          <t>Nestled in the heart of Hammam-Lif, Tunisia, lies Restaurant &amp; Salon de Thé Africano. This renowned establishment offers an unforgettable culinary experience, inviting guests to savor the captivating flavors of African cuisine in a warm and inviting atmosphere. Conveniently located at coordinates (5.92451, -71.18018), Africano welcomes patrons from 9:00 AM to 10:00 PM every day, excluding holidays.</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
         <is>
-          <t>What top-rated destination in Hammam-Lif is known for its exceptional Restaurant offerings and boasts a 5.0 rating?</t>
+          <t>Day Plan:
+Morning: Explore Hammam-Lif city center, including the Hammam-Lif Municipality for local insights and the Memorial Aux Victimes D'Octobre 1985 to delve into local history.
+Mid-Morning: Indulge in a delicious traditional Tunisian meal at the highly-rated Restaurant Erray for an authentic culinary experience. Take a guided tour of the Parc National Boukornine to admire its natural beauty and ecological significance.
+Midday: Visit Cafe Mosaique for a refreshing break, savoring their delectable offerings while soaking in the cozy ambiance. Explore ljbl l'khDr ltqTyr lnbtt for a unique shopping experience featuring organic and natural products.
+Afternoon: Enjoy the serenity of Larym beauty institute with a relaxing spa treatment, rejuvenating your mind and body.
+Evening: Head to L'UNICA Cafe Resto for a delightful dinner, savoring their culinary creations while enjoying the vibrant atmosphere.
+Night: Experience the lively nightlife at The Bet 216 H.lif casino, trying your luck at various games and immersing yourself in the energetic ambiance.</t>
+        </is>
+      </c>
+      <c r="AB91" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle, located at 8 Av. Habib Bourguiba in Hammam-Lif, is a popular spot for bubble tea lovers. Open from 10:00 to 21:30, except on Tuesdays, this cozy establishment offers a delightful selection of desserts and non-alcoholic beverages. Its average rating of 4.5 stars based on 20 reviews is a testament to its excellent service and quality offerings.
+Cafe Mosaique, located in Hammam-Lif (coordinates: 36.72951172979, 10.340563329129), is a cafe with a 4.7 rating based on 3 reviews. It offers its services from 6:00 am to midnight, every day of the week.
+Chefchouf, located in Hammam-Lif, offers mouthwatering pizzas, as evidenced by its 4.8 rating based on 6 reviews. The pizzeria is open daily from 9am to 1pm and from 5pm to 10pm, except on Mondays. Chefchouf is easily accessible at Rue docteur calmet, with coordinates (36.7188867, 10.3543151).
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Arret du Stade, a bus stop located in Hammam-Lif, Tunisia, at the coordinates (36.732743558019, 10.322633566116).
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It offers a wide range of products and services, including food, clothing, and electronics. The market is located on P8FP+834 in Hammam-Lif and is open daily from 8am to 8pm.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+In Hammam-Lif, the Memorial Aux Victimes D'Octobre 1985 is a museum located at the following coordinates: (36.7255857, 10.3437438). Currently, there are three reviews for this museum, which is owned by Memorial Aux Victimes D'Octobre 1985 (proprietaire).
+Nestled around Mount Boukornine, Parc National Boukornine is a protected haven offering picturesque hiking trails amidst nature's splendor. Located in Hammam-Lif, it boasts a diverse ecosystem with vibrant orchids, elusive chacals, and graceful wildcats. With its stunning mountain backdrop and a rich cultural heritage dating back to 1987, this park invites nature enthusiasts to explore its wonders while embracing its historical significance.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+L'UNICA Cafe Resto, located in Hammam-Lif (GPS coordinates: latitude 36.7255857 and longitude 10.3437438), offers its customers a 24/7 dining experience. With a 5.0 rating based on positive reviews, this establishment excels in the Restaurant category and has also received favorable feedback for its ambience and service. To learn more about L'UNICA Cafe Resto, visit their website or contact them directly using the provided phone number, 51 883 242.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+Agil Hammam lif is a well-rated gas station with a 5-star rating on Google reviews. It is located in hammam-lif, at the coordinates (36.722854, 10.3488626).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10445,12 +15753,69 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Gare Hammam Lif located at Gare Hammam Lif, Hammam-Lif. This top-rated destination is perfect for Gare lovers and offers a range of Gare to choose from. With a rating of 3.6, it's a must-visit spot. To get there, use these GPS coordinates: 36.7255857, 10.3437438. For more details, visit their website at https://www.google.com/maps/place/Gare+Hammam+Lif/data=!4m7!3m6!1s0x12fd493b2d86b9dd:0x67526779e8018d5f!8m2!3d36.7293916!4d10.3350717!16s%2Fg%2F1tf90ptm!19sChIJ3bmGLTtJ_RIRX40B6HlnUmc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>The Gare Hammam Lif is a railway station located in the city of hammam-lif, Tunisia. It is a popular destination for tourists and locals alike, and offers a variety of services to its visitors. The station is located at the coordinates (36.7255857, 10.3437438), and is easily accessible by car or public transportation.</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
         <is>
-          <t>Where in Hammam-Lif can you find a highly-rated destination with a wide selection of Gare options for enthusiasts, as well as detailed location information including GPS coordinates and a website URL?</t>
+          <t>Day Plan:
+Morning: Exploring Hammam-Lif Municipality, the city hall of Hammam-Lif, and learning about the local government and history.
+Mid-Morning: Visiting Memorial Aux Victimes D'Octobre 1985, a museum dedicated to the victims of the October 1985 terrorist attack, to gain insights into the event and its impact on the community.
+Midday: Trying local cuisine at Restaurant Erray, a highly-rated Tunisian restaurant known for its delicious food and friendly service, enjoying traditional Tunisian dishes for an authentic culinary experience.
+Afternoon: Enjoying scenic views at Plage, a beach pavilion located on a beautiful stretch of sandy beach with clear blue waters and stunning views of the Mediterranean Sea.
+Evening: Relaxing with a traditional hammam treatment at Larym, a renowned beauty institute offering various spa and hammam services, to rejuvenate and unwind after a day of exploration.
+Night: Participating in the lively atmosphere at The Bet 216 H.lif, a highly-rated casino with a 5.0-star rating based on one review, enjoying games of chance and entertainment.</t>
+        </is>
+      </c>
+      <c r="AB92" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.
+Cafe Rossignol is a popular cafe located in Hammam-Lif, Tunisia. It offers a pleasant atmosphere to relax or work. Visit it to appreciate its food and coffee items. It is open for long hours.
+Cafe-Restaurant 59, located in Hammam-Lif, Tunisia (36.7255857, 10.3437438), offers a delightful dining experience specializing in delectable pizzas. Open 24 hours a day, this pizzeria welcomes guests at any time, providing a convenient option for those seeking a satisfying meal. Despite lacking a website, Cafe-Restaurant 59 garners positive reviews, boasting a 4.0 rating from 10 satisfied customers. Its featured image showcases an inviting ambiance, while its main category, Pizzeria, accurately reflects the establishment's culinary focus.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Arret du Stade, a bus stop located in Hammam-Lif, Tunisia, at the coordinates (36.732743558019, 10.322633566116).
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a 3.6-rated Point d'eau located in Hammam-Lif, Tunisia. Its coordinates are (36.7255857, 10.3437438).
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It's dedicated to the victims of the October 1985 terrorist attack. The museum offers a unique opportunity to learn about this tragic event and its impact on the community. It's a place of remembrance and reflection, and a reminder of the importance of peace and reconciliation. It's a must-visit for anyone interested in the history of Tunisia and the fight against terrorism.
+Nestled around Mount Boukornine, Parc National Boukornine is a protected haven offering picturesque hiking trails amidst nature's splendor. Located in Hammam-Lif, it boasts a diverse ecosystem with vibrant orchids, elusive chacals, and graceful wildcats. With its stunning mountain backdrop and a rich cultural heritage dating back to 1987, this park invites nature enthusiasts to explore its wonders while embracing its historical significance.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+The Restaurant Hammam is located in hammam-lif. The restaurant offers a variety of food and drinks, and has a rating of 4.0 out of 5 stars. It is located at the following coordinates: (36.7255857, 10.3437438).
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+OLA ENERGY HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia. It offers 24/7 service and also has an auto accessory store and an oil change service. The station is highly rated and has received 8 reviews. The station is located at GP1 Avenue de la republic hammem lif, Hmm 'nf 2050, RN1, Hammam-Lif 2050. It is in close vicinity to public transportation and offers a wide range of services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10548,12 +15913,69 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Boukornine located at Boukornine, Hammam-Lif. This top-rated destination is perfect for Gare lovers and offers a range of Gare to choose from. With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 36.73539, 10.32855.</t>
+          <t>Boukornine is a train station located in Hammam-Lif, Tunisia. It has received 4.2 stars from 24 reviews on Google Maps. Its coordinates are (36.73539, 10.32855).</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
         <is>
-          <t>What is the top-rated destination for Gare enthusiasts in Hammam-Lif, located at GPS coordinates 36.73539, 10.32855?</t>
+          <t>Day Plan:
+Morning: Explore the historical Hammam-Lif Municipality, the city's governing body.
+Mid-Morning: Visit the Memorial Aux Victimes D'Octobre 1985, a museum dedicated to the victims of a tragic train disaster.
+Midday: Try local cuisine at Cafe-restaurant L' Opera, known for its delicious and authentic Tunisian dishes.
+Afternoon: Enjoy scenic views at Plage, a beautiful beach pavilion with clear blue waters and stunning Mediterranean Sea vistas.
+Evening: Shop for souvenirs and local products at Hammam Lif, a bustling market offering a wide range of goods.
+Night: Relax and rejuvenate with a spa treatment at Larym, a renowned beauty institute offering a variety of treatments.</t>
+        </is>
+      </c>
+      <c r="AB93" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle, located at 8 Av. Habib Bourguiba in Hammam-Lif, is a popular spot for bubble tea lovers. Open from 10:00 to 21:30, except on Tuesdays, this cozy establishment offers a delightful selection of desserts and non-alcoholic beverages. Its average rating of 4.5 stars based on 20 reviews is a testament to its excellent service and quality offerings.
+Located at P8HV+JG2 La Cafet, Mandes France, Hammam-Lif 2050, La Cafet is a highly-rated cafe (5.0 out of 5 stars based on 2 reviews) that opens daily from 6 AM to midnight. Unfortunately, there is no further information or description available about this establishment.
+Cafe-Restaurant 59 is a Pizzeria located in hammam-lif (36.7255857, 10.3437438). It is open 24 hours a day and offers a variety of pizzas. It is rated 4.0 stars by its customers.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Gare Hammam Lif is a train station in Hammam-Lif, Tunisia. It offers rail services to various destinations in the country. The station is conveniently located with the following coordinates: (36.7255857, 10.3437438).
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It offers a wide range of products and services, including food, clothing, and electronics. The market is located on P8FP+834 in Hammam-Lif and is open daily from 8am to 8pm.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It is dedicated to the victims of the 1985 Hammam-Lif train disaster. The museum offers a variety of exhibits on the disaster, including photographs, artifacts, and personal stories. It is a popular tourist destination for those interested in learning more about Tunisian history. The museum is located at (36.7255857, 10.3437438).
+Parc National Boukornine is a protected area in Tunisia, set up in 1987 around the Boukornine mountain. The park offers many hiking trails, and is home to wildlife such as orchids, chacals, and wild cats. Reviews emphasize its natural beauty, with a focus on its mountain scenery and wildlife. It is located at M96M+99H Parc National Boukornine, A1, Hammam-Lif, Tunisia and can be reached by phone at 58 905 502.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+Paname fasst food is a restaurant located in Rue Salammbo, Hammam-Lif, Tunisia. It has a rating of 4.3 based on 6 reviews, and its main category is Restaurant. It is open from 09:00 to 23:00 and can be reached by phone at 22 511 107. The restaurant's coordinates are (36.728634700847, 10.338080869607).
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+OLA ENERGY HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia. It offers 24/7 service and also has an auto accessory store and an oil change service. The station is highly rated and has received 8 reviews. The station is located at GP1 Avenue de la republic hammem lif, Hmm 'nf 2050, RN1, Hammam-Lif 2050. It is in close vicinity to public transportation and offers a wide range of services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10651,12 +16073,72 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Tahar Sfar located at Tahar Sfar, Hammam-Lif. 
-This top-rated destination is perfect for Gare lovers and offers a range of Gare to choose from. 
-With a rating of 3.7, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Tahar+Sfar/data=!4m7!3m6!1s0x12fd4ed7ea646b17:0x982676dc6dee11ea!8m2!3d36.7175239!4d10.3596742!16s%2Fg%2F1tg0h3fg!19sChIJF2tk6tdO_RIR6hHubdx2Jpg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
-        </is>
-      </c>
-      <c r="AA94" t="inlineStr"/>
+          <t>Tahar Sfar is a train station located in Hammam-Lif, Tunisia. It is a popular destination for both tourists and locals. The station is well-maintained and offers a variety of services to its passengers. It is also well-connected to the rest of the city, making it easy to get to and from.</t>
+        </is>
+      </c>
+      <c r="AA94" t="inlineStr">
+        <is>
+          <t>**Day Plan:**
+**Morning:** Explore Hammam-Lif Municipality, the city hall offering essential services.
+**Mid-Morning:** Visit Parc National Boukornine, a protected natural area with stunning views and diverse flora and fauna.
+**Midday:** Try local cuisine at Restaurant Pizzeria Marakana, known for its delicious pizzas and pasta.
+**Afternoon:** Relax with a hammam and spa treatment at Larym Beauty Institute.
+**Evening:** Engage in outdoor activities like hiking or biking in the scenic Parc National Boukornine.
+**Night:** Enjoy live music and entertainment at Bet 216 H.lif, a highly-rated casino near the Mediterranean Sea.</t>
+        </is>
+      </c>
+      <c r="AB94" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle, located at 8 Av. Habib Bourguiba in Hammam-Lif, is a popular spot for bubble tea lovers. Open from 10:00 to 21:30, except on Tuesdays, this cozy establishment offers a delightful selection of desserts and non-alcoholic beverages. Its average rating of 4.5 stars based on 20 reviews is a testament to its excellent service and quality offerings.
+Salon De The L'histoire is a cafe with a 4.3 rating located in Hammam-Lif. Located at P8JP+VG3 Rue Habib Bougatfa, it is open from 08:00-23:00 and offers a relaxing atmosphere to enjoy a cup of coffee or tea. Its phone number is 71 437 055, and you can also reach out to its owner, Salon De The L'histoire (proprietaire).
+Chefchouf, located in Hammam-Lif, offers mouthwatering pizzas, as evidenced by its 4.8 rating based on 6 reviews. The pizzeria is open daily from 9am to 1pm and from 5pm to 10pm, except on Mondays. Chefchouf is easily accessible at Rue docteur calmet, with coordinates (36.7188867, 10.3543151).
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+The Gare Hammam Lif is a railway station located in the city of hammam-lif, Tunisia. It is a popular destination for tourists and locals alike, and offers a variety of services to its visitors. The station is located at the coordinates (36.7255857, 10.3437438), and is easily accessible by car or public transportation.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It offers a wide range of products and services, including food, clothing, and electronics. The market is located on P8FP+834 in Hammam-Lif and is open daily from 8am to 8pm.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+In Hammam-Lif, the Memorial Aux Victimes D'Octobre 1985 is a museum located at the following coordinates: (36.7255857, 10.3437438). Currently, there are three reviews for this museum, which is owned by Memorial Aux Victimes D'Octobre 1985 (proprietaire).
+Nestled in northern Tunisia and established in 1987, Parc National Boukornine encompasses the majestic Boukornine Mountain. Designated as a protected natural area, the park offers a vibrant ecosystem and sanctuary for diverse flora and fauna. Situated at coordinates (36.7303975, 10.3295395), it boasts an altitude of 3963 feet, providing breathtaking panoramic views. The park is a paradise for nature enthusiasts, with a network of hiking trails winding through its verdant landscapes. Within its borders, visitors can spot orchids, mammals like chacals, and elusive wildcats amidst a rich biodiversity.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+**ljbl l'khDr ltqTyr lnbtt**
+This natural food store is located in Hammam-Lif, Tunisia. It offers a variety of healthy and organic products, and is open from 9am to 6pm. It is highly recommended by its customers, who praise its quality products and friendly staff.
+Restaurant Pizzeria Marakana is a restaurant located in Hammam-Lif, Tunisia. It offers a variety of dishes, including pizzas, pasta, and salads. The restaurant is open from 11:00am to 11:00pm, and is closed on Mondays. The average rating for Restaurant Pizzeria Marakana is 4.3 stars out of 5.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+OLA ENERGY HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia. It offers 24/7 service and also has an auto accessory store and an oil change service. The station is highly rated and has received 8 reviews. The station is located at GP1 Avenue de la republic hammem lif, Hmm 'nf 2050, RN1, Hammam-Lif 2050. It is in close vicinity to public transportation and offers a wide range of services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -10752,14 +16234,69 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Arret du Stade located at Arret du Stade, RN1, Hammam-Lif. 
-This top-rated destination is perfect for Gare lovers and offers a range of Gare to choose from. 
-With a rating of 3.6, it's a must-visit spot. To get there, use these GPS coordinates: (36.732743558019, 10.322633566116). For more details, visit their website at https://www.google.com/maps/place/Arr%C3%AAt+du+Stade/data=!4m7!3m6!1s0x12fd492c914403f1:0x502062814b520c3a!8m2!3d36.7237162!4d10.3479946!16s%2Fg%2F1tj54psr!19sChIJ8QNEkSxJ_RIROgxSS4FiIFA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Arret du Stade, a bus stop located in Hammam-Lif, Tunisia, at the coordinates (36.732743558019, 10.322633566116).</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
         <is>
-          <t>Where in Hammam-Lif can you find a top-rated destination for Gare enthusiasts, featuring a wide selection of options?</t>
+          <t>Day Plan:
+Morning: Explore Parc National Boukornine, enjoying the panoramic views and spotting wildlife.
+Mid-Morning: Visit the Memorial Aux Victimes D'Octobre 1985, learning about the tragic terrorist attack.
+Midday: Try local cuisine at Restaurant Erray, savoring the traditional Tunisian flavors.
+Afternoon: Relax at Hammam-Lif Municipality, taking advantage of the city hall's services and getting a glimpse into local governance.
+Evening: Enjoy a creperie dinner at Foret noire, indulging in both sweet and savory treats.
+Night: Experience the lively atmosphere at The Bet 216 H.lif, trying your luck at the casino games or simply enjoying the ambiance.</t>
+        </is>
+      </c>
+      <c r="AB95" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.
+Cafe Wifi, located in Hammam-Lif, Tunisia (36.7255857, 10.3437438), is a cozy cafe that offers a warm and inviting atmosphere for its customers. The cafe opens daily from 7 AM to 11 PM, providing ample time for patrons to enjoy their coffee, tea, or other beverages. Cafe Wifi's focus on customer satisfaction is evident in its positive reviews, which praise its friendly staff and relaxing ambiance.
+Cafe-Restaurant 59, located in Hammam-Lif, Tunisia (36.7255857, 10.3437438), offers a delightful dining experience specializing in delectable pizzas. Open 24 hours a day, this pizzeria welcomes guests at any time, providing a convenient option for those seeking a satisfying meal. Despite lacking a website, Cafe-Restaurant 59 garners positive reviews, boasting a 4.0 rating from 10 satisfied customers. Its featured image showcases an inviting ambiance, while its main category, Pizzeria, accurately reflects the establishment's culinary focus.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Gare Hammam Lif is a railway station located in Hammam-Lif, Tunisia. It offers convenient train services for locals and tourists alike. The station is situated at convenient coordinates of (36.7255857, 10.3437438). Additionally, Gare Hammam Lif boasts a 3.6 out of 5 stars rating, indicating its popularity and customer satisfaction.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a 3.6-rated Point d'eau located in Hammam-Lif, Tunisia. Its coordinates are (36.7255857, 10.3437438).
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It's dedicated to the victims of the October 1985 terrorist attack. The museum offers a unique opportunity to learn about this tragic event and its impact on the community. It's a place of remembrance and reflection, and a reminder of the importance of peace and reconciliation. It's a must-visit for anyone interested in the history of Tunisia and the fight against terrorism.
+Nestled in northern Tunisia and established in 1987, Parc National Boukornine encompasses the majestic Boukornine Mountain. Designated as a protected natural area, the park offers a vibrant ecosystem and sanctuary for diverse flora and fauna. Situated at coordinates (36.7303975, 10.3295395), it boasts an altitude of 3963 feet, providing breathtaking panoramic views. The park is a paradise for nature enthusiasts, with a network of hiking trails winding through its verdant landscapes. Within its borders, visitors can spot orchids, mammals like chacals, and elusive wildcats amidst a rich biodiversity.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+Ghalya cuisine et conserves is a restaurant located in Hammam-Lif, Tunisia, at the coordinates (36.7255857, 10.3437438). It has received 2 reviews and has a rating of 5.0. The restaurant offers cuisine and conserves and is open from 09:00-17:00, except on Sundays.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Restaurant Metro is a fast-food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast-food options, including burgers, sandwiches, and pizzas. The restaurant is open from 11:00 AM to 12:00 AM, seven days a week. It is located at 002, Av Habib Bourguiba, +2+, Hammam-Lif 2050. The restaurant has a rating of 4.4 stars on Google Maps, based on 14 reviews.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+OLA ENERGY HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia. It offers 24/7 service and also has an auto accessory store and an oil change service. The station is highly rated and has received 8 reviews. The station is located at GP1 Avenue de la republic hammem lif, Hmm 'nf 2050, RN1, Hammam-Lif 2050. It is in close vicinity to public transportation and offers a wide range of services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10869,14 +16406,70 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a reliable station, check out TotalEnergies HAMMAM LIF located at N1 59 Av la Republique. 
-This top-rated destination is perfect for those seeking a reliable station and offers a range of services to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open 24 hours a day, providing convenience to its customers. To get there, use these GPS coordinates: 36.7287, 10.333. For more details, visit their website at https://services.totalenergies.tn/ or call them at 71 290 355.</t>
+          <t>TotalEnergies HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia, at the coordinates (36.7287, 10.333). The gas station is open 24 hours a day and offers a wide range of services, including fuel, car wash, and oil change. TotalEnergies HAMMAM LIF also has a convenience store that sells snacks, drinks, and other items.</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated filling station with a convenient 24-hour service in the Hammam-Lif area?</t>
+          <t>Day Plan:
+Morning: Start your day with a revitalizing walk through Parc National Boukornine, immersing yourself in its lush greenery and diverse wildlife.
+Mid-Morning: Visit the Memorial Aux Victimes D'Octobre 1985, a poignant museum that commemorates the victims of a tragic rail disaster, providing insights into Tunisian history.
+Midday: Indulge in the authentic flavors of Tunisian cuisine at Restaurant Erray, renowned for its delectable traditional dishes and warm hospitality.
+Afternoon: Stroll through the vibrant Hammam Lif Market, a bustling hub where you can browse local goods and handicrafts, immersing yourself in the local culture.
+Evening: As the sun sets, head to The Bet 216 H.lif, a sophisticated casino boasting stunning Mediterranean Sea views, and try your luck at various games of chance.
+Night: Conclude your day at Cafe-restaurant L' Opera, a charming diner that serves delectable dishes around the clock, providing the perfect ambiance to unwind and reflect on your memorable day.</t>
+        </is>
+      </c>
+      <c r="AB96" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.
+Located at P8HV+JG2 La Cafet, Mandes France, Hammam-Lif 2050, La Cafet is a highly-rated cafe (5.0 out of 5 stars based on 2 reviews) that opens daily from 6 AM to midnight. Unfortunately, there is no further information or description available about this establishment.
+Cafe-Restaurant 59 is a Pizzeria located in hammam-lif (36.7255857, 10.3437438). It is open 24 hours a day and offers a variety of pizzas. It is rated 4.0 stars by its customers.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Gare Hammam Lif is a railway station located in Hammam-Lif, Tunisia. It offers convenient train services for locals and tourists alike. The station is situated at convenient coordinates of (36.7255857, 10.3437438). Additionally, Gare Hammam Lif boasts a 3.6 out of 5 stars rating, indicating its popularity and customer satisfaction.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It is dedicated to the victims of the 1985 Hammam-Lif train disaster. The museum offers a variety of exhibits on the disaster, including photographs, artifacts, and personal stories. It is a popular tourist destination for those interested in learning more about Tunisian history. The museum is located at (36.7255857, 10.3437438).
+Parc National Boukornine is a protected area surrounding Mount Boukornine, offering stunning hiking trails where visitors can marvel at diverse flora, including vibrant orchids. This sanctuary is also home to an array of wildlife, including elusive jackals and graceful wildcats. Conveniently located at M96M+99H Parc National Boukornine, A1 in Hammam-Lif, it boasts exceptional reviews, earning a 4.1-star rating from 239 satisfied visitors.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+**ljbl l'khDr ltqTyr lnbtt**
+This natural food store is located in Hammam-Lif, Tunisia. It offers a variety of healthy and organic products, and is open from 9am to 6pm. It is highly recommended by its customers, who praise its quality products and friendly staff.
+Matador Restaurant is located at 32 Rue Hassine Bouzaiene, Hammam-Lif with coordinates (36.7255857, 10.3437438). Rated 4.5 based on 2 reviews, it's open from 11:00-23:00, except on Sunday. It's a restaurant that offers a variety of dishes.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Restaurant Metro is a fast-food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast-food options, including burgers, sandwiches, and pizzas. The restaurant is open from 11:00 AM to 12:00 AM, seven days a week. It is located at 002, Av Habib Bourguiba, +2+, Hammam-Lif 2050. The restaurant has a rating of 4.4 stars on Google Maps, based on 14 reviews.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+Agil Hammam lif is a well-rated gas station with a 5-star rating on Google reviews. It is located in hammam-lif, at the coordinates (36.722854, 10.3488626).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10974,12 +16567,70 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a train station, check out by'r lby located at by'r lby, P1, Hammam-Lif. This top-rated destination is perfect for train station lovers. With a rating of 3.1, it's a must-visit spot. To get there, use these GPS coordinates: 36.7255857, 10.3437438.</t>
+          <t>by'r lby offers a range of services to meet the needs of its customers. It has 13 reviews and a rating of 3.1. Located at (36.7255857, 10.3437438) in the city of hammam-lif, by'r lby is easily accessible.</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
         <is>
-          <t>Where is the top-rated train station in Hammam-Lif, known for its exceptional location?</t>
+          <t>Day Plan:
+Morning: Explore the lively Hammam Lif Market for local goods and souvenirs.
+Mid-Morning: Visit the historic Hammam-Lif Municipality to learn about the city's history and culture.
+Midday: Indulge in a delicious lunch at the highly-rated Restaurant Erray, savoring traditional Tunisian cuisine.
+Afternoon: Relax and rejuvenate at Larym beauty institute with a spa or hammam treatment.
+Evening: Enjoy scenic views and a leisurely stroll along Plage, the beautiful beach pavilion.
+Night: Experience the vibrant nightlife at The Bet 216 H.lif casino, trying your luck at various games.</t>
+        </is>
+      </c>
+      <c r="AB97" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle is a bubble tea shop that offers a variety of bubble tea flavors, as well as other desserts and drinks. It is located in Hammam-Lif, Tunisia, at the coordinates (36.749742807238, 10.31095410246). The shop is open from 10:00-21:30 every day except Tuesday.
+Cafe el Warda is a cafe located in hammam-lif, Tunisia at the coordinates (36.721407909282, 10.358516541477). It is open 24 hours a day and offers a variety of cafe-style food and drinks. It has a rating of 5.0 stars based on one review.
+Chefchouf, located in Hammam-Lif, offers mouthwatering pizzas, as evidenced by its 4.8 rating based on 6 reviews. The pizzeria is open daily from 9am to 1pm and from 5pm to 10pm, except on Mondays. Chefchouf is easily accessible at Rue docteur calmet, with coordinates (36.7188867, 10.3543151).
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Gare Hammam Lif is a railway station located in Hammam-Lif, Tunisia. It offers convenient train services for locals and tourists alike. The station is situated at convenient coordinates of (36.7255857, 10.3437438). Additionally, Gare Hammam Lif boasts a 3.6 out of 5 stars rating, indicating its popularity and customer satisfaction.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It's dedicated to the victims of the October 1985 terrorist attack. The museum offers a unique opportunity to learn about this tragic event and its impact on the community. It's a place of remembrance and reflection, and a reminder of the importance of peace and reconciliation. It's a must-visit for anyone interested in the history of Tunisia and the fight against terrorism.
+Nestled in northern Tunisia and established in 1987, Parc National Boukornine encompasses the majestic Boukornine Mountain. Designated as a protected natural area, the park offers a vibrant ecosystem and sanctuary for diverse flora and fauna. Situated at coordinates (36.7303975, 10.3295395), it boasts an altitude of 3963 feet, providing breathtaking panoramic views. The park is a paradise for nature enthusiasts, with a network of hiking trails winding through its verdant landscapes. Within its borders, visitors can spot orchids, mammals like chacals, and elusive wildcats amidst a rich biodiversity.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+**ljbl l'khDr ltqTyr lnbtt**
+This natural food store is located in Hammam-Lif, Tunisia. It offers a variety of healthy and organic products, and is open from 9am to 6pm. It is highly recommended by its customers, who praise its quality products and friendly staff.
+Matador Restaurant is located at 32 Rue Hassine Bouzaiene, Hammam-Lif with coordinates (36.7255857, 10.3437438). Rated 4.5 based on 2 reviews, it's open from 11:00-23:00, except on Sunday. It's a restaurant that offers a variety of dishes.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+Agil Hammam lif is a well-rated gas station with a 5-star rating on Google reviews. It is located in hammam-lif, at the coordinates (36.722854, 10.3488626).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11085,12 +16736,70 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for a reliable gas station, OLA ENERGY HAMMAM LIF is a top-rated option. Located at GP1 Avenue de la republic hammem lif, Hmm 'nf 2050, RN1, Hammam-Lif 2050, it offers a range of services, including gas, auto accessories, and oil change. With a rating of 4.0, it's a popular spot among locals. It's open 24 hours a day, so you can always count on it when you need fuel or other services. For more details, visit their website at https://www.google.com/maps/place/OLA+ENERGY+HAMMAM+LIF/data=!4m7!3m6!1s0x12fd493d669489bf:0xd9ebe22dadf9f7d3!8m2!3d36.7315293!4d10.3277871!16s%2Fg%2F1hf08lrr1!19sChIJv4mUZj1J_RIR0_f5rS3i69k?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 27 258 208.</t>
+          <t>OLA ENERGY HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia. It offers 24/7 service and also has an auto accessory store and an oil change service. The station is highly rated and has received 8 reviews. The station is located at GP1 Avenue de la republic hammem lif, Hmm 'nf 2050, RN1, Hammam-Lif 2050. It is in close vicinity to public transportation and offers a wide range of services.</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
         <is>
-          <t>Where can you find a reliable gas station that operates 24/7 in Hammam-Lif?</t>
+          <t>Day Plan:
+Morning: Exploring the vibrant Hammam-Lif Market, offering a range of goods from food to electronics.
+Mid-Morning: Trying local cuisine at Pizzeria PORTANOVA, renowned for its delectable pizzas and Italian specialties.
+Midday: Visiting the Memorial Aux Victimes D'Octobre 1985, a museum commemorating a tragic event.
+Afternoon: Enjoying scenic views at Plage, a beautiful beach pavilion with crystal-clear waters and golden sands.
+Evening: Experiencing cultural immersion at BiancoNero, a charming tea room with delectable offerings.
+Night: Relaxing with a traditional hammam experience at Larym, an esteemed beauty institute offering rejuvenating treatments.</t>
+        </is>
+      </c>
+      <c r="AB98" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle, located at 8 Av. Habib Bourguiba in Hammam-Lif, is a popular spot for bubble tea lovers. Open from 10:00 to 21:30, except on Tuesdays, this cozy establishment offers a delightful selection of desserts and non-alcoholic beverages. Its average rating of 4.5 stars based on 20 reviews is a testament to its excellent service and quality offerings.
+Biz-ART Coffee Club, located at P8JQ+4PM Biz-ART Coffee Club, Rue Salammbo, Hammam-Lif (36.7255857, 10.3437438), is a popular cafe frequented by satisfied patrons. It offers a range of refreshments to delight coffee enthusiasts, with average ratings of 4.0. It operates daily from 6:00-23:00 except on days it is closed.
+Cafe-Restaurant 59, located in Hammam-Lif, Tunisia (36.7255857, 10.3437438), offers a delightful dining experience specializing in delectable pizzas. Open 24 hours a day, this pizzeria welcomes guests at any time, providing a convenient option for those seeking a satisfying meal. Despite lacking a website, Cafe-Restaurant 59 garners positive reviews, boasting a 4.0 rating from 10 satisfied customers. Its featured image showcases an inviting ambiance, while its main category, Pizzeria, accurately reflects the establishment's culinary focus.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Arret du Stade, a bus stop located in Hammam-Lif, Tunisia, at the coordinates (36.732743558019, 10.322633566116).
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It offers a wide range of products and services, including food, clothing, and electronics. The market is located on P8FP+834 in Hammam-Lif and is open daily from 8am to 8pm.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+In Hammam-Lif, the Memorial Aux Victimes D'Octobre 1985 is a museum located at the following coordinates: (36.7255857, 10.3437438). Currently, there are three reviews for this museum, which is owned by Memorial Aux Victimes D'Octobre 1985 (proprietaire).
+Parc National Boukornine is a protected area in Tunisia, set up in 1987 around the Boukornine mountain. The park offers many hiking trails, and is home to wildlife such as orchids, chacals, and wild cats. Reviews emphasize its natural beauty, with a focus on its mountain scenery and wildlife. It is located at M96M+99H Parc National Boukornine, A1, Hammam-Lif, Tunisia and can be reached by phone at 58 905 502.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+**ljbl l'khDr ltqTyr lnbtt**
+This natural food store is located in Hammam-Lif, Tunisia. It offers a variety of healthy and organic products, and is open from 9am to 6pm. It is highly recommended by its customers, who praise its quality products and friendly staff.
+Pizzeria PORTANOVA, located in Hammam-Lif (coordinates: 36.7255857, 10.3437438), offers a delicious dining experience with an extensive menu of pizzas and other Italian specialties. It is highly rated (4.9 out of 5), has received 10 reviews, and is open from 3 PM to midnight, except for Mondays.
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Restaurant Metro is a fast-food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast-food options, including burgers, sandwiches, and pizzas. The restaurant is open from 11:00 AM to 12:00 AM, seven days a week. It is located at 002, Av Habib Bourguiba, +2+, Hammam-Lif 2050. The restaurant has a rating of 4.4 stars on Google Maps, based on 14 reviews.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+OLA ENERGY HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia. It offers 24/7 service and also has an auto accessory store and an oil change service. The station is highly rated and has received 8 reviews. The station is located at GP1 Avenue de la republic hammem lif, Hmm 'nf 2050, RN1, Hammam-Lif 2050. It is in close vicinity to public transportation and offers a wide range of services.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11188,14 +16897,69 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>If you're in hammam-lif and looking for something fun to do, check out Agil Hammam lif located at P8FX+4HR Agil Hammam lif, P1, Hammam-Lif. 
-This top-rated destination is perfect for Station-service lovers. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.722854, 10.3488626. For more details, visit their website at https://www.google.com/maps/place/Agil+Hammam+lif/data=!4m7!3m6!1s0x12fd49edf102131f:0x2bed98856e73d259!8m2!3d36.722824!4d10.348882!16s%2Fg%2F11l1q6tfr7!19sChIJHxMC8e1J_RIRWdJzboWY7Ss?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Agil Hammam lif is a well-rated gas station with a 5-star rating on Google reviews. It is located in hammam-lif, at the coordinates (36.722854, 10.3488626).</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated (5.0 stars) Station-service destination in Hammam-Lif, Tunisia?</t>
+          <t>Day Plan:
+Morning: Explore Hammam-Lif Market for local goods and souvenirs.
+Mid-Morning: Visit the Memorial Aux Victimes D'Octobre 1985 to learn about the city's history.
+Midday: Savor authentic Tunisian cuisine at Restaurant Erray.
+Afternoon: Relax and rejuvenate with a spa treatment at Larym.
+Evening: Enjoy a romantic dinner at Cafe-Restaurant L' Opera for scenic views of the city.
+Night: Experience the electric atmosphere at The Bet 216 Casino.</t>
+        </is>
+      </c>
+      <c r="AB99" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Let's Waffle, located at 8 Av. Habib Bourguiba in Hammam-Lif, is a popular spot for bubble tea lovers. Open from 10:00 to 21:30, except on Tuesdays, this cozy establishment offers a delightful selection of desserts and non-alcoholic beverages. Its average rating of 4.5 stars based on 20 reviews is a testament to its excellent service and quality offerings.
+Located at P8HV+JG2 La Cafet, Mandes France, Hammam-Lif 2050, La Cafet is a highly-rated cafe (5.0 out of 5 stars based on 2 reviews) that opens daily from 6 AM to midnight. Unfortunately, there is no further information or description available about this establishment.
+Cafe-Restaurant 59, located in Hammam-Lif, Tunisia (36.7255857, 10.3437438), offers a delightful dining experience specializing in delectable pizzas. Open 24 hours a day, this pizzeria welcomes guests at any time, providing a convenient option for those seeking a satisfying meal. Despite lacking a website, Cafe-Restaurant 59 garners positive reviews, boasting a 4.0 rating from 10 satisfied customers. Its featured image showcases an inviting ambiance, while its main category, Pizzeria, accurately reflects the establishment's culinary focus.
+BiancoNero is a tea room located in Hammam-Lif, Tunisia. It has 4 reviews, a rating of 4.3 out of 5, and is open from 2 PM to 10 PM. The tea room can be found at 2, Avenue de l'independance, Hammam-Lif.
+Tahar Sfar is a train station located in Hammam-Lif, Tunisia. It is a popular destination for both tourists and locals. The station is well-maintained and offers a variety of services to its passengers. It is also well-connected to the rest of the city, making it easy to get to and from.
+Game Zone hammam-lif is a gaming centre located in hammam-lif, Tunisia. It offers a variety of video games and other gaming activities. The centre is located at the coordinates (36.7255857, 10.3437438).
+Larym is a renowned beauty institute situated at 04 Avenue de la Republique in Hammam-Lif, Tunisia. It has received 14 reviews, with an overall rating of 3.9. Their website at http://www.larym.tn/ provides further details about their services. The institute offers various treatments such as spa, hammam, and other beauty services. It operates from Tuesday to Sunday between 9:00 AM and 6:00 PM, remaining closed on Mondays. Contact them at 23 440 359 for appointments or inquiries.
+Hammam Lif is a market located in Hammam-Lif, Tunisia. It is a popular destination for locals and tourists alike, offering a wide variety of goods and services. The market is open daily from 8am to 8pm, and is located at P8FP+834 Hammam lif, Hammam-Lif.
+Hammam-Lif is a place marked by a point of water in Tunisia, located at coordinates (36.7313083, 10.3490877). This place has a rating of 3.6 according to 10 reviews left by users.
+Electro Nabli is a furniture and decoration store located in Hammam-Lif, Tunisia. It is situated at coordinates (36.7188867, 10.3543151) and offers a wide range of home furnishing and decor items. The store is open from 8:30 AM to 7:30 PM and has received an average rating of 3.9 based on 8 reviews.
+Plage is a beach pavilion located in Hammam-Lif, Tunisia. It offers a variety of services and amenities, including sun loungers, umbrellas, and a bar and restaurant. The beach pavilion is situated on a beautiful stretch of sandy beach, with clear blue waters and stunning views of the Mediterranean Sea. It is a popular spot for swimming, sunbathing, and relaxing. The coordinates of the beach pavilion are (36.7255857, 10.3437438).
+The Bet 216 H.lif is a casino located near the Mediterranean Sea in Hammam-Lif. Its exact coordinates are (36.7255857, 10.3437438). The casino is highly rated with 5.0 stars based on 1 review.
+Banette is a bakery located in Hammam-Lif, Tunisia. It is rated 5.0 stars based on one review. The bakery's exact location is at longitude 10.3437438 and latitude 36.7255857.
+This place, known as the Hammam-Lif Municipality, is the city hall of Hammam-Lif, Tunisia, which is situated at 36.7284639 latitude and 10.3336672 longitude. The municipality offers various services to the community, making it a vital part of the city's infrastructure.
+The Memorial Aux Victimes D'Octobre 1985 is a museum located in Hammam-Lif, Tunisia. It's dedicated to the victims of the October 1985 terrorist attack. The museum offers a unique opportunity to learn about this tragic event and its impact on the community. It's a place of remembrance and reflection, and a reminder of the importance of peace and reconciliation. It's a must-visit for anyone interested in the history of Tunisia and the fight against terrorism.
+Nestled in northern Tunisia and established in 1987, Parc National Boukornine encompasses the majestic Boukornine Mountain. Designated as a protected natural area, the park offers a vibrant ecosystem and sanctuary for diverse flora and fauna. Situated at coordinates (36.7303975, 10.3295395), it boasts an altitude of 3963 feet, providing breathtaking panoramic views. The park is a paradise for nature enthusiasts, with a network of hiking trails winding through its verdant landscapes. Within its borders, visitors can spot orchids, mammals like chacals, and elusive wildcats amidst a rich biodiversity.
+Mariem Onglerie et beaute is a nail salon located in Hammam-Lif, Tunisia. It offers all kinds of nail treatments, including manicures, pedicures, and nail art. The salon is known for its high-quality work and friendly staff.
+ljbl l'khDr ltqTyr lnbtt, located in Hammam-Lif (36.7255857, 10.3437438), is a natural food store offering a wide variety of organic and natural products to its customers. With a rating of 5.0, it is known for its high-quality products and excellent service. The store is open from 9:00 AM to 6:00 PM, and can be contacted by phone at 23 809 349.
+Creche Ile au Tresor is a restaurant located in Hammam-Lif, Tunisia. It is open 24 hours a day and offers a variety of food options. The restaurant has a 4.0 rating on Google and is located at the coordinates (36.733289598091, 10.323450671271).
+Foret noire is a creperie located in Hammam-Lif, Tunisia. It's open from 12:00-23:00, and closed on Mondays. The creperie has a 4.4-star rating, and serves both sweet and savory crepes.
+Fast-food kahlewi is a fast food restaurant located in Hammam-Lif, Tunisia. It offers a variety of fast food options, including sandwiches, burgers, and fries. The restaurant is open daily from 8am to 7pm. It is located at the coordinates 36.747038652609, 10.308746266612.
+Cafe-restaurant L' Opera is a diner in Hammam-Lif that offers a 24/7 service. Located at Avenue Hedi Chaker, it has a 4.3 rating based on 6 reviews. Its main category is Diner.
+Restaurant Erray is a highly-rated Tunisian restaurant located in P8QJ+223 Hammam-Lif, Tunisia. It is open 24 hours a day and offers a wide variety of traditional Tunisian dishes. The restaurant has one review with a 5.0 rating. It is known for its delicious food and friendly service.
+TotalEnergies HAMMAM LIF is a gas station located in Hammam-Lif, Tunisia, at the coordinates (36.7287, 10.333). The gas station is open 24 hours a day and offers a wide range of services, including fuel, car wash, and oil change. TotalEnergies HAMMAM LIF also has a convenience store that sells snacks, drinks, and other items.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
